--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Income" sheetId="4" r:id="rId3"/>
     <sheet name="Education" sheetId="5" r:id="rId4"/>
     <sheet name="Policies" sheetId="6" r:id="rId5"/>
-    <sheet name="Rotated (old)" sheetId="1" r:id="rId6"/>
+    <sheet name="Wealth tax" sheetId="8" r:id="rId6"/>
+    <sheet name="Rotated (old)" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="262">
   <si>
     <t>France</t>
   </si>
@@ -683,12 +684,147 @@
   </si>
   <si>
     <t>Modernización y simplificación de los procedimientos administrativos / desgravar la vivienda en los impuestos e impulsar el campo</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>III-II+I/2</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Modifzierte Daten + Ausweicheffekte (modest evasion)</t>
+  </si>
+  <si>
+    <t>affected pop-share</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>GDP World Bank https://data.worldbank.org/indicator/NY.GDP.MKTP.CN?end=2018&amp;locations=ES-FR-DE&amp;start=2017</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>UE22</t>
+  </si>
+  <si>
+    <t>cf. Kapeller et al. (2021)</t>
+  </si>
+  <si>
+    <t>Tax rates</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Av. wealth</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>50M</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>500M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M€ threshold if av. wealth = </t>
+  </si>
+  <si>
+    <t>DE+ES+FR+IT</t>
+  </si>
+  <si>
+    <t>of UE22 GDP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -744,10 +880,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -757,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -790,6 +952,50 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1079,12 +1285,12 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="58.453125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -1122,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>42</v>
       </c>
@@ -1156,7 +1362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
@@ -1184,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -1212,7 +1418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>66</v>
       </c>
@@ -1249,7 +1455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>67</v>
       </c>
@@ -1274,7 +1480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -1305,7 +1511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1319,7 +1525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>68</v>
       </c>
@@ -1354,7 +1560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>57</v>
       </c>
@@ -1383,7 +1589,7 @@
         <v>285.30725980380089</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>43</v>
       </c>
@@ -1415,7 +1621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1658,7 @@
         <v>23.777393803164124</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>55</v>
       </c>
@@ -1486,7 +1692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
@@ -1551,7 +1757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -1585,7 +1791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -1619,7 +1825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1628,7 +1834,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
@@ -1657,7 +1863,7 @@
         <v>4.5731003235390304E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>50</v>
       </c>
@@ -1683,7 +1889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>70</v>
       </c>
@@ -1712,7 +1918,7 @@
         <v>1.2406821177761389E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>49</v>
       </c>
@@ -1738,7 +1944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -1764,7 +1970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>72</v>
       </c>
@@ -1775,7 +1981,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -1812,7 +2018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -1846,7 +2052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
@@ -1915,7 +2121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
@@ -1932,7 +2138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +2175,7 @@
         <v>1.2502978755717004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
@@ -2000,7 +2206,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -2031,7 +2237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>56</v>
       </c>
@@ -2060,7 +2266,7 @@
         <v>264.04020802872463</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2303,7 @@
         <v>66.860665696107034</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>106</v>
       </c>
@@ -2119,445 +2325,445 @@
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
     </row>
   </sheetData>
@@ -2574,12 +2780,12 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2590,7 +2796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2601,7 +2807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2612,7 +2818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2631,7 +2837,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2639,22 +2845,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2672,12 +2878,12 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -2721,7 +2927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2771,7 +2977,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2821,7 +3027,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -2871,7 +3077,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +3124,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -2965,7 +3171,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3025,15 +3231,15 @@
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -3059,7 +3265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -3088,7 +3294,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -3117,7 +3323,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -3146,7 +3352,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3172,12 +3378,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3206,7 +3412,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>146</v>
       </c>
@@ -3221,21 +3427,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="6" max="6" width="50.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3252,7 +3458,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -3272,14 +3478,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -3299,7 +3505,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -3316,7 +3522,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -3336,7 +3542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>176</v>
       </c>
@@ -3356,7 +3562,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -3376,7 +3582,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -3396,7 +3602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -3416,7 +3622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -3436,7 +3642,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>177</v>
       </c>
@@ -3456,7 +3662,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>174</v>
       </c>
@@ -3476,47 +3682,47 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E26" s="19" t="s">
         <v>201</v>
       </c>
@@ -3524,22 +3730,22 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>166</v>
       </c>
@@ -3556,7 +3762,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>208</v>
       </c>
@@ -3573,7 +3779,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>210</v>
       </c>
@@ -3581,12 +3787,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
         <v>170</v>
       </c>
@@ -3599,21 +3805,1188 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="26">
+        <f>I2-F2+C2/2</f>
+        <v>2.9663540052139933E-2</v>
+      </c>
+      <c r="C2" s="27">
+        <f>D2/$O2</f>
+        <v>2.123131602857601E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>71504100000</v>
+      </c>
+      <c r="E2" s="28">
+        <v>4.0565200000000003E-2</v>
+      </c>
+      <c r="F2" s="27">
+        <f>G2/$O2</f>
+        <v>2.5839078821566216E-2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>87022400000</v>
+      </c>
+      <c r="H2" s="28">
+        <v>4.0565200000000003E-2</v>
+      </c>
+      <c r="I2" s="27">
+        <f>J2/$O2</f>
+        <v>4.4886960859418144E-2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>151173000000</v>
+      </c>
+      <c r="K2" s="28">
+        <v>1.30832E-2</v>
+      </c>
+      <c r="L2" s="27">
+        <f>M2/$O2</f>
+        <v>0.17815467388786946</v>
+      </c>
+      <c r="M2">
+        <v>600000000000</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.40048800000000001</v>
+      </c>
+      <c r="O2" s="29">
+        <v>3367860000000</v>
+      </c>
+      <c r="P2" s="7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="26">
+        <f t="shared" ref="B3:B6" si="0">I3-F3+C3/2</f>
+        <v>7.413324978246579E-3</v>
+      </c>
+      <c r="C3" s="27">
+        <f t="shared" ref="C3:C4" si="1">D3/$O3</f>
+        <v>1.0931229269841322E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>13153100000</v>
+      </c>
+      <c r="E3" s="28">
+        <v>3.7114300000000003E-2</v>
+      </c>
+      <c r="F3" s="27">
+        <f t="shared" ref="F3:F4" si="2">G3/$O3</f>
+        <v>1.1095865478670842E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>13351200000</v>
+      </c>
+      <c r="H3" s="28">
+        <v>3.7114300000000003E-2</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" ref="I3:I4" si="3">J3/$O3</f>
+        <v>1.3043575821996761E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>15694800000</v>
+      </c>
+      <c r="K3" s="28">
+        <v>9.8881999999999998E-3</v>
+      </c>
+      <c r="L3" s="27">
+        <f t="shared" ref="L3:L4" si="4">M3/$O3</f>
+        <v>3.3001539984325902E-2</v>
+      </c>
+      <c r="M3">
+        <v>39709400000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.47681800000000002</v>
+      </c>
+      <c r="O3" s="29">
+        <v>1203259000000</v>
+      </c>
+      <c r="P3" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="26">
+        <f t="shared" si="0"/>
+        <v>1.4294805666299665E-2</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1845017107391087E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27993400000</v>
+      </c>
+      <c r="E4" s="28">
+        <v>3.2785700000000001E-2</v>
+      </c>
+      <c r="F4" s="27">
+        <f t="shared" si="2"/>
+        <v>1.3806802843135844E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>32629700000</v>
+      </c>
+      <c r="H4" s="28">
+        <v>3.2785700000000001E-2</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" si="3"/>
+        <v>2.2179099955739967E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>52416000000</v>
+      </c>
+      <c r="K4" s="28">
+        <v>8.2307700000000001E-3</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" si="4"/>
+        <v>7.879428224698791E-2</v>
+      </c>
+      <c r="M4">
+        <v>186215000000</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.48079699999999997</v>
+      </c>
+      <c r="O4" s="29">
+        <v>2363306000000</v>
+      </c>
+      <c r="P4" s="7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="37">
+        <f t="shared" si="0"/>
+        <v>6.7924723842481506E-3</v>
+      </c>
+      <c r="C5" s="31">
+        <f>D5/$O5</f>
+        <v>1.3584944768496301E-2</v>
+      </c>
+      <c r="D5">
+        <v>24119200000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.48489E-2</v>
+      </c>
+      <c r="F5" s="30">
+        <f>D5/$O5</f>
+        <v>1.3584944768496301E-2</v>
+      </c>
+      <c r="G5">
+        <v>28129200000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.48489E-2</v>
+      </c>
+      <c r="I5" s="30">
+        <f>D5/$O5</f>
+        <v>1.3584944768496301E-2</v>
+      </c>
+      <c r="J5">
+        <v>44106600000</v>
+      </c>
+      <c r="K5" s="5">
+        <v>6.3352E-3</v>
+      </c>
+      <c r="L5" s="31">
+        <f t="shared" ref="L3:L6" si="5">M5/$O5</f>
+        <v>8.2353855616310589E-2</v>
+      </c>
+      <c r="M5">
+        <v>146214000000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.507243</v>
+      </c>
+      <c r="O5" s="32">
+        <v>1775436000000</v>
+      </c>
+      <c r="P5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="37">
+        <f t="shared" si="0"/>
+        <v>1.9591908527587298E-2</v>
+      </c>
+      <c r="C6" s="42">
+        <f>D6/$O6</f>
+        <v>1.5702868277691229E-2</v>
+      </c>
+      <c r="D6" s="41">
+        <f>SUM(D2:D5)</f>
+        <v>136769800000</v>
+      </c>
+      <c r="F6" s="42">
+        <f>G6/$O6</f>
+        <v>1.8500008209086229E-2</v>
+      </c>
+      <c r="G6" s="41">
+        <f>SUM(G2:G5)</f>
+        <v>161132500000</v>
+      </c>
+      <c r="I6" s="42">
+        <f>J6/$O6</f>
+        <v>3.0240482597827911E-2</v>
+      </c>
+      <c r="J6" s="41">
+        <f>SUM(J2:J5)</f>
+        <v>263390400000</v>
+      </c>
+      <c r="L6" s="42">
+        <f>M6/$O6</f>
+        <v>0.11161353780502352</v>
+      </c>
+      <c r="M6" s="41">
+        <f>SUM(M2:M5)</f>
+        <v>972138400000</v>
+      </c>
+      <c r="O6" s="32">
+        <f>SUM(O2:O5)</f>
+        <v>8709861000000</v>
+      </c>
+      <c r="P6" s="5">
+        <f>O6/O7</f>
+        <v>0.73489452187500004</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="26">
+        <f t="shared" ref="B7" si="6">I7-F7+C7/2</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>192000000000</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="39">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>224000000000</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="I7" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="J7" s="7">
+        <v>357000000000</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="39">
+        <v>0.108</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1280000000000</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="O7">
+        <f>M7/L7</f>
+        <v>11851851851851.852</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="19"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" t="s">
+        <v>250</v>
+      </c>
+      <c r="I10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" t="s">
+        <v>250</v>
+      </c>
+      <c r="M10" t="s">
+        <v>259</v>
+      </c>
+      <c r="O10" s="32">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="35">
+        <f t="shared" ref="B11:B17" si="7">I11-F11+C11/2</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <f>K11*$O$10/1000000</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M17" si="8">K12*$O$10/1000000</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="35">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="35">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>60</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="35">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="K17" s="32">
+        <v>10000</v>
+      </c>
+      <c r="L17">
+        <v>90</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20">
+        <v>11805300000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3.8989099999999999E-2</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20">
+        <v>15207700000</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3.8989099999999999E-2</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20">
+        <v>28435000000</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1.11854E-2</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21">
+        <v>10349200000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5.67772E-2</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21">
+        <v>11929000000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5.67772E-2</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21">
+        <v>18190100000</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2.07812E-2</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22">
+        <v>1854890000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9.5164600000000002E-2</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22">
+        <v>2344760000</v>
+      </c>
+      <c r="H22" s="5">
+        <v>9.5164600000000002E-2</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22">
+        <v>4234760000</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4.2202200000000002E-2</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23">
+        <v>562322000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.21885E-2</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23">
+        <v>617912000</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1.21885E-2</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23">
+        <v>654576000</v>
+      </c>
+      <c r="K23" s="5">
+        <v>4.6468000000000004E-3</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <v>1769430000</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.4346699999999999E-2</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24">
+        <v>1687670000</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2.4346699999999999E-2</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24">
+        <v>1458560000</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5.9619900000000003E-3</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25">
+        <v>967764000</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.92742E-3</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25">
+        <v>1179450000</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2.92742E-3</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25">
+        <v>1697440000</v>
+      </c>
+      <c r="K25" s="5">
+        <v>6.751950000000001E-5</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26">
+        <v>1044440000</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5.7337000000000004E-3</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26">
+        <v>1135210000</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5.7337000000000004E-3</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26">
+        <v>1171190000</v>
+      </c>
+      <c r="K26" s="5">
+        <v>2.7984199999999998E-3</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27">
+        <v>1152660000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.7007999999999998E-3</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27">
+        <v>1027390000</v>
+      </c>
+      <c r="H27" s="5">
+        <v>4.7007999999999998E-3</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27">
+        <v>875014000</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1.9259699999999999E-3</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28">
+        <v>3516000000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>7.9072999999999991E-2</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28">
+        <v>3731260000</v>
+      </c>
+      <c r="H28" s="5">
+        <v>7.9072999999999991E-2</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28">
+        <v>3886050000</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2.32768E-2</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29">
+        <v>441586000.00000012</v>
+      </c>
+      <c r="E29" s="5">
+        <v>9.5982800000000007E-3</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29">
+        <v>323198000</v>
+      </c>
+      <c r="H29" s="5">
+        <v>9.5982800000000007E-3</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29">
+        <v>202741000</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1.31111E-4</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30">
+        <v>2107760000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.234762</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30">
+        <v>2578780000</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.234762</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30">
+        <v>4310250000</v>
+      </c>
+      <c r="K30" s="5">
+        <v>8.9194200000000001E-2</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31">
+        <v>68102200</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.0055400000000001E-3</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31">
+        <v>56200000</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1.0055400000000001E-3</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31">
+        <v>46969300</v>
+      </c>
+      <c r="K31" s="5">
+        <v>3.1115100000000002E-4</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32">
+        <v>625581000</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5.8450200000000001E-2</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32">
+        <v>781506000</v>
+      </c>
+      <c r="H32" s="5">
+        <v>5.8450200000000001E-2</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32">
+        <v>980810999.99999988</v>
+      </c>
+      <c r="K32" s="5">
+        <v>2.76875E-2</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33">
+        <v>8829090000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2.5381500000000001E-2</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33">
+        <v>10639300000</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2.5381500000000001E-2</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33">
+        <v>17602700000</v>
+      </c>
+      <c r="K33" s="5">
+        <v>8.5916800000000008E-3</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34">
+        <v>5884530000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4.7133899999999996E-3</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34">
+        <v>5229250000</v>
+      </c>
+      <c r="H34" s="5">
+        <v>4.7133899999999996E-3</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34">
+        <v>4093520000</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1.4427299999999999E-3</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <v>2638440000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1.6438100000000001E-2</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35">
+        <v>3193060000</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1.6438100000000001E-2</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35">
+        <v>5242770000</v>
+      </c>
+      <c r="K35" s="5">
+        <v>5.8277199999999998E-3</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36">
+        <v>291907000</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1.2645099999999999E-2</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36">
+        <v>316284000</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1.2645099999999999E-2</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36">
+        <v>397545000</v>
+      </c>
+      <c r="K36" s="5">
+        <v>4.0374499999999997E-3</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37">
+        <v>823537999.99999988</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5.59604E-3</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37">
+        <v>710702000</v>
+      </c>
+      <c r="H37" s="5">
+        <v>5.59604E-3</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37">
+        <v>539481000</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1.08854E-3</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -3712,7 +5085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3823,7 +5196,7 @@
         <v>10.992981028170488</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3932,7 +5305,7 @@
         <v>26.748460500668678</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4041,7 +5414,7 @@
         <v>4.3674700117082939</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +5515,7 @@
         <v>4.2203861131988871</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -4246,7 +5619,7 @@
         <v>20.53136804236069</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4349,7 +5722,7 @@
         <v>342.70302800903698</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -4408,7 +5781,7 @@
         <v>66.860665696107034</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -4467,7 +5840,7 @@
         <v>66.860665696107034</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -4479,7 +5852,7 @@
       </c>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4492,7 +5865,7 @@
       </c>
       <c r="AB11" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -4557,7 +5930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -4571,7 +5944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>65</v>
       </c>
@@ -4579,7 +5952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
         <v>73</v>
       </c>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Income" sheetId="4" r:id="rId3"/>
     <sheet name="Education" sheetId="5" r:id="rId4"/>
     <sheet name="Policies" sheetId="6" r:id="rId5"/>
-    <sheet name="Rotated (old)" sheetId="1" r:id="rId6"/>
+    <sheet name="Wealth tax" sheetId="7" r:id="rId6"/>
+    <sheet name="Rotated (old)" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="265">
   <si>
     <t>France</t>
   </si>
@@ -683,12 +684,156 @@
   </si>
   <si>
     <t>Modernización y simplificación de los procedimientos administrativos / desgravar la vivienda en los impuestos e impulsar el campo</t>
+  </si>
+  <si>
+    <t>€/Year</t>
+  </si>
+  <si>
+    <t>£/Year</t>
+  </si>
+  <si>
+    <t>CHF/Year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>III-II+I/2</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Modifzierte Daten + Ausweicheffekte (modest evasion)</t>
+  </si>
+  <si>
+    <t>affected pop-share</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>GDP World Bank https://data.worldbank.org/indicator/NY.GDP.MKTP.CN?end=2018&amp;locations=ES-FR-DE&amp;start=2017</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>DE+ES+FR+IT</t>
+  </si>
+  <si>
+    <t>of UE22 GDP</t>
+  </si>
+  <si>
+    <t>UE22</t>
+  </si>
+  <si>
+    <t>cf. Kapeller et al. (2021)</t>
+  </si>
+  <si>
+    <t>Tax rates</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Av. wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M€ threshold if av. wealth = </t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>50M</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>500M</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -744,10 +889,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -757,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -790,6 +961,50 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1075,8 +1290,8 @@
   <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,40 +2941,40 @@
         <v>87</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>12240</v>
       </c>
       <c r="C2">
-        <v>1250</v>
+        <v>15229</v>
       </c>
       <c r="D2">
-        <v>1350</v>
+        <v>16467</v>
       </c>
       <c r="E2">
-        <v>1500</v>
+        <v>17832</v>
       </c>
       <c r="F2">
-        <v>1700</v>
+        <v>20277</v>
       </c>
       <c r="G2">
-        <v>1900</v>
+        <v>22680</v>
       </c>
       <c r="H2">
-        <v>2100</v>
+        <v>25306</v>
       </c>
       <c r="I2">
-        <v>2350</v>
+        <v>28487</v>
       </c>
       <c r="J2">
-        <v>2550</v>
+        <v>30367</v>
       </c>
       <c r="K2">
-        <v>2750</v>
+        <v>32758</v>
       </c>
       <c r="L2">
-        <v>3450</v>
+        <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -2776,40 +2991,40 @@
         <v>88</v>
       </c>
       <c r="B3">
-        <v>1050</v>
+        <v>12638</v>
       </c>
       <c r="C3">
-        <v>1350</v>
+        <v>16328</v>
       </c>
       <c r="D3">
-        <v>1500</v>
+        <v>17830</v>
       </c>
       <c r="E3">
-        <v>1600</v>
+        <v>19166</v>
       </c>
       <c r="F3">
-        <v>1850</v>
+        <v>22018</v>
       </c>
       <c r="G3">
-        <v>2100</v>
+        <v>25015</v>
       </c>
       <c r="H3">
-        <v>2350</v>
+        <v>28374</v>
       </c>
       <c r="I3">
-        <v>2700</v>
+        <v>32543</v>
       </c>
       <c r="J3">
-        <v>2900</v>
+        <v>35054</v>
       </c>
       <c r="K3">
-        <v>3150</v>
+        <v>38056</v>
       </c>
       <c r="L3">
-        <v>4050</v>
+        <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -2826,40 +3041,40 @@
         <v>89</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>6283</v>
       </c>
       <c r="C4">
-        <v>750</v>
+        <v>9216</v>
       </c>
       <c r="D4">
-        <v>850</v>
+        <v>10291</v>
       </c>
       <c r="E4">
-        <v>950</v>
+        <v>11489</v>
       </c>
       <c r="F4">
-        <v>1150</v>
+        <v>13697</v>
       </c>
       <c r="G4">
-        <v>1300</v>
+        <v>15892</v>
       </c>
       <c r="H4">
-        <v>1550</v>
+        <v>18418</v>
       </c>
       <c r="I4">
-        <v>1800</v>
+        <v>21470</v>
       </c>
       <c r="J4">
-        <v>1950</v>
+        <v>23213</v>
       </c>
       <c r="K4">
-        <v>2100</v>
+        <v>25461</v>
       </c>
       <c r="L4">
-        <v>2650</v>
+        <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -2876,40 +3091,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>800</v>
+        <v>9648</v>
       </c>
       <c r="C5">
-        <v>1050</v>
+        <v>12544</v>
       </c>
       <c r="D5">
-        <v>1150</v>
+        <v>13840</v>
       </c>
       <c r="E5">
-        <v>1250</v>
+        <v>15066</v>
       </c>
       <c r="F5">
-        <v>1450</v>
+        <v>17548</v>
       </c>
       <c r="G5">
-        <v>1700</v>
+        <v>20275</v>
       </c>
       <c r="H5">
-        <v>1950</v>
+        <v>23362</v>
       </c>
       <c r="I5">
-        <v>2250</v>
+        <v>27074</v>
       </c>
       <c r="J5">
-        <v>2450</v>
+        <v>29458</v>
       </c>
       <c r="K5">
-        <v>2700</v>
+        <v>32398</v>
       </c>
       <c r="L5">
-        <v>3450</v>
+        <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -2923,40 +3138,40 @@
         <v>90</v>
       </c>
       <c r="B6">
-        <v>2050</v>
+        <v>24722</v>
       </c>
       <c r="C6">
-        <v>2650</v>
+        <v>31614</v>
       </c>
       <c r="D6">
-        <v>2900</v>
+        <v>34529</v>
       </c>
       <c r="E6">
-        <v>3100</v>
+        <v>37408</v>
       </c>
       <c r="F6">
-        <v>3550</v>
+        <v>42625</v>
       </c>
       <c r="G6">
-        <v>4050</v>
+        <v>48678</v>
       </c>
       <c r="H6">
-        <v>4600</v>
+        <v>54933</v>
       </c>
       <c r="I6">
-        <v>5200</v>
+        <v>62150</v>
       </c>
       <c r="J6">
-        <v>5550</v>
+        <v>66665</v>
       </c>
       <c r="K6">
-        <v>5950</v>
+        <v>71547</v>
       </c>
       <c r="L6">
-        <v>7500</v>
+        <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -3012,8 +3227,287 @@
         <v>104</v>
       </c>
     </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>1250</v>
+      </c>
+      <c r="D11">
+        <v>1350</v>
+      </c>
+      <c r="E11">
+        <v>1500</v>
+      </c>
+      <c r="F11">
+        <v>1700</v>
+      </c>
+      <c r="G11">
+        <v>1900</v>
+      </c>
+      <c r="H11">
+        <v>2100</v>
+      </c>
+      <c r="I11">
+        <v>2350</v>
+      </c>
+      <c r="J11">
+        <v>2550</v>
+      </c>
+      <c r="K11">
+        <v>2750</v>
+      </c>
+      <c r="L11">
+        <v>3450</v>
+      </c>
+      <c r="M11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>1050</v>
+      </c>
+      <c r="C12">
+        <v>1350</v>
+      </c>
+      <c r="D12">
+        <v>1500</v>
+      </c>
+      <c r="E12">
+        <v>1600</v>
+      </c>
+      <c r="F12">
+        <v>1850</v>
+      </c>
+      <c r="G12">
+        <v>2100</v>
+      </c>
+      <c r="H12">
+        <v>2350</v>
+      </c>
+      <c r="I12">
+        <v>2700</v>
+      </c>
+      <c r="J12">
+        <v>2900</v>
+      </c>
+      <c r="K12">
+        <v>3150</v>
+      </c>
+      <c r="L12">
+        <v>4050</v>
+      </c>
+      <c r="M12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>750</v>
+      </c>
+      <c r="D13">
+        <v>850</v>
+      </c>
+      <c r="E13">
+        <v>950</v>
+      </c>
+      <c r="F13">
+        <v>1150</v>
+      </c>
+      <c r="G13">
+        <v>1300</v>
+      </c>
+      <c r="H13">
+        <v>1550</v>
+      </c>
+      <c r="I13">
+        <v>1800</v>
+      </c>
+      <c r="J13">
+        <v>1950</v>
+      </c>
+      <c r="K13">
+        <v>2100</v>
+      </c>
+      <c r="L13">
+        <v>2650</v>
+      </c>
+      <c r="M13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>800</v>
+      </c>
+      <c r="C14">
+        <v>1050</v>
+      </c>
+      <c r="D14">
+        <v>1150</v>
+      </c>
+      <c r="E14">
+        <v>1250</v>
+      </c>
+      <c r="F14">
+        <v>1450</v>
+      </c>
+      <c r="G14">
+        <v>1700</v>
+      </c>
+      <c r="H14">
+        <v>1950</v>
+      </c>
+      <c r="I14">
+        <v>2250</v>
+      </c>
+      <c r="J14">
+        <v>2450</v>
+      </c>
+      <c r="K14">
+        <v>2700</v>
+      </c>
+      <c r="L14">
+        <v>3450</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>2050</v>
+      </c>
+      <c r="C15">
+        <v>2650</v>
+      </c>
+      <c r="D15">
+        <v>2900</v>
+      </c>
+      <c r="E15">
+        <v>3100</v>
+      </c>
+      <c r="F15">
+        <v>3550</v>
+      </c>
+      <c r="G15">
+        <v>4050</v>
+      </c>
+      <c r="H15">
+        <v>4600</v>
+      </c>
+      <c r="I15">
+        <v>5200</v>
+      </c>
+      <c r="J15">
+        <v>5550</v>
+      </c>
+      <c r="K15">
+        <v>5950</v>
+      </c>
+      <c r="L15">
+        <v>7500</v>
+      </c>
+      <c r="M15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>82</v>
+      </c>
+      <c r="H16">
+        <v>103</v>
+      </c>
+      <c r="I16">
+        <v>130</v>
+      </c>
+      <c r="J16">
+        <v>145</v>
+      </c>
+      <c r="K16">
+        <v>165</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3221,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3598,6 +4092,1173 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="26">
+        <f>I2-F2+C2/2</f>
+        <v>2.9663540052139933E-2</v>
+      </c>
+      <c r="C2" s="27">
+        <f>D2/$O2</f>
+        <v>2.123131602857601E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>71504100000</v>
+      </c>
+      <c r="E2" s="28">
+        <v>4.0565200000000003E-2</v>
+      </c>
+      <c r="F2" s="27">
+        <f>G2/$O2</f>
+        <v>2.5839078821566216E-2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>87022400000</v>
+      </c>
+      <c r="H2" s="28">
+        <v>4.0565200000000003E-2</v>
+      </c>
+      <c r="I2" s="27">
+        <f>J2/$O2</f>
+        <v>4.4886960859418144E-2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>151173000000</v>
+      </c>
+      <c r="K2" s="28">
+        <v>1.30832E-2</v>
+      </c>
+      <c r="L2" s="27">
+        <f>M2/$O2</f>
+        <v>0.17815467388786946</v>
+      </c>
+      <c r="M2">
+        <v>600000000000</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.40048800000000001</v>
+      </c>
+      <c r="O2" s="29">
+        <v>3367860000000</v>
+      </c>
+      <c r="P2" s="7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="26">
+        <f t="shared" ref="B3:B7" si="0">I3-F3+C3/2</f>
+        <v>7.413324978246579E-3</v>
+      </c>
+      <c r="C3" s="27">
+        <f t="shared" ref="C3:C4" si="1">D3/$O3</f>
+        <v>1.0931229269841322E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>13153100000</v>
+      </c>
+      <c r="E3" s="28">
+        <v>3.7114300000000003E-2</v>
+      </c>
+      <c r="F3" s="27">
+        <f t="shared" ref="F3:F4" si="2">G3/$O3</f>
+        <v>1.1095865478670842E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>13351200000</v>
+      </c>
+      <c r="H3" s="28">
+        <v>3.7114300000000003E-2</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" ref="I3:I4" si="3">J3/$O3</f>
+        <v>1.3043575821996761E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>15694800000</v>
+      </c>
+      <c r="K3" s="28">
+        <v>9.8881999999999998E-3</v>
+      </c>
+      <c r="L3" s="27">
+        <f t="shared" ref="L3:L5" si="4">M3/$O3</f>
+        <v>3.3001539984325902E-2</v>
+      </c>
+      <c r="M3">
+        <v>39709400000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.47681800000000002</v>
+      </c>
+      <c r="O3" s="29">
+        <v>1203259000000</v>
+      </c>
+      <c r="P3" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="26">
+        <f t="shared" si="0"/>
+        <v>1.4294805666299665E-2</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1845017107391087E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27993400000</v>
+      </c>
+      <c r="E4" s="28">
+        <v>3.2785700000000001E-2</v>
+      </c>
+      <c r="F4" s="27">
+        <f t="shared" si="2"/>
+        <v>1.3806802843135844E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>32629700000</v>
+      </c>
+      <c r="H4" s="28">
+        <v>3.2785700000000001E-2</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" si="3"/>
+        <v>2.2179099955739967E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>52416000000</v>
+      </c>
+      <c r="K4" s="28">
+        <v>8.2307700000000001E-3</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" si="4"/>
+        <v>7.879428224698791E-2</v>
+      </c>
+      <c r="M4">
+        <v>186215000000</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.48079699999999997</v>
+      </c>
+      <c r="O4" s="29">
+        <v>2363306000000</v>
+      </c>
+      <c r="P4" s="7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="31">
+        <f t="shared" si="0"/>
+        <v>6.7924723842481506E-3</v>
+      </c>
+      <c r="C5" s="32">
+        <f>D5/$O5</f>
+        <v>1.3584944768496301E-2</v>
+      </c>
+      <c r="D5">
+        <v>24119200000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.48489E-2</v>
+      </c>
+      <c r="F5" s="33">
+        <f>D5/$O5</f>
+        <v>1.3584944768496301E-2</v>
+      </c>
+      <c r="G5">
+        <v>28129200000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.48489E-2</v>
+      </c>
+      <c r="I5" s="33">
+        <f>D5/$O5</f>
+        <v>1.3584944768496301E-2</v>
+      </c>
+      <c r="J5">
+        <v>44106600000</v>
+      </c>
+      <c r="K5" s="5">
+        <v>6.3352E-3</v>
+      </c>
+      <c r="L5" s="32">
+        <f t="shared" si="4"/>
+        <v>8.2353855616310589E-2</v>
+      </c>
+      <c r="M5">
+        <v>146214000000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.507243</v>
+      </c>
+      <c r="O5" s="34">
+        <v>1775436000000</v>
+      </c>
+      <c r="P5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="31">
+        <f t="shared" si="0"/>
+        <v>1.9591908527587298E-2</v>
+      </c>
+      <c r="C6" s="36">
+        <f>D6/$O6</f>
+        <v>1.5702868277691229E-2</v>
+      </c>
+      <c r="D6" s="37">
+        <f>SUM(D2:D5)</f>
+        <v>136769800000</v>
+      </c>
+      <c r="F6" s="36">
+        <f>G6/$O6</f>
+        <v>1.8500008209086229E-2</v>
+      </c>
+      <c r="G6" s="37">
+        <f>SUM(G2:G5)</f>
+        <v>161132500000</v>
+      </c>
+      <c r="I6" s="36">
+        <f>J6/$O6</f>
+        <v>3.0240482597827911E-2</v>
+      </c>
+      <c r="J6" s="37">
+        <f>SUM(J2:J5)</f>
+        <v>263390400000</v>
+      </c>
+      <c r="L6" s="36">
+        <f>M6/$O6</f>
+        <v>0.11161353780502352</v>
+      </c>
+      <c r="M6" s="37">
+        <f>SUM(M2:M5)</f>
+        <v>972138400000</v>
+      </c>
+      <c r="O6" s="34">
+        <f>SUM(O2:O5)</f>
+        <v>8709861000000</v>
+      </c>
+      <c r="P6" s="5">
+        <f>O6/O7</f>
+        <v>0.73489452187500004</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="26">
+        <f t="shared" si="0"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>192000000000</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="39">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>224000000000</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0.03</v>
+      </c>
+      <c r="I7" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="J7" s="7">
+        <v>357000000000</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="39">
+        <v>0.108</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1280000000000</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="O7">
+        <f>M7/L7</f>
+        <v>11851851851851.852</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" t="s">
+        <v>238</v>
+      </c>
+      <c r="L10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M10" t="s">
+        <v>239</v>
+      </c>
+      <c r="O10" s="34">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="42">
+        <f t="shared" ref="B11:B17" si="5">I11-F11+C11/2</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <f>K11*$O$10/1000000</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M17" si="6">K12*$O$10/1000000</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="42">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="42">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="42">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>60</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="42">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="K17" s="34">
+        <v>10000</v>
+      </c>
+      <c r="L17">
+        <v>90</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20">
+        <v>11805300000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3.8989099999999999E-2</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20">
+        <v>15207700000</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3.8989099999999999E-2</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20">
+        <v>28435000000</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1.11854E-2</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21">
+        <v>10349200000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5.67772E-2</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21">
+        <v>11929000000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5.67772E-2</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="J21">
+        <v>18190100000</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2.07812E-2</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22">
+        <v>1854890000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9.5164600000000002E-2</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22">
+        <v>2344760000</v>
+      </c>
+      <c r="H22" s="5">
+        <v>9.5164600000000002E-2</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22">
+        <v>4234760000</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4.2202200000000002E-2</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23">
+        <v>562322000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.21885E-2</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23">
+        <v>617912000</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1.21885E-2</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23">
+        <v>654576000</v>
+      </c>
+      <c r="K23" s="5">
+        <v>4.6468000000000004E-3</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <v>1769430000</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.4346699999999999E-2</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24">
+        <v>1687670000</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2.4346699999999999E-2</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24">
+        <v>1458560000</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5.9619900000000003E-3</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25">
+        <v>967764000</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.92742E-3</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25">
+        <v>1179450000</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2.92742E-3</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25">
+        <v>1697440000</v>
+      </c>
+      <c r="K25" s="5">
+        <v>6.751950000000001E-5</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26">
+        <v>1044440000</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5.7337000000000004E-3</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26">
+        <v>1135210000</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5.7337000000000004E-3</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26">
+        <v>1171190000</v>
+      </c>
+      <c r="K26" s="5">
+        <v>2.7984199999999998E-3</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27">
+        <v>1152660000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.7007999999999998E-3</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27">
+        <v>1027390000</v>
+      </c>
+      <c r="H27" s="5">
+        <v>4.7007999999999998E-3</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27">
+        <v>875014000</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1.9259699999999999E-3</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28">
+        <v>3516000000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>7.9072999999999991E-2</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28">
+        <v>3731260000</v>
+      </c>
+      <c r="H28" s="5">
+        <v>7.9072999999999991E-2</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28">
+        <v>3886050000</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2.32768E-2</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29">
+        <v>441586000.00000012</v>
+      </c>
+      <c r="E29" s="5">
+        <v>9.5982800000000007E-3</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29">
+        <v>323198000</v>
+      </c>
+      <c r="H29" s="5">
+        <v>9.5982800000000007E-3</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29">
+        <v>202741000</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1.31111E-4</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30">
+        <v>2107760000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.234762</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30">
+        <v>2578780000</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.234762</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30">
+        <v>4310250000</v>
+      </c>
+      <c r="K30" s="5">
+        <v>8.9194200000000001E-2</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31">
+        <v>68102200</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.0055400000000001E-3</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31">
+        <v>56200000</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1.0055400000000001E-3</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31">
+        <v>46969300</v>
+      </c>
+      <c r="K31" s="5">
+        <v>3.1115100000000002E-4</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32">
+        <v>625581000</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5.8450200000000001E-2</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32">
+        <v>781506000</v>
+      </c>
+      <c r="H32" s="5">
+        <v>5.8450200000000001E-2</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32">
+        <v>980810999.99999988</v>
+      </c>
+      <c r="K32" s="5">
+        <v>2.76875E-2</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33">
+        <v>8829090000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2.5381500000000001E-2</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33">
+        <v>10639300000</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2.5381500000000001E-2</v>
+      </c>
+      <c r="I33" s="33"/>
+      <c r="J33">
+        <v>17602700000</v>
+      </c>
+      <c r="K33" s="5">
+        <v>8.5916800000000008E-3</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34">
+        <v>5884530000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4.7133899999999996E-3</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34">
+        <v>5229250000</v>
+      </c>
+      <c r="H34" s="5">
+        <v>4.7133899999999996E-3</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34">
+        <v>4093520000</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1.4427299999999999E-3</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <v>2638440000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1.6438100000000001E-2</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35">
+        <v>3193060000</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1.6438100000000001E-2</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35">
+        <v>5242770000</v>
+      </c>
+      <c r="K35" s="5">
+        <v>5.8277199999999998E-3</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36">
+        <v>291907000</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1.2645099999999999E-2</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36">
+        <v>316284000</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1.2645099999999999E-2</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36">
+        <v>397545000</v>
+      </c>
+      <c r="K36" s="5">
+        <v>4.0374499999999997E-3</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37">
+        <v>823537999.99999988</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5.59604E-3</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37">
+        <v>710702000</v>
+      </c>
+      <c r="H37" s="5">
+        <v>5.59604E-3</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37">
+        <v>539481000</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1.08854E-3</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
-    <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Income" sheetId="4" r:id="rId3"/>
-    <sheet name="Education" sheetId="5" r:id="rId4"/>
-    <sheet name="Policies" sheetId="6" r:id="rId5"/>
-    <sheet name="Wealth tax" sheetId="7" r:id="rId6"/>
-    <sheet name="Rotated (old)" sheetId="1" r:id="rId7"/>
+    <sheet name="quotas" sheetId="12" r:id="rId2"/>
+    <sheet name="Constants" sheetId="2" r:id="rId3"/>
+    <sheet name="Income" sheetId="4" r:id="rId4"/>
+    <sheet name="Education" sheetId="5" r:id="rId5"/>
+    <sheet name="Policies" sheetId="6" r:id="rId6"/>
+    <sheet name="Wealth tax" sheetId="7" r:id="rId7"/>
+    <sheet name="Rotated (old)" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="353">
   <si>
     <t>France</t>
   </si>
@@ -701,24 +702,12 @@
     <t>III-II+I/2</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Modifzierte Daten + Ausweicheffekte (modest evasion)</t>
   </si>
   <si>
     <t>affected pop-share</t>
   </si>
   <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
     <t>GDP World Bank https://data.worldbank.org/indicator/NY.GDP.MKTP.CN?end=2018&amp;locations=ES-FR-DE&amp;start=2017</t>
   </si>
   <si>
@@ -825,16 +814,293 @@
   </si>
   <si>
     <t>SK</t>
+  </si>
+  <si>
+    <t>I (M2)</t>
+  </si>
+  <si>
+    <t>II (M4)</t>
+  </si>
+  <si>
+    <t>III (M6)</t>
+  </si>
+  <si>
+    <t>IV (M7)</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>II-M3</t>
+  </si>
+  <si>
+    <t>2*(III-M5)</t>
+  </si>
+  <si>
+    <t>2*M3-I</t>
+  </si>
+  <si>
+    <t>£ 2018</t>
+  </si>
+  <si>
+    <t>$ 2019</t>
+  </si>
+  <si>
+    <t>cf. Advani et al. (2020) http://taxsimulator.ukwealth.tax/#/appendix</t>
+  </si>
+  <si>
+    <t>cf. Saez &amp; Zucman (2019) https://taxjusticenow.org/</t>
+  </si>
+  <si>
+    <t>2*(II-M3)</t>
+  </si>
+  <si>
+    <t>wid.world</t>
+  </si>
+  <si>
+    <t>SS Africa</t>
+  </si>
+  <si>
+    <t>cf. also Chancel et al. (2022) https://wid.world/world-wealth-tax-simulator/</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Low-income</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/country/XM</t>
+  </si>
+  <si>
+    <t>IDF</t>
+  </si>
+  <si>
+    <t>Nord-Ouest</t>
+  </si>
+  <si>
+    <t>Nord-Est</t>
+  </si>
+  <si>
+    <t>Sud-Ouest</t>
+  </si>
+  <si>
+    <t>Sud-Est</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-49</t>
+  </si>
+  <si>
+    <t>50-64</t>
+  </si>
+  <si>
+    <t>&gt;65</t>
+  </si>
+  <si>
+    <t>Couronne GP</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Northern Germany</t>
+  </si>
+  <si>
+    <t>Western Germany</t>
+  </si>
+  <si>
+    <t>Central Germany</t>
+  </si>
+  <si>
+    <t>Eastern Germany</t>
+  </si>
+  <si>
+    <t>Southern Germany</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Town and Suburbs</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Norht-West</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Southern England</t>
+  </si>
+  <si>
+    <t>Central UK</t>
+  </si>
+  <si>
+    <t>Northern England</t>
+  </si>
+  <si>
+    <t>Northern UK</t>
+  </si>
+  <si>
+    <t>Rural and other</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>College in 25-64</t>
+  </si>
+  <si>
+    <t>Cities definition</t>
+  </si>
+  <si>
+    <t>Grand pôle</t>
+  </si>
+  <si>
+    <t>https://www.destatis.de/DE/Themen/Laender-Regionen/Regionales/Gemeindeverzeichnis/Administrativ/Archiv/GVAuszugJ/31122019_Auszug_GV.html https://ec.europa.eu/eurostat/ramon/miscellaneous/index.cfm?TargetUrl=DSP_DEGURBA</t>
+  </si>
+  <si>
+    <t>Towns and suburbs</t>
+  </si>
+  <si>
+    <t>Towns and suburbs definition</t>
+  </si>
+  <si>
+    <t>Rural definition</t>
+  </si>
+  <si>
+    <t>Town &gt;20k</t>
+  </si>
+  <si>
+    <t>Town &lt;20k</t>
+  </si>
+  <si>
+    <t>Large urban</t>
+  </si>
+  <si>
+    <t>City or town</t>
+  </si>
+  <si>
+    <t>https://www.doogal.co.uk/postcodedownloads.php https://www.ons.gov.uk/file?uri=/methodology/geography/geographicalproducts/ruralurbanclassifications/2011ruralurbanclassification/rucladleafletmay2015tcm77406355.pdf</t>
+  </si>
+  <si>
+    <t>College in &gt;18</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Résultat cumulé</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>Share Eu4</t>
+  </si>
+  <si>
+    <t>White non Hispanic</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>max deviation</t>
+  </si>
+  <si>
+    <t>arg max dev</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Region 3</t>
+  </si>
+  <si>
+    <t>Region 5</t>
+  </si>
+  <si>
+    <t>Region 4</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/web/degree-of-urbanisation/statistics-illustrated</t>
+  </si>
+  <si>
+    <t>https://gisco-services.ec.europa.eu/tercet/flat-files &gt; Various: https://gisco-services.ec.europa.eu/tercet/Various/PC_DGURBA_2018.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +1145,40 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -928,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -978,7 +1278,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1002,10 +1301,59 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,8 +1638,8 @@
   <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" activeCellId="1" sqref="C26:D26 F26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,27 +2251,27 @@
         <v>70</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ref="B21:G21" si="3">B10/B22</f>
+        <f>B10/B22</f>
         <v>2.5644230095190458E-3</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="3"/>
+        <f>C10/C22</f>
         <v>4.9373330060408765E-3</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="3"/>
+        <f>D10/D22</f>
         <v>1.6790808753380407E-3</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="3"/>
+        <f>E10/E22</f>
         <v>4.1710288325086144E-3</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="3"/>
+        <f>F10/F22</f>
         <v>4.9152122927368785E-3</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="3"/>
+        <f>G10/G22</f>
         <v>1.2406821177761389E-2</v>
       </c>
     </row>
@@ -2189,27 +2537,27 @@
         <v>40</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" ref="B31:G31" si="4">B4/B3</f>
+        <f>B4/B3</f>
         <v>7.9422382671480145E-3</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="4"/>
+        <f>C4/C3</f>
         <v>1.3333333333333332E-2</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="4"/>
+        <f>D4/D3</f>
         <v>4.9881235154394295E-3</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="4"/>
+        <f>E4/E3</f>
         <v>1.3414634146341463E-2</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="4"/>
+        <f>F4/F3</f>
         <v>1.7199017199017199E-2</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="4"/>
+        <f>G4/G3</f>
         <v>4.1884816753926706E-3</v>
       </c>
       <c r="H31" s="3"/>
@@ -2251,27 +2599,27 @@
         <v>56</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" ref="B33:G33" si="5">B9*B26*12/1000</f>
+        <f>B9*B26*12/1000</f>
         <v>7.1975864434768866</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f>C9*C26*12/1000</f>
         <v>21.032191795712752</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="5"/>
+        <f>D9*D26*12/1000</f>
         <v>2.3499636357967666</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="5"/>
+        <f>E9*E26*12/1000</f>
         <v>3.1934225422910951</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="5"/>
+        <f>F9*F26*12/1000</f>
         <v>14.853569673860253</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="5"/>
+        <f>G9*G26*12/1000</f>
         <v>264.04020802872463</v>
       </c>
     </row>
@@ -2321,16 +2669,16 @@
         <v>470.40625995177646</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:F35" si="6">2000*C26/$H$26</f>
+        <f t="shared" ref="C35:F35" si="3">2000*C26/$H$26</f>
         <v>631.4544379236612</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>350.30253400664208</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>483.14453391565434</v>
       </c>
     </row>
@@ -2782,6 +3130,1339 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" customWidth="1"/>
+    <col min="12" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="16" width="5.42578125" customWidth="1"/>
+    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" customWidth="1"/>
+    <col min="25" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" customWidth="1"/>
+    <col min="31" max="31" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="C2" s="62">
+        <f>B2/$B$7</f>
+        <v>0.24306535025858014</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2*$D$7</f>
+        <v>729.19605077574045</v>
+      </c>
+      <c r="E2">
+        <v>516</v>
+      </c>
+      <c r="F2">
+        <v>484</v>
+      </c>
+      <c r="G2">
+        <v>120</v>
+      </c>
+      <c r="H2">
+        <v>150</v>
+      </c>
+      <c r="I2">
+        <v>240</v>
+      </c>
+      <c r="J2">
+        <v>240</v>
+      </c>
+      <c r="K2">
+        <v>250</v>
+      </c>
+      <c r="L2">
+        <v>400</v>
+      </c>
+      <c r="M2">
+        <v>285</v>
+      </c>
+      <c r="N2">
+        <v>465</v>
+      </c>
+      <c r="O2">
+        <v>341</v>
+      </c>
+      <c r="P2">
+        <v>194</v>
+      </c>
+      <c r="T2" s="2">
+        <f>U15*$C2*$D$7/1000</f>
+        <v>137.81805359661496</v>
+      </c>
+      <c r="U2" s="2">
+        <f>V15*$C2*$D$7/1000</f>
+        <v>145.83921015514809</v>
+      </c>
+      <c r="V2" s="2">
+        <f>W15*$C2*$D$7/1000</f>
+        <v>160.42313117066291</v>
+      </c>
+      <c r="W2" s="2">
+        <f>X15*$C2*$D$7/1000</f>
+        <v>102.08744710860366</v>
+      </c>
+      <c r="X2" s="2">
+        <f>Y15*$C2*$D$7/1000</f>
+        <v>183.02820874471087</v>
+      </c>
+      <c r="Y2">
+        <v>595</v>
+      </c>
+      <c r="Z2">
+        <v>184</v>
+      </c>
+      <c r="AA2">
+        <v>222</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C3" s="62">
+        <f>B3/$B$7</f>
+        <v>0.32628114715561823</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3*$D$7</f>
+        <v>978.84344146685476</v>
+      </c>
+      <c r="E3">
+        <v>512</v>
+      </c>
+      <c r="F3">
+        <v>488</v>
+      </c>
+      <c r="G3">
+        <v>85</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>222</v>
+      </c>
+      <c r="J3">
+        <v>280</v>
+      </c>
+      <c r="K3">
+        <v>263</v>
+      </c>
+      <c r="L3">
+        <v>310</v>
+      </c>
+      <c r="N3">
+        <v>366</v>
+      </c>
+      <c r="O3">
+        <v>404</v>
+      </c>
+      <c r="P3">
+        <v>230</v>
+      </c>
+      <c r="T3" s="2">
+        <f>U16*$C3*$D$7/1000</f>
+        <v>176.97489421720732</v>
+      </c>
+      <c r="U3" s="2">
+        <f>V16*$C3*$D$7/1000</f>
+        <v>271.04174894217203</v>
+      </c>
+      <c r="V3" s="2">
+        <f>W16*$C3*$D$7/1000</f>
+        <v>99.156840620592376</v>
+      </c>
+      <c r="W3" s="2">
+        <f>X16*$C3*$D$7/1000</f>
+        <v>146.63074753173484</v>
+      </c>
+      <c r="X3" s="2">
+        <f>Y16*$C3*$D$7/1000</f>
+        <v>285.13709449929479</v>
+      </c>
+      <c r="Y3">
+        <v>395</v>
+      </c>
+      <c r="Z3">
+        <v>403</v>
+      </c>
+      <c r="AA3">
+        <v>202</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="C4" s="62">
+        <f>B4/$B$7</f>
+        <v>0.18100611189468735</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4*$D$7</f>
+        <v>543.01833568406209</v>
+      </c>
+      <c r="E4">
+        <v>506</v>
+      </c>
+      <c r="F4">
+        <v>494</v>
+      </c>
+      <c r="G4">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <v>124</v>
+      </c>
+      <c r="I4">
+        <v>285</v>
+      </c>
+      <c r="J4">
+        <v>266</v>
+      </c>
+      <c r="K4">
+        <v>246</v>
+      </c>
+      <c r="L4">
+        <v>400</v>
+      </c>
+      <c r="N4">
+        <v>515</v>
+      </c>
+      <c r="O4">
+        <v>261</v>
+      </c>
+      <c r="P4">
+        <v>224</v>
+      </c>
+      <c r="T4" s="2">
+        <f>U17*$C4*$D$7/1000</f>
+        <v>160.32073342736248</v>
+      </c>
+      <c r="U4" s="2">
+        <f>V17*$C4*$D$7/1000</f>
+        <v>100.99272214386461</v>
+      </c>
+      <c r="V4" s="2">
+        <f>W17*$C4*$D$7/1000</f>
+        <v>153.19687588152328</v>
+      </c>
+      <c r="W4" s="2">
+        <f>X17*$C4*$D$7/1000</f>
+        <v>58.522715091678421</v>
+      </c>
+      <c r="X4" s="2">
+        <f>Y17*$C4*$D$7/1000</f>
+        <v>69.98474612129759</v>
+      </c>
+      <c r="Y4">
+        <v>697</v>
+      </c>
+      <c r="AA4">
+        <v>303</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>53.1</v>
+      </c>
+      <c r="C5" s="62">
+        <f>B5/$B$7</f>
+        <v>0.24964739069111425</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5*$D$7</f>
+        <v>748.9421720733427</v>
+      </c>
+      <c r="E5">
+        <v>504</v>
+      </c>
+      <c r="F5">
+        <v>496</v>
+      </c>
+      <c r="G5">
+        <v>102</v>
+      </c>
+      <c r="H5">
+        <v>168</v>
+      </c>
+      <c r="I5">
+        <v>244</v>
+      </c>
+      <c r="J5">
+        <v>246</v>
+      </c>
+      <c r="K5">
+        <v>241</v>
+      </c>
+      <c r="L5">
+        <v>490</v>
+      </c>
+      <c r="N5">
+        <v>593</v>
+      </c>
+      <c r="O5">
+        <v>279</v>
+      </c>
+      <c r="P5">
+        <v>128</v>
+      </c>
+      <c r="T5" s="2">
+        <f>U18*$C5*$D$7/1000</f>
+        <v>97.137799717912543</v>
+      </c>
+      <c r="U5" s="2">
+        <f>V18*$C5*$D$7/1000</f>
+        <v>233.81974612129761</v>
+      </c>
+      <c r="V5" s="2">
+        <f>W18*$C5*$D$7/1000</f>
+        <v>156.90338504936531</v>
+      </c>
+      <c r="W5" s="2">
+        <f>X18*$C5*$D$7/1000</f>
+        <v>177.12482369534555</v>
+      </c>
+      <c r="X5" s="2">
+        <f>Y18*$C5*$D$7/1000</f>
+        <v>83.95641748942171</v>
+      </c>
+      <c r="Y5">
+        <v>401</v>
+      </c>
+      <c r="Z5">
+        <v>423</v>
+      </c>
+      <c r="AA5">
+        <v>176</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SUM(B2:B5)</f>
+        <v>212.70000000000002</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="2">
+        <f>SUMPRODUCT($C2:$C5,E2:E5)</f>
+        <v>509.88904560413727</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:P6" si="0">SUMPRODUCT($C2:$C5,F2:F5)</f>
+        <v>490.11095439586268</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>96.665256229431108</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>149.78749412317816</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>243.27080394922424</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>259.25528913963331</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>251.27080394922424</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>393.10296191819464</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>69.273624823695343</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>473.70333803479082</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="0"/>
+        <v>331.59708509637989</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>194.69957686882933</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="Y6" s="2">
+        <f>SUMPRODUCT($C1:$C4,Y1:Y4)</f>
+        <v>399.66619652092146</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>SUMPRODUCT($C1:$C4,Z1:Z4)</f>
+        <v>176.21532675129291</v>
+      </c>
+      <c r="AA6" s="2">
+        <f>SUMPRODUCT($C1:$C4,AA1:AA4)</f>
+        <v>174.71415138692993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2">
+        <f>SUM(B2:B5)</f>
+        <v>212.70000000000002</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
+        <v>1529.6671368124116</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SUMPRODUCT($C2:$C5,F2:F5)*$D$7/1000</f>
+        <v>1470.3328631875881</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUMPRODUCT($C2:$C5,G2:G5)*$D$7/1000</f>
+        <v>289.99576868829337</v>
+      </c>
+      <c r="H7" s="2">
+        <f>SUMPRODUCT($C2:$C5,H2:H5)*$D$7/1000</f>
+        <v>449.36248236953452</v>
+      </c>
+      <c r="I7" s="2">
+        <f>SUMPRODUCT($C2:$C5,I2:I5)*$D$7/1000</f>
+        <v>729.81241184767282</v>
+      </c>
+      <c r="J7" s="2">
+        <f>SUMPRODUCT($C2:$C5,J2:J5)*$D$7/1000</f>
+        <v>777.76586741889992</v>
+      </c>
+      <c r="K7" s="2">
+        <f>SUMPRODUCT($C2:$C5,K2:K5)*$D$7/1000</f>
+        <v>753.81241184767282</v>
+      </c>
+      <c r="L7" s="2">
+        <f>SUMPRODUCT($C2:$C5,L2:L5)*$D$7/1000</f>
+        <v>1179.3088857545838</v>
+      </c>
+      <c r="M7" s="2">
+        <f>SUMPRODUCT($C2:$C5,M2:M5)*$D$7/1000</f>
+        <v>207.82087447108603</v>
+      </c>
+      <c r="N7" s="2">
+        <f>SUMPRODUCT($C2:$C5,N2:N5)*$D$7/1000</f>
+        <v>1421.1100141043723</v>
+      </c>
+      <c r="O7" s="2">
+        <f>SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
+        <v>994.79125528913971</v>
+      </c>
+      <c r="P7" s="2">
+        <f>SUMPRODUCT($C2:$C5,P2:P5)*$D$7/1000</f>
+        <v>584.09873060648795</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="Y7" s="2">
+        <f>SUMPRODUCT($C2:$C5,Y2:Y5)</f>
+        <v>499.77480018805829</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>SUMPRODUCT($C2:$C5,Z2:Z5)</f>
+        <v>281.81617301363423</v>
+      </c>
+      <c r="AA7" s="2">
+        <f>SUMPRODUCT($C2:$C5,AA2:AA5)</f>
+        <v>218.65209214856603</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>257</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>507.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>492.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>118</v>
+      </c>
+      <c r="H8" s="2">
+        <v>180</v>
+      </c>
+      <c r="I8" s="2">
+        <v>243</v>
+      </c>
+      <c r="J8" s="2">
+        <v>246.7</v>
+      </c>
+      <c r="K8" s="2">
+        <v>212.3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>610</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>732.4</v>
+      </c>
+      <c r="P8" s="2">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>601</v>
+      </c>
+      <c r="R8" s="2">
+        <v>185</v>
+      </c>
+      <c r="S8" s="2">
+        <v>134</v>
+      </c>
+      <c r="T8">
+        <f>U19*$D$8/1000</f>
+        <v>171</v>
+      </c>
+      <c r="U8">
+        <f>V19*$D$8/1000</f>
+        <v>208</v>
+      </c>
+      <c r="V8">
+        <f>W19*$D$8/1000</f>
+        <v>239</v>
+      </c>
+      <c r="W8">
+        <f>X19*$D$8/1000</f>
+        <v>383</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="R10" t="s">
+        <v>345</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="V10" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="W10" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="X10" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y10" s="58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11">
+        <f>E2/E$6</f>
+        <v>1.0119848709215202</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:L11" si="1">F2/F$6</f>
+        <v>0.98753148783749312</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.2413974232394813</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.0014187157483727</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.98655488494251475</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.92572846168911704</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.99494249260458834</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>1.0175451185820388</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="M11:P11" si="2">N2/N$6</f>
+        <v>0.98162702827702764</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>1.0283564462000234</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0.99640689065646693</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="V11" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="W11" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="X11" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y11" s="60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E14" si="3">E3/E$6</f>
+        <v>1.0041400269608882</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:L12" si="4">F3/F$6</f>
+        <v>0.99569290509234842</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0.87932317479463262</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>1.0014187157483727</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0.91256326857182624</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>1.0800165386373033</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>1.0466795022200268</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0.78859746690108001</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="M12:P12" si="5">N3/N$6</f>
+        <v>0.77263546741804756</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>1.2183460535624913</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>1.1813071384071516</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="V12" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="W12" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="X12" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y12" s="60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.99237276101994043</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:L13" si="6">F4/F$6</f>
+        <v>1.0079350309746313</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>0.81725330363265858</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>0.82783947168532146</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>1.1715339258692363</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>1.026015711705438</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>0.97902341272291493</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>1.0175451185820388</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="M13:P13" si="7">N4/N$6</f>
+        <v>1.0871783216401489</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>0.78709980193022322</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>1.150490430448704</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>305</v>
+      </c>
+      <c r="V13" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="W13" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="X13" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y13" s="60" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0.98845033903962443</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:L14" si="8">F5/F$6</f>
+        <v>1.012015739602059</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="8"/>
+        <v>1.0551878097535592</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="8"/>
+        <v>1.1215889616381773</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>1.0029974663582233</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>0.94887167323134503</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>0.95912456287082315</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>1.2464927702629973</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="M14:P14" si="9">N5/N$6</f>
+        <v>1.2518383392866181</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>0.84138254689092828</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>0.65742310311354524</v>
+      </c>
+      <c r="T14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" t="s">
+        <v>346</v>
+      </c>
+      <c r="V14" t="s">
+        <v>347</v>
+      </c>
+      <c r="W14" t="s">
+        <v>348</v>
+      </c>
+      <c r="X14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15">
+        <f>MIN(E11:E14)</f>
+        <v>0.98845033903962443</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:K15" si="10">MIN(F11:F14)</f>
+        <v>0.98753148783749312</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="10"/>
+        <v>0.81725330363265858</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="10"/>
+        <v>0.82783947168532146</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="10"/>
+        <v>0.91256326857182624</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="10"/>
+        <v>0.92572846168911704</v>
+      </c>
+      <c r="K15" s="61">
+        <f t="shared" si="10"/>
+        <v>0.95912456287082315</v>
+      </c>
+      <c r="L15" s="61">
+        <f t="shared" ref="L15" si="11">MIN(L11:L14)</f>
+        <v>0.78859746690108001</v>
+      </c>
+      <c r="M15" s="61">
+        <f t="shared" ref="M15" si="12">MIN(M11:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="61">
+        <f t="shared" ref="N15" si="13">MIN(N11:N14)</f>
+        <v>0.77263546741804756</v>
+      </c>
+      <c r="O15" s="61">
+        <f t="shared" ref="O15:P15" si="14">MIN(O11:O14)</f>
+        <v>0.78709980193022322</v>
+      </c>
+      <c r="P15" s="61">
+        <f t="shared" ref="P15" si="15">MIN(P11:P14)</f>
+        <v>0.65742310311354524</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" s="2">
+        <v>189</v>
+      </c>
+      <c r="V15" s="2">
+        <v>200</v>
+      </c>
+      <c r="W15" s="2">
+        <v>220</v>
+      </c>
+      <c r="X15" s="2">
+        <v>140</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16">
+        <f>MAX(E11:E14)</f>
+        <v>1.0119848709215202</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:J16" si="16">MAX(F11:F14)</f>
+        <v>1.012015739602059</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="16"/>
+        <v>1.2413974232394813</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="16"/>
+        <v>1.1215889616381773</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="16"/>
+        <v>1.1715339258692363</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="16"/>
+        <v>1.0800165386373033</v>
+      </c>
+      <c r="K16" s="61">
+        <f t="shared" ref="K16:M16" si="17">MAX(K11:K14)</f>
+        <v>1.0466795022200268</v>
+      </c>
+      <c r="L16" s="61">
+        <f t="shared" si="17"/>
+        <v>1.2464927702629973</v>
+      </c>
+      <c r="M16" s="61">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="61">
+        <f>MAX(N11:N14)</f>
+        <v>1.2518383392866181</v>
+      </c>
+      <c r="O16" s="61">
+        <f>MAX(O11:O14)</f>
+        <v>1.2183460535624913</v>
+      </c>
+      <c r="P16" s="61">
+        <f>MAX(P11:P14)</f>
+        <v>1.1813071384071516</v>
+      </c>
+      <c r="T16" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="2">
+        <v>180.8</v>
+      </c>
+      <c r="V16" s="2">
+        <v>276.89999999999998</v>
+      </c>
+      <c r="W16" s="2">
+        <v>101.3</v>
+      </c>
+      <c r="X16" s="2">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>291.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="63">
+        <f>IF(E16&gt;=1/E15,E16-1,1-1/E15)</f>
+        <v>1.198487092152023E-2</v>
+      </c>
+      <c r="F17" s="63">
+        <f t="shared" ref="F17:K17" si="18">IF(F16&gt;=1/F15,F16-1,1-1/F15)</f>
+        <v>-1.2625938834426975E-2</v>
+      </c>
+      <c r="G17" s="63">
+        <f t="shared" si="18"/>
+        <v>0.24139742323948132</v>
+      </c>
+      <c r="H17" s="63">
+        <f t="shared" si="18"/>
+        <v>-0.20796366228369489</v>
+      </c>
+      <c r="I17" s="63">
+        <f t="shared" si="18"/>
+        <v>0.17153392586923633</v>
+      </c>
+      <c r="J17" s="63">
+        <f t="shared" si="18"/>
+        <v>-8.023037141513889E-2</v>
+      </c>
+      <c r="K17" s="64">
+        <f t="shared" si="18"/>
+        <v>4.6679502220026814E-2</v>
+      </c>
+      <c r="L17" s="64">
+        <f t="shared" ref="L17" si="19">IF(L16&gt;=1/L15,L16-1,1-1/L15)</f>
+        <v>-0.26807407070385358</v>
+      </c>
+      <c r="M17" s="64" t="e">
+        <f t="shared" ref="M17" si="20">IF(M16&gt;=1/M15,M16-1,1-1/M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="64">
+        <f t="shared" ref="N17" si="21">IF(N16&gt;=1/N15,N16-1,1-1/N15)</f>
+        <v>-0.29427141539560342</v>
+      </c>
+      <c r="O17" s="64">
+        <f t="shared" ref="O17" si="22">IF(O16&gt;=1/O15,O16-1,1-1/O15)</f>
+        <v>-0.27048691607808384</v>
+      </c>
+      <c r="P17" s="64">
+        <f t="shared" ref="P17" si="23">IF(P16&gt;=1/P15,P16-1,1-1/P15)</f>
+        <v>-0.5210904442877291</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="U17" s="2">
+        <v>295.24</v>
+      </c>
+      <c r="V17" s="2">
+        <v>185.98400000000001</v>
+      </c>
+      <c r="W17" s="2">
+        <v>282.12099999999998</v>
+      </c>
+      <c r="X17" s="2">
+        <v>107.773</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>128.881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="2">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="V18" s="2">
+        <v>312.2</v>
+      </c>
+      <c r="W18" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="X18" s="2">
+        <v>236.5</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="2">
+        <v>171</v>
+      </c>
+      <c r="V19" s="2">
+        <v>208</v>
+      </c>
+      <c r="W19" s="2">
+        <v>239</v>
+      </c>
+      <c r="X19" s="2">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E11:P14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:K17 P17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:L17 P17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2879,7 +4560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
@@ -3511,7 +5192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -3711,7 +5392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -4091,1174 +5772,2197 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="4" width="7" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="23" max="23" width="8" customWidth="1"/>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="I1" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="L1" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="AB1" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="26">
-        <f>I2-F2+C2/2</f>
+        <f>2*(O2-U2)</f>
+        <v>1.7028023730202554E-2</v>
+      </c>
+      <c r="C2" s="26">
+        <f>L2-R2</f>
+        <v>6.5437696341296842E-3</v>
+      </c>
+      <c r="D2" s="26">
+        <f>2*R2-I2</f>
+        <v>1.7359302346297054E-2</v>
+      </c>
+      <c r="E2" s="43">
+        <f>2*S2-J2</f>
+        <v>58463700000</v>
+      </c>
+      <c r="F2" s="47">
+        <f>2*C2</f>
+        <v>1.3087539268259368E-2</v>
+      </c>
+      <c r="G2" s="48">
+        <f>2*(M2-S2)</f>
+        <v>44077000000</v>
+      </c>
+      <c r="H2" s="26">
+        <f>O2-L2+I2/2</f>
         <v>2.9663540052139933E-2</v>
       </c>
-      <c r="C2" s="27">
-        <f>D2/$O2</f>
+      <c r="I2" s="27">
+        <f>J2/$AA2</f>
         <v>2.123131602857601E-2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="J2" s="7">
         <v>71504100000</v>
       </c>
-      <c r="E2" s="28">
+      <c r="K2" s="28">
         <v>4.0565200000000003E-2</v>
       </c>
-      <c r="F2" s="27">
-        <f>G2/$O2</f>
+      <c r="L2" s="27">
+        <f>M2/$AA2</f>
         <v>2.5839078821566216E-2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="M2" s="7">
         <v>87022400000</v>
       </c>
-      <c r="H2" s="28">
+      <c r="N2" s="28">
         <v>4.0565200000000003E-2</v>
       </c>
-      <c r="I2" s="27">
-        <f>J2/$O2</f>
+      <c r="O2" s="27">
+        <f>P2/$AA2</f>
         <v>4.4886960859418144E-2</v>
       </c>
-      <c r="J2" s="7">
+      <c r="P2" s="7">
         <v>151173000000</v>
       </c>
-      <c r="K2" s="28">
+      <c r="Q2" s="28">
         <v>1.30832E-2</v>
       </c>
-      <c r="L2" s="27">
-        <f>M2/$O2</f>
+      <c r="R2" s="27">
+        <f>S2/$AA2</f>
+        <v>1.9295309187436532E-2</v>
+      </c>
+      <c r="S2">
+        <v>64983900000</v>
+      </c>
+      <c r="T2" s="32">
+        <v>4.0565200000000003E-2</v>
+      </c>
+      <c r="U2" s="27">
+        <f>V2/$AA2</f>
+        <v>3.6372948994316867E-2</v>
+      </c>
+      <c r="V2">
+        <v>122499000000</v>
+      </c>
+      <c r="W2" s="32">
+        <v>1.30832E-2</v>
+      </c>
+      <c r="X2" s="27">
+        <f>Y2/$AA2</f>
         <v>0.17815467388786946</v>
       </c>
-      <c r="M2">
+      <c r="Y2">
         <v>600000000000</v>
       </c>
-      <c r="N2" s="5">
+      <c r="Z2" s="5">
         <v>0.40048800000000001</v>
       </c>
-      <c r="O2" s="29">
+      <c r="AA2" s="45">
         <v>3367860000000</v>
       </c>
-      <c r="P2" s="7">
+      <c r="AB2" s="7">
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="26">
-        <f t="shared" ref="B3:B7" si="0">I3-F3+C3/2</f>
+        <f t="shared" ref="B3:B7" si="0">2*(O3-U3)</f>
+        <v>3.4810460590778865E-3</v>
+      </c>
+      <c r="C3" s="26">
+        <f t="shared" ref="C3:C7" si="1">L3-R3</f>
+        <v>2.0348071362857028E-3</v>
+      </c>
+      <c r="D3" s="26">
+        <f>2*R3-I3</f>
+        <v>7.1908874149289575E-3</v>
+      </c>
+      <c r="E3" s="43">
+        <f t="shared" ref="E3:E7" si="2">2*S3-J3</f>
+        <v>8652500000</v>
+      </c>
+      <c r="F3" s="47">
+        <f t="shared" ref="F3:F7" si="3">2*C3</f>
+        <v>4.0696142725714056E-3</v>
+      </c>
+      <c r="G3" s="48">
+        <f t="shared" ref="G3:G7" si="4">2*(M3-S3)</f>
+        <v>4896800000</v>
+      </c>
+      <c r="H3" s="26">
+        <f t="shared" ref="H3:H7" si="5">O3-L3+I3/2</f>
         <v>7.413324978246579E-3</v>
       </c>
-      <c r="C3" s="27">
-        <f t="shared" ref="C3:C4" si="1">D3/$O3</f>
+      <c r="I3" s="27">
+        <f>J3/$AA3</f>
         <v>1.0931229269841322E-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="J3" s="7">
         <v>13153100000</v>
       </c>
-      <c r="E3" s="28">
+      <c r="K3" s="28">
         <v>3.7114300000000003E-2</v>
       </c>
-      <c r="F3" s="27">
-        <f t="shared" ref="F3:F4" si="2">G3/$O3</f>
+      <c r="L3" s="27">
+        <f>M3/$AA3</f>
         <v>1.1095865478670842E-2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="M3" s="7">
         <v>13351200000</v>
       </c>
-      <c r="H3" s="28">
+      <c r="N3" s="28">
         <v>3.7114300000000003E-2</v>
       </c>
-      <c r="I3" s="27">
-        <f t="shared" ref="I3:I4" si="3">J3/$O3</f>
+      <c r="O3" s="27">
+        <f>P3/$AA3</f>
         <v>1.3043575821996761E-2</v>
       </c>
-      <c r="J3" s="7">
+      <c r="P3" s="7">
         <v>15694800000</v>
       </c>
-      <c r="K3" s="28">
+      <c r="Q3" s="28">
         <v>9.8881999999999998E-3</v>
       </c>
-      <c r="L3" s="27">
-        <f t="shared" ref="L3:L5" si="4">M3/$O3</f>
+      <c r="R3" s="27">
+        <f>S3/$AA3</f>
+        <v>9.0610583423851396E-3</v>
+      </c>
+      <c r="S3">
+        <v>10902800000</v>
+      </c>
+      <c r="T3" s="32">
+        <v>3.7114300000000003E-2</v>
+      </c>
+      <c r="U3" s="27">
+        <f>V3/$AA3</f>
+        <v>1.1303052792457817E-2</v>
+      </c>
+      <c r="V3">
+        <v>13600500000</v>
+      </c>
+      <c r="W3" s="32">
+        <v>9.8881999999999998E-3</v>
+      </c>
+      <c r="X3" s="27">
+        <f>Y3/$AA3</f>
         <v>3.3001539984325902E-2</v>
       </c>
-      <c r="M3">
+      <c r="Y3">
         <v>39709400000</v>
       </c>
-      <c r="N3" s="5">
+      <c r="Z3" s="5">
         <v>0.47681800000000002</v>
       </c>
-      <c r="O3" s="29">
+      <c r="AA3" s="45">
         <v>1203259000000</v>
       </c>
-      <c r="P3" s="7">
+      <c r="AB3" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="26">
         <f t="shared" si="0"/>
+        <v>8.0634500991407787E-3</v>
+      </c>
+      <c r="C4" s="26">
+        <f t="shared" si="1"/>
+        <v>3.2958068062282232E-3</v>
+      </c>
+      <c r="D4" s="26">
+        <f>2*R4-I4</f>
+        <v>9.1769749664241552E-3</v>
+      </c>
+      <c r="E4" s="43">
+        <f t="shared" si="2"/>
+        <v>21688000000</v>
+      </c>
+      <c r="F4" s="47">
+        <f t="shared" si="3"/>
+        <v>6.5916136124564463E-3</v>
+      </c>
+      <c r="G4" s="48">
+        <f t="shared" si="4"/>
+        <v>15578000000</v>
+      </c>
+      <c r="H4" s="26">
+        <f t="shared" si="5"/>
         <v>1.4294805666299665E-2</v>
       </c>
-      <c r="C4" s="27">
+      <c r="I4" s="27">
+        <f>J4/$AA4</f>
+        <v>1.1845017107391087E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>27993400000</v>
+      </c>
+      <c r="K4" s="28">
+        <v>3.2785700000000001E-2</v>
+      </c>
+      <c r="L4" s="27">
+        <f>M4/$AA4</f>
+        <v>1.3806802843135844E-2</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32629700000</v>
+      </c>
+      <c r="N4" s="28">
+        <v>3.2785700000000001E-2</v>
+      </c>
+      <c r="O4" s="27">
+        <f>P4/$AA4</f>
+        <v>2.2179099955739967E-2</v>
+      </c>
+      <c r="P4" s="7">
+        <v>52416000000</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>8.2307700000000001E-3</v>
+      </c>
+      <c r="R4" s="27">
+        <f>S4/$AA4</f>
+        <v>1.0510996036907621E-2</v>
+      </c>
+      <c r="S4">
+        <v>24840700000</v>
+      </c>
+      <c r="T4" s="32">
+        <v>3.2785700000000001E-2</v>
+      </c>
+      <c r="U4" s="27">
+        <f>V4/$AA4</f>
+        <v>1.8147374906169578E-2</v>
+      </c>
+      <c r="V4">
+        <v>42887800000</v>
+      </c>
+      <c r="W4" s="32">
+        <v>8.2307700000000001E-3</v>
+      </c>
+      <c r="X4" s="27">
+        <f>Y4/$AA4</f>
+        <v>7.879428224698791E-2</v>
+      </c>
+      <c r="Y4">
+        <v>186215000000</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.48079699999999997</v>
+      </c>
+      <c r="AA4" s="45">
+        <v>2363306000000</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="26">
+        <f t="shared" si="0"/>
+        <v>8.8437994948846327E-3</v>
+      </c>
+      <c r="C5" s="26">
         <f t="shared" si="1"/>
-        <v>1.1845017107391087E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>27993400000</v>
-      </c>
-      <c r="E4" s="28">
-        <v>3.2785700000000001E-2</v>
-      </c>
-      <c r="F4" s="27">
+        <v>3.7675815968584627E-3</v>
+      </c>
+      <c r="D5" s="26">
+        <f>2*R5-I5</f>
+        <v>1.0566981856850939E-2</v>
+      </c>
+      <c r="E5" s="43">
         <f t="shared" si="2"/>
-        <v>1.3806802843135844E-2</v>
-      </c>
-      <c r="G4" s="7">
-        <v>32629700000</v>
-      </c>
-      <c r="H4" s="28">
-        <v>3.2785700000000001E-2</v>
-      </c>
-      <c r="I4" s="27">
+        <v>18761000000</v>
+      </c>
+      <c r="F5" s="47">
         <f t="shared" si="3"/>
-        <v>2.2179099955739967E-2</v>
-      </c>
-      <c r="J4" s="7">
-        <v>52416000000</v>
-      </c>
-      <c r="K4" s="28">
-        <v>8.2307700000000001E-3</v>
-      </c>
-      <c r="L4" s="27">
+        <v>7.5351631937169254E-3</v>
+      </c>
+      <c r="G5" s="48">
         <f t="shared" si="4"/>
-        <v>7.879428224698791E-2</v>
-      </c>
-      <c r="M4">
-        <v>186215000000</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0.48079699999999997</v>
-      </c>
-      <c r="O4" s="29">
-        <v>2363306000000</v>
-      </c>
-      <c r="P4" s="7">
+        <v>13378200000</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" si="5"/>
+        <v>1.5791614003546169E-2</v>
+      </c>
+      <c r="I5" s="31">
+        <f>J5/$AA5</f>
+        <v>1.3584944768496301E-2</v>
+      </c>
+      <c r="J5">
+        <v>24119200000</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2.48489E-2</v>
+      </c>
+      <c r="L5" s="27">
+        <f>M5/$AA5</f>
+        <v>1.5843544909532083E-2</v>
+      </c>
+      <c r="M5">
+        <v>28129200000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2.48489E-2</v>
+      </c>
+      <c r="O5" s="27">
+        <f>P5/$AA5</f>
+        <v>2.48426865288301E-2</v>
+      </c>
+      <c r="P5">
+        <v>44106600000</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>6.3352E-3</v>
+      </c>
+      <c r="R5" s="27">
+        <f>S5/$AA5</f>
+        <v>1.207596331267362E-2</v>
+      </c>
+      <c r="S5">
+        <v>21440100000</v>
+      </c>
+      <c r="T5" s="32">
+        <v>2.48489E-2</v>
+      </c>
+      <c r="U5" s="27">
+        <f>V5/$AA5</f>
+        <v>2.0420786781387784E-2</v>
+      </c>
+      <c r="V5">
+        <v>36255800000</v>
+      </c>
+      <c r="W5" s="32">
+        <v>6.3352E-3</v>
+      </c>
+      <c r="X5" s="31">
+        <f>Y5/$AA5</f>
+        <v>8.2353855616310589E-2</v>
+      </c>
+      <c r="Y5">
+        <v>146214000000</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.507243</v>
+      </c>
+      <c r="AA5" s="36">
+        <v>1775436000000</v>
+      </c>
+      <c r="AB5">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="31">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="26">
         <f t="shared" si="0"/>
-        <v>6.7924723842481506E-3</v>
-      </c>
-      <c r="C5" s="32">
-        <f>D5/$O5</f>
-        <v>1.3584944768496301E-2</v>
-      </c>
-      <c r="D5">
-        <v>24119200000</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2.48489E-2</v>
-      </c>
-      <c r="F5" s="33">
-        <f>D5/$O5</f>
-        <v>1.3584944768496301E-2</v>
-      </c>
-      <c r="G5">
-        <v>28129200000</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2.48489E-2</v>
-      </c>
-      <c r="I5" s="33">
-        <f>D5/$O5</f>
-        <v>1.3584944768496301E-2</v>
-      </c>
-      <c r="J5">
-        <v>44106600000</v>
-      </c>
-      <c r="K5" s="5">
-        <v>6.3352E-3</v>
-      </c>
-      <c r="L5" s="32">
+        <v>1.1055813634683727E-2</v>
+      </c>
+      <c r="C6" s="30">
+        <f t="shared" si="1"/>
+        <v>4.473664964343288E-3</v>
+      </c>
+      <c r="D6" s="26">
+        <f>2*R6-I6</f>
+        <v>1.2349818211794653E-2</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" si="2"/>
+        <v>107565200000</v>
+      </c>
+      <c r="F6" s="47">
+        <f t="shared" si="3"/>
+        <v>8.947329928686576E-3</v>
+      </c>
+      <c r="G6" s="48">
         <f t="shared" si="4"/>
-        <v>8.2353855616310589E-2</v>
-      </c>
-      <c r="M5">
-        <v>146214000000</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.507243</v>
-      </c>
-      <c r="O5" s="34">
-        <v>1775436000000</v>
-      </c>
-      <c r="P5">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="31">
-        <f t="shared" si="0"/>
+        <v>77930000000</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" si="5"/>
         <v>1.9591908527587298E-2</v>
       </c>
-      <c r="C6" s="36">
-        <f>D6/$O6</f>
+      <c r="I6" s="35">
+        <f>J6/$AA6</f>
         <v>1.5702868277691229E-2</v>
       </c>
-      <c r="D6" s="37">
-        <f>SUM(D2:D5)</f>
+      <c r="J6" s="36">
+        <f>SUM(J2:J5)</f>
         <v>136769800000</v>
       </c>
-      <c r="F6" s="36">
-        <f>G6/$O6</f>
+      <c r="L6" s="35">
+        <f>M6/$AA6</f>
         <v>1.8500008209086229E-2</v>
       </c>
-      <c r="G6" s="37">
-        <f>SUM(G2:G5)</f>
+      <c r="M6" s="36">
+        <f>SUM(M2:M5)</f>
         <v>161132500000</v>
       </c>
-      <c r="I6" s="36">
-        <f>J6/$O6</f>
+      <c r="O6" s="35">
+        <f>P6/$AA6</f>
         <v>3.0240482597827911E-2</v>
       </c>
-      <c r="J6" s="37">
-        <f>SUM(J2:J5)</f>
+      <c r="P6" s="36">
+        <f>SUM(P2:P5)</f>
         <v>263390400000</v>
       </c>
-      <c r="L6" s="36">
-        <f>M6/$O6</f>
+      <c r="R6" s="35">
+        <f>S6/$AA6</f>
+        <v>1.4026343244742941E-2</v>
+      </c>
+      <c r="S6" s="36">
+        <f>SUM(S2:S5)</f>
+        <v>122167500000</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="35">
+        <f>V6/$AA6</f>
+        <v>2.4712575780486048E-2</v>
+      </c>
+      <c r="V6" s="36">
+        <f>SUM(V2:V5)</f>
+        <v>215243100000</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="35">
+        <f>Y6/$AA6</f>
         <v>0.11161353780502352</v>
       </c>
-      <c r="M6" s="37">
-        <f>SUM(M2:M5)</f>
+      <c r="Y6" s="36">
+        <f>SUM(Y2:Y5)</f>
         <v>972138400000</v>
       </c>
-      <c r="O6" s="34">
-        <f>SUM(O2:O5)</f>
+      <c r="AA6" s="36">
+        <f>SUM(AA2:AA5)</f>
         <v>8709861000000</v>
       </c>
-      <c r="P6" s="5">
-        <f>O6/O7</f>
+      <c r="AB6" s="5">
+        <f>AA6/AA7</f>
         <v>0.73489452187500004</v>
       </c>
-      <c r="Q6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>234</v>
+      <c r="AC6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
+        <v>1.0470649031249994E-2</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="1"/>
+        <v>4.6053055562499997E-3</v>
+      </c>
+      <c r="D7" s="26">
+        <f>2*R7-I7</f>
+        <v>1.2789388887499999E-2</v>
+      </c>
+      <c r="E7" s="43">
+        <f t="shared" si="2"/>
+        <v>149207572000</v>
+      </c>
+      <c r="F7" s="49">
+        <f t="shared" si="3"/>
+        <v>9.2106111124999994E-3</v>
+      </c>
+      <c r="G7" s="48">
+        <f t="shared" si="4"/>
+        <v>106792428000</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
-      <c r="C7" s="39">
+      <c r="I7" s="38">
         <v>1.6E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="J7" s="7">
         <v>192000000000</v>
       </c>
-      <c r="E7" s="40">
+      <c r="K7" s="39">
         <v>0.03</v>
       </c>
-      <c r="F7" s="39">
+      <c r="L7" s="38">
         <v>1.9E-2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="M7" s="7">
         <v>224000000000</v>
       </c>
-      <c r="H7" s="40">
+      <c r="N7" s="39">
         <v>0.03</v>
       </c>
-      <c r="I7" s="39">
+      <c r="O7" s="38">
         <v>0.03</v>
       </c>
-      <c r="J7" s="7">
+      <c r="P7" s="7">
         <v>357000000000</v>
       </c>
-      <c r="K7" s="13">
+      <c r="Q7" s="13">
         <v>0.01</v>
       </c>
-      <c r="L7" s="39">
+      <c r="R7" s="38">
+        <f>S7/AA7</f>
+        <v>1.439469444375E-2</v>
+      </c>
+      <c r="S7" s="7">
+        <f>SUM(S2:S5,S23:S40)</f>
+        <v>170603786000</v>
+      </c>
+      <c r="T7" s="32"/>
+      <c r="U7" s="38">
+        <f>V7/AA7</f>
+        <v>2.4764675484375002E-2</v>
+      </c>
+      <c r="V7" s="7">
+        <f>SUM(V2:V5,V23:V40)</f>
+        <v>293507265000</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="38">
         <v>0.108</v>
       </c>
-      <c r="M7" s="7">
+      <c r="Y7" s="7">
         <v>1280000000000</v>
       </c>
-      <c r="N7" s="13">
+      <c r="Z7" s="13">
         <v>0.41</v>
       </c>
-      <c r="O7">
-        <f>M7/L7</f>
+      <c r="AA7">
+        <f>Y7/X7</f>
         <v>11851851851851.852</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="AC7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="50">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="13"/>
+      <c r="AC8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="27">
+        <f>E9/AA9</f>
+        <v>1.2647283363533513E-2</v>
+      </c>
+      <c r="E9" s="43">
+        <v>27500000000</v>
+      </c>
+      <c r="F9" s="52">
+        <f>G9/AA9</f>
+        <v>9.2440143857099501E-3</v>
+      </c>
+      <c r="G9" s="53">
+        <v>20100000000</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36">
+        <v>2174380000000</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="43"/>
+      <c r="F10" s="54">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G10" s="51">
+        <v>436000000000</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10">
+        <v>21372572000000</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="55">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="19"/>
+      <c r="T11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" t="s">
+        <v>233</v>
+      </c>
+      <c r="R12" t="s">
+        <v>233</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" t="s">
+        <v>233</v>
+      </c>
+      <c r="V12" s="32"/>
+      <c r="W12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="X12" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y12" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="F8" s="41"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="AA12" s="33">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B13" s="40">
+        <f>2*(O13-U13)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="40">
+        <f t="shared" ref="C13:C19" si="6">L13-R13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="40">
+        <f>2*R13-I13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="56">
+        <v>0</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="40">
+        <f t="shared" ref="H13:H19" si="7">O13-L13+I13/2</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="T13" s="32"/>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="32"/>
+      <c r="W13" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0.1</v>
+      </c>
+      <c r="Y13">
+        <f>W13*$AA$12/1000000</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>237</v>
       </c>
-      <c r="C10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" t="s">
-        <v>237</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="B14" s="40">
+        <f t="shared" ref="B14:B19" si="8">2*(O14-U14)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="40">
+        <f>2*R14-I14</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="T14" s="32"/>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14" s="32"/>
+      <c r="W14" s="41">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f>W14*$AA$12/1000000</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>238</v>
       </c>
-      <c r="L10" t="s">
-        <v>237</v>
-      </c>
-      <c r="M10" t="s">
-        <v>239</v>
-      </c>
-      <c r="O10" s="34">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="42">
-        <f t="shared" ref="B11:B17" si="5">I11-F11+C11/2</f>
+      <c r="B15" s="40">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>0.1</v>
-      </c>
-      <c r="M11">
-        <f>K11*$O$10/1000000</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="42">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ref="M12:M17" si="6">K12*$O$10/1000000</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="42">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
+      <c r="C15" s="40">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D15" s="40">
+        <f>2*R15-I15</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="56">
+        <v>2</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="T15" s="32"/>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15" s="32"/>
+      <c r="W15" s="41">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f>W15*$AA$12/1000000</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="40">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="40">
+        <f>2*R16-I16</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="56">
+        <v>2</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="40">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="T16" s="32"/>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16" s="32"/>
+      <c r="W16" s="41">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <f>W16*$AA$12/1000000</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="40">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C17" s="40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="40">
+        <f>2*R17-I17</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="56">
+        <v>2</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="40">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="T17" s="32"/>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17" s="32"/>
+      <c r="W17" s="41">
+        <v>100</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <f>W17*$AA$12/1000000</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="40">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="40">
+        <f>2*R18-I18</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="56">
+        <v>2</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="H18" s="40">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="T18" s="32"/>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18" s="32"/>
+      <c r="W18" s="41">
+        <v>1000</v>
+      </c>
+      <c r="X18">
+        <v>60</v>
+      </c>
+      <c r="Y18">
+        <f>W18*$AA$12/1000000</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="40">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="40">
+        <f>2*R19-I19</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="56">
+        <v>2</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="40">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="T19" s="32"/>
+      <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="V19" s="32"/>
+      <c r="W19" s="41">
+        <v>10000</v>
+      </c>
+      <c r="X19">
+        <v>90</v>
+      </c>
+      <c r="Y19">
+        <f>W19*$AA$12/1000000</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="50">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G20" s="57">
+        <f>F20*H20</f>
+        <v>2880000000</v>
+      </c>
+      <c r="H20">
+        <v>1800000000000</v>
+      </c>
+      <c r="T20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="50">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="G21" s="53">
+        <f>F21*H21</f>
+        <v>816000000000</v>
+      </c>
+      <c r="H21">
+        <f>96*10^12</f>
+        <v>96000000000000</v>
+      </c>
+      <c r="T21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="50">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G22" s="53">
+        <f>F22*H22</f>
+        <v>841600000</v>
+      </c>
+      <c r="H22">
+        <v>526000000000</v>
+      </c>
+      <c r="I22" t="s">
+        <v>280</v>
+      </c>
+      <c r="T22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="42">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23">
+        <v>11805300000</v>
+      </c>
+      <c r="K23" s="5">
+        <v>3.8989099999999999E-2</v>
+      </c>
+      <c r="L23" s="32"/>
+      <c r="M23">
+        <v>15207700000</v>
+      </c>
+      <c r="N23" s="5">
+        <v>3.8989099999999999E-2</v>
+      </c>
+      <c r="O23" s="32"/>
+      <c r="P23">
+        <v>28435000000</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>1.11854E-2</v>
+      </c>
+      <c r="S23">
+        <v>11053200000</v>
+      </c>
+      <c r="T23" s="32">
+        <v>3.8989099999999999E-2</v>
+      </c>
+      <c r="V23">
+        <v>22801100000</v>
+      </c>
+      <c r="W23" s="32">
+        <v>1.11854E-2</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="42">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>7</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+      <c r="J24">
+        <v>10349200000</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5.67772E-2</v>
+      </c>
+      <c r="L24" s="32"/>
+      <c r="M24">
+        <v>11929000000</v>
+      </c>
+      <c r="N24" s="5">
+        <v>5.67772E-2</v>
+      </c>
+      <c r="O24" s="32"/>
+      <c r="P24">
+        <v>18190100000</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>2.07812E-2</v>
+      </c>
+      <c r="S24">
+        <v>9131780000</v>
+      </c>
+      <c r="T24" s="32">
+        <v>5.67772E-2</v>
+      </c>
+      <c r="V24">
+        <v>15002300000</v>
+      </c>
+      <c r="W24" s="32">
+        <v>2.07812E-2</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="42">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="K16">
-        <v>1000</v>
-      </c>
-      <c r="L16">
-        <v>60</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25">
+        <v>1854890000</v>
+      </c>
+      <c r="K25" s="5">
+        <v>9.5164600000000002E-2</v>
+      </c>
+      <c r="L25" s="32"/>
+      <c r="M25">
+        <v>2344760000</v>
+      </c>
+      <c r="N25" s="5">
+        <v>9.5164600000000002E-2</v>
+      </c>
+      <c r="O25" s="32"/>
+      <c r="P25">
+        <v>4234760000</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>4.2202200000000002E-2</v>
+      </c>
+      <c r="S25">
+        <v>1717740000</v>
+      </c>
+      <c r="T25" s="32">
+        <v>9.5164600000000002E-2</v>
+      </c>
+      <c r="V25">
+        <v>3400310000</v>
+      </c>
+      <c r="W25" s="32">
+        <v>4.2202200000000002E-2</v>
+      </c>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="B17" s="42">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="K17" s="34">
-        <v>10000</v>
-      </c>
-      <c r="L17">
-        <v>90</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26">
+        <v>562322000</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1.21885E-2</v>
+      </c>
+      <c r="L26" s="32"/>
+      <c r="M26">
+        <v>617912000</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1.21885E-2</v>
+      </c>
+      <c r="O26" s="32"/>
+      <c r="P26">
+        <v>654576000</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>4.6468000000000004E-3</v>
+      </c>
+      <c r="S26">
+        <v>504434000</v>
+      </c>
+      <c r="T26" s="32">
+        <v>1.21885E-2</v>
+      </c>
+      <c r="V26">
+        <v>607300000</v>
+      </c>
+      <c r="W26" s="32">
+        <v>4.6468000000000004E-3</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20">
-        <v>11805300000</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3.8989099999999999E-2</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20">
-        <v>15207700000</v>
-      </c>
-      <c r="H20" s="5">
-        <v>3.8989099999999999E-2</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20">
-        <v>28435000000</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1.11854E-2</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27">
+        <v>1769430000</v>
+      </c>
+      <c r="K27" s="5">
+        <v>2.4346699999999999E-2</v>
+      </c>
+      <c r="L27" s="32"/>
+      <c r="M27">
+        <v>1687670000</v>
+      </c>
+      <c r="N27" s="5">
+        <v>2.4346699999999999E-2</v>
+      </c>
+      <c r="O27" s="32"/>
+      <c r="P27">
+        <v>1458560000</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>5.9619900000000003E-3</v>
+      </c>
+      <c r="S27">
+        <v>1490780000</v>
+      </c>
+      <c r="T27" s="32">
+        <v>2.4346699999999999E-2</v>
+      </c>
+      <c r="V27">
+        <v>1433800000</v>
+      </c>
+      <c r="W27" s="32">
+        <v>5.9619900000000003E-3</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21">
-        <v>10349200000</v>
-      </c>
-      <c r="E21" s="5">
-        <v>5.67772E-2</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21">
-        <v>11929000000</v>
-      </c>
-      <c r="H21" s="5">
-        <v>5.67772E-2</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="J21">
-        <v>18190100000</v>
-      </c>
-      <c r="K21" s="5">
-        <v>2.07812E-2</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28">
+        <v>967764000</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2.92742E-3</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28">
+        <v>1179450000</v>
+      </c>
+      <c r="N28" s="5">
+        <v>2.92742E-3</v>
+      </c>
+      <c r="O28" s="32"/>
+      <c r="P28">
+        <v>1697440000</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>6.751950000000001E-5</v>
+      </c>
+      <c r="S28">
+        <v>902436999.99999988</v>
+      </c>
+      <c r="T28" s="32">
+        <v>2.92742E-3</v>
+      </c>
+      <c r="V28">
+        <v>1432600000</v>
+      </c>
+      <c r="W28" s="32">
+        <v>6.751950000000001E-5</v>
+      </c>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22">
-        <v>1854890000</v>
-      </c>
-      <c r="E22" s="5">
-        <v>9.5164600000000002E-2</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22">
-        <v>2344760000</v>
-      </c>
-      <c r="H22" s="5">
-        <v>9.5164600000000002E-2</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22">
-        <v>4234760000</v>
-      </c>
-      <c r="K22" s="5">
-        <v>4.2202200000000002E-2</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29">
+        <v>1044440000</v>
+      </c>
+      <c r="K29" s="5">
+        <v>5.7337000000000004E-3</v>
+      </c>
+      <c r="L29" s="32"/>
+      <c r="M29">
+        <v>1135210000</v>
+      </c>
+      <c r="N29" s="5">
+        <v>5.7337000000000004E-3</v>
+      </c>
+      <c r="O29" s="32"/>
+      <c r="P29">
+        <v>1171190000</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>2.7984199999999998E-3</v>
+      </c>
+      <c r="S29">
+        <v>910167000</v>
+      </c>
+      <c r="T29" s="32">
+        <v>5.7337000000000004E-3</v>
+      </c>
+      <c r="V29">
+        <v>1086060000</v>
+      </c>
+      <c r="W29" s="32">
+        <v>2.7984199999999998E-3</v>
+      </c>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23">
-        <v>562322000</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1.21885E-2</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23">
-        <v>617912000</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1.21885E-2</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="J23">
-        <v>654576000</v>
-      </c>
-      <c r="K23" s="5">
-        <v>4.6468000000000004E-3</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30">
+        <v>1152660000</v>
+      </c>
+      <c r="K30" s="5">
+        <v>4.7007999999999998E-3</v>
+      </c>
+      <c r="L30" s="32"/>
+      <c r="M30">
+        <v>1027390000</v>
+      </c>
+      <c r="N30" s="5">
+        <v>4.7007999999999998E-3</v>
+      </c>
+      <c r="O30" s="32"/>
+      <c r="P30">
+        <v>875014000</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>1.9259699999999999E-3</v>
+      </c>
+      <c r="S30">
+        <v>918928000</v>
+      </c>
+      <c r="T30" s="32">
+        <v>4.7007999999999998E-3</v>
+      </c>
+      <c r="V30">
+        <v>834336000</v>
+      </c>
+      <c r="W30" s="32">
+        <v>1.9259699999999999E-3</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24">
-        <v>1769430000</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2.4346699999999999E-2</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24">
-        <v>1687670000</v>
-      </c>
-      <c r="H24" s="5">
-        <v>2.4346699999999999E-2</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="J24">
-        <v>1458560000</v>
-      </c>
-      <c r="K24" s="5">
-        <v>5.9619900000000003E-3</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31">
+        <v>3516000000</v>
+      </c>
+      <c r="K31" s="5">
+        <v>7.9072999999999991E-2</v>
+      </c>
+      <c r="L31" s="32"/>
+      <c r="M31">
+        <v>3731260000</v>
+      </c>
+      <c r="N31" s="5">
+        <v>7.9072999999999991E-2</v>
+      </c>
+      <c r="O31" s="32"/>
+      <c r="P31">
+        <v>3886050000</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>2.32768E-2</v>
+      </c>
+      <c r="S31">
+        <v>3020970000</v>
+      </c>
+      <c r="T31" s="32">
+        <v>7.9072999999999991E-2</v>
+      </c>
+      <c r="V31">
+        <v>3561140000</v>
+      </c>
+      <c r="W31" s="32">
+        <v>2.32768E-2</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25">
-        <v>967764000</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2.92742E-3</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25">
-        <v>1179450000</v>
-      </c>
-      <c r="H25" s="5">
-        <v>2.92742E-3</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="J25">
-        <v>1697440000</v>
-      </c>
-      <c r="K25" s="5">
-        <v>6.751950000000001E-5</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32">
+        <v>441586000.00000012</v>
+      </c>
+      <c r="K32" s="5">
+        <v>9.5982800000000007E-3</v>
+      </c>
+      <c r="L32" s="32"/>
+      <c r="M32">
+        <v>323198000</v>
+      </c>
+      <c r="N32" s="5">
+        <v>9.5982800000000007E-3</v>
+      </c>
+      <c r="O32" s="32"/>
+      <c r="P32">
+        <v>202741000</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1.31111E-4</v>
+      </c>
+      <c r="S32">
+        <v>321129000</v>
+      </c>
+      <c r="T32" s="32">
+        <v>9.5982800000000007E-3</v>
+      </c>
+      <c r="V32">
+        <v>202741000</v>
+      </c>
+      <c r="W32" s="32">
+        <v>1.31111E-4</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26">
-        <v>1044440000</v>
-      </c>
-      <c r="E26" s="5">
-        <v>5.7337000000000004E-3</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26">
-        <v>1135210000</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5.7337000000000004E-3</v>
-      </c>
-      <c r="I26" s="33"/>
-      <c r="J26">
-        <v>1171190000</v>
-      </c>
-      <c r="K26" s="5">
-        <v>2.7984199999999998E-3</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33">
+        <v>2107760000</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.234762</v>
+      </c>
+      <c r="L33" s="32"/>
+      <c r="M33">
+        <v>2578780000</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.234762</v>
+      </c>
+      <c r="O33" s="32"/>
+      <c r="P33">
+        <v>4310250000</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>8.9194200000000001E-2</v>
+      </c>
+      <c r="S33">
+        <v>1896050000</v>
+      </c>
+      <c r="T33" s="32">
+        <v>0.234762</v>
+      </c>
+      <c r="V33">
+        <v>3457170000</v>
+      </c>
+      <c r="W33" s="32">
+        <v>8.9194200000000001E-2</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27">
-        <v>1152660000</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4.7007999999999998E-3</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27">
-        <v>1027390000</v>
-      </c>
-      <c r="H27" s="5">
-        <v>4.7007999999999998E-3</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27">
-        <v>875014000</v>
-      </c>
-      <c r="K27" s="5">
-        <v>1.9259699999999999E-3</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34">
+        <v>68102200</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1.0055400000000001E-3</v>
+      </c>
+      <c r="L34" s="32"/>
+      <c r="M34">
+        <v>56200000</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1.0055400000000001E-3</v>
+      </c>
+      <c r="O34" s="32"/>
+      <c r="P34">
+        <v>46969300</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>3.1115100000000002E-4</v>
+      </c>
+      <c r="S34">
+        <v>48499000</v>
+      </c>
+      <c r="T34" s="32">
+        <v>1.0055400000000001E-3</v>
+      </c>
+      <c r="V34">
+        <v>41783000</v>
+      </c>
+      <c r="W34" s="32">
+        <v>3.1115100000000002E-4</v>
+      </c>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28">
-        <v>3516000000</v>
-      </c>
-      <c r="E28" s="5">
-        <v>7.9072999999999991E-2</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28">
-        <v>3731260000</v>
-      </c>
-      <c r="H28" s="5">
-        <v>7.9072999999999991E-2</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28">
-        <v>3886050000</v>
-      </c>
-      <c r="K28" s="5">
-        <v>2.32768E-2</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35">
+        <v>625581000</v>
+      </c>
+      <c r="K35" s="5">
+        <v>5.8450200000000001E-2</v>
+      </c>
+      <c r="L35" s="32"/>
+      <c r="M35">
+        <v>781506000</v>
+      </c>
+      <c r="N35" s="5">
+        <v>5.8450200000000001E-2</v>
+      </c>
+      <c r="O35" s="32"/>
+      <c r="P35">
+        <v>980810999.99999988</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>2.76875E-2</v>
+      </c>
+      <c r="S35">
+        <v>576175000</v>
+      </c>
+      <c r="T35" s="32">
+        <v>5.8450200000000001E-2</v>
+      </c>
+      <c r="V35">
+        <v>856456000</v>
+      </c>
+      <c r="W35" s="32">
+        <v>2.76875E-2</v>
+      </c>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29">
-        <v>441586000.00000012</v>
-      </c>
-      <c r="E29" s="5">
-        <v>9.5982800000000007E-3</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29">
-        <v>323198000</v>
-      </c>
-      <c r="H29" s="5">
-        <v>9.5982800000000007E-3</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29">
-        <v>202741000</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1.31111E-4</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36">
+        <v>8829090000</v>
+      </c>
+      <c r="K36" s="5">
+        <v>2.5381500000000001E-2</v>
+      </c>
+      <c r="L36" s="32"/>
+      <c r="M36">
+        <v>10639300000</v>
+      </c>
+      <c r="N36" s="5">
+        <v>2.5381500000000001E-2</v>
+      </c>
+      <c r="O36" s="32"/>
+      <c r="P36">
+        <v>17602700000</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>8.5916800000000008E-3</v>
+      </c>
+      <c r="S36">
+        <v>7984630000</v>
+      </c>
+      <c r="T36" s="32">
+        <v>2.5381500000000001E-2</v>
+      </c>
+      <c r="V36">
+        <v>14344300000</v>
+      </c>
+      <c r="W36" s="32">
+        <v>8.5916800000000008E-3</v>
+      </c>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30">
-        <v>2107760000</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.234762</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30">
-        <v>2578780000</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.234762</v>
-      </c>
-      <c r="I30" s="33"/>
-      <c r="J30">
-        <v>4310250000</v>
-      </c>
-      <c r="K30" s="5">
-        <v>8.9194200000000001E-2</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="27"/>
+      <c r="J37">
+        <v>5884530000</v>
+      </c>
+      <c r="K37" s="5">
+        <v>4.7133899999999996E-3</v>
+      </c>
+      <c r="L37" s="32"/>
+      <c r="M37">
+        <v>5229250000</v>
+      </c>
+      <c r="N37" s="5">
+        <v>4.7133899999999996E-3</v>
+      </c>
+      <c r="O37" s="32"/>
+      <c r="P37">
+        <v>4093520000</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>1.4427299999999999E-3</v>
+      </c>
+      <c r="S37">
+        <v>4664430000</v>
+      </c>
+      <c r="T37" s="32">
+        <v>4.7133899999999996E-3</v>
+      </c>
+      <c r="V37">
+        <v>4051330000</v>
+      </c>
+      <c r="W37" s="32">
+        <v>1.4427299999999999E-3</v>
+      </c>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31">
-        <v>68102200</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1.0055400000000001E-3</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31">
-        <v>56200000</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1.0055400000000001E-3</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="J31">
-        <v>46969300</v>
-      </c>
-      <c r="K31" s="5">
-        <v>3.1115100000000002E-4</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
+      <c r="J38">
+        <v>2638440000</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1.6438100000000001E-2</v>
+      </c>
+      <c r="L38" s="32"/>
+      <c r="M38">
+        <v>3193060000</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1.6438100000000001E-2</v>
+      </c>
+      <c r="O38" s="32"/>
+      <c r="P38">
+        <v>5242770000</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>5.8277199999999998E-3</v>
+      </c>
+      <c r="S38">
+        <v>2394240000</v>
+      </c>
+      <c r="T38" s="32">
+        <v>1.6438100000000001E-2</v>
+      </c>
+      <c r="V38">
+        <v>4273150000</v>
+      </c>
+      <c r="W38" s="32">
+        <v>5.8277199999999998E-3</v>
+      </c>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32">
-        <v>625581000</v>
-      </c>
-      <c r="E32" s="5">
-        <v>5.8450200000000001E-2</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32">
-        <v>781506000</v>
-      </c>
-      <c r="H32" s="5">
-        <v>5.8450200000000001E-2</v>
-      </c>
-      <c r="I32" s="33"/>
-      <c r="J32">
-        <v>980810999.99999988</v>
-      </c>
-      <c r="K32" s="5">
-        <v>2.76875E-2</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27"/>
+      <c r="J39">
+        <v>291907000</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1.2645099999999999E-2</v>
+      </c>
+      <c r="L39" s="32"/>
+      <c r="M39">
+        <v>316284000</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1.2645099999999999E-2</v>
+      </c>
+      <c r="O39" s="32"/>
+      <c r="P39">
+        <v>397545000</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>4.0374499999999997E-3</v>
+      </c>
+      <c r="S39">
+        <v>250633000</v>
+      </c>
+      <c r="T39" s="32">
+        <v>1.2645099999999999E-2</v>
+      </c>
+      <c r="V39">
+        <v>339935000</v>
+      </c>
+      <c r="W39" s="32">
+        <v>4.0374499999999997E-3</v>
+      </c>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33">
-        <v>8829090000</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2.5381500000000001E-2</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33">
-        <v>10639300000</v>
-      </c>
-      <c r="H33" s="5">
-        <v>2.5381500000000001E-2</v>
-      </c>
-      <c r="I33" s="33"/>
-      <c r="J33">
-        <v>17602700000</v>
-      </c>
-      <c r="K33" s="5">
-        <v>8.5916800000000008E-3</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34">
-        <v>5884530000</v>
-      </c>
-      <c r="E34" s="5">
-        <v>4.7133899999999996E-3</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34">
-        <v>5229250000</v>
-      </c>
-      <c r="H34" s="5">
-        <v>4.7133899999999996E-3</v>
-      </c>
-      <c r="I34" s="33"/>
-      <c r="J34">
-        <v>4093520000</v>
-      </c>
-      <c r="K34" s="5">
-        <v>1.4427299999999999E-3</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35">
-        <v>2638440000</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1.6438100000000001E-2</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35">
-        <v>3193060000</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1.6438100000000001E-2</v>
-      </c>
-      <c r="I35" s="33"/>
-      <c r="J35">
-        <v>5242770000</v>
-      </c>
-      <c r="K35" s="5">
-        <v>5.8277199999999998E-3</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36">
-        <v>291907000</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1.2645099999999999E-2</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36">
-        <v>316284000</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1.2645099999999999E-2</v>
-      </c>
-      <c r="I36" s="33"/>
-      <c r="J36">
-        <v>397545000</v>
-      </c>
-      <c r="K36" s="5">
-        <v>4.0374499999999997E-3</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37">
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
+      <c r="J40">
         <v>823537999.99999988</v>
       </c>
-      <c r="E37" s="5">
+      <c r="K40" s="5">
         <v>5.59604E-3</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37">
+      <c r="L40" s="32"/>
+      <c r="M40">
         <v>710702000</v>
       </c>
-      <c r="H37" s="5">
+      <c r="N40" s="5">
         <v>5.59604E-3</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37">
+      <c r="O40" s="32"/>
+      <c r="P40">
         <v>539481000</v>
       </c>
-      <c r="K37" s="5">
+      <c r="Q40" s="5">
         <v>1.08854E-3</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="S40">
+        <v>650064000</v>
+      </c>
+      <c r="T40" s="32">
+        <v>5.59604E-3</v>
+      </c>
+      <c r="V40">
+        <v>538354000</v>
+      </c>
+      <c r="W40" s="32">
+        <v>1.08854E-3</v>
+      </c>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="3" r:id="rId1"/>
-    <sheet name="quotas" sheetId="12" r:id="rId2"/>
-    <sheet name="Constants" sheetId="2" r:id="rId3"/>
-    <sheet name="Income" sheetId="4" r:id="rId4"/>
-    <sheet name="Education" sheetId="5" r:id="rId5"/>
-    <sheet name="Policies" sheetId="6" r:id="rId6"/>
-    <sheet name="Wealth tax" sheetId="7" r:id="rId7"/>
-    <sheet name="Rotated (old)" sheetId="1" r:id="rId8"/>
+    <sheet name="Figures" sheetId="3" r:id="rId1"/>
+    <sheet name="Wording" sheetId="13" r:id="rId2"/>
+    <sheet name="Quotas" sheetId="12" r:id="rId3"/>
+    <sheet name="Constants" sheetId="2" r:id="rId4"/>
+    <sheet name="Income" sheetId="4" r:id="rId5"/>
+    <sheet name="Education" sheetId="5" r:id="rId6"/>
+    <sheet name="Policies" sheetId="6" r:id="rId7"/>
+    <sheet name="Wealth tax" sheetId="7" r:id="rId8"/>
+    <sheet name="Rotated (old)" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="481">
   <si>
     <t>France</t>
   </si>
@@ -360,12 +361,6 @@
     <t>CAP ou BEP</t>
   </si>
   <si>
-    <t>Bac professionnel</t>
-  </si>
-  <si>
-    <t>Bac général ou technologique</t>
-  </si>
-  <si>
     <t>Bac +2 (BTS, DUT, DEUG…)</t>
   </si>
   <si>
@@ -384,15 +379,9 @@
     <t>Some high school</t>
   </si>
   <si>
-    <t>Regular high school diploma/GED or alternative credential</t>
-  </si>
-  <si>
     <t>Bachelor's degree (for example: BA, BS)</t>
   </si>
   <si>
-    <t>Master’s degree or above (MA, MS, MEng, MEd, MSW, MBA, MD, DDS, DVM, LLB, JD)</t>
-  </si>
-  <si>
     <t>!</t>
   </si>
   <si>
@@ -459,9 +448,6 @@
     <t>Master-Abschluss oder höher</t>
   </si>
   <si>
-    <t>Zweitausbildung</t>
-  </si>
-  <si>
     <t>Hochschulabschluss (z.B. Bachelor, Fachschulabschluss)</t>
   </si>
   <si>
@@ -471,9 +457,6 @@
     <t>Some secondary school</t>
   </si>
   <si>
-    <t>merge 3 and 4</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -969,9 +952,6 @@
     <t>men</t>
   </si>
   <si>
-    <t>College in 25-64</t>
-  </si>
-  <si>
     <t>Cities definition</t>
   </si>
   <si>
@@ -1005,21 +985,6 @@
     <t>https://www.doogal.co.uk/postcodedownloads.php https://www.ons.gov.uk/file?uri=/methodology/geography/geographicalproducts/ruralurbanclassifications/2011ruralurbanclassification/rucladleafletmay2015tcm77406355.pdf</t>
   </si>
   <si>
-    <t>College in &gt;18</t>
-  </si>
-  <si>
-    <t>Somme</t>
-  </si>
-  <si>
-    <t>Moyenne</t>
-  </si>
-  <si>
-    <t>Résultat cumulé</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>women</t>
   </si>
   <si>
@@ -1090,15 +1055,442 @@
   </si>
   <si>
     <t>https://gisco-services.ec.europa.eu/tercet/flat-files &gt; Various: https://gisco-services.ec.europa.eu/tercet/Various/PC_DGURBA_2018.zip</t>
+  </si>
+  <si>
+    <t>Source alternative</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ISCED</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>Zweitausbildung / Hochschulreife</t>
+  </si>
+  <si>
+    <t>GSCE [not professional but ~16 years]</t>
+  </si>
+  <si>
+    <t>Post-secondary in 25-64</t>
+  </si>
+  <si>
+    <t>Upper secondary</t>
+  </si>
+  <si>
+    <t>Below upper secondary</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Baccalauréat professionnel ou technologique</t>
+  </si>
+  <si>
+    <t>Baccalauréat général</t>
+  </si>
+  <si>
+    <t>Regular high school diploma/GED or alternative credential or Some college, no degree</t>
+  </si>
+  <si>
+    <t>Master’s degree or above (MA, MS, MEng, MEd, MSW, MBA, MD, DDS, DVM, LLB, JD, PhD)</t>
+  </si>
+  <si>
+    <t>Q2.4 zipcode</t>
+  </si>
+  <si>
+    <t>Outcode</t>
+  </si>
+  <si>
+    <t>Q2.14 income</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>Q2.8 education</t>
+  </si>
+  <si>
+    <t>cf. related sheet, levels correspond to ISCED 0-1, 2, 3a (16-17 yrs, pro), 3b (18 yrs, pro), 3c (18 yrs, general), 4-5, 6, 7-8</t>
+  </si>
+  <si>
+    <t>Same except it's …3a, 3c, 5a (no degree), 5b (associate degree)…</t>
+  </si>
+  <si>
+    <t>5-digit zipcode</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Q50 Wealth</t>
+  </si>
+  <si>
+    <t>25/110/250/500k TODO: check values</t>
+  </si>
+  <si>
+    <t>Coal exit, Marriage only for opposite-sex couples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q258 R threshold </t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>$315,000/year</t>
+  </si>
+  <si>
+    <t>Q258 R tax rates</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>given in "See more details": 315-400k: 32=&gt;41%; 400-600k: 35=&gt;50%; 600k-2.5M: 37=&gt;60%; 2.5-5M: 37=&gt;65%; 5M+: 37=&gt;70% Raises $285.9 billion in 2019 according to Saez &amp; Zucman (2019) https://taxjusticenow.org/#makeYourOwnTaxPlan  "&lt;br&gt;&lt;br&gt;The marginal income taxe rates would evolve as follows:&lt;br&gt;Below $315,000: unchanged&lt;br&gt;$315,000 - $400,000: current rate 32% =&gt; new rate 41%&lt;br&gt;$400,000 - $600,000: 35% =&gt; 50%&lt;br&gt;$600,000 - $2.5 million: 37% =&gt; 60%&lt;br&gt;$2.5 - $5 million: 37% =&gt; 65%&lt;br&gt;Above $5 million: 37% =&gt; 70%"</t>
+  </si>
+  <si>
+    <t>monthly?</t>
+  </si>
+  <si>
+    <t>Q258 G basic income</t>
+  </si>
+  <si>
+    <t>€25 / €2 pro Tag</t>
+  </si>
+  <si>
+    <t>25€ / 2$ al dia</t>
+  </si>
+  <si>
+    <t>25€ / 2$ par jour</t>
+  </si>
+  <si>
+    <t>£22 / $2/day</t>
+  </si>
+  <si>
+    <t>$30 / $2/day</t>
+  </si>
+  <si>
+    <t>Q258 R transfer</t>
+  </si>
+  <si>
+    <t>$86 per month / $1000 per year</t>
+  </si>
+  <si>
+    <t>12€/month</t>
+  </si>
+  <si>
+    <t>€5/month</t>
+  </si>
+  <si>
+    <t>median loss from GCS in 2030 ($)</t>
+  </si>
+  <si>
+    <t>£19/month</t>
+  </si>
+  <si>
+    <t>€24/month</t>
+  </si>
+  <si>
+    <t>£ per $</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>Americans</t>
+  </si>
+  <si>
+    <t>Insulation plan, Death penalty for major crimes</t>
+  </si>
+  <si>
+    <t>Q284, 285 conjoint analysis (c)</t>
+  </si>
+  <si>
+    <t>cf. related sheet "Policies" TODO</t>
+  </si>
+  <si>
+    <t>Q30, 48 conjoint analysis (d)</t>
+  </si>
+  <si>
+    <t>Democratic primary (cf. sheet "Policies")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q270, 271 petition </t>
+  </si>
+  <si>
+    <t>cabinet du Président de la République Êtes-vous prêt à signer une pétition pour le Plan climatique mondial ? Dès que l'enquête sera terminée, nous enverrons les résultats au cabinet du Président de la République, en l'informant de la proportion de Français disposés à soutenir le plan climatique mondial.
+(Il ne vous sera PAS demandé de signer, seule votre réponse est requise et reste anonyme).</t>
+  </si>
+  <si>
+    <t>an das Bundeskanzleramt Sind Sie schließlich bereit, eine Petition zu unterschreiben, um ...?
+Sobald die Umfrage abgeschlossen ist, senden wir die Ergebnisse an das Bundeskanzleramt und teilen mit, wie viele Personen, die an dieser Umfrage teilgenommen haben, bereit waren, die folgende Petition zu unterstützen. (Sie werden NICHT zur Unterschrift aufgefordert, nur Ihre Antwort ist hier erforderlich und bleibt anonym,)</t>
+  </si>
+  <si>
+    <t>la oficina del Presidente ¿está dispuesto a firmar una petición para "defender una acción climática real"?
+Tan pronto como finalice la encuesta, enviaremos los resultados a la oficina del Presidente, informándole de la proporción de ... que estaban dispuestos a apoyar ... . (NO se le pedirá que firme, sólo se requiere su respuesta, que permanece anónima)</t>
+  </si>
+  <si>
+    <t>the Prime minister's office</t>
+  </si>
+  <si>
+    <t>the President's office</t>
+  </si>
+  <si>
+    <t>française</t>
+  </si>
+  <si>
+    <t>deutsch</t>
+  </si>
+  <si>
+    <t>espanol</t>
+  </si>
+  <si>
+    <t>of the U.K.</t>
+  </si>
+  <si>
+    <t>the U.S.</t>
+  </si>
+  <si>
+    <t>No ONG specified</t>
+  </si>
+  <si>
+    <t>GiveDirectly</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>Espana</t>
+  </si>
+  <si>
+    <t>the U.K.</t>
+  </si>
+  <si>
+    <t>Q278, 279 wealth tax revenues</t>
+  </si>
+  <si>
+    <t>$430 billion / 2% of GDP</t>
+  </si>
+  <si>
+    <t>Q277, 279 wealthy tax</t>
+  </si>
+  <si>
+    <t>hospitals, schools</t>
+  </si>
+  <si>
+    <t>affordable housing, universal childcare/pre-K</t>
+  </si>
+  <si>
+    <t>Q1 foreign aid: govt spending/GDP</t>
+  </si>
+  <si>
+    <t>Q1 foreign aid: other items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defense, social security (retirement pensions), health (including Medicare and Medicaid), welfare benefits (including food stamps and EITC), education, roads, justice, other programs and federal agencies (including in energy, science...).</t>
+  </si>
+  <si>
+    <t>Q1, 2 foreign aid: other items</t>
+  </si>
+  <si>
+    <t>other programs and federal agencies</t>
+  </si>
+  <si>
+    <t>other budgets like justice or culture / no parentheses TODO</t>
+  </si>
+  <si>
+    <t>Q3, 47 foreign aid / govt spending</t>
+  </si>
+  <si>
+    <t>0.4% / 2% of GDP</t>
+  </si>
+  <si>
+    <t>1% / 0.5% of GDP</t>
+  </si>
+  <si>
+    <t>1.5% / 0.7% of GDP</t>
+  </si>
+  <si>
+    <t>0.7% / 0.3% of GDP</t>
+  </si>
+  <si>
+    <t>1.7% / 0.7% of GDP</t>
+  </si>
+  <si>
+    <t>Q50, 258, 259, 90, 275, 278, 272</t>
+  </si>
+  <si>
+    <t>Q273, 1, 3, 1, 2, 47, 48, 49, 23.4</t>
+  </si>
+  <si>
+    <t>2020 presidential</t>
+  </si>
+  <si>
+    <t>2019 general</t>
+  </si>
+  <si>
+    <t>Conservative/Labour/Liberal Democrats/SNP/Green/Brexit Party/Other/Prefer not to say</t>
+  </si>
+  <si>
+    <t>¿A qué partido votó en las últimas elecciones generales de noviembre 2019?</t>
+  </si>
+  <si>
+    <t>Welche Partei haben Sie bei der 2021 Bundestagswahl gewählt?</t>
+  </si>
+  <si>
+    <t>CDU/CSU /SPD/AfD/FDP/Die Linke/ Bündnis 90/Die Grünen / Sonstige/Ich möchte das nicht beantworten</t>
+  </si>
+  <si>
+    <t>PSOE/PP/VOX/Unidas Podemos/Esquerra Republicana/Ciudadanos/otro/Prefiero no decirlo</t>
+  </si>
+  <si>
+    <t>Biden/Trump/Jorgensen/Hawkins/Prefer not to say</t>
+  </si>
+  <si>
+    <t>Pour quel candidat⋅e avez-vous voté au premier tour de la dernière élection présidentielle en 2022?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emmanuel Macron / Marine Le Pen / Jean-Luc Mélenchon / Éric Zemmour / Valérie Pécresse / Yannick Jadot / Jean Lassalle / Fabien Roussel / Nicolas Dupont-Aignan  / Anne Hidalgo / Philippe Poutou / Nathalie Arthaud / Préfère ne pas le dire</t>
+  </si>
+  <si>
+    <t>Q23.4, 24.1, 24.2 election</t>
+  </si>
+  <si>
+    <t>Q277, 279, 23.4, 273</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Q274 group defended</t>
+  </si>
+  <si>
+    <t>country, region or county</t>
+  </si>
+  <si>
+    <t>région ou département</t>
+  </si>
+  <si>
+    <t>Q259, 261, 90, 264, 265, 275, 276, 92, 49, 274</t>
+  </si>
+  <si>
+    <t>Imagine if the two favorite candidates in your constituency in the next general election campaigned with the following policies in their party's platforms.&lt;br&gt;
+&lt;br&gt;
+Which of these candidates would you vote for?&lt;div&gt;</t>
+  </si>
+  <si>
+    <t>Absent TODO:remove</t>
+  </si>
+  <si>
+    <t>€44 billion / 1.3%% of GDP</t>
+  </si>
+  <si>
+    <t>€16 billion / 0.7% of GDP</t>
+  </si>
+  <si>
+    <t>£20 billion / 0.9% of GDP</t>
+  </si>
+  <si>
+    <t>€5 billion / 0.4% of GDP</t>
+  </si>
+  <si>
+    <t>same source as above</t>
+  </si>
+  <si>
+    <t>P98 monthly</t>
+  </si>
+  <si>
+    <t>P98 yearly</t>
+  </si>
+  <si>
+    <t>P95 monthly</t>
+  </si>
+  <si>
+    <t>P95 yearly</t>
+  </si>
+  <si>
+    <t>pre-tax national income 2021 LCU (2015 inflated) WID.world equal split https://wid.world/data/#countriestimeseries/tfiinc_p95p100_z/US;FR;DE;GB;WO;ES/1930/2021/cc/c/x/yearly/t</t>
+  </si>
+  <si>
+    <t>Top 1% post-tax income share</t>
+  </si>
+  <si>
+    <t>2021 equal-split https://wid.world/</t>
+  </si>
+  <si>
+    <t>tax revenue over top 1% share</t>
+  </si>
+  <si>
+    <t>Top 1% pre-tax threshold  (k LCU 2021)</t>
+  </si>
+  <si>
+    <t>15k€ per month</t>
+  </si>
+  <si>
+    <t>20k€ per month</t>
+  </si>
+  <si>
+    <t>10k€ per month</t>
+  </si>
+  <si>
+    <t>15k£ per month</t>
+  </si>
+  <si>
+    <t>equal split https://wid.world/data/#countriestimeseries/tfiinc_p95p100_z/US;FR;DE;GB;WO;ES/1930/2021/cc/c/x/yearly/t</t>
+  </si>
+  <si>
+    <t>Q258 Policies described y.c. list experiment / conjoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q275, 276 donation lottery </t>
+  </si>
+  <si>
+    <t>Q24.1, 24.2 candidates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1228,7 +1620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1350,10 +1742,25 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,11 +2042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" activeCellId="1" sqref="C26:D26 F26:G26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +2291,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>68</v>
+        <v>389</v>
       </c>
       <c r="B9" s="20">
         <f>B11*(B15*(B17/B16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B16/12-30</f>
@@ -2184,19 +2591,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="11">
-        <f t="shared" ref="B19:G19" si="2">B21/B20</f>
+        <f t="shared" ref="B19:G19" si="2">B23/B22</f>
         <v>1.6804869000780116E-2</v>
       </c>
       <c r="C19" s="11">
@@ -2221,504 +2628,572 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>50</v>
+      <c r="A20" s="14" t="s">
+        <v>471</v>
       </c>
       <c r="B20" s="11">
-        <v>0.15260000000000001</v>
+        <f>B23/B21</f>
+        <v>2.8652771056078725E-2</v>
       </c>
       <c r="C20" s="11">
-        <v>0.20330000000000001</v>
+        <f t="shared" ref="C20:G20" si="3">C23/C21</f>
+        <v>3.7067064609916489E-2</v>
       </c>
       <c r="D20" s="11">
-        <v>0.19869999999999999</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.19109999999999999</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>1.4677280378829026E-2</v>
+      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="11">
-        <v>0.17660000000000001</v>
+        <f t="shared" si="3"/>
+        <v>3.8580944213005321E-2</v>
       </c>
       <c r="G20" s="11">
-        <v>0.27129999999999999</v>
-      </c>
-      <c r="M20" t="s">
-        <v>53</v>
+        <f t="shared" si="3"/>
+        <v>6.5196117592019917E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3">
-        <f>B10/B22</f>
-        <v>2.5644230095190458E-3</v>
-      </c>
-      <c r="C21" s="3">
-        <f>C10/C22</f>
-        <v>4.9373330060408765E-3</v>
-      </c>
-      <c r="D21" s="3">
-        <f>D10/D22</f>
-        <v>1.6790808753380407E-3</v>
-      </c>
-      <c r="E21" s="3">
-        <f>E10/E22</f>
-        <v>4.1710288325086144E-3</v>
-      </c>
-      <c r="F21" s="3">
-        <f>F10/F22</f>
-        <v>4.9152122927368785E-3</v>
-      </c>
-      <c r="G21" s="3">
-        <f>G10/G22</f>
-        <v>1.2406821177761389E-2</v>
+      <c r="A21" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="11">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.1144</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.1903</v>
+      </c>
+      <c r="M21" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.20330000000000001</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.19109999999999999</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" ref="B23:G23" si="4">B10/B24</f>
+        <v>2.5644230095190458E-3</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9373330060408765E-3</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6790808753380407E-3</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="4"/>
+        <v>4.1710288325086144E-3</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>4.9152122927368785E-3</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2406821177761389E-2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>2937</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>4223</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>1425</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>813</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>3187</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <v>22996</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23">
-        <v>95</v>
-      </c>
-      <c r="C23">
-        <v>112</v>
-      </c>
-      <c r="D23">
-        <v>83</v>
-      </c>
-      <c r="E23">
-        <v>152</v>
-      </c>
-      <c r="F23">
-        <v>88</v>
-      </c>
-      <c r="G23">
-        <v>172</v>
-      </c>
-      <c r="M23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="C25">
-        <v>83.1</v>
-      </c>
-      <c r="D25">
-        <v>47.1</v>
-      </c>
-      <c r="E25">
-        <v>8.6</v>
-      </c>
-      <c r="F25">
-        <v>66.8</v>
-      </c>
-      <c r="G25">
-        <v>328.3</v>
-      </c>
-      <c r="H25">
-        <f>SUM(B25+C25+D25+F25)</f>
-        <v>264.39999999999998</v>
-      </c>
-      <c r="I25">
-        <f>H25+E25</f>
-        <v>273</v>
-      </c>
-      <c r="J25">
-        <v>446.8</v>
+        <v>472</v>
+      </c>
+      <c r="B25" s="41">
+        <v>175</v>
+      </c>
+      <c r="C25" s="41">
+        <v>249</v>
+      </c>
+      <c r="D25" s="41">
+        <v>132</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="41">
+        <v>178</v>
+      </c>
+      <c r="G25" s="41">
+        <v>479</v>
       </c>
       <c r="M25" t="s">
-        <v>12</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="4">
-        <v>51.7</v>
-      </c>
-      <c r="C26" s="2">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="D26" s="2">
-        <v>38.5</v>
-      </c>
-      <c r="E26" s="2">
-        <v>7.11</v>
-      </c>
-      <c r="F26" s="2">
-        <v>53.1</v>
-      </c>
-      <c r="G26" s="4">
-        <v>257</v>
-      </c>
-      <c r="H26" s="2">
-        <f>SUM(B26:F26)</f>
-        <v>219.81000000000003</v>
-      </c>
-      <c r="I26" s="2">
-        <f>H26+E26</f>
-        <v>226.92000000000004</v>
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>95</v>
+      </c>
+      <c r="C26">
+        <v>112</v>
+      </c>
+      <c r="D26">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>152</v>
+      </c>
+      <c r="F26">
+        <v>88</v>
+      </c>
+      <c r="G26">
+        <v>172</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>27012</v>
-      </c>
-      <c r="C27">
-        <v>25039</v>
-      </c>
-      <c r="D27">
-        <v>17656</v>
-      </c>
-      <c r="E27">
-        <v>23603</v>
-      </c>
-      <c r="F27">
-        <v>19798</v>
-      </c>
-      <c r="G27">
-        <v>24858</v>
-      </c>
-      <c r="M27" t="s">
-        <v>9</v>
-      </c>
+      <c r="A27" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2">
-        <v>469000</v>
-      </c>
-      <c r="C28" s="2">
-        <f>C27*C25</f>
-        <v>2080740.9</v>
-      </c>
-      <c r="D28" s="2">
-        <f>D27*D25</f>
-        <v>831597.6</v>
-      </c>
-      <c r="E28" s="2">
-        <f>E27*E25</f>
-        <v>202985.8</v>
-      </c>
-      <c r="F28" s="2">
-        <f>F27*F25</f>
-        <v>1322506.3999999999</v>
-      </c>
-      <c r="G28" s="2">
-        <v>4496000</v>
+        <v>71</v>
+      </c>
+      <c r="B28">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="C28">
+        <v>83.1</v>
+      </c>
+      <c r="D28">
+        <v>47.1</v>
+      </c>
+      <c r="E28">
+        <v>8.6</v>
+      </c>
+      <c r="F28">
+        <v>66.8</v>
+      </c>
+      <c r="G28">
+        <v>328.3</v>
       </c>
       <c r="H28">
         <f>SUM(B28+C28+D28+F28)</f>
-        <v>4703844.9000000004</v>
+        <v>264.39999999999998</v>
       </c>
       <c r="I28">
         <f>H28+E28</f>
-        <v>4906830.7</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="J28">
+        <v>446.8</v>
+      </c>
       <c r="M28" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D29" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7.11</v>
+      </c>
+      <c r="F29" s="2">
+        <v>53.1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>257</v>
+      </c>
+      <c r="H29" s="2">
+        <f>SUM(B29:F29)</f>
+        <v>219.81000000000003</v>
+      </c>
+      <c r="I29" s="2">
+        <f>H29+E29</f>
+        <v>226.92000000000004</v>
+      </c>
+      <c r="M29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>27012</v>
+      </c>
+      <c r="C30">
+        <v>25039</v>
+      </c>
+      <c r="D30">
+        <v>17656</v>
+      </c>
+      <c r="E30">
+        <v>23603</v>
+      </c>
+      <c r="F30">
+        <v>19798</v>
+      </c>
+      <c r="G30">
+        <v>24858</v>
+      </c>
+      <c r="M30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2">
+        <v>469000</v>
+      </c>
+      <c r="C31" s="2">
+        <f>C30*C28</f>
+        <v>2080740.9</v>
+      </c>
+      <c r="D31" s="2">
+        <f>D30*D28</f>
+        <v>831597.6</v>
+      </c>
+      <c r="E31" s="2">
+        <f>E30*E28</f>
+        <v>202985.8</v>
+      </c>
+      <c r="F31" s="2">
+        <f>F30*F28</f>
+        <v>1322506.3999999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4496000</v>
+      </c>
+      <c r="H31">
+        <f>SUM(B31+C31+D31+F31)</f>
+        <v>4703844.9000000004</v>
+      </c>
+      <c r="I31">
+        <f>H31+E31</f>
+        <v>4906830.7</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="M31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>3079</v>
       </c>
-      <c r="G29">
+      <c r="G32">
         <v>44100</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M32" t="s">
         <v>34</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="3">
-        <f>B29/B28</f>
+      <c r="B33" s="3">
+        <f>B32/B31</f>
         <v>6.5650319829424304E-3</v>
       </c>
-      <c r="C30" s="3">
-        <f>C5/C28</f>
+      <c r="C33" s="3">
+        <f>C5/C31</f>
         <v>1.1443039351992361E-2</v>
       </c>
-      <c r="D30" s="3">
-        <f>D5/D28</f>
+      <c r="D33" s="3">
+        <f>D5/D31</f>
         <v>3.487263551506161E-3</v>
       </c>
-      <c r="E30" s="3">
-        <f>E5/E28</f>
+      <c r="E33" s="3">
+        <f>E5/E31</f>
         <v>1.5222739718738948E-2</v>
       </c>
-      <c r="F30" s="3">
-        <f>F5/F28</f>
+      <c r="F33" s="3">
+        <f>F5/F31</f>
         <v>1.4646431956775409E-2</v>
       </c>
-      <c r="G30" s="3">
-        <f>G29/G28</f>
+      <c r="G33" s="3">
+        <f>G32/G31</f>
         <v>9.8087188612099637E-3</v>
       </c>
-      <c r="H30" s="3">
-        <f>H5/H28</f>
+      <c r="H33" s="3">
+        <f>H5/H31</f>
         <v>1.2385612459288356E-2</v>
       </c>
-      <c r="I30" s="3">
-        <f>I5/I28</f>
+      <c r="I33" s="3">
+        <f>I5/I31</f>
         <v>1.2502978755717004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="3">
-        <f>B4/B3</f>
+      <c r="B34" s="3">
+        <f t="shared" ref="B34:G34" si="5">B4/B3</f>
         <v>7.9422382671480145E-3</v>
       </c>
-      <c r="C31" s="3">
-        <f>C4/C3</f>
+      <c r="C34" s="3">
+        <f t="shared" si="5"/>
         <v>1.3333333333333332E-2</v>
       </c>
-      <c r="D31" s="3">
-        <f>D4/D3</f>
+      <c r="D34" s="3">
+        <f t="shared" si="5"/>
         <v>4.9881235154394295E-3</v>
       </c>
-      <c r="E31" s="3">
-        <f>E4/E3</f>
+      <c r="E34" s="3">
+        <f t="shared" si="5"/>
         <v>1.3414634146341463E-2</v>
       </c>
-      <c r="F31" s="3">
-        <f>F4/F3</f>
+      <c r="F34" s="3">
+        <f t="shared" si="5"/>
         <v>1.7199017199017199E-2</v>
       </c>
-      <c r="G31" s="3">
-        <f>G4/G3</f>
+      <c r="G34" s="3">
+        <f t="shared" si="5"/>
         <v>4.1884816753926706E-3</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="3">
-        <f>(B6*$J$5+B29)/B28</f>
+      <c r="B35" s="3">
+        <f>(B6*$J$5+B32)/B31</f>
         <v>1.2429442430703624E-2</v>
       </c>
-      <c r="C32" s="3">
-        <f>(C6*$J$5+C5)/C28</f>
+      <c r="C35" s="3">
+        <f>(C6*$J$5+C5)/C31</f>
         <v>1.3124734559694578E-2</v>
       </c>
-      <c r="D32" s="3">
-        <f>(D6*$J$5+D5)/D28</f>
+      <c r="D35" s="3">
+        <f>(D6*$J$5+D5)/D31</f>
         <v>5.109751398993936E-3</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F35" s="11">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H32" s="3">
-        <f>(H6*$J$5+H5)/H28</f>
+      <c r="H35" s="3">
+        <f>(H6*$J$5+H5)/H31</f>
         <v>1.4001064852287113E-2</v>
       </c>
-      <c r="I32" s="3">
-        <f>(I6*$J$5+I5)/I28</f>
+      <c r="I35" s="3">
+        <f>(I6*$J$5+I5)/I31</f>
         <v>1.4051603105034782E-2</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="2">
-        <f>B9*B26*12/1000</f>
+      <c r="B36" s="2">
+        <f t="shared" ref="B36:G36" si="6">B9*B29*12/1000</f>
         <v>7.1975864434768866</v>
       </c>
-      <c r="C33" s="2">
-        <f>C9*C26*12/1000</f>
+      <c r="C36" s="2">
+        <f t="shared" si="6"/>
         <v>21.032191795712752</v>
       </c>
-      <c r="D33" s="2">
-        <f>D9*D26*12/1000</f>
+      <c r="D36" s="2">
+        <f t="shared" si="6"/>
         <v>2.3499636357967666</v>
       </c>
-      <c r="E33" s="2">
-        <f>E9*E26*12/1000</f>
+      <c r="E36" s="2">
+        <f t="shared" si="6"/>
         <v>3.1934225422910951</v>
       </c>
-      <c r="F33" s="2">
-        <f>F9*F26*12/1000</f>
+      <c r="F36" s="2">
+        <f t="shared" si="6"/>
         <v>14.853569673860253</v>
       </c>
-      <c r="G33" s="2">
-        <f>G9*G26*12/1000</f>
+      <c r="G36" s="2">
+        <f t="shared" si="6"/>
         <v>264.04020802872463</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B37" s="2">
         <f>Constants!$B$6*B12*12*B17/10^9</f>
-        <v>10.992981028170488</v>
-      </c>
-      <c r="C34" s="2">
+        <v>10.55326178704367</v>
+      </c>
+      <c r="C37" s="2">
         <f>Constants!$B$6*C12*12*C17/10^9</f>
-        <v>26.748460500668678</v>
-      </c>
-      <c r="D34" s="2">
+        <v>25.678522080641933</v>
+      </c>
+      <c r="D37" s="2">
         <f>Constants!$B$6*D12*12*D17/10^9</f>
-        <v>4.3674700117082939</v>
-      </c>
-      <c r="E34" s="2">
+        <v>4.192771211239962</v>
+      </c>
+      <c r="E37" s="2">
         <f>Constants!$B$6*E12*12*E17/10^9</f>
-        <v>4.2203861131988871</v>
-      </c>
-      <c r="F34" s="2">
+        <v>4.051570668670931</v>
+      </c>
+      <c r="F37" s="2">
         <f>Constants!$B$6*F12*12*F17/10^9</f>
-        <v>20.53136804236069</v>
-      </c>
-      <c r="G34" s="2">
+        <v>19.710113320666263</v>
+      </c>
+      <c r="G37" s="2">
         <f>Constants!$B$6*G12*12*G17/10^9</f>
-        <v>342.70302800903698</v>
-      </c>
-      <c r="H34" s="2">
+        <v>328.99490688867553</v>
+      </c>
+      <c r="H37" s="2">
         <f>Constants!$B$6*H12*12*H17/10^9</f>
-        <v>66.860665696107034</v>
-      </c>
-      <c r="I34" s="2">
+        <v>64.186239068262751</v>
+      </c>
+      <c r="I37" s="2">
         <f>Constants!$B$6*I12*12*I17/10^9</f>
-        <v>66.860665696107034</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+        <v>64.186239068262751</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="2">
-        <f>2000*B26/$H$26</f>
+      <c r="B38" s="2">
+        <f>2000*B29/$H$29</f>
         <v>470.40625995177646</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" ref="C35:F35" si="3">2000*C26/$H$26</f>
+      <c r="C38" s="2">
+        <f t="shared" ref="C38:F38" si="7">2000*C29/$H$29</f>
         <v>631.4544379236612</v>
       </c>
-      <c r="D35" s="2">
-        <f t="shared" si="3"/>
+      <c r="D38" s="2">
+        <f t="shared" si="7"/>
         <v>350.30253400664208</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2">
-        <f t="shared" si="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <f t="shared" si="7"/>
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -3122,6 +3597,15 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="14"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="14"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3131,10 +3615,520 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="E11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E16" t="s">
+        <v>412</v>
+      </c>
+      <c r="F16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" t="s">
+        <v>417</v>
+      </c>
+      <c r="E18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" t="s">
+        <v>462</v>
+      </c>
+      <c r="E19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" t="s">
+        <v>433</v>
+      </c>
+      <c r="D23" t="s">
+        <v>434</v>
+      </c>
+      <c r="E23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>429</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" t="s">
+        <v>442</v>
+      </c>
+      <c r="D25" t="s">
+        <v>441</v>
+      </c>
+      <c r="E25" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D26" t="s">
+        <v>444</v>
+      </c>
+      <c r="E26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>453</v>
+      </c>
+      <c r="B27" t="s">
+        <v>455</v>
+      </c>
+      <c r="C27" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" t="s">
+        <v>451</v>
+      </c>
+      <c r="E27" t="s">
+        <v>454</v>
+      </c>
+      <c r="F27" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,24 +4143,24 @@
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" customWidth="1"/>
-    <col min="12" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="16" width="5.42578125" customWidth="1"/>
-    <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" customWidth="1"/>
-    <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" customWidth="1"/>
-    <col min="24" max="24" width="8.42578125" customWidth="1"/>
-    <col min="25" max="26" width="8.28515625" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" customWidth="1"/>
+    <col min="11" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" customWidth="1"/>
+    <col min="15" max="17" width="5.42578125" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" customWidth="1"/>
+    <col min="20" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" customWidth="1"/>
+    <col min="27" max="28" width="8.28515625" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -3174,94 +4168,100 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="Y1" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF1" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="U1" s="14" t="s">
+      <c r="AG1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3298,63 +4298,66 @@
         <v>250</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="M2">
-        <v>285</v>
+        <v>414</v>
       </c>
       <c r="N2">
+        <v>409</v>
+      </c>
+      <c r="O2">
         <v>465</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>341</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>194</v>
       </c>
-      <c r="T2" s="2">
-        <f>U15*$C2*$D$7/1000</f>
+      <c r="V2" s="2">
+        <f t="shared" ref="V2:Z5" si="0">W15*$C2*$D$7/1000</f>
         <v>137.81805359661496</v>
       </c>
-      <c r="U2" s="2">
-        <f>V15*$C2*$D$7/1000</f>
+      <c r="W2" s="2">
+        <f t="shared" si="0"/>
         <v>145.83921015514809</v>
       </c>
-      <c r="V2" s="2">
-        <f>W15*$C2*$D$7/1000</f>
+      <c r="X2" s="2">
+        <f t="shared" si="0"/>
         <v>160.42313117066291</v>
       </c>
-      <c r="W2" s="2">
-        <f>X15*$C2*$D$7/1000</f>
+      <c r="Y2" s="2">
+        <f t="shared" si="0"/>
         <v>102.08744710860366</v>
       </c>
-      <c r="X2" s="2">
-        <f>Y15*$C2*$D$7/1000</f>
+      <c r="Z2" s="2">
+        <f t="shared" si="0"/>
         <v>183.02820874471087</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>595</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>184</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>222</v>
       </c>
-      <c r="AB2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>292</v>
-      </c>
       <c r="AD2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="AE2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3391,60 +4394,69 @@
         <v>263</v>
       </c>
       <c r="L3">
-        <v>310</v>
+        <v>147</v>
+      </c>
+      <c r="M3">
+        <v>409</v>
       </c>
       <c r="N3">
+        <v>444</v>
+      </c>
+      <c r="O3">
         <v>366</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>404</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>230</v>
       </c>
-      <c r="T3" s="2">
-        <f>U16*$C3*$D$7/1000</f>
+      <c r="V3" s="2">
+        <f t="shared" si="0"/>
         <v>176.97489421720732</v>
       </c>
-      <c r="U3" s="2">
-        <f>V16*$C3*$D$7/1000</f>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
         <v>271.04174894217203</v>
       </c>
-      <c r="V3" s="2">
-        <f>W16*$C3*$D$7/1000</f>
+      <c r="X3" s="2">
+        <f t="shared" si="0"/>
         <v>99.156840620592376</v>
       </c>
-      <c r="W3" s="2">
-        <f>X16*$C3*$D$7/1000</f>
+      <c r="Y3" s="2">
+        <f t="shared" si="0"/>
         <v>146.63074753173484</v>
       </c>
-      <c r="X3" s="2">
-        <f>Y16*$C3*$D$7/1000</f>
+      <c r="Z3" s="2">
+        <f t="shared" si="0"/>
         <v>285.13709449929479</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>395</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>403</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>202</v>
       </c>
-      <c r="AB3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>300</v>
-      </c>
       <c r="AD3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AE3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -3481,54 +4493,63 @@
         <v>246</v>
       </c>
       <c r="L4">
-        <v>400</v>
+        <v>361</v>
+      </c>
+      <c r="M4">
+        <v>231</v>
       </c>
       <c r="N4">
+        <v>408</v>
+      </c>
+      <c r="O4">
         <v>515</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>261</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>224</v>
       </c>
-      <c r="T4" s="2">
-        <f>U17*$C4*$D$7/1000</f>
+      <c r="V4" s="2">
+        <f t="shared" si="0"/>
         <v>160.32073342736248</v>
       </c>
-      <c r="U4" s="2">
-        <f>V17*$C4*$D$7/1000</f>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
         <v>100.99272214386461</v>
       </c>
-      <c r="V4" s="2">
-        <f>W17*$C4*$D$7/1000</f>
+      <c r="X4" s="2">
+        <f t="shared" si="0"/>
         <v>153.19687588152328</v>
       </c>
-      <c r="W4" s="2">
-        <f>X17*$C4*$D$7/1000</f>
+      <c r="Y4" s="2">
+        <f t="shared" si="0"/>
         <v>58.522715091678421</v>
       </c>
-      <c r="X4" s="2">
-        <f>Y17*$C4*$D$7/1000</f>
+      <c r="Z4" s="2">
+        <f t="shared" si="0"/>
         <v>69.98474612129759</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>697</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>303</v>
       </c>
-      <c r="AB4" t="s">
-        <v>319</v>
-      </c>
       <c r="AD4" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -3565,60 +4586,72 @@
         <v>241</v>
       </c>
       <c r="L5">
-        <v>490</v>
+        <v>183</v>
+      </c>
+      <c r="M5">
+        <v>200</v>
       </c>
       <c r="N5">
-        <v>593</v>
+        <v>501</v>
       </c>
       <c r="O5">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="P5">
-        <v>128</v>
-      </c>
-      <c r="T5" s="2">
-        <f>U18*$C5*$D$7/1000</f>
+        <v>423</v>
+      </c>
+      <c r="Q5">
+        <v>176</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="0"/>
         <v>97.137799717912543</v>
       </c>
-      <c r="U5" s="2">
-        <f>V18*$C5*$D$7/1000</f>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
         <v>233.81974612129761</v>
       </c>
-      <c r="V5" s="2">
-        <f>W18*$C5*$D$7/1000</f>
+      <c r="X5" s="2">
+        <f t="shared" si="0"/>
         <v>156.90338504936531</v>
       </c>
-      <c r="W5" s="2">
-        <f>X18*$C5*$D$7/1000</f>
+      <c r="Y5" s="2">
+        <f t="shared" si="0"/>
         <v>177.12482369534555</v>
       </c>
-      <c r="X5" s="2">
-        <f>Y18*$C5*$D$7/1000</f>
+      <c r="Z5" s="2">
+        <f t="shared" si="0"/>
         <v>83.95641748942171</v>
       </c>
-      <c r="Y5">
-        <v>401</v>
-      </c>
-      <c r="Z5">
-        <v>423</v>
-      </c>
-      <c r="AA5">
-        <v>176</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>322</v>
+      <c r="AA5" s="2">
+        <f>SUMPRODUCT($C2:$C5,O2:O5)</f>
+        <v>425.77103902209689</v>
+      </c>
+      <c r="AB5" s="2">
+        <f>SUMPRODUCT($C2:$C5,P2:P5)</f>
+        <v>367.54630935590035</v>
+      </c>
+      <c r="AC5" s="2">
+        <f>SUMPRODUCT($C2:$C5,Q2:Q5)</f>
+        <v>206.68265162200279</v>
       </c>
       <c r="AD5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AE5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3635,66 +4668,71 @@
         <v>509.88904560413727</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:P6" si="0">SUMPRODUCT($C2:$C5,F2:F5)</f>
+        <f t="shared" ref="F6:Q6" si="1">SUMPRODUCT($C2:$C5,F2:F5)</f>
         <v>490.11095439586268</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.665256229431108</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149.78749412317816</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>243.27080394922424</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>259.25528913963331</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>251.27080394922424</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="0"/>
-        <v>393.10296191819464</v>
+        <f t="shared" ref="L6:N6" si="2">SUMPRODUCT($C2:$C5,L2:L5)</f>
+        <v>202.25763986835915</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="0"/>
-        <v>69.273624823695343</v>
+        <f t="shared" si="2"/>
+        <v>325.81993417959563</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>473.70333803479082</v>
+        <f t="shared" si="2"/>
+        <v>443.2063939821345</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="0"/>
-        <v>331.59708509637989</v>
+        <f t="shared" si="1"/>
+        <v>425.77103902209689</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="0"/>
-        <v>194.69957686882933</v>
-      </c>
-      <c r="Q6" s="2"/>
+        <f t="shared" si="1"/>
+        <v>367.54630935590035</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>206.68265162200279</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="Y6" s="2">
-        <f>SUMPRODUCT($C1:$C4,Y1:Y4)</f>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="AA6" s="2">
+        <f t="shared" ref="AA6:AC6" si="3">SUMPRODUCT($C1:$C4,AA1:AA4)</f>
         <v>399.66619652092146</v>
       </c>
-      <c r="Z6" s="2">
-        <f>SUMPRODUCT($C1:$C4,Z1:Z4)</f>
+      <c r="AB6" s="2">
+        <f t="shared" si="3"/>
         <v>176.21532675129291</v>
       </c>
-      <c r="AA6" s="2">
-        <f>SUMPRODUCT($C1:$C4,AA1:AA4)</f>
+      <c r="AC6" s="2">
+        <f t="shared" si="3"/>
         <v>174.71415138692993</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -3707,73 +4745,78 @@
         <v>3000</v>
       </c>
       <c r="E7" s="2">
-        <f>SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
+        <f t="shared" ref="E7:N7" si="4">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
         <v>1529.6671368124116</v>
       </c>
       <c r="F7" s="2">
-        <f>SUMPRODUCT($C2:$C5,F2:F5)*$D$7/1000</f>
+        <f t="shared" si="4"/>
         <v>1470.3328631875881</v>
       </c>
       <c r="G7" s="2">
-        <f>SUMPRODUCT($C2:$C5,G2:G5)*$D$7/1000</f>
+        <f t="shared" si="4"/>
         <v>289.99576868829337</v>
       </c>
       <c r="H7" s="2">
-        <f>SUMPRODUCT($C2:$C5,H2:H5)*$D$7/1000</f>
+        <f t="shared" si="4"/>
         <v>449.36248236953452</v>
       </c>
       <c r="I7" s="2">
-        <f>SUMPRODUCT($C2:$C5,I2:I5)*$D$7/1000</f>
+        <f t="shared" si="4"/>
         <v>729.81241184767282</v>
       </c>
       <c r="J7" s="2">
-        <f>SUMPRODUCT($C2:$C5,J2:J5)*$D$7/1000</f>
+        <f t="shared" si="4"/>
         <v>777.76586741889992</v>
       </c>
       <c r="K7" s="2">
-        <f>SUMPRODUCT($C2:$C5,K2:K5)*$D$7/1000</f>
+        <f t="shared" si="4"/>
         <v>753.81241184767282</v>
       </c>
       <c r="L7" s="2">
-        <f>SUMPRODUCT($C2:$C5,L2:L5)*$D$7/1000</f>
-        <v>1179.3088857545838</v>
+        <f t="shared" ref="L7:N7" si="5">SUMPRODUCT($C2:$C5,L2:L5)*$D$7/1000</f>
+        <v>606.7729196050775</v>
       </c>
       <c r="M7" s="2">
-        <f>SUMPRODUCT($C2:$C5,M2:M5)*$D$7/1000</f>
-        <v>207.82087447108603</v>
+        <f t="shared" si="5"/>
+        <v>977.4598025387869</v>
       </c>
       <c r="N7" s="2">
-        <f>SUMPRODUCT($C2:$C5,N2:N5)*$D$7/1000</f>
-        <v>1421.1100141043723</v>
+        <f t="shared" si="5"/>
+        <v>1329.6191819464036</v>
       </c>
       <c r="O7" s="2">
         <f>SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
-        <v>994.79125528913971</v>
+        <v>1277.3131170662907</v>
       </c>
       <c r="P7" s="2">
         <f>SUMPRODUCT($C2:$C5,P2:P5)*$D$7/1000</f>
-        <v>584.09873060648795</v>
-      </c>
-      <c r="Q7" s="2"/>
+        <v>1102.638928067701</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>SUMPRODUCT($C2:$C5,Q2:Q5)*$D$7/1000</f>
+        <v>620.04795486600835</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="Y7" s="2">
-        <f>SUMPRODUCT($C2:$C5,Y2:Y5)</f>
-        <v>499.77480018805829</v>
-      </c>
-      <c r="Z7" s="2">
-        <f>SUMPRODUCT($C2:$C5,Z2:Z5)</f>
-        <v>281.81617301363423</v>
-      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
       <c r="AA7" s="2">
         <f>SUMPRODUCT($C2:$C5,AA2:AA5)</f>
-        <v>218.65209214856603</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>505.95882544463251</v>
+      </c>
+      <c r="AB7" s="2">
+        <f>SUMPRODUCT($C2:$C5,AB2:AB5)</f>
+        <v>267.9723038401425</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>SUMPRODUCT($C2:$C5,AC2:AC5)</f>
+        <v>226.31193606548351</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -3806,71 +4849,77 @@
         <v>212.3</v>
       </c>
       <c r="L8" s="2">
-        <v>610</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="M8" s="2">
+        <v>414</v>
+      </c>
       <c r="N8" s="2">
+        <v>503</v>
+      </c>
+      <c r="O8" s="2">
         <v>732.4</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>267.60000000000002</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>601</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2">
         <v>185</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>134</v>
       </c>
-      <c r="T8">
-        <f>U19*$D$8/1000</f>
-        <v>171</v>
-      </c>
-      <c r="U8">
-        <f>V19*$D$8/1000</f>
-        <v>208</v>
-      </c>
+      <c r="U8" s="2"/>
       <c r="V8">
         <f>W19*$D$8/1000</f>
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="W8">
         <f>X19*$D$8/1000</f>
+        <v>208</v>
+      </c>
+      <c r="X8">
+        <f>Y19*$D$8/1000</f>
+        <v>239</v>
+      </c>
+      <c r="Y8">
+        <f>Z19*$D$8/1000</f>
         <v>383</v>
       </c>
-      <c r="AE8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="R10" t="s">
-        <v>345</v>
-      </c>
-      <c r="T10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S10" t="s">
+        <v>333</v>
+      </c>
+      <c r="V10" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="U10" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="V10" s="58" t="s">
-        <v>282</v>
-      </c>
       <c r="W10" s="58" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="X10" s="58" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Y10" s="58" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="Z10" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA10" s="58" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>87</v>
       </c>
@@ -3879,478 +4928,522 @@
         <v>1.0119848709215202</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:L11" si="1">F2/F$6</f>
+        <f t="shared" ref="F11:N11" si="6">F2/F$6</f>
         <v>0.98753148783749312</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.2413974232394813</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0014187157483727</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.98655488494251475</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.92572846168911704</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.99494249260458834</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
-        <v>1.0175451185820388</v>
+        <f t="shared" ref="L11:M11" si="7">L2/L$6</f>
+        <v>0.8800656435813875</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>1.2706404874902422</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="M11:P11" si="2">N2/N$6</f>
-        <v>0.98162702827702764</v>
+        <f t="shared" si="6"/>
+        <v>0.92282062161875456</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>1.0283564462000234</v>
+        <f t="shared" ref="O11:Q11" si="8">O2/O$6</f>
+        <v>1.0921362830783501</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0.99640689065646693</v>
-      </c>
-      <c r="T11" s="19" t="s">
+        <f t="shared" si="8"/>
+        <v>0.92777424591088686</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="8"/>
+        <v>0.93863707707215893</v>
+      </c>
+      <c r="V11" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="59" t="s">
-        <v>294</v>
-      </c>
-      <c r="V11" s="59" t="s">
-        <v>295</v>
-      </c>
       <c r="W11" s="59" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="X11" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y11" s="60" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="Y11" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z11" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA11" s="60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>88</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E14" si="3">E3/E$6</f>
+        <f t="shared" ref="E12:E14" si="9">E3/E$6</f>
         <v>1.0041400269608882</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:L12" si="4">F3/F$6</f>
+        <f t="shared" ref="F12:N12" si="10">F3/F$6</f>
         <v>0.99569290509234842</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.87932317479463262</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.0014187157483727</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.91256326857182624</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.0800165386373033</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.0466795022200268</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
-        <v>0.78859746690108001</v>
+        <f t="shared" ref="L12:M12" si="11">L3/L$6</f>
+        <v>0.72679578430597735</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="11"/>
+        <v>1.2552945878828721</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="M12:P12" si="5">N3/N$6</f>
-        <v>0.77263546741804756</v>
+        <f t="shared" si="10"/>
+        <v>1.0017906014638802</v>
       </c>
       <c r="O12">
-        <f t="shared" si="5"/>
-        <v>1.2183460535624913</v>
+        <f t="shared" ref="O12:Q12" si="12">O3/O$6</f>
+        <v>0.85961694539070133</v>
       </c>
       <c r="P12">
-        <f t="shared" si="5"/>
-        <v>1.1813071384071516</v>
-      </c>
-      <c r="T12" s="19" t="s">
+        <f t="shared" si="12"/>
+        <v>1.0991812180293206</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="12"/>
+        <v>1.1128171532298792</v>
+      </c>
+      <c r="V12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="U12" s="59" t="s">
-        <v>349</v>
-      </c>
-      <c r="V12" s="59" t="s">
-        <v>350</v>
-      </c>
       <c r="W12" s="59" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="X12" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y12" s="60" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="Y12" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z12" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA12" s="60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>89</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.99237276101994043</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:L13" si="6">F4/F$6</f>
+        <f t="shared" ref="F13:N13" si="13">F4/F$6</f>
         <v>1.0079350309746313</v>
       </c>
       <c r="G13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.81725330363265858</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.82783947168532146</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.1715339258692363</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.026015711705438</v>
       </c>
       <c r="K13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0.97902341272291493</v>
       </c>
       <c r="L13">
-        <f t="shared" si="6"/>
-        <v>1.0175451185820388</v>
+        <f t="shared" ref="L13:M13" si="14">L4/L$6</f>
+        <v>1.784852232207196</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="14"/>
+        <v>0.7089805618604974</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="M13:P13" si="7">N4/N$6</f>
-        <v>1.0871783216401489</v>
+        <f t="shared" si="13"/>
+        <v>0.92056433648032243</v>
       </c>
       <c r="O13">
-        <f t="shared" si="7"/>
-        <v>0.78709980193022322</v>
+        <f t="shared" ref="O13:Q13" si="15">O4/O$6</f>
+        <v>1.2095702920115059</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
-        <v>1.150490430448704</v>
-      </c>
-      <c r="T13" s="19" t="s">
+        <f t="shared" si="15"/>
+        <v>0.71011459877636796</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="15"/>
+        <v>1.0837871405369257</v>
+      </c>
+      <c r="V13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="U13" t="s">
-        <v>305</v>
-      </c>
-      <c r="V13" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="W13" s="59" t="s">
-        <v>307</v>
+      <c r="W13" t="s">
+        <v>299</v>
       </c>
       <c r="X13" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y13" s="60" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="Y13" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z13" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA13" s="60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.98845033903962443</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:L14" si="8">F5/F$6</f>
+        <f t="shared" ref="F14:N14" si="16">F5/F$6</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.0551878097535592</v>
       </c>
       <c r="H14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.1215889616381773</v>
       </c>
       <c r="I14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.0029974663582233</v>
       </c>
       <c r="J14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.94887167323134503</v>
       </c>
       <c r="K14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.95912456287082315</v>
       </c>
       <c r="L14">
-        <f t="shared" si="8"/>
-        <v>1.2464927702629973</v>
+        <f t="shared" ref="L14:M14" si="17">L5/L$6</f>
+        <v>0.90478658862580852</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="17"/>
+        <v>0.61383598429480291</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="M14:P14" si="9">N5/N$6</f>
-        <v>1.2518383392866181</v>
+        <f t="shared" si="16"/>
+        <v>1.1303988543545136</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
-        <v>0.84138254689092828</v>
+        <f t="shared" ref="O14:Q14" si="18">O5/O$6</f>
+        <v>0.94182075164391044</v>
       </c>
       <c r="P14">
-        <f t="shared" si="9"/>
-        <v>0.65742310311354524</v>
-      </c>
-      <c r="T14" t="s">
+        <f t="shared" si="18"/>
+        <v>1.1508753842237689</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="18"/>
+        <v>0.85154703899329875</v>
+      </c>
+      <c r="V14" t="s">
         <v>5</v>
       </c>
-      <c r="U14" t="s">
-        <v>346</v>
-      </c>
-      <c r="V14" t="s">
-        <v>347</v>
-      </c>
       <c r="W14" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="X14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E15">
         <f>MIN(E11:E14)</f>
         <v>0.98845033903962443</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:K15" si="10">MIN(F11:F14)</f>
+        <f t="shared" ref="F15:K15" si="19">MIN(F11:F14)</f>
         <v>0.98753148783749312</v>
       </c>
       <c r="G15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.81725330363265858</v>
       </c>
       <c r="H15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.82783947168532146</v>
       </c>
       <c r="I15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.91256326857182624</v>
       </c>
       <c r="J15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.92572846168911704</v>
       </c>
       <c r="K15" s="61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.95912456287082315</v>
       </c>
       <c r="L15" s="61">
-        <f t="shared" ref="L15" si="11">MIN(L11:L14)</f>
-        <v>0.78859746690108001</v>
+        <f t="shared" ref="L15:M15" si="20">MIN(L11:L14)</f>
+        <v>0.72679578430597735</v>
       </c>
       <c r="M15" s="61">
-        <f t="shared" ref="M15" si="12">MIN(M11:M14)</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0.61383598429480291</v>
       </c>
       <c r="N15" s="61">
-        <f t="shared" ref="N15" si="13">MIN(N11:N14)</f>
-        <v>0.77263546741804756</v>
+        <f t="shared" ref="N15:O15" si="21">MIN(N11:N14)</f>
+        <v>0.92056433648032243</v>
       </c>
       <c r="O15" s="61">
-        <f t="shared" ref="O15:P15" si="14">MIN(O11:O14)</f>
-        <v>0.78709980193022322</v>
+        <f t="shared" si="21"/>
+        <v>0.85961694539070133</v>
       </c>
       <c r="P15" s="61">
-        <f t="shared" ref="P15" si="15">MIN(P11:P14)</f>
-        <v>0.65742310311354524</v>
-      </c>
-      <c r="T15" s="19" t="s">
+        <f t="shared" ref="P15:Q15" si="22">MIN(P11:P14)</f>
+        <v>0.71011459877636796</v>
+      </c>
+      <c r="Q15" s="61">
+        <f t="shared" si="22"/>
+        <v>0.85154703899329875</v>
+      </c>
+      <c r="V15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="2">
+      <c r="W15" s="2">
         <v>189</v>
       </c>
-      <c r="V15" s="2">
+      <c r="X15" s="2">
         <v>200</v>
       </c>
-      <c r="W15" s="2">
+      <c r="Y15" s="2">
         <v>220</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Z15" s="2">
         <v>140</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AA15" s="2">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E16">
         <f>MAX(E11:E14)</f>
         <v>1.0119848709215202</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:J16" si="16">MAX(F11:F14)</f>
+        <f t="shared" ref="F16:J16" si="23">MAX(F11:F14)</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.2413974232394813</v>
       </c>
       <c r="H16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.1215889616381773</v>
       </c>
       <c r="I16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.1715339258692363</v>
       </c>
       <c r="J16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.0800165386373033</v>
       </c>
       <c r="K16" s="61">
-        <f t="shared" ref="K16:M16" si="17">MAX(K11:K14)</f>
+        <f t="shared" ref="K16:N16" si="24">MAX(K11:K14)</f>
         <v>1.0466795022200268</v>
       </c>
       <c r="L16" s="61">
-        <f t="shared" si="17"/>
-        <v>1.2464927702629973</v>
+        <f t="shared" ref="L16:M16" si="25">MAX(L11:L14)</f>
+        <v>1.784852232207196</v>
       </c>
       <c r="M16" s="61">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1.2706404874902422</v>
       </c>
       <c r="N16" s="61">
-        <f>MAX(N11:N14)</f>
-        <v>1.2518383392866181</v>
+        <f t="shared" si="24"/>
+        <v>1.1303988543545136</v>
       </c>
       <c r="O16" s="61">
-        <f>MAX(O11:O14)</f>
-        <v>1.2183460535624913</v>
+        <f t="shared" ref="O16:Q16" si="26">MAX(O11:O14)</f>
+        <v>1.2095702920115059</v>
       </c>
       <c r="P16" s="61">
-        <f>MAX(P11:P14)</f>
-        <v>1.1813071384071516</v>
-      </c>
-      <c r="T16" s="19" t="s">
+        <f t="shared" si="26"/>
+        <v>1.1508753842237689</v>
+      </c>
+      <c r="Q16" s="61">
+        <f t="shared" si="26"/>
+        <v>1.1128171532298792</v>
+      </c>
+      <c r="V16" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="U16" s="2">
+      <c r="W16" s="2">
         <v>180.8</v>
       </c>
-      <c r="V16" s="2">
+      <c r="X16" s="2">
         <v>276.89999999999998</v>
       </c>
-      <c r="W16" s="2">
+      <c r="Y16" s="2">
         <v>101.3</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Z16" s="2">
         <v>149.80000000000001</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AA16" s="2">
         <v>291.3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E17" s="63">
         <f>IF(E16&gt;=1/E15,E16-1,1-1/E15)</f>
         <v>1.198487092152023E-2</v>
       </c>
       <c r="F17" s="63">
-        <f t="shared" ref="F17:K17" si="18">IF(F16&gt;=1/F15,F16-1,1-1/F15)</f>
+        <f t="shared" ref="F17:K17" si="27">IF(F16&gt;=1/F15,F16-1,1-1/F15)</f>
         <v>-1.2625938834426975E-2</v>
       </c>
       <c r="G17" s="63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.24139742323948132</v>
       </c>
       <c r="H17" s="63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-0.20796366228369489</v>
       </c>
       <c r="I17" s="63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.17153392586923633</v>
       </c>
       <c r="J17" s="63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>-8.023037141513889E-2</v>
       </c>
       <c r="K17" s="64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>4.6679502220026814E-2</v>
       </c>
       <c r="L17" s="64">
-        <f t="shared" ref="L17" si="19">IF(L16&gt;=1/L15,L16-1,1-1/L15)</f>
-        <v>-0.26807407070385358</v>
-      </c>
-      <c r="M17" s="64" t="e">
-        <f t="shared" ref="M17" si="20">IF(M16&gt;=1/M15,M16-1,1-1/M15)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="L17:M17" si="28">IF(L16&gt;=1/L15,L16-1,1-1/L15)</f>
+        <v>0.78485223220719602</v>
+      </c>
+      <c r="M17" s="64">
+        <f t="shared" si="28"/>
+        <v>-0.62909967089797836</v>
       </c>
       <c r="N17" s="64">
-        <f t="shared" ref="N17" si="21">IF(N16&gt;=1/N15,N16-1,1-1/N15)</f>
-        <v>-0.29427141539560342</v>
+        <f t="shared" ref="N17:O17" si="29">IF(N16&gt;=1/N15,N16-1,1-1/N15)</f>
+        <v>0.13039885435451359</v>
       </c>
       <c r="O17" s="64">
-        <f t="shared" ref="O17" si="22">IF(O16&gt;=1/O15,O16-1,1-1/O15)</f>
-        <v>-0.27048691607808384</v>
+        <f t="shared" si="29"/>
+        <v>0.2095702920115059</v>
       </c>
       <c r="P17" s="64">
-        <f t="shared" ref="P17" si="23">IF(P16&gt;=1/P15,P16-1,1-1/P15)</f>
-        <v>-0.5210904442877291</v>
-      </c>
-      <c r="T17" s="19" t="s">
+        <f t="shared" ref="P17:Q17" si="30">IF(P16&gt;=1/P15,P16-1,1-1/P15)</f>
+        <v>-0.40822340749387109</v>
+      </c>
+      <c r="Q17" s="64">
+        <f t="shared" si="30"/>
+        <v>-0.17433324785228854</v>
+      </c>
+      <c r="V17" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="U17" s="2">
+      <c r="W17" s="2">
         <v>295.24</v>
       </c>
-      <c r="V17" s="2">
+      <c r="X17" s="2">
         <v>185.98400000000001</v>
       </c>
-      <c r="W17" s="2">
+      <c r="Y17" s="2">
         <v>282.12099999999998</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Z17" s="2">
         <v>107.773</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AA17" s="2">
         <v>128.881</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -4374,56 +5467,62 @@
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="M18" t="s">
+        <v>89</v>
       </c>
       <c r="N18" t="s">
         <v>88</v>
       </c>
       <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="s">
         <v>89</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="19" t="s">
+      <c r="V18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="2">
+      <c r="W18" s="2">
         <v>129.69999999999999</v>
       </c>
-      <c r="V18" s="2">
+      <c r="X18" s="2">
         <v>312.2</v>
       </c>
-      <c r="W18" s="2">
+      <c r="Y18" s="2">
         <v>209.5</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Z18" s="2">
         <v>236.5</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AA18" s="2">
         <v>112.1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T19" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
         <v>5</v>
       </c>
-      <c r="U19" s="2">
+      <c r="W19" s="2">
         <v>171</v>
       </c>
-      <c r="V19" s="2">
+      <c r="X19" s="2">
         <v>208</v>
       </c>
-      <c r="W19" s="2">
+      <c r="Y19" s="2">
         <v>239</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Z19" s="2">
         <v>383</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E11:P14">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="E17:M17">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4434,7 +5533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:K17 P17">
+  <conditionalFormatting sqref="E17:N17">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4446,8 +5545,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:L17 P17">
+  <conditionalFormatting sqref="O11:Q14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:Q17">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:N14">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4462,12 +5585,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4532,26 +5655,34 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7">
+        <v>0.83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4560,12 +5691,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4573,7 +5704,7 @@
     <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -4617,7 +5748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -4655,7 +5786,7 @@
         <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -4667,7 +5798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -4705,7 +5836,7 @@
         <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -4717,7 +5848,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -4755,7 +5886,7 @@
         <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -4767,7 +5898,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4805,7 +5936,7 @@
         <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -4814,7 +5945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -4852,7 +5983,7 @@
         <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -4861,7 +5992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4908,7 +6039,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -4942,8 +6078,23 @@
       <c r="L10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>463</v>
+      </c>
+      <c r="O10" t="s">
+        <v>467</v>
+      </c>
+      <c r="P10" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>465</v>
+      </c>
+      <c r="R10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -4983,8 +6134,15 @@
       <c r="M11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>89231</v>
+      </c>
+      <c r="P11">
+        <f>ROUND(O11/1200,0)*100</f>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -5024,8 +6182,15 @@
       <c r="M12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>104779</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P16" si="0">ROUND(O12/1200,0)*100</f>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -5065,8 +6230,15 @@
       <c r="M13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>58874</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -5106,8 +6278,15 @@
       <c r="M14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>80831</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -5148,7 +6327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -5185,205 +6364,12 @@
       <c r="L16">
         <v>250</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>146</v>
+      <c r="O16">
+        <v>199783</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>16600</v>
       </c>
     </row>
   </sheetData>
@@ -5394,10 +6380,235 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="65">
+        <v>2</v>
+      </c>
+      <c r="D9" s="65">
+        <v>3</v>
+      </c>
+      <c r="E9" s="65">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" s="65">
+        <v>6</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5421,30 +6632,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>457</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5456,314 +6667,314 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
         <v>191</v>
       </c>
-      <c r="D5" t="s">
-        <v>197</v>
-      </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
         <v>192</v>
       </c>
-      <c r="D6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" t="s">
-        <v>198</v>
-      </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E26" s="19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5772,12 +6983,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5807,84 +7018,84 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="46" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="23" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="T1" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="V1" s="23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Y1" s="23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Z1" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AB1" s="25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -6186,7 +7397,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B5" s="26">
         <f t="shared" si="0"/>
@@ -6285,7 +7496,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B6" s="26">
         <f t="shared" si="0"/>
@@ -6374,12 +7585,12 @@
         <v>0.73489452187500004</v>
       </c>
       <c r="AC6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
@@ -6468,7 +7679,7 @@
         <v>11851851851851.852</v>
       </c>
       <c r="AC7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -6477,7 +7688,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="40" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F8" s="50">
         <v>9.5999999999999992E-3</v>
@@ -6503,7 +7714,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="13"/>
       <c r="AC8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -6548,10 +7759,10 @@
         <v>2174380000000</v>
       </c>
       <c r="AB9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AC9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -6590,10 +7801,10 @@
         <v>21372572000000</v>
       </c>
       <c r="AB10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AC10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -6601,7 +7812,7 @@
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="40" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F11" s="55">
         <v>2.1299999999999999E-2</v>
@@ -6614,50 +7825,50 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="55" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="R12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="X12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Y12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA12" s="33">
         <v>260000</v>
@@ -6665,7 +7876,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B13" s="40">
         <f>2*(O13-U13)</f>
@@ -6676,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40">
-        <f>2*R13-I13</f>
+        <f t="shared" ref="D13:D19" si="7">2*R13-I13</f>
         <v>0</v>
       </c>
       <c r="E13" s="40"/>
@@ -6685,7 +7896,7 @@
       </c>
       <c r="G13" s="56"/>
       <c r="H13" s="40">
-        <f t="shared" ref="H13:H19" si="7">O13-L13+I13/2</f>
+        <f t="shared" ref="H13:H19" si="8">O13-L13+I13/2</f>
         <v>0</v>
       </c>
       <c r="I13">
@@ -6712,16 +7923,16 @@
         <v>0.1</v>
       </c>
       <c r="Y13">
-        <f>W13*$AA$12/1000000</f>
+        <f t="shared" ref="Y13:Y19" si="9">W13*$AA$12/1000000</f>
         <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B14" s="40">
-        <f t="shared" ref="B14:B19" si="8">2*(O14-U14)</f>
+        <f t="shared" ref="B14:B19" si="10">2*(O14-U14)</f>
         <v>0</v>
       </c>
       <c r="C14" s="40">
@@ -6729,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="40">
-        <f>2*R14-I14</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E14" s="40"/>
@@ -6738,7 +7949,7 @@
       </c>
       <c r="G14" s="56"/>
       <c r="H14" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I14">
@@ -6765,16 +7976,16 @@
         <v>1</v>
       </c>
       <c r="Y14">
-        <f>W14*$AA$12/1000000</f>
+        <f t="shared" si="9"/>
         <v>0.52</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B15" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C15" s="40">
@@ -6782,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="40">
-        <f>2*R15-I15</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E15" s="40"/>
@@ -6791,7 +8002,7 @@
       </c>
       <c r="G15" s="56"/>
       <c r="H15" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I15">
@@ -6818,16 +8029,16 @@
         <v>2</v>
       </c>
       <c r="Y15">
-        <f>W15*$AA$12/1000000</f>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B16" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="C16" s="40">
@@ -6835,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="40">
-        <f>2*R16-I16</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E16" s="40"/>
@@ -6844,7 +8055,7 @@
       </c>
       <c r="G16" s="56"/>
       <c r="H16" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I16">
@@ -6871,16 +8082,16 @@
         <v>5</v>
       </c>
       <c r="Y16">
-        <f>W16*$AA$12/1000000</f>
+        <f t="shared" si="9"/>
         <v>2.6</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B17" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C17" s="40">
@@ -6888,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="40">
-        <f>2*R17-I17</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E17" s="40"/>
@@ -6897,7 +8108,7 @@
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I17">
@@ -6924,16 +8135,16 @@
         <v>10</v>
       </c>
       <c r="Y17">
-        <f>W17*$AA$12/1000000</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B18" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C18" s="40">
@@ -6941,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="40">
-        <f>2*R18-I18</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E18" s="40"/>
@@ -6950,7 +8161,7 @@
       </c>
       <c r="G18" s="56"/>
       <c r="H18" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I18">
@@ -6977,16 +8188,16 @@
         <v>60</v>
       </c>
       <c r="Y18">
-        <f>W18*$AA$12/1000000</f>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B19" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C19" s="40">
@@ -6994,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="40">
-        <f>2*R19-I19</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="E19" s="40"/>
@@ -7003,7 +8214,7 @@
       </c>
       <c r="G19" s="56"/>
       <c r="H19" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I19">
@@ -7030,13 +8241,13 @@
         <v>90</v>
       </c>
       <c r="Y19">
-        <f>W19*$AA$12/1000000</f>
+        <f t="shared" si="9"/>
         <v>2600</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F20" s="50">
         <v>1.6000000000000001E-3</v>
@@ -7054,7 +8265,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F21" s="50">
         <v>8.5000000000000006E-3</v>
@@ -7073,7 +8284,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F22" s="50">
         <v>1.6000000000000001E-3</v>
@@ -7086,7 +8297,7 @@
         <v>526000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="T22" s="32"/>
       <c r="V22" s="32"/>
@@ -7094,7 +8305,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -7142,7 +8353,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -7190,7 +8401,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -7238,7 +8449,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -7286,7 +8497,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -7334,7 +8545,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -7382,7 +8593,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -7430,7 +8641,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -7478,7 +8689,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -7526,7 +8737,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -7574,7 +8785,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -7622,7 +8833,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -7670,7 +8881,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -7718,7 +8929,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -7766,7 +8977,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -7814,7 +9025,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -7862,7 +9073,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -7910,7 +9121,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -7962,7 +9173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>
@@ -8185,7 +9396,7 @@
       </c>
       <c r="AH2" s="2">
         <f>Constants!$B$6*L2*12*Q2/10^9</f>
-        <v>10.992981028170488</v>
+        <v>10.55326178704367</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -8294,7 +9505,7 @@
       </c>
       <c r="AH3" s="2">
         <f>Constants!$B$6*L3*12*Q3/10^9</f>
-        <v>26.748460500668678</v>
+        <v>25.678522080641933</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -8403,7 +9614,7 @@
       </c>
       <c r="AH4" s="2">
         <f>Constants!$B$6*L4*12*Q4/10^9</f>
-        <v>4.3674700117082939</v>
+        <v>4.192771211239962</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -8504,7 +9715,7 @@
       </c>
       <c r="AH5" s="2">
         <f>Constants!$B$6*L5*12*Q5/10^9</f>
-        <v>4.2203861131988871</v>
+        <v>4.051570668670931</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -8608,7 +9819,7 @@
       </c>
       <c r="AH6" s="2">
         <f>Constants!$B$6*L6*12*Q6/10^9</f>
-        <v>20.53136804236069</v>
+        <v>19.710113320666263</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -8711,7 +9922,7 @@
       </c>
       <c r="AH7" s="2">
         <f>Constants!$B$6*L7*12*Q7/10^9</f>
-        <v>342.70302800903698</v>
+        <v>328.99490688867553</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -8770,7 +9981,7 @@
       </c>
       <c r="AH8" s="2">
         <f>Constants!$B$6*L8*12*Q8/10^9</f>
-        <v>66.860665696107034</v>
+        <v>64.186239068262751</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8829,7 +10040,7 @@
       </c>
       <c r="AH9" s="2">
         <f>Constants!$B$6*L9*12*Q9/10^9</f>
-        <v>66.860665696107034</v>
+        <v>64.186239068262751</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Rotated (old)" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="495">
   <si>
     <t>France</t>
   </si>
@@ -565,9 +566,6 @@
     <t>15 heures d'activité par semaine obligatoires pour bénéficier du RSA</t>
   </si>
   <si>
-    <t>Suppression de 150 000 fonctionnaires</t>
-  </si>
-  <si>
     <t>Plan pour l'isolation thermique</t>
   </si>
   <si>
@@ -583,9 +581,6 @@
     <t>Second tour Présidentielle</t>
   </si>
   <si>
-    <t>What platform do you prefer?</t>
-  </si>
-  <si>
     <t>Conjoint analysis d</t>
   </si>
   <si>
@@ -1141,12 +1136,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>Q50 Wealth</t>
-  </si>
-  <si>
-    <t>25/110/250/500k TODO: check values</t>
-  </si>
-  <si>
     <t>Coal exit, Marriage only for opposite-sex couples</t>
   </si>
   <si>
@@ -1246,18 +1235,6 @@
     <t xml:space="preserve">Q270, 271 petition </t>
   </si>
   <si>
-    <t>cabinet du Président de la République Êtes-vous prêt à signer une pétition pour le Plan climatique mondial ? Dès que l'enquête sera terminée, nous enverrons les résultats au cabinet du Président de la République, en l'informant de la proportion de Français disposés à soutenir le plan climatique mondial.
-(Il ne vous sera PAS demandé de signer, seule votre réponse est requise et reste anonyme).</t>
-  </si>
-  <si>
-    <t>an das Bundeskanzleramt Sind Sie schließlich bereit, eine Petition zu unterschreiben, um ...?
-Sobald die Umfrage abgeschlossen ist, senden wir die Ergebnisse an das Bundeskanzleramt und teilen mit, wie viele Personen, die an dieser Umfrage teilgenommen haben, bereit waren, die folgende Petition zu unterstützen. (Sie werden NICHT zur Unterschrift aufgefordert, nur Ihre Antwort ist hier erforderlich und bleibt anonym,)</t>
-  </si>
-  <si>
-    <t>la oficina del Presidente ¿está dispuesto a firmar una petición para "defender una acción climática real"?
-Tan pronto como finalice la encuesta, enviaremos los resultados a la oficina del Presidente, informándole de la proporción de ... que estaban dispuestos a apoyar ... . (NO se le pedirá que firme, sólo se requiere su respuesta, que permanece anónima)</t>
-  </si>
-  <si>
     <t>the Prime minister's office</t>
   </si>
   <si>
@@ -1408,78 +1385,140 @@
     <t>Q259, 261, 90, 264, 265, 275, 276, 92, 49, 274</t>
   </si>
   <si>
-    <t>Imagine if the two favorite candidates in your constituency in the next general election campaigned with the following policies in their party's platforms.&lt;br&gt;
-&lt;br&gt;
+    <t>Absent TODO:remove</t>
+  </si>
+  <si>
+    <t>€44 billion / 1.3%% of GDP</t>
+  </si>
+  <si>
+    <t>€16 billion / 0.7% of GDP</t>
+  </si>
+  <si>
+    <t>£20 billion / 0.9% of GDP</t>
+  </si>
+  <si>
+    <t>€5 billion / 0.4% of GDP</t>
+  </si>
+  <si>
+    <t>same source as above</t>
+  </si>
+  <si>
+    <t>P98 monthly</t>
+  </si>
+  <si>
+    <t>P98 yearly</t>
+  </si>
+  <si>
+    <t>P95 monthly</t>
+  </si>
+  <si>
+    <t>P95 yearly</t>
+  </si>
+  <si>
+    <t>pre-tax national income 2021 LCU (2015 inflated) WID.world equal split https://wid.world/data/#countriestimeseries/tfiinc_p95p100_z/US;FR;DE;GB;WO;ES/1930/2021/cc/c/x/yearly/t</t>
+  </si>
+  <si>
+    <t>Top 1% post-tax income share</t>
+  </si>
+  <si>
+    <t>2021 equal-split https://wid.world/</t>
+  </si>
+  <si>
+    <t>tax revenue over top 1% share</t>
+  </si>
+  <si>
+    <t>Top 1% pre-tax threshold  (k LCU 2021)</t>
+  </si>
+  <si>
+    <t>15k€ per month</t>
+  </si>
+  <si>
+    <t>20k€ per month</t>
+  </si>
+  <si>
+    <t>10k€ per month</t>
+  </si>
+  <si>
+    <t>15k£ per month</t>
+  </si>
+  <si>
+    <t>equal split https://wid.world/data/#countriestimeseries/tfiinc_p95p100_z/US;FR;DE;GB;WO;ES/1930/2021/cc/c/x/yearly/t</t>
+  </si>
+  <si>
+    <t>Q258 Policies described y.c. list experiment / conjoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q275, 276 donation lottery </t>
+  </si>
+  <si>
+    <t>Q24.1, 24.2 candidates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an das Bundeskanzleramt </t>
+  </si>
+  <si>
+    <t>la oficina del Presidente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabinet du Président de la République </t>
+  </si>
+  <si>
+    <t>1/36/129/283</t>
+  </si>
+  <si>
+    <t>0/47/93/200</t>
+  </si>
+  <si>
+    <t>Wealth wid.world equal-split 2021 kLCU</t>
+  </si>
+  <si>
+    <t>3/44/115/267</t>
+  </si>
+  <si>
+    <t>6/55/150/308</t>
+  </si>
+  <si>
+    <t>0/36/136/491</t>
+  </si>
+  <si>
+    <t>Q2.16 Wealth indiv</t>
+  </si>
+  <si>
+    <t>Q50 Wealth couple</t>
+  </si>
+  <si>
+    <t>5/50/150/300k</t>
+  </si>
+  <si>
+    <t>10/100/300/600k</t>
+  </si>
+  <si>
+    <t>0/50/100/200k</t>
+  </si>
+  <si>
+    <t>0/100/200/400k</t>
+  </si>
+  <si>
+    <t>6/90/230/530k</t>
+  </si>
+  <si>
+    <t>3/45/115/270k</t>
+  </si>
+  <si>
+    <t>0/4/60/190</t>
+  </si>
+  <si>
+    <t>0/35/130/280k</t>
+  </si>
+  <si>
+    <t>0/70/260/560k</t>
+  </si>
+  <si>
+    <t>Suppression de 150 000 postes de  fonctionnaires</t>
+  </si>
+  <si>
+    <t>Imagine if the two favorite candidates in your constituency in the next general election campaigned with the following policies in their party's platforms.&lt;br&gt;&lt;br&gt;
 Which of these candidates would you vote for?&lt;div&gt;</t>
-  </si>
-  <si>
-    <t>Absent TODO:remove</t>
-  </si>
-  <si>
-    <t>€44 billion / 1.3%% of GDP</t>
-  </si>
-  <si>
-    <t>€16 billion / 0.7% of GDP</t>
-  </si>
-  <si>
-    <t>£20 billion / 0.9% of GDP</t>
-  </si>
-  <si>
-    <t>€5 billion / 0.4% of GDP</t>
-  </si>
-  <si>
-    <t>same source as above</t>
-  </si>
-  <si>
-    <t>P98 monthly</t>
-  </si>
-  <si>
-    <t>P98 yearly</t>
-  </si>
-  <si>
-    <t>P95 monthly</t>
-  </si>
-  <si>
-    <t>P95 yearly</t>
-  </si>
-  <si>
-    <t>pre-tax national income 2021 LCU (2015 inflated) WID.world equal split https://wid.world/data/#countriestimeseries/tfiinc_p95p100_z/US;FR;DE;GB;WO;ES/1930/2021/cc/c/x/yearly/t</t>
-  </si>
-  <si>
-    <t>Top 1% post-tax income share</t>
-  </si>
-  <si>
-    <t>2021 equal-split https://wid.world/</t>
-  </si>
-  <si>
-    <t>tax revenue over top 1% share</t>
-  </si>
-  <si>
-    <t>Top 1% pre-tax threshold  (k LCU 2021)</t>
-  </si>
-  <si>
-    <t>15k€ per month</t>
-  </si>
-  <si>
-    <t>20k€ per month</t>
-  </si>
-  <si>
-    <t>10k€ per month</t>
-  </si>
-  <si>
-    <t>15k£ per month</t>
-  </si>
-  <si>
-    <t>equal split https://wid.world/data/#countriestimeseries/tfiinc_p95p100_z/US;FR;DE;GB;WO;ES/1930/2021/cc/c/x/yearly/t</t>
-  </si>
-  <si>
-    <t>Q258 Policies described y.c. list experiment / conjoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q275, 276 donation lottery </t>
-  </si>
-  <si>
-    <t>Q24.1, 24.2 candidates</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1529,7 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1750,16 +1789,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2045,8 +2084,8 @@
   <dimension ref="A1:P185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2330,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B9" s="20">
         <f>B11*(B15*(B17/B16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B16/12-30</f>
@@ -2629,7 +2668,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B20" s="11">
         <f>B23/B21</f>
@@ -2655,7 +2694,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B21" s="11">
         <v>8.9499999999999996E-2</v>
@@ -2674,7 +2713,7 @@
         <v>0.1903</v>
       </c>
       <c r="M21" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2732,7 +2771,7 @@
         <v>1.2406821177761389E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2763,7 +2802,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B25" s="41">
         <v>175</v>
@@ -2782,7 +2821,7 @@
         <v>479</v>
       </c>
       <c r="M25" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3615,11 +3654,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,7 +3674,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -3655,469 +3694,518 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+        <v>355</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" t="s">
         <v>359</v>
-      </c>
-      <c r="B3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E3" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" t="s">
         <v>362</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>363</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" t="s">
         <v>366</v>
-      </c>
-      <c r="C5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E5" t="s">
-        <v>367</v>
-      </c>
-      <c r="F5" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>478</v>
+      </c>
+      <c r="B6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" t="s">
+        <v>477</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>479</v>
+      </c>
+      <c r="F6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="D7" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>489</v>
       </c>
       <c r="F7" t="s">
-        <v>371</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="E8" t="s">
-        <v>476</v>
-      </c>
-      <c r="F8" t="s">
-        <v>374</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
+        <v>470</v>
+      </c>
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E9" t="s">
+        <v>394</v>
+      </c>
       <c r="F9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>390</v>
+        <v>368</v>
+      </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" t="s">
+        <v>468</v>
       </c>
       <c r="F10" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>382</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" t="s">
-        <v>383</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
       <c r="F11" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B12" t="s">
-        <v>393</v>
-      </c>
-      <c r="C12" t="s">
-        <v>394</v>
-      </c>
-      <c r="D12" t="s">
-        <v>395</v>
-      </c>
-      <c r="E12" t="s">
-        <v>396</v>
+        <v>381</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>386</v>
       </c>
       <c r="F12" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>400</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+        <v>378</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="E13" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+        <v>449</v>
+      </c>
+      <c r="B14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" t="s">
+        <v>392</v>
+      </c>
       <c r="F14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>408</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" t="s">
-        <v>409</v>
-      </c>
-      <c r="C16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E16" t="s">
-        <v>412</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
       <c r="F16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>479</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>414</v>
-      </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" t="s">
-        <v>415</v>
+        <v>399</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>473</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>474</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="C18" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D18" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="E18" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" t="s">
-        <v>460</v>
-      </c>
-      <c r="C19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D19" t="s">
-        <v>462</v>
-      </c>
-      <c r="E19" t="s">
-        <v>461</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>421</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>422</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+        <v>442</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" t="s">
+        <v>411</v>
+      </c>
       <c r="F20" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>424</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0.41</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0.38</v>
+        <v>412</v>
+      </c>
+      <c r="B21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" t="s">
+        <v>454</v>
+      </c>
+      <c r="E21" t="s">
+        <v>453</v>
+      </c>
+      <c r="F21" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>425</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
+        <v>414</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
       <c r="F22" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>430</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="C23" t="s">
-        <v>433</v>
-      </c>
-      <c r="D23" t="s">
-        <v>434</v>
-      </c>
-      <c r="E23" t="s">
-        <v>435</v>
-      </c>
-      <c r="F23" t="s">
-        <v>431</v>
+        <v>417</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>427</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>429</v>
-      </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
+        <v>418</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
       <c r="F24" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>448</v>
-      </c>
-      <c r="B25" t="s">
-        <v>446</v>
+        <v>423</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="D25" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E25" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F25" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>480</v>
-      </c>
-      <c r="B26" t="s">
-        <v>447</v>
-      </c>
-      <c r="C26" t="s">
-        <v>443</v>
-      </c>
-      <c r="D26" t="s">
-        <v>444</v>
-      </c>
-      <c r="E26" t="s">
-        <v>440</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C27" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="E27" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="F27" t="s">
-        <v>452</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D28" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" t="s">
+        <v>433</v>
+      </c>
+      <c r="F28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>446</v>
+      </c>
+      <c r="B29" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" t="s">
+        <v>443</v>
+      </c>
+      <c r="D29" t="s">
+        <v>444</v>
+      </c>
+      <c r="E29" t="s">
+        <v>447</v>
+      </c>
+      <c r="F29" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4168,97 +4256,97 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="T1" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF1" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="AG1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -4345,16 +4433,16 @@
         <v>222</v>
       </c>
       <c r="AD2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AE2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AF2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -4441,19 +4529,19 @@
         <v>202</v>
       </c>
       <c r="AD3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AE3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AH3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -4537,16 +4625,16 @@
         <v>303</v>
       </c>
       <c r="AD4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AH4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -4636,19 +4724,19 @@
         <v>206.68265162200279</v>
       </c>
       <c r="AD5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG5" t="s">
         <v>314</v>
       </c>
-      <c r="AE5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>316</v>
-      </c>
       <c r="AH5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -4745,7 +4833,7 @@
         <v>3000</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:N7" si="4">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
+        <f t="shared" ref="E7:K7" si="4">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
         <v>1529.6671368124116</v>
       </c>
       <c r="F7" s="2">
@@ -4813,7 +4901,7 @@
         <v>226.31193606548351</v>
       </c>
       <c r="AG7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -4890,33 +4978,33 @@
         <v>383</v>
       </c>
       <c r="AG8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V10" s="19" t="s">
         <v>87</v>
       </c>
       <c r="W10" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="X10" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y10" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="X10" s="58" t="s">
+      <c r="Z10" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="Y10" s="58" t="s">
+      <c r="AA10" s="58" t="s">
         <v>277</v>
-      </c>
-      <c r="Z10" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA10" s="58" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,19 +5067,19 @@
         <v>88</v>
       </c>
       <c r="W11" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="X11" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y11" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="X11" s="59" t="s">
+      <c r="Z11" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="Y11" s="59" t="s">
+      <c r="AA11" s="60" t="s">
         <v>290</v>
-      </c>
-      <c r="Z11" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA11" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5054,19 +5142,19 @@
         <v>89</v>
       </c>
       <c r="W12" s="59" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="X12" s="59" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Y12" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z12" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA12" s="60" t="s">
         <v>296</v>
-      </c>
-      <c r="Z12" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA12" s="60" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,19 +5217,19 @@
         <v>3</v>
       </c>
       <c r="W13" t="s">
+        <v>297</v>
+      </c>
+      <c r="X13" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y13" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="X13" s="59" t="s">
+      <c r="Z13" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="Y13" s="59" t="s">
+      <c r="AA13" s="60" t="s">
         <v>301</v>
-      </c>
-      <c r="Z13" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA13" s="60" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5204,21 +5292,21 @@
         <v>5</v>
       </c>
       <c r="W14" t="s">
+        <v>332</v>
+      </c>
+      <c r="X14" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y14" t="s">
         <v>334</v>
       </c>
-      <c r="X14" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>336</v>
-      </c>
       <c r="Z14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E15">
         <f>MIN(E11:E14)</f>
@@ -5293,7 +5381,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E16">
         <f>MAX(E11:E14)</f>
@@ -5368,7 +5456,7 @@
     </row>
     <row r="17" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E17" s="63">
         <f>IF(E16&gt;=1/E15,E16-1,1-1/E15)</f>
@@ -5443,7 +5531,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -5660,7 +5748,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B7">
         <v>0.83</v>
@@ -5695,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,7 +5874,7 @@
         <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -5836,7 +5924,7 @@
         <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -5886,7 +5974,7 @@
         <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -5936,7 +6024,7 @@
         <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -5983,7 +6071,7 @@
         <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -6041,7 +6129,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6079,19 +6167,19 @@
         <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="O10" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P10" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q10" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="R10" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -6437,10 +6525,10 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -6472,7 +6560,7 @@
         <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H3" t="s">
         <v>138</v>
@@ -6521,7 +6609,7 @@
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E5" t="s">
         <v>127</v>
@@ -6556,7 +6644,7 @@
         <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -6565,15 +6653,15 @@
         <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
@@ -6588,13 +6676,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H9" s="65">
         <v>6</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -6607,8 +6695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6638,24 +6726,20 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>457</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6676,10 +6760,10 @@
         <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
         <v>143</v>
@@ -6687,16 +6771,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
         <v>144</v>
@@ -6707,16 +6791,16 @@
         <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>493</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
         <v>146</v>
@@ -6730,10 +6814,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
         <v>147</v>
@@ -6770,13 +6854,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>148</v>
@@ -6787,13 +6871,13 @@
         <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
         <v>159</v>
@@ -6807,16 +6891,16 @@
         <v>167</v>
       </c>
       <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s">
         <v>205</v>
       </c>
-      <c r="C12" t="s">
-        <v>207</v>
-      </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
         <v>151</v>
@@ -6827,13 +6911,13 @@
         <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
         <v>152</v>
@@ -6904,7 +6988,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E26" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -6933,7 +7017,7 @@
         <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E31" t="s">
         <v>160</v>
@@ -6944,13 +7028,13 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E33" t="s">
         <v>161</v>
@@ -6961,7 +7045,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
         <v>163</v>
@@ -6978,6 +7062,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7018,84 +7105,84 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>261</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>263</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="L1" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="P1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="AB1" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -7397,7 +7484,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B5" s="26">
         <f t="shared" si="0"/>
@@ -7496,7 +7583,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="26">
         <f t="shared" si="0"/>
@@ -7585,12 +7672,12 @@
         <v>0.73489452187500004</v>
       </c>
       <c r="AC6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
@@ -7679,7 +7766,7 @@
         <v>11851851851851.852</v>
       </c>
       <c r="AC7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -7688,7 +7775,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F8" s="50">
         <v>9.5999999999999992E-3</v>
@@ -7714,7 +7801,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="13"/>
       <c r="AC8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -7759,10 +7846,10 @@
         <v>2174380000000</v>
       </c>
       <c r="AB9" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC9" t="s">
         <v>264</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -7801,10 +7888,10 @@
         <v>21372572000000</v>
       </c>
       <c r="AB10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC10" t="s">
         <v>265</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -7812,7 +7899,7 @@
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F11" s="55">
         <v>2.1299999999999999E-2</v>
@@ -7825,50 +7912,50 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X12" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y12" t="s">
         <v>227</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>229</v>
       </c>
       <c r="AA12" s="33">
         <v>260000</v>
@@ -7876,7 +7963,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13" s="40">
         <f>2*(O13-U13)</f>
@@ -7929,7 +8016,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" ref="B14:B19" si="10">2*(O14-U14)</f>
@@ -7982,7 +8069,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="10"/>
@@ -8035,7 +8122,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="10"/>
@@ -8088,7 +8175,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B17" s="40">
         <f t="shared" si="10"/>
@@ -8141,7 +8228,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B18" s="40">
         <f t="shared" si="10"/>
@@ -8194,7 +8281,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" s="40">
         <f t="shared" si="10"/>
@@ -8247,7 +8334,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F20" s="50">
         <v>1.6000000000000001E-3</v>
@@ -8265,7 +8352,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F21" s="50">
         <v>8.5000000000000006E-3</v>
@@ -8284,7 +8371,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F22" s="50">
         <v>1.6000000000000001E-3</v>
@@ -8297,7 +8384,7 @@
         <v>526000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="T22" s="32"/>
       <c r="V22" s="32"/>
@@ -8305,7 +8392,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -8353,7 +8440,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -8401,7 +8488,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -8449,7 +8536,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -8497,7 +8584,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -8545,7 +8632,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -8593,7 +8680,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -8641,7 +8728,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -8689,7 +8776,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -8737,7 +8824,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -8785,7 +8872,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -8833,7 +8920,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -8881,7 +8968,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -8929,7 +9016,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -8977,7 +9064,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -9025,7 +9112,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -9073,7 +9160,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -9121,7 +9208,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Rotated (old)" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="515">
   <si>
     <t>France</t>
   </si>
@@ -647,9 +646,6 @@
     <t>SMIC à 1600€ net</t>
   </si>
   <si>
-    <t>Already exists</t>
-  </si>
-  <si>
     <t>Mehr finanzielle Unterstützung für berufstätige Eltern. / einkommensschwache Haushalte entlasten/stärker unterstützen</t>
   </si>
   <si>
@@ -1514,11 +1510,75 @@
     <t>0/70/260/560k</t>
   </si>
   <si>
-    <t>Suppression de 150 000 postes de  fonctionnaires</t>
-  </si>
-  <si>
-    <t>Imagine if the two favorite candidates in your constituency in the next general election campaigned with the following policies in their party's platforms.&lt;br&gt;&lt;br&gt;
+    <t>What platform do you prefer?</t>
+  </si>
+  <si>
+    <t>Imagine if the two favorite candidates in your constituency in the next general election campaigned with the following policies in their party's platforms.&lt;br&gt;
+&lt;br&gt;
 Which of these candidates would you vote for?&lt;div&gt;</t>
+  </si>
+  <si>
+    <t>Suppression de 150 000 fonctionnaires</t>
+  </si>
+  <si>
+    <t>Recul de l'âge légal de départ à la retraite à 65 ans</t>
+  </si>
+  <si>
+    <t>Bürgerversicherung als gerechtere Sozialversicherung</t>
+  </si>
+  <si>
+    <t>Erhöhung der Rente um 10%</t>
+  </si>
+  <si>
+    <t>Versement du RSA aux 18-25 ans sans emploi</t>
+  </si>
+  <si>
+    <t>Staatsschuldenquote auf unter 60% reduzieren</t>
+  </si>
+  <si>
+    <t>Élection des députés à la proportionnelle</t>
+  </si>
+  <si>
+    <t>Volksentscheid auf Bundesebene</t>
+  </si>
+  <si>
+    <t>Référendum d'Initiative Citoyenne (RIC)</t>
+  </si>
+  <si>
+    <t>Légalisation du cannabis</t>
+  </si>
+  <si>
+    <t>Cannabis Legalisierung</t>
+  </si>
+  <si>
+    <t>Interdiction des véhicules les plus polluants dans les centres-villes (ZFE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle geeigneten Dächer eine Solaranlage bekommen </t>
+  </si>
+  <si>
+    <t>Interdiction de la vente de voitures thermiques neuves d'ici 2030</t>
+  </si>
+  <si>
+    <t>Taxation des profits exceptionnels des compagnies pétrolières</t>
+  </si>
+  <si>
+    <t>Rebaja del IRPF para todos los contribuyentes</t>
+  </si>
+  <si>
+    <t>100% de electricidad producida con energías renovables en 2040</t>
+  </si>
+  <si>
+    <t>Insulation plan</t>
+  </si>
+  <si>
+    <t>[contrario de] Luchar firmemente contra el independentismo</t>
+  </si>
+  <si>
+    <t>Légalisation du cannabis?</t>
+  </si>
+  <si>
+    <t>For the UK we don't use Eurostat because it has only 1.7 million zipcodes instead of 2.6, thus missing about half of population (mostly in Large urban). The definition of urban/rural is different from Eurostat and tends to classify zipcodes as more rural than Eurostat.</t>
   </si>
 </sst>
 </file>
@@ -1794,11 +1854,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2330,7 +2390,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B9" s="20">
         <f>B11*(B15*(B17/B16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B16/12-30</f>
@@ -2668,7 +2728,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B20" s="11">
         <f>B23/B21</f>
@@ -2694,7 +2754,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B21" s="11">
         <v>8.9499999999999996E-2</v>
@@ -2713,7 +2773,7 @@
         <v>0.1903</v>
       </c>
       <c r="M21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2771,7 +2831,7 @@
         <v>1.2406821177761389E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2802,7 +2862,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B25" s="41">
         <v>175</v>
@@ -2821,7 +2881,7 @@
         <v>479</v>
       </c>
       <c r="M25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3674,7 +3734,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -3694,382 +3754,382 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" t="s">
-        <v>356</v>
-      </c>
       <c r="F2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" t="s">
         <v>357</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" t="s">
         <v>358</v>
-      </c>
-      <c r="C3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" t="s">
         <v>361</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" t="s">
         <v>364</v>
       </c>
-      <c r="C5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>365</v>
-      </c>
-      <c r="F5" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" t="s">
         <v>478</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>480</v>
-      </c>
-      <c r="C6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D6" t="s">
-        <v>477</v>
-      </c>
-      <c r="E6" t="s">
-        <v>479</v>
-      </c>
-      <c r="F6" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F7" t="s">
         <v>489</v>
-      </c>
-      <c r="F7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E8" t="s">
         <v>487</v>
-      </c>
-      <c r="E8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" t="s">
         <v>465</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>466</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>467</v>
       </c>
-      <c r="E10" t="s">
-        <v>468</v>
-      </c>
       <c r="F10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" t="s">
         <v>372</v>
-      </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" t="s">
         <v>381</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="F12" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="D13" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" t="s">
         <v>378</v>
       </c>
-      <c r="C13" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>377</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>379</v>
-      </c>
-      <c r="F13" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" t="s">
         <v>389</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>390</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>391</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>392</v>
-      </c>
-      <c r="F14" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" s="71" t="s">
         <v>395</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" t="s">
         <v>397</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>473</v>
+      </c>
+      <c r="E17" s="69" t="s">
         <v>399</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>475</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>473</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>474</v>
-      </c>
-      <c r="E17" s="69" t="s">
+      <c r="F17" s="69" t="s">
         <v>400</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" t="s">
         <v>402</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>403</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>404</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>405</v>
-      </c>
-      <c r="F18" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>471</v>
-      </c>
-      <c r="B19" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" t="s">
         <v>407</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D20" t="s">
         <v>409</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>410</v>
       </c>
-      <c r="E20" t="s">
-        <v>411</v>
-      </c>
       <c r="F20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E21" t="s">
+        <v>452</v>
+      </c>
+      <c r="F21" t="s">
         <v>412</v>
-      </c>
-      <c r="B21" t="s">
-        <v>452</v>
-      </c>
-      <c r="C21" t="s">
-        <v>451</v>
-      </c>
-      <c r="D21" t="s">
-        <v>454</v>
-      </c>
-      <c r="E21" t="s">
-        <v>453</v>
-      </c>
-      <c r="F21" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="71" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" t="s">
         <v>415</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="13">
         <v>0.55000000000000004</v>
@@ -4089,110 +4149,110 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" t="s">
         <v>418</v>
-      </c>
-      <c r="B24" s="70" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>422</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" t="s">
         <v>423</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C25" t="s">
-        <v>426</v>
-      </c>
-      <c r="D25" t="s">
-        <v>427</v>
-      </c>
-      <c r="E25" t="s">
-        <v>428</v>
-      </c>
-      <c r="F25" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" t="s">
         <v>420</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>422</v>
-      </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C28" t="s">
+        <v>435</v>
+      </c>
+      <c r="D28" t="s">
         <v>436</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>432</v>
+      </c>
+      <c r="F28" t="s">
         <v>437</v>
-      </c>
-      <c r="E28" t="s">
-        <v>433</v>
-      </c>
-      <c r="F28" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C29" t="s">
+        <v>442</v>
+      </c>
+      <c r="D29" t="s">
+        <v>443</v>
+      </c>
+      <c r="E29" t="s">
         <v>446</v>
       </c>
-      <c r="B29" t="s">
-        <v>448</v>
-      </c>
-      <c r="C29" t="s">
-        <v>443</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>444</v>
-      </c>
-      <c r="E29" t="s">
-        <v>447</v>
-      </c>
-      <c r="F29" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -4213,10 +4273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4248,7 +4308,7 @@
     <col min="33" max="33" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -4256,100 +4316,100 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="S1" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="AG1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4398,10 +4458,10 @@
         <v>465</v>
       </c>
       <c r="P2">
+        <v>194</v>
+      </c>
+      <c r="Q2">
         <v>341</v>
-      </c>
-      <c r="Q2">
-        <v>194</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" ref="V2:Z5" si="0">W15*$C2*$D$7/1000</f>
@@ -4433,19 +4493,19 @@
         <v>222</v>
       </c>
       <c r="AD2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF2" t="s">
         <v>284</v>
       </c>
-      <c r="AF2" t="s">
-        <v>285</v>
-      </c>
       <c r="AG2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4529,22 +4589,22 @@
         <v>202</v>
       </c>
       <c r="AD3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4593,10 +4653,10 @@
         <v>515</v>
       </c>
       <c r="P4">
+        <v>224</v>
+      </c>
+      <c r="Q4">
         <v>261</v>
-      </c>
-      <c r="Q4">
-        <v>224</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
@@ -4625,19 +4685,19 @@
         <v>303</v>
       </c>
       <c r="AD4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF4" t="s">
         <v>310</v>
       </c>
-      <c r="AF4" t="s">
-        <v>311</v>
-      </c>
       <c r="AG4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -4711,35 +4771,35 @@
         <f t="shared" si="0"/>
         <v>83.95641748942171</v>
       </c>
-      <c r="AA5" s="2">
-        <f>SUMPRODUCT($C2:$C5,O2:O5)</f>
-        <v>425.77103902209689</v>
-      </c>
-      <c r="AB5" s="2">
-        <f>SUMPRODUCT($C2:$C5,P2:P5)</f>
-        <v>367.54630935590035</v>
-      </c>
-      <c r="AC5" s="2">
-        <f>SUMPRODUCT($C2:$C5,Q2:Q5)</f>
-        <v>206.68265162200279</v>
+      <c r="AA5">
+        <v>593</v>
+      </c>
+      <c r="AB5">
+        <v>279</v>
+      </c>
+      <c r="AC5">
+        <v>128</v>
       </c>
       <c r="AD5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE5" t="s">
         <v>312</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG5" t="s">
         <v>313</v>
       </c>
-      <c r="AF5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>314</v>
-      </c>
       <c r="AH5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -4797,11 +4857,11 @@
       </c>
       <c r="P6" s="2">
         <f t="shared" si="1"/>
-        <v>367.54630935590035</v>
+        <v>325.11847672778561</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="1"/>
-        <v>206.68265162200279</v>
+        <v>249.11048425011754</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -4820,7 +4880,7 @@
         <v>174.71415138692993</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -4878,11 +4938,11 @@
       </c>
       <c r="P7" s="2">
         <f>SUMPRODUCT($C2:$C5,P2:P5)*$D$7/1000</f>
-        <v>1102.638928067701</v>
+        <v>975.35543018335682</v>
       </c>
       <c r="Q7" s="2">
         <f>SUMPRODUCT($C2:$C5,Q2:Q5)*$D$7/1000</f>
-        <v>620.04795486600835</v>
+        <v>747.33145275035258</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -4890,21 +4950,21 @@
       <c r="U7" s="2"/>
       <c r="AA7" s="2">
         <f>SUMPRODUCT($C2:$C5,AA2:AA5)</f>
-        <v>505.95882544463251</v>
+        <v>547.70709920075217</v>
       </c>
       <c r="AB7" s="2">
         <f>SUMPRODUCT($C2:$C5,AB2:AB5)</f>
-        <v>267.9723038401425</v>
+        <v>245.86694875411376</v>
       </c>
       <c r="AC7" s="2">
         <f>SUMPRODUCT($C2:$C5,AC2:AC5)</f>
-        <v>226.31193606548351</v>
+        <v>206.66901739539256</v>
       </c>
       <c r="AG7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -4978,36 +5038,36 @@
         <v>383</v>
       </c>
       <c r="AG8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="S10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V10" s="19" t="s">
         <v>87</v>
       </c>
       <c r="W10" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="X10" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="X10" s="58" t="s">
+      <c r="Y10" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="Y10" s="58" t="s">
+      <c r="Z10" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="Z10" s="58" t="s">
+      <c r="AA10" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="AA10" s="58" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>87</v>
       </c>
@@ -5057,32 +5117,32 @@
       </c>
       <c r="P11">
         <f t="shared" si="8"/>
-        <v>0.92777424591088686</v>
+        <v>0.59670555162705141</v>
       </c>
       <c r="Q11">
         <f t="shared" si="8"/>
-        <v>0.93863707707215893</v>
+        <v>1.3688705275753126</v>
       </c>
       <c r="V11" s="19" t="s">
         <v>88</v>
       </c>
       <c r="W11" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="X11" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="X11" s="59" t="s">
+      <c r="Y11" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="Y11" s="59" t="s">
+      <c r="Z11" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="Z11" s="59" t="s">
+      <c r="AA11" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="AA11" s="60" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>88</v>
       </c>
@@ -5132,32 +5192,32 @@
       </c>
       <c r="P12">
         <f t="shared" si="12"/>
-        <v>1.0991812180293206</v>
+        <v>1.242623932254272</v>
       </c>
       <c r="Q12">
         <f t="shared" si="12"/>
-        <v>1.1128171532298792</v>
+        <v>0.92328510657572405</v>
       </c>
       <c r="V12" s="19" t="s">
         <v>89</v>
       </c>
       <c r="W12" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="X12" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="X12" s="59" t="s">
-        <v>336</v>
-      </c>
       <c r="Y12" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z12" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="Z12" s="59" t="s">
+      <c r="AA12" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="AA12" s="60" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>89</v>
       </c>
@@ -5207,32 +5267,32 @@
       </c>
       <c r="P13">
         <f t="shared" si="15"/>
-        <v>0.71011459877636796</v>
+        <v>0.68897960600236874</v>
       </c>
       <c r="Q13">
         <f t="shared" si="15"/>
-        <v>1.0837871405369257</v>
+        <v>1.0477278818098434</v>
       </c>
       <c r="V13" s="19" t="s">
         <v>3</v>
       </c>
       <c r="W13" t="s">
+        <v>296</v>
+      </c>
+      <c r="X13" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="X13" s="59" t="s">
+      <c r="Y13" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="Y13" s="59" t="s">
+      <c r="Z13" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="Z13" s="59" t="s">
+      <c r="AA13" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="AA13" s="60" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>3</v>
       </c>
@@ -5282,31 +5342,31 @@
       </c>
       <c r="P14">
         <f t="shared" si="18"/>
-        <v>1.1508753842237689</v>
+        <v>1.3010641666919731</v>
       </c>
       <c r="Q14">
         <f t="shared" si="18"/>
-        <v>0.85154703899329875</v>
+        <v>0.70651382068403235</v>
       </c>
       <c r="V14" t="s">
         <v>5</v>
       </c>
       <c r="W14" t="s">
+        <v>331</v>
+      </c>
+      <c r="X14" t="s">
         <v>332</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>333</v>
       </c>
-      <c r="Y14" t="s">
-        <v>334</v>
-      </c>
       <c r="Z14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E15">
         <f>MIN(E11:E14)</f>
@@ -5354,11 +5414,11 @@
       </c>
       <c r="P15" s="61">
         <f t="shared" ref="P15:Q15" si="22">MIN(P11:P14)</f>
-        <v>0.71011459877636796</v>
+        <v>0.59670555162705141</v>
       </c>
       <c r="Q15" s="61">
         <f t="shared" si="22"/>
-        <v>0.85154703899329875</v>
+        <v>0.70651382068403235</v>
       </c>
       <c r="V15" s="19" t="s">
         <v>87</v>
@@ -5379,9 +5439,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E16">
         <f>MAX(E11:E14)</f>
@@ -5429,11 +5489,11 @@
       </c>
       <c r="P16" s="61">
         <f t="shared" si="26"/>
-        <v>1.1508753842237689</v>
+        <v>1.3010641666919731</v>
       </c>
       <c r="Q16" s="61">
         <f t="shared" si="26"/>
-        <v>1.1128171532298792</v>
+        <v>1.3688705275753126</v>
       </c>
       <c r="V16" s="19" t="s">
         <v>88</v>
@@ -5456,7 +5516,7 @@
     </row>
     <row r="17" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E17" s="63">
         <f>IF(E16&gt;=1/E15,E16-1,1-1/E15)</f>
@@ -5504,11 +5564,11 @@
       </c>
       <c r="P17" s="64">
         <f t="shared" ref="P17:Q17" si="30">IF(P16&gt;=1/P15,P16-1,1-1/P15)</f>
-        <v>-0.40822340749387109</v>
+        <v>-0.67586843674116293</v>
       </c>
       <c r="Q17" s="64">
         <f t="shared" si="30"/>
-        <v>-0.17433324785228854</v>
+        <v>-0.41540047869384966</v>
       </c>
       <c r="V17" s="19" t="s">
         <v>89</v>
@@ -5531,7 +5591,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -5748,7 +5808,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7">
         <v>0.83</v>
@@ -5874,7 +5934,7 @@
         <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -5924,7 +5984,7 @@
         <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -5974,7 +6034,7 @@
         <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -6024,7 +6084,7 @@
         <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -6071,7 +6131,7 @@
         <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -6129,7 +6189,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6167,19 +6227,19 @@
         <v>86</v>
       </c>
       <c r="M10" t="s">
+        <v>454</v>
+      </c>
+      <c r="O10" t="s">
+        <v>458</v>
+      </c>
+      <c r="P10" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>456</v>
+      </c>
+      <c r="R10" t="s">
         <v>455</v>
-      </c>
-      <c r="O10" t="s">
-        <v>459</v>
-      </c>
-      <c r="P10" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>457</v>
-      </c>
-      <c r="R10" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -6525,10 +6585,10 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" t="s">
         <v>351</v>
-      </c>
-      <c r="F2" t="s">
-        <v>352</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -6560,7 +6620,7 @@
         <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H3" t="s">
         <v>138</v>
@@ -6609,7 +6669,7 @@
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E5" t="s">
         <v>127</v>
@@ -6644,7 +6704,7 @@
         <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -6653,15 +6713,15 @@
         <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="65" t="s">
         <v>341</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>342</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
@@ -6676,13 +6736,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H9" s="65">
         <v>6</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6695,8 +6755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6726,18 +6786,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="71" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>493</v>
+      </c>
       <c r="F2" s="19" t="s">
         <v>197</v>
       </c>
@@ -6791,7 +6855,7 @@
         <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
         <v>184</v>
@@ -6817,7 +6881,7 @@
         <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
         <v>147</v>
@@ -6857,7 +6921,7 @@
         <v>186</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>194</v>
@@ -6874,10 +6938,10 @@
         <v>177</v>
       </c>
       <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
         <v>206</v>
-      </c>
-      <c r="D11" t="s">
-        <v>207</v>
       </c>
       <c r="E11" t="s">
         <v>159</v>
@@ -6894,7 +6958,7 @@
         <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
         <v>196</v>
@@ -6947,16 +7011,49 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>195</v>
+      </c>
       <c r="F16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" t="s">
+        <v>497</v>
+      </c>
+      <c r="D17" t="s">
+        <v>196</v>
+      </c>
       <c r="F17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" t="s">
+        <v>339</v>
+      </c>
       <c r="F18" t="s">
         <v>154</v>
       </c>
@@ -6967,26 +7064,71 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C21" t="s">
+        <v>501</v>
+      </c>
+      <c r="D21" t="s">
+        <v>512</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
       <c r="F21" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>502</v>
+      </c>
       <c r="F22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>503</v>
+      </c>
+      <c r="C23" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E23" t="s">
+        <v>513</v>
+      </c>
       <c r="F23" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" t="s">
+        <v>506</v>
+      </c>
+      <c r="D25" t="s">
+        <v>510</v>
+      </c>
       <c r="F25" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>511</v>
+      </c>
       <c r="E26" s="19" t="s">
         <v>193</v>
       </c>
@@ -6995,31 +7137,67 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>507</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
       <c r="F27" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
       <c r="F29" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>508</v>
+      </c>
+      <c r="C30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" t="s">
+        <v>509</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="F30" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" t="s">
-        <v>160</v>
+        <v>174</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
-      </c>
-      <c r="E31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>160</v>
       </c>
       <c r="F31" t="s">
@@ -7062,9 +7240,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7105,84 +7280,84 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>260</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>261</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="K1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="M1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="O1" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -7484,7 +7659,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="26">
         <f t="shared" si="0"/>
@@ -7583,7 +7758,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="26">
         <f t="shared" si="0"/>
@@ -7672,12 +7847,12 @@
         <v>0.73489452187500004</v>
       </c>
       <c r="AC6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
@@ -7766,7 +7941,7 @@
         <v>11851851851851.852</v>
       </c>
       <c r="AC7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -7775,7 +7950,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F8" s="50">
         <v>9.5999999999999992E-3</v>
@@ -7801,7 +7976,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="13"/>
       <c r="AC8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -7846,10 +8021,10 @@
         <v>2174380000000</v>
       </c>
       <c r="AB9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -7888,10 +8063,10 @@
         <v>21372572000000</v>
       </c>
       <c r="AB10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -7899,7 +8074,7 @@
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F11" s="55">
         <v>2.1299999999999999E-2</v>
@@ -7912,50 +8087,50 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>225</v>
-      </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="X12" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y12" t="s">
         <v>226</v>
-      </c>
-      <c r="X12" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>227</v>
       </c>
       <c r="AA12" s="33">
         <v>260000</v>
@@ -7963,7 +8138,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="40">
         <f>2*(O13-U13)</f>
@@ -8016,7 +8191,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" ref="B14:B19" si="10">2*(O14-U14)</f>
@@ -8069,7 +8244,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="10"/>
@@ -8122,7 +8297,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="10"/>
@@ -8175,7 +8350,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="40">
         <f t="shared" si="10"/>
@@ -8228,7 +8403,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" s="40">
         <f t="shared" si="10"/>
@@ -8281,7 +8456,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="40">
         <f t="shared" si="10"/>
@@ -8334,7 +8509,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F20" s="50">
         <v>1.6000000000000001E-3</v>
@@ -8352,7 +8527,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F21" s="50">
         <v>8.5000000000000006E-3</v>
@@ -8371,7 +8546,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F22" s="50">
         <v>1.6000000000000001E-3</v>
@@ -8384,7 +8559,7 @@
         <v>526000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T22" s="32"/>
       <c r="V22" s="32"/>
@@ -8392,7 +8567,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -8440,7 +8615,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -8488,7 +8663,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -8536,7 +8711,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -8584,7 +8759,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -8632,7 +8807,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -8680,7 +8855,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -8728,7 +8903,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -8776,7 +8951,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -8824,7 +8999,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -8872,7 +9047,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -8920,7 +9095,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -8968,7 +9143,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -9016,7 +9191,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -9064,7 +9239,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -9112,7 +9287,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -9160,7 +9335,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -9208,7 +9383,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="540">
   <si>
     <t>France</t>
   </si>
@@ -1579,6 +1579,81 @@
   </si>
   <si>
     <t>For the UK we don't use Eurostat because it has only 1.7 million zipcodes instead of 2.6, thus missing about half of population (mostly in Large urban). The definition of urban/rural is different from Eurostat and tends to classify zipcodes as more rural than Eurostat.</t>
+  </si>
+  <si>
+    <t>IAT</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Equitable</t>
+  </si>
+  <si>
+    <t>Honest</t>
+  </si>
+  <si>
+    <t>Just</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Unfair</t>
+  </si>
+  <si>
+    <t>Unbalanced</t>
+  </si>
+  <si>
+    <t>Costly</t>
+  </si>
+  <si>
+    <t>Improper</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Global wealth tax</t>
+  </si>
+  <si>
+    <t>Foreign aid</t>
+  </si>
+  <si>
+    <t>Overseas Development Assistance</t>
+  </si>
+  <si>
+    <t>Global climate program</t>
+  </si>
+  <si>
+    <t>Global basic income</t>
+  </si>
+  <si>
+    <t>Paris agreement</t>
+  </si>
+  <si>
+    <t>Federal wealth tax</t>
+  </si>
+  <si>
+    <t>Medicare / Medicaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food stamps # now renamed Supplemental Nutrition Assistance Program                         </t>
+  </si>
+  <si>
+    <t>National carbon fee and divdend</t>
+  </si>
+  <si>
+    <t>Earned Income Tax Credit</t>
+  </si>
+  <si>
+    <t>Clean Power Plan</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1666,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1671,6 +1746,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1719,7 +1800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1860,6 +1941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3714,11 +3796,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4255,6 +4337,129 @@
         <v>444</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>515</v>
+      </c>
+      <c r="F31" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="72" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="72" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="72" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="72" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="72" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="72" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="72" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="72" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="72" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="72" t="s">
+        <v>539</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B22:E22"/>
@@ -4268,6 +4473,7 @@
     <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4275,8 +4481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6755,7 +6961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="608">
   <si>
     <t>France</t>
   </si>
@@ -457,12 +457,6 @@
     <t>Some secondary school</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Decrease the payroll tax</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>Exonération des droits de succession pour 95% des Français</t>
   </si>
   <si>
-    <t>It can be both SPD or CDU</t>
-  </si>
-  <si>
     <t>Second tour Présidentielle</t>
   </si>
   <si>
@@ -613,9 +604,6 @@
     <t>£100 billion for infrastructures like road and rail</t>
   </si>
   <si>
-    <t>Upgrade UK homes to the highest energy-efficiency standards</t>
-  </si>
-  <si>
     <t>Windfall tax on oil companies</t>
   </si>
   <si>
@@ -637,9 +625,6 @@
     <t>Plan mondial pour le climat</t>
   </si>
   <si>
-    <t>Plan Climático Global</t>
-  </si>
-  <si>
     <t>Globaler Klimaschutzplan</t>
   </si>
   <si>
@@ -1073,12 +1058,6 @@
   </si>
   <si>
     <t>Post-secondary in 25-64</t>
-  </si>
-  <si>
-    <t>Upper secondary</t>
-  </si>
-  <si>
-    <t>Below upper secondary</t>
   </si>
   <si>
     <t>Question</t>
@@ -1527,9 +1506,6 @@
     <t>Bürgerversicherung als gerechtere Sozialversicherung</t>
   </si>
   <si>
-    <t>Erhöhung der Rente um 10%</t>
-  </si>
-  <si>
     <t>Versement du RSA aux 18-25 ans sans emploi</t>
   </si>
   <si>
@@ -1545,9 +1521,6 @@
     <t>Référendum d'Initiative Citoyenne (RIC)</t>
   </si>
   <si>
-    <t>Légalisation du cannabis</t>
-  </si>
-  <si>
     <t>Cannabis Legalisierung</t>
   </si>
   <si>
@@ -1560,24 +1533,12 @@
     <t>Interdiction de la vente de voitures thermiques neuves d'ici 2030</t>
   </si>
   <si>
-    <t>Taxation des profits exceptionnels des compagnies pétrolières</t>
-  </si>
-  <si>
-    <t>Rebaja del IRPF para todos los contribuyentes</t>
-  </si>
-  <si>
     <t>100% de electricidad producida con energías renovables en 2040</t>
   </si>
   <si>
     <t>Insulation plan</t>
   </si>
   <si>
-    <t>[contrario de] Luchar firmemente contra el independentismo</t>
-  </si>
-  <si>
-    <t>Légalisation du cannabis?</t>
-  </si>
-  <si>
     <t>For the UK we don't use Eurostat because it has only 1.7 million zipcodes instead of 2.6, thus missing about half of population (mostly in Large urban). The definition of urban/rural is different from Eurostat and tends to classify zipcodes as more rural than Eurostat.</t>
   </si>
   <si>
@@ -1654,6 +1615,249 @@
   </si>
   <si>
     <t>Clean Power Plan</t>
+  </si>
+  <si>
+    <t>includes ODA from EU institutions</t>
+  </si>
+  <si>
+    <t>1 Cities</t>
+  </si>
+  <si>
+    <t>2 Towns and suburbs</t>
+  </si>
+  <si>
+    <t>3 Rural areas</t>
+  </si>
+  <si>
+    <t>Below upper secondary 25-64</t>
+  </si>
+  <si>
+    <t>Upper secondary 25-64</t>
+  </si>
+  <si>
+    <t>Above Upper secondary 25-64</t>
+  </si>
+  <si>
+    <t>Below upper secondary 25-64 0-2</t>
+  </si>
+  <si>
+    <t>Upper secondary 25-64 3</t>
+  </si>
+  <si>
+    <t>Above Upper secondary 25-64 4-8</t>
+  </si>
+  <si>
+    <t>Legalization of cannabis</t>
+  </si>
+  <si>
+    <t>Abolición de la prostitución</t>
+  </si>
+  <si>
+    <t>Jornada laboral de 34 horas semanales</t>
+  </si>
+  <si>
+    <t>Ban of most polluting vehicles in city centers</t>
+  </si>
+  <si>
+    <t>Plano de aislamiento</t>
+  </si>
+  <si>
+    <t>Dämmplan</t>
+  </si>
+  <si>
+    <t>Real Living Wage of £11 per hour for all workers aged 16 and over</t>
+  </si>
+  <si>
+    <t>Re-establish neighbourhood policing and recruit 2,000 more frontline officers</t>
+  </si>
+  <si>
+    <t>Taxe mondiale sur les millionaires</t>
+  </si>
+  <si>
+    <t>Assemblée démocratique mondiale sur le changement climatique</t>
+  </si>
+  <si>
+    <t>Doubler l'aide au développement des pays à faibles revenus</t>
+  </si>
+  <si>
+    <t>Can be both CDU and SPD</t>
+  </si>
+  <si>
+    <t>Globale Steuer auf Millionäre</t>
+  </si>
+  <si>
+    <t>Globale demokratische Versammlung zum Klimawandel</t>
+  </si>
+  <si>
+    <t>Impuesto mundial a los millonarios</t>
+  </si>
+  <si>
+    <t>Asamblea democrática mundial sobre el cambio climático</t>
+  </si>
+  <si>
+    <t>Duplicar la ayuda exterior a los países de renta baja</t>
+  </si>
+  <si>
+    <t>Verdoppelung der Auslandshilfe für einkommensschwache Länder</t>
+  </si>
+  <si>
+    <t>italic: costly</t>
+  </si>
+  <si>
+    <t>Ingreso Básico Garantizado de 600€ al mes</t>
+  </si>
+  <si>
+    <t>Reformar la ley electoral para hacer el Senado más proporcional</t>
+  </si>
+  <si>
+    <t>Hausse de 20% du financement de l'hôpital public et de l'Éducation nationale</t>
+  </si>
+  <si>
+    <t>Reduce the average full-time weekly working hours to 32</t>
+  </si>
+  <si>
+    <t>SMIC à 1600€ net par mois</t>
+  </si>
+  <si>
+    <t>Aumentar los impuestos sobre las rentas superiores a 100.000 euros anuales</t>
+  </si>
+  <si>
+    <t>bold: revenue-generating</t>
+  </si>
+  <si>
+    <t>Costly measures appear only if there is a revenue-generating one</t>
+  </si>
+  <si>
+    <t>Erhöhung des Regelsatzes des  Bürgergelds auf bis zu 600€ pro Monat</t>
+  </si>
+  <si>
+    <t>tax1</t>
+  </si>
+  <si>
+    <t>econ1</t>
+  </si>
+  <si>
+    <t>econ2</t>
+  </si>
+  <si>
+    <t>econ3</t>
+  </si>
+  <si>
+    <t>econ4</t>
+  </si>
+  <si>
+    <t>soc1</t>
+  </si>
+  <si>
+    <t>soc2</t>
+  </si>
+  <si>
+    <t>climate1</t>
+  </si>
+  <si>
+    <t>climate2</t>
+  </si>
+  <si>
+    <t>climate3</t>
+  </si>
+  <si>
+    <t>tax2</t>
+  </si>
+  <si>
+    <t>foreign1</t>
+  </si>
+  <si>
+    <t>foreign2</t>
+  </si>
+  <si>
+    <t>foreign3</t>
+  </si>
+  <si>
+    <t>foreign4</t>
+  </si>
+  <si>
+    <t>econ_issues</t>
+  </si>
+  <si>
+    <t>foreign_policy</t>
+  </si>
+  <si>
+    <t>tax_system</t>
+  </si>
+  <si>
+    <t>climate_pol</t>
+  </si>
+  <si>
+    <t>society_issues</t>
+  </si>
+  <si>
+    <t>Economics issues</t>
+  </si>
+  <si>
+    <t>Societal issues</t>
+  </si>
+  <si>
+    <t>Climate policy</t>
+  </si>
+  <si>
+    <t>Tax system</t>
+  </si>
+  <si>
+    <t>Foreign policy</t>
+  </si>
+  <si>
+    <t>Économie</t>
+  </si>
+  <si>
+    <t>Démocratie</t>
+  </si>
+  <si>
+    <t>Climat</t>
+  </si>
+  <si>
+    <t>Fiscalité</t>
+  </si>
+  <si>
+    <t>Politique étrangère</t>
+  </si>
+  <si>
+    <t>Wirtschaft</t>
+  </si>
+  <si>
+    <t>Gesellschaft</t>
+  </si>
+  <si>
+    <t>Klimaschutz</t>
+  </si>
+  <si>
+    <t>Steuerpolitik</t>
+  </si>
+  <si>
+    <t>Fiscalidad</t>
+  </si>
+  <si>
+    <t>Política climática</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Economía</t>
+  </si>
+  <si>
+    <t>Política exterior</t>
+  </si>
+  <si>
+    <t>Außenpolitik</t>
+  </si>
+  <si>
+    <t>Progressive: Climate policy2</t>
+  </si>
+  <si>
+    <t>Progressive: Tax system2</t>
+  </si>
+  <si>
+    <t>Esquema Climático Global</t>
   </si>
 </sst>
 </file>
@@ -1938,10 +2142,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2223,11 +2427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P185"/>
+  <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,21 +2479,21 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="12">
-        <f t="shared" ref="B2:G2" si="0">B7/B3</f>
-        <v>9.7357029337316898E-3</v>
+        <f>B4/B3</f>
+        <v>7.9422382671480145E-3</v>
       </c>
       <c r="C2" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5292830463390731E-2</v>
+        <f t="shared" ref="C2:G2" si="0">C4/C3</f>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" si="0"/>
-        <v>7.3089030223605529E-3</v>
-      </c>
-      <c r="E2" s="3">
+        <v>4.9881235154394295E-3</v>
+      </c>
+      <c r="E2" s="12">
         <f t="shared" si="0"/>
         <v>1.3414634146341463E-2</v>
       </c>
@@ -2304,7 +2508,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2364,274 +2568,282 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5">
-        <v>12180</v>
-      </c>
-      <c r="C5">
-        <v>23810</v>
-      </c>
-      <c r="D5">
-        <v>2900</v>
-      </c>
-      <c r="E5">
-        <v>3090</v>
-      </c>
-      <c r="F5">
-        <v>19370</v>
-      </c>
-      <c r="G5">
-        <v>34620</v>
-      </c>
-      <c r="H5">
-        <f>SUM(B5+C5+D5+F5)</f>
-        <v>58260</v>
-      </c>
-      <c r="I5">
-        <f>H5+E5</f>
-        <v>61350</v>
-      </c>
-      <c r="J5">
-        <v>14827</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
+      <c r="A5" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="L5" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.1855</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f>B6+C6+D6</f>
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="I6" s="1">
-        <f>B6+C6+D6</f>
-        <v>0.51249999999999996</v>
+      <c r="A6" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="20">
+        <f>B8*(B12*(B14/B13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B13/12-30</f>
+        <v>11.601525537519159</v>
+      </c>
+      <c r="C6" s="20">
+        <f>C8*(C12*(C14/C13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/C13/12-30</f>
+        <v>25.254793222517712</v>
+      </c>
+      <c r="D6" s="20">
+        <f>D8*(D12*(D14/D13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/D13/12-30</f>
+        <v>5.0865013761834774</v>
+      </c>
+      <c r="E6" s="21">
+        <f>E8*(E12*(E14/E13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/E13/12-30</f>
+        <v>37.428768662577298</v>
+      </c>
+      <c r="F6" s="20">
+        <f>F8*(F12*(F14/F13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/F13/12-30</f>
+        <v>23.310686870464927</v>
+      </c>
+      <c r="G6" s="20">
+        <f>G8*(G12*(G14/G13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/G13/12-30</f>
+        <v>85.616150463269989</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="11">
-        <f>B4*((B5+$J$5*B6)/B5)</f>
-        <v>5.3935794252873565E-3</v>
-      </c>
-      <c r="C7" s="11">
-        <f>C4*((C5+$J$5*C6)/C5)</f>
-        <v>6.881773708525829E-3</v>
-      </c>
-      <c r="D7" s="11">
-        <f>D4*((D5+$J$5*D6)/D5)</f>
-        <v>3.0770481724137926E-3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="L7" s="18" t="s">
-        <v>65</v>
+      <c r="A7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B6*B10*12/1000</f>
+        <v>7.5317103789574373</v>
+      </c>
+      <c r="C7" s="2">
+        <f>C6*C10*12/1000</f>
+        <v>20.850357284510622</v>
+      </c>
+      <c r="D7" s="2">
+        <f>D6*D10*12/1000</f>
+        <v>2.392690247356708</v>
+      </c>
+      <c r="E7" s="2">
+        <f>E6*E10*12/1000</f>
+        <v>3.3910464408295034</v>
+      </c>
+      <c r="F7" s="2">
+        <f>F6*F10*12/1000</f>
+        <v>15.664781576952432</v>
+      </c>
+      <c r="G7" s="2">
+        <f>G6*G10*12/1000</f>
+        <v>285.30725980380089</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="L8" s="7" t="s">
-        <v>73</v>
+      <c r="A8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B9" s="20">
-        <f>B11*(B15*(B17/B16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B16/12-30</f>
-        <v>11.601525537519159</v>
-      </c>
-      <c r="C9" s="20">
-        <f>C11*(C15*(C17/C16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/C16/12-30</f>
-        <v>25.254793222517712</v>
-      </c>
-      <c r="D9" s="20">
-        <f>D11*(D15*(D17/D16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/D16/12-30</f>
-        <v>5.0865013761834774</v>
-      </c>
-      <c r="E9" s="21">
-        <f>E11*(E15*(E17/E16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/E16/12-30</f>
-        <v>37.428768662577298</v>
-      </c>
-      <c r="F9" s="20">
-        <f>F11*(F15*(F17/F16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/F16/12-30</f>
-        <v>23.310686870464927</v>
-      </c>
-      <c r="G9" s="20">
-        <f>G11*(G15*(G17/G16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/G16/12-30</f>
-        <v>85.616150463269989</v>
-      </c>
-      <c r="M9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <f>(B12*(B14/B13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B13/12-30</f>
+        <v>16.223917263910174</v>
+      </c>
+      <c r="C9" s="2">
+        <f>(C12*(C14/C13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/C13/12-30</f>
+        <v>31.394214691686351</v>
+      </c>
+      <c r="D9" s="2">
+        <f>(D12*(D14/D13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/D13/12-30</f>
+        <v>8.9850015290927558</v>
+      </c>
+      <c r="E9" s="2">
+        <f>(E12*(E14/E13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/E13/12-30</f>
+        <v>44.920854069530336</v>
+      </c>
+      <c r="F9" s="2">
+        <f>(F12*(F14/F13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/F13/12-30</f>
+        <v>29.234096522738803</v>
+      </c>
+      <c r="G9" s="2">
+        <f>(G12*(G14/G13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/G13/12-30</f>
+        <v>98.462389403633296</v>
+      </c>
+      <c r="H9" s="2">
+        <f>SUMPRODUCT(B9:F9,B14:F14)/H14</f>
+        <v>23.777393803164124</v>
+      </c>
+      <c r="I9" s="2">
+        <f>SUMPRODUCT(B9:F9,B14:F14)/I14</f>
+        <v>23.777393803164124</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" ref="B10:G10" si="1">B9*B13*12/1000</f>
-        <v>7.5317103789574373</v>
+      <c r="A10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4">
+        <v>54.1</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>20.850357284510622</v>
+        <v>68.8</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>2.392690247356708</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>3.3910464408295034</v>
+        <v>7.55</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>15.664781576952432</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>285.30725980380089</v>
+        <v>56</v>
+      </c>
+      <c r="G10" s="4">
+        <v>277.7</v>
+      </c>
+      <c r="H10" s="2">
+        <f>SUM(B10:F10)</f>
+        <v>225.65000000000003</v>
+      </c>
+      <c r="I10" s="2">
+        <f>H10+E10</f>
+        <v>233.20000000000005</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.9</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="8">
+        <v>445</v>
+      </c>
+      <c r="C11" s="8">
+        <v>853.4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>293.8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>94.2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>575.79999999999995</v>
+      </c>
+      <c r="G11" s="10">
+        <v>5794.5</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3964.1</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <f>(B15*(B17/B16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B16/12-30</f>
-        <v>16.223917263910174</v>
-      </c>
-      <c r="C12" s="2">
-        <f>(C15*(C17/C16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/C16/12-30</f>
-        <v>31.394214691686351</v>
-      </c>
-      <c r="D12" s="2">
-        <f>(D15*(D17/D16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/D16/12-30</f>
-        <v>8.9850015290927558</v>
-      </c>
-      <c r="E12" s="2">
-        <f>(E15*(E17/E16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/E16/12-30</f>
-        <v>44.920854069530336</v>
-      </c>
-      <c r="F12" s="2">
-        <f>(F15*(F17/F16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/F16/12-30</f>
-        <v>29.234096522738803</v>
-      </c>
-      <c r="G12" s="2">
-        <f>(G15*(G17/G16)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/G16/12-30</f>
-        <v>98.462389403633296</v>
-      </c>
-      <c r="H12" s="2">
-        <f>SUMPRODUCT(B12:F12,B17:F17)/H17</f>
-        <v>23.777393803164124</v>
-      </c>
-      <c r="I12" s="2">
-        <f>SUMPRODUCT(B12:F12,B17:F17)/I17</f>
-        <v>23.777393803164124</v>
+      <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9">
+        <f>B11/Constants!$C$4</f>
+        <v>1.3787334242161359E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <f>C11/Constants!$C$4</f>
+        <v>2.6440698971371916E-2</v>
+      </c>
+      <c r="D12" s="9">
+        <f>D11/Constants!$C$4</f>
+        <v>9.1027388771842861E-3</v>
+      </c>
+      <c r="E12" s="9">
+        <f>E11/Constants!$C$4</f>
+        <v>2.9185772710373032E-3</v>
+      </c>
+      <c r="F12" s="9">
+        <f>F11/Constants!$C$4</f>
+        <v>1.7839881026149459E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <f>G11/Constants!$C$4</f>
+        <v>0.17952968149708762</v>
+      </c>
+      <c r="K12" s="9">
+        <f>K11/Constants!$C$4</f>
+        <v>0.1228188127401165</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
-        <v>54.1</v>
+        <v>52684007</v>
       </c>
       <c r="C13" s="2">
-        <v>68.8</v>
+        <v>70988740</v>
       </c>
       <c r="D13" s="2">
-        <v>39.200000000000003</v>
+        <v>39480741</v>
       </c>
       <c r="E13" s="2">
-        <v>7.55</v>
+        <v>7089710</v>
       </c>
       <c r="F13" s="2">
-        <v>56</v>
+        <v>53897217</v>
       </c>
       <c r="G13" s="4">
-        <v>277.7</v>
+        <v>258461619</v>
       </c>
       <c r="H13" s="2">
         <f>SUM(B13:F13)</f>
-        <v>225.65000000000003</v>
+        <v>224140415</v>
       </c>
       <c r="I13" s="2">
-        <f>H13+E13</f>
-        <v>233.20000000000005</v>
+        <f>SUM(B13:F13)</f>
+        <v>224140415</v>
       </c>
       <c r="M13" t="s">
         <v>60</v>
@@ -2639,742 +2851,652 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="8">
-        <v>445</v>
-      </c>
-      <c r="C14" s="8">
-        <v>853.4</v>
-      </c>
-      <c r="D14" s="8">
-        <v>293.8</v>
-      </c>
-      <c r="E14" s="8">
-        <v>94.2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>575.79999999999995</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5794.5</v>
-      </c>
-      <c r="K14" s="8">
-        <v>3964.1</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
+        <v>56464893</v>
+      </c>
+      <c r="C14" s="2">
+        <v>71001565</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40507042</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7829300</v>
+      </c>
+      <c r="F14" s="2">
+        <v>58525747</v>
+      </c>
+      <c r="G14" s="4">
+        <v>290045629</v>
+      </c>
+      <c r="H14" s="2">
+        <f>SUM(B14:F14)</f>
+        <v>234328547</v>
+      </c>
+      <c r="I14" s="2">
+        <f>SUM(B14:F14)</f>
+        <v>234328547</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="9">
-        <f>B14/Constants!$C$4</f>
-        <v>1.3787334242161359E-2</v>
-      </c>
-      <c r="C15" s="9">
-        <f>C14/Constants!$C$4</f>
-        <v>2.6440698971371916E-2</v>
-      </c>
-      <c r="D15" s="9">
-        <f>D14/Constants!$C$4</f>
-        <v>9.1027388771842861E-3</v>
-      </c>
-      <c r="E15" s="9">
-        <f>E14/Constants!$C$4</f>
-        <v>2.9185772710373032E-3</v>
-      </c>
-      <c r="F15" s="9">
-        <f>F14/Constants!$C$4</f>
-        <v>1.7839881026149459E-2</v>
-      </c>
-      <c r="G15" s="9">
-        <f>G14/Constants!$C$4</f>
-        <v>0.17952968149708762</v>
-      </c>
-      <c r="K15" s="9">
-        <f>K14/Constants!$C$4</f>
-        <v>0.1228188127401165</v>
-      </c>
-      <c r="M15" t="s">
-        <v>61</v>
-      </c>
+      <c r="A15" s="14"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4">
-        <v>52684007</v>
-      </c>
-      <c r="C16" s="2">
-        <v>70988740</v>
-      </c>
-      <c r="D16" s="2">
-        <v>39480741</v>
-      </c>
-      <c r="E16" s="2">
-        <v>7089710</v>
-      </c>
-      <c r="F16" s="2">
-        <v>53897217</v>
-      </c>
-      <c r="G16" s="4">
-        <v>258461619</v>
-      </c>
-      <c r="H16" s="2">
-        <f>SUM(B16:F16)</f>
-        <v>224140415</v>
-      </c>
-      <c r="I16" s="2">
-        <f>SUM(B16:F16)</f>
-        <v>224140415</v>
-      </c>
-      <c r="M16" t="s">
-        <v>60</v>
+      <c r="A16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" ref="B16:G16" si="1">B20/B19</f>
+        <v>1.6804869000780116E-2</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4285946906251236E-2</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="1"/>
+        <v>8.4503315316459028E-3</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
+        <v>2.182641984567564E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="1"/>
+        <v>2.7832459188770545E-2</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5731003235390304E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4">
-        <v>56464893</v>
-      </c>
-      <c r="C17" s="2">
-        <v>71001565</v>
-      </c>
-      <c r="D17" s="2">
-        <v>40507042</v>
-      </c>
-      <c r="E17" s="2">
-        <v>7829300</v>
-      </c>
-      <c r="F17" s="2">
-        <v>58525747</v>
-      </c>
-      <c r="G17" s="4">
-        <v>290045629</v>
-      </c>
-      <c r="H17" s="2">
-        <f>SUM(B17:F17)</f>
-        <v>234328547</v>
-      </c>
-      <c r="I17" s="2">
-        <f>SUM(B17:F17)</f>
-        <v>234328547</v>
-      </c>
-      <c r="M17" t="s">
-        <v>60</v>
+      <c r="A17" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B17" s="11">
+        <f>B20/B18</f>
+        <v>2.8652771056078725E-2</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" ref="C17:G17" si="2">C20/C18</f>
+        <v>3.7067064609916489E-2</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4677280378829026E-2</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <f t="shared" si="2"/>
+        <v>3.8580944213005321E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="2"/>
+        <v>6.5196117592019917E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" s="11">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.1144</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.1903</v>
+      </c>
+      <c r="M18" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>52</v>
+      <c r="A19" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B19" s="11">
-        <f t="shared" ref="B19:G19" si="2">B23/B22</f>
-        <v>1.6804869000780116E-2</v>
+        <v>0.15260000000000001</v>
       </c>
       <c r="C19" s="11">
-        <f t="shared" si="2"/>
-        <v>2.4285946906251236E-2</v>
+        <v>0.20330000000000001</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="2"/>
-        <v>8.4503315316459028E-3</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" si="2"/>
-        <v>2.182641984567564E-2</v>
+        <v>0.19109999999999999</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="2"/>
-        <v>2.7832459188770545E-2</v>
+        <v>0.17660000000000001</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5731003235390304E-2</v>
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="B20" s="11">
-        <f>B23/B21</f>
-        <v>2.8652771056078725E-2</v>
-      </c>
-      <c r="C20" s="11">
-        <f t="shared" ref="C20:G20" si="3">C23/C21</f>
-        <v>3.7067064609916489E-2</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="3"/>
-        <v>1.4677280378829026E-2</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11">
-        <f t="shared" si="3"/>
-        <v>3.8580944213005321E-2</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="3"/>
-        <v>6.5196117592019917E-2</v>
+        <v>70</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B7/B21</f>
+        <v>2.5644230095190458E-3</v>
+      </c>
+      <c r="C20" s="3">
+        <f>C7/C21</f>
+        <v>4.9373330060408765E-3</v>
+      </c>
+      <c r="D20" s="3">
+        <f>D7/D21</f>
+        <v>1.6790808753380407E-3</v>
+      </c>
+      <c r="E20" s="3">
+        <f>E7/E21</f>
+        <v>4.1710288325086144E-3</v>
+      </c>
+      <c r="F20" s="3">
+        <f>F7/F21</f>
+        <v>4.9152122927368785E-3</v>
+      </c>
+      <c r="G20" s="3">
+        <f>G7/G21</f>
+        <v>1.2406821177761389E-2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="B21" s="11">
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0.13320000000000001</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.1144</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.1903</v>
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>2937</v>
+      </c>
+      <c r="C21">
+        <v>4223</v>
+      </c>
+      <c r="D21">
+        <v>1425</v>
+      </c>
+      <c r="E21">
+        <v>813</v>
+      </c>
+      <c r="F21">
+        <v>3187</v>
+      </c>
+      <c r="G21">
+        <v>22996</v>
       </c>
       <c r="M21" t="s">
-        <v>461</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="11">
-        <v>0.15260000000000001</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0.20330000000000001</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.19869999999999999</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0.19109999999999999</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0.17660000000000001</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.27129999999999999</v>
+        <v>456</v>
+      </c>
+      <c r="B22" s="41">
+        <v>175</v>
+      </c>
+      <c r="C22" s="41">
+        <v>249</v>
+      </c>
+      <c r="D22" s="41">
+        <v>132</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="41">
+        <v>178</v>
+      </c>
+      <c r="G22" s="41">
+        <v>479</v>
       </c>
       <c r="M22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>95</v>
+      </c>
+      <c r="C23">
+        <v>112</v>
+      </c>
+      <c r="D23">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>152</v>
+      </c>
+      <c r="F23">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>172</v>
+      </c>
+      <c r="M23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="3">
-        <f t="shared" ref="B23:G23" si="4">B10/B24</f>
-        <v>2.5644230095190458E-3</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="4"/>
-        <v>4.9373330060408765E-3</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="4"/>
-        <v>1.6790808753380407E-3</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="4"/>
-        <v>4.1710288325086144E-3</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="4"/>
-        <v>4.9152122927368785E-3</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="4"/>
-        <v>1.2406821177761389E-2</v>
-      </c>
-      <c r="M23" t="s">
-        <v>461</v>
-      </c>
-    </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24">
-        <v>2937</v>
-      </c>
-      <c r="C24">
-        <v>4223</v>
-      </c>
-      <c r="D24">
-        <v>1425</v>
-      </c>
-      <c r="E24">
-        <v>813</v>
-      </c>
-      <c r="F24">
-        <v>3187</v>
-      </c>
-      <c r="G24">
-        <v>22996</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
-      </c>
+      <c r="A24" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="B25" s="41">
-        <v>175</v>
-      </c>
-      <c r="C25" s="41">
-        <v>249</v>
-      </c>
-      <c r="D25" s="41">
-        <v>132</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="41">
-        <v>178</v>
-      </c>
-      <c r="G25" s="41">
-        <v>479</v>
+        <v>71</v>
+      </c>
+      <c r="B25">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="C25">
+        <v>83.1</v>
+      </c>
+      <c r="D25">
+        <v>47.1</v>
+      </c>
+      <c r="E25">
+        <v>8.6</v>
+      </c>
+      <c r="F25">
+        <v>66.8</v>
+      </c>
+      <c r="G25">
+        <v>328.3</v>
+      </c>
+      <c r="H25">
+        <f>SUM(B25+C25+D25+F25)</f>
+        <v>264.39999999999998</v>
+      </c>
+      <c r="I25">
+        <f>H25+E25</f>
+        <v>273</v>
+      </c>
+      <c r="J25">
+        <v>446.8</v>
       </c>
       <c r="M25" t="s">
-        <v>468</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26">
-        <v>95</v>
-      </c>
-      <c r="C26">
-        <v>112</v>
-      </c>
-      <c r="D26">
-        <v>83</v>
-      </c>
-      <c r="E26">
-        <v>152</v>
-      </c>
-      <c r="F26">
-        <v>88</v>
-      </c>
-      <c r="G26">
-        <v>172</v>
+        <v>54</v>
+      </c>
+      <c r="B26" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D26" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7.11</v>
+      </c>
+      <c r="F26" s="2">
+        <v>53.1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>257</v>
+      </c>
+      <c r="H26" s="2">
+        <f>SUM(B26:F26)</f>
+        <v>219.81000000000003</v>
+      </c>
+      <c r="I26" s="2">
+        <f>H26+E26</f>
+        <v>226.92000000000004</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>27012</v>
+      </c>
+      <c r="C27">
+        <v>25039</v>
+      </c>
+      <c r="D27">
+        <v>17656</v>
+      </c>
+      <c r="E27">
+        <v>23603</v>
+      </c>
+      <c r="F27">
+        <v>19798</v>
+      </c>
+      <c r="G27">
+        <v>24858</v>
+      </c>
+      <c r="M27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="C28">
-        <v>83.1</v>
-      </c>
-      <c r="D28">
-        <v>47.1</v>
-      </c>
-      <c r="E28">
-        <v>8.6</v>
-      </c>
-      <c r="F28">
-        <v>66.8</v>
-      </c>
-      <c r="G28">
-        <v>328.3</v>
+        <v>11</v>
+      </c>
+      <c r="B28" s="2">
+        <v>469000</v>
+      </c>
+      <c r="C28" s="2">
+        <f>C27*C25</f>
+        <v>2080740.9</v>
+      </c>
+      <c r="D28" s="2">
+        <f>D27*D25</f>
+        <v>831597.6</v>
+      </c>
+      <c r="E28" s="2">
+        <f>E27*E25</f>
+        <v>202985.8</v>
+      </c>
+      <c r="F28" s="2">
+        <f>F27*F25</f>
+        <v>1322506.3999999999</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4496000</v>
       </c>
       <c r="H28">
         <f>SUM(B28+C28+D28+F28)</f>
-        <v>264.39999999999998</v>
+        <v>4703844.9000000004</v>
       </c>
       <c r="I28">
         <f>H28+E28</f>
-        <v>273</v>
-      </c>
-      <c r="J28">
-        <v>446.8</v>
-      </c>
+        <v>4906830.7</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
       <c r="M28" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="4">
-        <v>51.7</v>
-      </c>
-      <c r="C29" s="2">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="D29" s="2">
-        <v>38.5</v>
-      </c>
-      <c r="E29" s="2">
-        <v>7.11</v>
-      </c>
-      <c r="F29" s="2">
-        <v>53.1</v>
-      </c>
-      <c r="G29" s="4">
-        <v>257</v>
-      </c>
-      <c r="H29" s="2">
-        <f>SUM(B29:F29)</f>
-        <v>219.81000000000003</v>
-      </c>
-      <c r="I29" s="2">
-        <f>H29+E29</f>
-        <v>226.92000000000004</v>
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>3079</v>
+      </c>
+      <c r="G29">
+        <v>44100</v>
       </c>
       <c r="M29" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="N29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>27012</v>
-      </c>
-      <c r="C30">
-        <v>25039</v>
-      </c>
-      <c r="D30">
-        <v>17656</v>
-      </c>
-      <c r="E30">
-        <v>23603</v>
-      </c>
-      <c r="F30">
-        <v>19798</v>
-      </c>
-      <c r="G30">
-        <v>24858</v>
-      </c>
-      <c r="M30" t="s">
-        <v>9</v>
+      <c r="A30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B29/B28</f>
+        <v>6.5650319829424304E-3</v>
+      </c>
+      <c r="C30" s="3" t="e">
+        <f>#REF!/C28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="3" t="e">
+        <f>#REF!/D28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="3" t="e">
+        <f>#REF!/E28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="3" t="e">
+        <f>#REF!/F28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="3">
+        <f>G29/G28</f>
+        <v>9.8087188612099637E-3</v>
+      </c>
+      <c r="H30" s="3" t="e">
+        <f>#REF!/H28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I30" s="3" t="e">
+        <f>#REF!/I28</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2">
-        <v>469000</v>
-      </c>
-      <c r="C31" s="2">
-        <f>C30*C28</f>
-        <v>2080740.9</v>
-      </c>
-      <c r="D31" s="2">
-        <f>D30*D28</f>
-        <v>831597.6</v>
-      </c>
-      <c r="E31" s="2">
-        <f>E30*E28</f>
-        <v>202985.8</v>
-      </c>
-      <c r="F31" s="2">
-        <f>F30*F28</f>
-        <v>1322506.3999999999</v>
-      </c>
-      <c r="G31" s="2">
-        <v>4496000</v>
-      </c>
-      <c r="H31">
-        <f>SUM(B31+C31+D31+F31)</f>
-        <v>4703844.9000000004</v>
-      </c>
-      <c r="I31">
-        <f>H31+E31</f>
-        <v>4906830.7</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="M31" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" t="s">
-        <v>35</v>
-      </c>
+      <c r="A31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B4/B3</f>
+        <v>7.9422382671480145E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <f>C4/C3</f>
+        <v>1.3333333333333332E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f>D4/D3</f>
+        <v>4.9881235154394295E-3</v>
+      </c>
+      <c r="E31" s="3">
+        <f>E4/E3</f>
+        <v>1.3414634146341463E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <f>F4/F3</f>
+        <v>1.7199017199017199E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <f>G4/G3</f>
+        <v>4.1884816753926706E-3</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>3079</v>
-      </c>
-      <c r="G32">
-        <v>44100</v>
+      <c r="A32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="e">
+        <f>(#REF!*#REF!+B29)/B28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C32" s="3" t="e">
+        <f>(#REF!*#REF!+#REF!)/C28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="3" t="e">
+        <f>(#REF!*#REF!+#REF!)/D28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H32" s="3" t="e">
+        <f>(#REF!*#REF!+#REF!)/H28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="3" t="e">
+        <f>(#REF!*#REF!+#REF!)/I28</f>
+        <v>#REF!</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3">
-        <f>B32/B31</f>
-        <v>6.5650319829424304E-3</v>
-      </c>
-      <c r="C33" s="3">
-        <f>C5/C31</f>
-        <v>1.1443039351992361E-2</v>
-      </c>
-      <c r="D33" s="3">
-        <f>D5/D31</f>
-        <v>3.487263551506161E-3</v>
-      </c>
-      <c r="E33" s="3">
-        <f>E5/E31</f>
-        <v>1.5222739718738948E-2</v>
-      </c>
-      <c r="F33" s="3">
-        <f>F5/F31</f>
-        <v>1.4646431956775409E-2</v>
-      </c>
-      <c r="G33" s="3">
-        <f>G32/G31</f>
-        <v>9.8087188612099637E-3</v>
-      </c>
-      <c r="H33" s="3">
-        <f>H5/H31</f>
-        <v>1.2385612459288356E-2</v>
-      </c>
-      <c r="I33" s="3">
-        <f>I5/I31</f>
-        <v>1.2502978755717004E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B6*B26*12/1000</f>
+        <v>7.1975864434768866</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C6*C26*12/1000</f>
+        <v>21.032191795712752</v>
+      </c>
+      <c r="D33" s="2">
+        <f>D6*D26*12/1000</f>
+        <v>2.3499636357967666</v>
+      </c>
+      <c r="E33" s="2">
+        <f>E6*E26*12/1000</f>
+        <v>3.1934225422910951</v>
+      </c>
+      <c r="F33" s="2">
+        <f>F6*F26*12/1000</f>
+        <v>14.853569673860253</v>
+      </c>
+      <c r="G33" s="2">
+        <f>G6*G26*12/1000</f>
+        <v>264.04020802872463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="3">
-        <f t="shared" ref="B34:G34" si="5">B4/B3</f>
-        <v>7.9422382671480145E-3</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3333333333333332E-2</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="5"/>
-        <v>4.9881235154394295E-3</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3414634146341463E-2</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="5"/>
-        <v>1.7199017199017199E-2</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="5"/>
-        <v>4.1884816753926706E-3</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2">
+        <f>Constants!$B$6*B9*12*B14/10^9</f>
+        <v>10.55326178704367</v>
+      </c>
+      <c r="C34" s="2">
+        <f>Constants!$B$6*C9*12*C14/10^9</f>
+        <v>25.678522080641933</v>
+      </c>
+      <c r="D34" s="2">
+        <f>Constants!$B$6*D9*12*D14/10^9</f>
+        <v>4.192771211239962</v>
+      </c>
+      <c r="E34" s="2">
+        <f>Constants!$B$6*E9*12*E14/10^9</f>
+        <v>4.051570668670931</v>
+      </c>
+      <c r="F34" s="2">
+        <f>Constants!$B$6*F9*12*F14/10^9</f>
+        <v>19.710113320666263</v>
+      </c>
+      <c r="G34" s="2">
+        <f>Constants!$B$6*G9*12*G14/10^9</f>
+        <v>328.99490688867553</v>
+      </c>
+      <c r="H34" s="2">
+        <f>Constants!$B$6*H9*12*H14/10^9</f>
+        <v>64.186239068262751</v>
+      </c>
+      <c r="I34" s="2">
+        <f>Constants!$B$6*I9*12*I14/10^9</f>
+        <v>64.186239068262751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="3">
-        <f>(B6*$J$5+B32)/B31</f>
-        <v>1.2429442430703624E-2</v>
-      </c>
-      <c r="C35" s="3">
-        <f>(C6*$J$5+C5)/C31</f>
-        <v>1.3124734559694578E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <f>(D6*$J$5+D5)/D31</f>
-        <v>5.109751398993936E-3</v>
-      </c>
-      <c r="F35" s="11">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H35" s="3">
-        <f>(H6*$J$5+H5)/H31</f>
-        <v>1.4001064852287113E-2</v>
-      </c>
-      <c r="I35" s="3">
-        <f>(I6*$J$5+I5)/I31</f>
-        <v>1.4051603105034782E-2</v>
-      </c>
-      <c r="M35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" ref="B36:G36" si="6">B9*B29*12/1000</f>
-        <v>7.1975864434768866</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="6"/>
-        <v>21.032191795712752</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="6"/>
-        <v>2.3499636357967666</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="6"/>
-        <v>3.1934225422910951</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="6"/>
-        <v>14.853569673860253</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="6"/>
-        <v>264.04020802872463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="2">
-        <f>Constants!$B$6*B12*12*B17/10^9</f>
-        <v>10.55326178704367</v>
-      </c>
-      <c r="C37" s="2">
-        <f>Constants!$B$6*C12*12*C17/10^9</f>
-        <v>25.678522080641933</v>
-      </c>
-      <c r="D37" s="2">
-        <f>Constants!$B$6*D12*12*D17/10^9</f>
-        <v>4.192771211239962</v>
-      </c>
-      <c r="E37" s="2">
-        <f>Constants!$B$6*E12*12*E17/10^9</f>
-        <v>4.051570668670931</v>
-      </c>
-      <c r="F37" s="2">
-        <f>Constants!$B$6*F12*12*F17/10^9</f>
-        <v>19.710113320666263</v>
-      </c>
-      <c r="G37" s="2">
-        <f>Constants!$B$6*G12*12*G17/10^9</f>
-        <v>328.99490688867553</v>
-      </c>
-      <c r="H37" s="2">
-        <f>Constants!$B$6*H12*12*H17/10^9</f>
-        <v>64.186239068262751</v>
-      </c>
-      <c r="I37" s="2">
-        <f>Constants!$B$6*I12*12*I17/10^9</f>
-        <v>64.186239068262751</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="2">
-        <f>2000*B29/$H$29</f>
+      <c r="B35" s="2">
+        <f>2000*B26/$H$26</f>
         <v>470.40625995177646</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" ref="C38:F38" si="7">2000*C29/$H$29</f>
+      <c r="C35" s="2">
+        <f t="shared" ref="C35:F35" si="3">2000*C26/$H$26</f>
         <v>631.4544379236612</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" si="7"/>
+      <c r="D35" s="2">
+        <f t="shared" si="3"/>
         <v>350.30253400664208</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2">
-        <f t="shared" si="7"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
+        <f t="shared" si="3"/>
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -3778,15 +3900,6 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3798,9 +3911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,7 +3929,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -3836,382 +3949,382 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+        <v>347</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" t="s">
         <v>355</v>
-      </c>
-      <c r="F2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+        <v>352</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E6" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F6" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E7" t="s">
         <v>481</v>
       </c>
-      <c r="B7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C7" t="s">
-        <v>490</v>
-      </c>
-      <c r="D7" t="s">
-        <v>485</v>
-      </c>
-      <c r="E7" t="s">
-        <v>488</v>
-      </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8" t="s">
         <v>484</v>
       </c>
-      <c r="C8" t="s">
-        <v>491</v>
-      </c>
       <c r="D8" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E8" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D10" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E10" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>371</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
+        <v>363</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
       <c r="F11" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E14" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F14" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+        <v>387</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>396</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>449</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
+        <v>389</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
       <c r="F16" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E18" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>470</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>406</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+        <v>463</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D20" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E20" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F20" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B21" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E21" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F21" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>413</v>
-      </c>
-      <c r="B22" s="71" t="s">
-        <v>414</v>
-      </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
       <c r="F22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B23" s="13">
         <v>0.55000000000000004</v>
@@ -4231,233 +4344,233 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>417</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>368</v>
-      </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+        <v>410</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
       <c r="F24" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D25" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E25" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F25" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>419</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+        <v>412</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C27" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D27" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F27" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B28" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C28" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D28" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E28" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F28" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B29" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D29" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E29" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F29" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F31" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="72" t="s">
-        <v>528</v>
+      <c r="F45" s="71" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="72" t="s">
-        <v>529</v>
+      <c r="F46" s="71" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="72" t="s">
-        <v>530</v>
+      <c r="F47" s="71" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F48" s="72" t="s">
-        <v>531</v>
+      <c r="F48" s="71" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="72" t="s">
-        <v>532</v>
+      <c r="F49" s="71" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="72" t="s">
-        <v>533</v>
+      <c r="F50" s="71" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="72" t="s">
-        <v>534</v>
+      <c r="F52" s="71" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="72" t="s">
-        <v>535</v>
+      <c r="F53" s="71" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="72" t="s">
-        <v>536</v>
+      <c r="F54" s="71" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55" s="72" t="s">
-        <v>537</v>
+      <c r="F55" s="71" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="72" t="s">
-        <v>538</v>
+      <c r="F56" s="71" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="72" t="s">
-        <v>539</v>
+      <c r="F57" s="71" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -4479,10 +4592,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AP19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4497,24 +4610,29 @@
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="13" width="5.42578125" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="17" width="5.42578125" customWidth="1"/>
-    <col min="18" max="18" width="5" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" customWidth="1"/>
-    <col min="20" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" customWidth="1"/>
-    <col min="24" max="24" width="9" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" customWidth="1"/>
-    <col min="27" max="28" width="8.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" customWidth="1"/>
-    <col min="33" max="33" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="18" width="5.42578125" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" customWidth="1"/>
+    <col min="23" max="25" width="3.85546875" customWidth="1"/>
+    <col min="26" max="28" width="5.42578125" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" customWidth="1"/>
+    <col min="30" max="30" width="8.42578125" customWidth="1"/>
+    <col min="31" max="31" width="9" customWidth="1"/>
+    <col min="32" max="32" width="8.28515625" customWidth="1"/>
+    <col min="33" max="33" width="8.42578125" customWidth="1"/>
+    <col min="34" max="35" width="8.28515625" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" customWidth="1"/>
+    <col min="40" max="40" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -4522,100 +4640,124 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL1" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="AE1" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AO1" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +4770,7 @@
       </c>
       <c r="D2" s="2">
         <f>C2*$D$7</f>
-        <v>729.19605077574045</v>
+        <v>486.13070051716028</v>
       </c>
       <c r="E2">
         <v>516</v>
@@ -4651,67 +4793,82 @@
       <c r="K2">
         <v>250</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
+        <f>Z2*SUM($H2:$J2)/1000</f>
+        <v>112.14</v>
+      </c>
+      <c r="M2" s="2">
+        <f>AA2*SUM($H2:$J2)/1000</f>
+        <v>260.82</v>
+      </c>
+      <c r="N2" s="2">
+        <f>AB2*SUM($H2:$J2)/1000</f>
+        <v>257.67</v>
+      </c>
+      <c r="O2">
+        <v>409</v>
+      </c>
+      <c r="P2">
+        <v>465</v>
+      </c>
+      <c r="Q2">
+        <v>194</v>
+      </c>
+      <c r="R2">
+        <v>341</v>
+      </c>
+      <c r="Z2">
         <v>178</v>
       </c>
-      <c r="M2">
+      <c r="AA2">
         <v>414</v>
       </c>
-      <c r="N2">
+      <c r="AB2">
         <v>409</v>
       </c>
-      <c r="O2">
-        <v>465</v>
-      </c>
-      <c r="P2">
-        <v>194</v>
-      </c>
-      <c r="Q2">
-        <v>341</v>
-      </c>
-      <c r="V2" s="2">
-        <f t="shared" ref="V2:Z5" si="0">W15*$C2*$D$7/1000</f>
-        <v>137.81805359661496</v>
-      </c>
-      <c r="W2" s="2">
+      <c r="AC2" s="2">
+        <f t="shared" ref="AC2:AG5" si="0">AD15*$C2*$D$7/1000</f>
+        <v>91.878702397743297</v>
+      </c>
+      <c r="AD2" s="2">
         <f t="shared" si="0"/>
-        <v>145.83921015514809</v>
-      </c>
-      <c r="X2" s="2">
+        <v>97.226140103432058</v>
+      </c>
+      <c r="AE2" s="2">
         <f t="shared" si="0"/>
-        <v>160.42313117066291</v>
-      </c>
-      <c r="Y2" s="2">
+        <v>106.94875411377527</v>
+      </c>
+      <c r="AF2" s="2">
         <f t="shared" si="0"/>
-        <v>102.08744710860366</v>
-      </c>
-      <c r="Z2" s="2">
+        <v>68.058298072402437</v>
+      </c>
+      <c r="AG2" s="2">
         <f t="shared" si="0"/>
-        <v>183.02820874471087</v>
-      </c>
-      <c r="AA2">
+        <v>122.01880582980723</v>
+      </c>
+      <c r="AH2">
         <v>595</v>
       </c>
-      <c r="AB2">
+      <c r="AI2">
         <v>184</v>
       </c>
-      <c r="AC2">
+      <c r="AJ2">
         <v>222</v>
       </c>
-      <c r="AD2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4724,7 +4881,7 @@
       </c>
       <c r="D3" s="2">
         <f>C3*$D$7</f>
-        <v>978.84344146685476</v>
+        <v>652.56229431123643</v>
       </c>
       <c r="E3">
         <v>512</v>
@@ -4747,70 +4904,85 @@
       <c r="K3">
         <v>263</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
+        <f>Z3*SUM($H3:$J3)/1000</f>
+        <v>95.843999999999994</v>
+      </c>
+      <c r="M3" s="2">
+        <f>AA3*SUM($H3:$J3)/1000</f>
+        <v>266.66800000000001</v>
+      </c>
+      <c r="N3" s="2">
+        <f>AB3*SUM($H3:$J3)/1000</f>
+        <v>289.488</v>
+      </c>
+      <c r="O3">
+        <v>444</v>
+      </c>
+      <c r="P3">
+        <v>366</v>
+      </c>
+      <c r="Q3">
+        <v>404</v>
+      </c>
+      <c r="R3">
+        <v>230</v>
+      </c>
+      <c r="Z3">
         <v>147</v>
       </c>
-      <c r="M3">
+      <c r="AA3">
         <v>409</v>
       </c>
-      <c r="N3">
+      <c r="AB3">
         <v>444</v>
       </c>
-      <c r="O3">
-        <v>366</v>
-      </c>
-      <c r="P3">
-        <v>404</v>
-      </c>
-      <c r="Q3">
-        <v>230</v>
-      </c>
-      <c r="V3" s="2">
+      <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>176.97489421720732</v>
-      </c>
-      <c r="W3" s="2">
+        <v>117.98326281147156</v>
+      </c>
+      <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>271.04174894217203</v>
-      </c>
-      <c r="X3" s="2">
+        <v>180.69449929478137</v>
+      </c>
+      <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>99.156840620592376</v>
-      </c>
-      <c r="Y3" s="2">
+        <v>66.104560413728251</v>
+      </c>
+      <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>146.63074753173484</v>
-      </c>
-      <c r="Z3" s="2">
+        <v>97.753831687823237</v>
+      </c>
+      <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>285.13709449929479</v>
-      </c>
-      <c r="AA3">
+        <v>190.09139633286318</v>
+      </c>
+      <c r="AH3">
         <v>395</v>
       </c>
-      <c r="AB3">
+      <c r="AI3">
         <v>403</v>
       </c>
-      <c r="AC3">
+      <c r="AJ3">
         <v>202</v>
       </c>
-      <c r="AD3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4823,7 +4995,7 @@
       </c>
       <c r="D4" s="2">
         <f>C4*$D$7</f>
-        <v>543.01833568406209</v>
+        <v>362.01222378937467</v>
       </c>
       <c r="E4">
         <v>506</v>
@@ -4846,64 +5018,79 @@
       <c r="K4">
         <v>246</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
+        <f>Z4*SUM($H4:$J4)/1000</f>
+        <v>243.67500000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <f>AA4*SUM($H4:$J4)/1000</f>
+        <v>155.92500000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <f>AB4*SUM($H4:$J4)/1000</f>
+        <v>275.39999999999998</v>
+      </c>
+      <c r="O4">
+        <v>408</v>
+      </c>
+      <c r="P4">
+        <v>515</v>
+      </c>
+      <c r="Q4">
+        <v>224</v>
+      </c>
+      <c r="R4">
+        <v>261</v>
+      </c>
+      <c r="Z4">
         <v>361</v>
       </c>
-      <c r="M4">
+      <c r="AA4">
         <v>231</v>
       </c>
-      <c r="N4">
+      <c r="AB4">
         <v>408</v>
       </c>
-      <c r="O4">
-        <v>515</v>
-      </c>
-      <c r="P4">
-        <v>224</v>
-      </c>
-      <c r="Q4">
-        <v>261</v>
-      </c>
-      <c r="V4" s="2">
+      <c r="AC4" s="2">
         <f t="shared" si="0"/>
-        <v>160.32073342736248</v>
-      </c>
-      <c r="W4" s="2">
+        <v>106.88048895157497</v>
+      </c>
+      <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>100.99272214386461</v>
-      </c>
-      <c r="X4" s="2">
+        <v>67.32848142924307</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="0"/>
-        <v>153.19687588152328</v>
-      </c>
-      <c r="Y4" s="2">
+        <v>102.13125058768217</v>
+      </c>
+      <c r="AF4" s="2">
         <f t="shared" si="0"/>
-        <v>58.522715091678421</v>
-      </c>
-      <c r="Z4" s="2">
+        <v>39.015143394452281</v>
+      </c>
+      <c r="AG4" s="2">
         <f t="shared" si="0"/>
-        <v>69.98474612129759</v>
-      </c>
-      <c r="AA4">
+        <v>46.656497414198398</v>
+      </c>
+      <c r="AH4">
         <v>697</v>
       </c>
-      <c r="AC4">
+      <c r="AJ4">
         <v>303</v>
       </c>
-      <c r="AD4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -4916,7 +5103,7 @@
       </c>
       <c r="D5" s="2">
         <f>C5*$D$7</f>
-        <v>748.9421720733427</v>
+        <v>499.29478138222851</v>
       </c>
       <c r="E5">
         <v>504</v>
@@ -4939,73 +5126,88 @@
       <c r="K5">
         <v>241</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
+        <f>Z5*SUM($H5:$J5)/1000</f>
+        <v>120.414</v>
+      </c>
+      <c r="M5" s="2">
+        <f>AA5*SUM($H5:$J5)/1000</f>
+        <v>131.6</v>
+      </c>
+      <c r="N5" s="2">
+        <f>AB5*SUM($H5:$J5)/1000</f>
+        <v>329.65800000000002</v>
+      </c>
+      <c r="O5">
+        <v>501</v>
+      </c>
+      <c r="P5">
+        <v>401</v>
+      </c>
+      <c r="Q5">
+        <v>423</v>
+      </c>
+      <c r="R5">
+        <v>176</v>
+      </c>
+      <c r="Z5">
         <v>183</v>
       </c>
-      <c r="M5">
+      <c r="AA5">
         <v>200</v>
       </c>
-      <c r="N5">
+      <c r="AB5">
         <v>501</v>
       </c>
-      <c r="O5">
-        <v>401</v>
-      </c>
-      <c r="P5">
-        <v>423</v>
-      </c>
-      <c r="Q5">
-        <v>176</v>
-      </c>
-      <c r="V5" s="2">
+      <c r="AC5" s="2">
         <f t="shared" si="0"/>
-        <v>97.137799717912543</v>
-      </c>
-      <c r="W5" s="2">
+        <v>64.758533145275024</v>
+      </c>
+      <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>233.81974612129761</v>
-      </c>
-      <c r="X5" s="2">
+        <v>155.87983074753171</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="0"/>
-        <v>156.90338504936531</v>
-      </c>
-      <c r="Y5" s="2">
+        <v>104.60225669957687</v>
+      </c>
+      <c r="AF5" s="2">
         <f t="shared" si="0"/>
-        <v>177.12482369534555</v>
-      </c>
-      <c r="Z5" s="2">
+        <v>118.08321579689704</v>
+      </c>
+      <c r="AG5" s="2">
         <f t="shared" si="0"/>
-        <v>83.95641748942171</v>
-      </c>
-      <c r="AA5">
+        <v>55.970944992947814</v>
+      </c>
+      <c r="AH5">
         <v>593</v>
       </c>
-      <c r="AB5">
+      <c r="AI5">
         <v>279</v>
       </c>
-      <c r="AC5">
+      <c r="AJ5">
         <v>128</v>
       </c>
-      <c r="AD5" t="s">
-        <v>311</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>336</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -5022,7 +5224,7 @@
         <v>509.88904560413727</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:Q6" si="1">SUMPRODUCT($C2:$C5,F2:F5)</f>
+        <f t="shared" ref="F6:R6" si="1">SUMPRODUCT($C2:$C5,F2:F5)</f>
         <v>490.11095439586268</v>
       </c>
       <c r="G6" s="2">
@@ -5046,47 +5248,87 @@
         <v>251.27080394922424</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ref="L6:N6" si="2">SUMPRODUCT($C2:$C5,L2:L5)</f>
-        <v>202.25763986835915</v>
+        <f>Z6*SUM($H6:$J6)/1000</f>
+        <v>131.93540660356939</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="2"/>
-        <v>325.81993417959563</v>
+        <f>AA6*SUM($H6:$J6)/1000</f>
+        <v>212.5367700498814</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="2"/>
+        <f>AB6*SUM($H6:$J6)/1000</f>
+        <v>289.10955273379693</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6" si="2">SUMPRODUCT($C2:$C5,O2:O5)</f>
         <v>443.2063939821345</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <f t="shared" si="1"/>
         <v>425.77103902209689</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <f t="shared" si="1"/>
         <v>325.11847672778561</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <f t="shared" si="1"/>
         <v>249.11048425011754</v>
       </c>
-      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
+      <c r="V6" s="2">
+        <f>$C$2*$D6</f>
+        <v>243.06535025858014</v>
+      </c>
+      <c r="W6" s="2">
+        <f>$C$3*$D6</f>
+        <v>326.28114715561821</v>
+      </c>
+      <c r="X6" s="2">
+        <f>$C$4*$D6</f>
+        <v>181.00611189468734</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>$C$5*$D6</f>
+        <v>249.64739069111425</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>SUMPRODUCT($C2:$C5,Z2:Z5)</f>
+        <v>202.25763986835915</v>
+      </c>
       <c r="AA6" s="2">
-        <f t="shared" ref="AA6:AC6" si="3">SUMPRODUCT($C1:$C4,AA1:AA4)</f>
+        <f>SUMPRODUCT($C2:$C5,AA2:AA5)</f>
+        <v>325.81993417959563</v>
+      </c>
+      <c r="AB6" s="2">
+        <f>SUMPRODUCT($C2:$C5,AB2:AB5)</f>
+        <v>443.2063939821345</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" ref="AH6:AJ6" si="3">SUMPRODUCT($C1:$C4,AH1:AH4)</f>
         <v>399.66619652092146</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AI6" s="2">
         <f t="shared" si="3"/>
         <v>176.21532675129291</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AJ6" s="2">
         <f t="shared" si="3"/>
         <v>174.71415138692993</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AK6" t="s">
+        <v>528</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>529</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5096,81 +5338,112 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:K7" si="4">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
-        <v>1529.6671368124116</v>
+        <v>1019.7780912082745</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="4"/>
-        <v>1470.3328631875881</v>
+        <v>980.22190879172535</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>289.99576868829337</v>
+        <v>193.33051245886222</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="4"/>
-        <v>449.36248236953452</v>
+        <v>299.57498824635633</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>729.81241184767282</v>
+        <v>486.54160789844849</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="4"/>
-        <v>777.76586741889992</v>
+        <v>518.51057827926661</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="4"/>
-        <v>753.81241184767282</v>
+        <v>502.54160789844849</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" ref="L7:N7" si="5">SUMPRODUCT($C2:$C5,L2:L5)*$D$7/1000</f>
-        <v>606.7729196050775</v>
+        <f>Z7*SUM($H7:$J7)/$D$7</f>
+        <v>263.87081320713878</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="5"/>
-        <v>977.4598025387869</v>
+        <f>AA7*SUM($H7:$J7)/$D$7</f>
+        <v>425.07354009976279</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="5"/>
-        <v>1329.6191819464036</v>
+        <f>AB7*SUM($H7:$J7)/$D$7</f>
+        <v>578.21910546759386</v>
       </c>
       <c r="O7" s="2">
-        <f>SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
-        <v>1277.3131170662907</v>
+        <f t="shared" ref="O7" si="5">SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
+        <v>886.412787964269</v>
       </c>
       <c r="P7" s="2">
         <f>SUMPRODUCT($C2:$C5,P2:P5)*$D$7/1000</f>
-        <v>975.35543018335682</v>
+        <v>851.54207804419377</v>
       </c>
       <c r="Q7" s="2">
         <f>SUMPRODUCT($C2:$C5,Q2:Q5)*$D$7/1000</f>
-        <v>747.33145275035258</v>
-      </c>
-      <c r="R7" s="2"/>
+        <v>650.23695345557121</v>
+      </c>
+      <c r="R7" s="2">
+        <f>SUMPRODUCT($C2:$C5,R2:R5)*$D$7/1000</f>
+        <v>498.22096850023507</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
+      <c r="V7" s="2">
+        <f>$C$2*$D7</f>
+        <v>486.13070051716028</v>
+      </c>
+      <c r="W7" s="2">
+        <f>$C$3*$D7</f>
+        <v>652.56229431123643</v>
+      </c>
+      <c r="X7" s="2">
+        <f>$C$4*$D7</f>
+        <v>362.01222378937467</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>$C$5*$D7</f>
+        <v>499.29478138222851</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>SUMPRODUCT($C2:$C5,Z2:Z5)*$D$7/1000</f>
+        <v>404.5152797367183</v>
+      </c>
       <c r="AA7" s="2">
-        <f>SUMPRODUCT($C2:$C5,AA2:AA5)</f>
+        <f>SUMPRODUCT($C2:$C5,AA2:AA5)*$D$7/1000</f>
+        <v>651.63986835919127</v>
+      </c>
+      <c r="AB7" s="2">
+        <f>SUMPRODUCT($C2:$C5,AB2:AB5)*$D$7/1000</f>
+        <v>886.412787964269</v>
+      </c>
+      <c r="AH7" s="2">
+        <f>SUMPRODUCT($C2:$C5,AH2:AH5)</f>
         <v>547.70709920075217</v>
       </c>
-      <c r="AB7" s="2">
-        <f>SUMPRODUCT($C2:$C5,AB2:AB5)</f>
+      <c r="AI7" s="2">
+        <f>SUMPRODUCT($C2:$C5,AI2:AI5)</f>
         <v>245.86694875411376</v>
       </c>
-      <c r="AC7" s="2">
-        <f>SUMPRODUCT($C2:$C5,AC2:AC5)</f>
+      <c r="AJ7" s="2">
+        <f>SUMPRODUCT($C2:$C5,AJ2:AJ5)</f>
         <v>206.66901739539256</v>
       </c>
-      <c r="AG7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AN7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5203,77 +5476,95 @@
         <v>212.3</v>
       </c>
       <c r="L8" s="2">
+        <f>Z8*SUM($H8:$J8)/$D$8</f>
+        <v>55.585100000000004</v>
+      </c>
+      <c r="M8" s="2">
+        <f>AA8*SUM($H8:$J8)/$D$8</f>
+        <v>277.25580000000002</v>
+      </c>
+      <c r="N8" s="2">
+        <f>AB8*SUM($H8:$J8)/$D$8</f>
+        <v>336.85910000000001</v>
+      </c>
+      <c r="O8" s="2">
+        <v>503</v>
+      </c>
+      <c r="P8" s="2">
+        <v>732.4</v>
+      </c>
+      <c r="R8" s="2">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="S8" s="2">
+        <v>601</v>
+      </c>
+      <c r="T8" s="2">
+        <v>185</v>
+      </c>
+      <c r="U8" s="2">
+        <v>134</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2">
         <v>83</v>
       </c>
-      <c r="M8" s="2">
+      <c r="AA8" s="2">
         <v>414</v>
       </c>
-      <c r="N8" s="2">
+      <c r="AB8" s="2">
         <v>503</v>
       </c>
-      <c r="O8" s="2">
-        <v>732.4</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>267.60000000000002</v>
-      </c>
-      <c r="R8" s="2">
-        <v>601</v>
-      </c>
-      <c r="S8" s="2">
-        <v>185</v>
-      </c>
-      <c r="T8" s="2">
-        <v>134</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8">
-        <f>W19*$D$8/1000</f>
+      <c r="AC8">
+        <f>AD19*$D$8/1000</f>
         <v>171</v>
       </c>
-      <c r="W8">
-        <f>X19*$D$8/1000</f>
+      <c r="AD8">
+        <f>AE19*$D$8/1000</f>
         <v>208</v>
       </c>
-      <c r="X8">
-        <f>Y19*$D$8/1000</f>
+      <c r="AE8">
+        <f>AF19*$D$8/1000</f>
         <v>239</v>
       </c>
-      <c r="Y8">
-        <f>Z19*$D$8/1000</f>
+      <c r="AF8">
+        <f>AG19*$D$8/1000</f>
         <v>383</v>
       </c>
-      <c r="AG8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="S10" t="s">
-        <v>330</v>
-      </c>
-      <c r="V10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC10" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="W10" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="X10" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y10" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z10" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA10" s="58" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD10" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE10" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF10" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG10" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH10" s="58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>87</v>
       </c>
@@ -5282,7 +5573,7 @@
         <v>1.0119848709215202</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:N11" si="6">F2/F$6</f>
+        <f t="shared" ref="F11:O11" si="6">F2/F$6</f>
         <v>0.98753148783749312</v>
       </c>
       <c r="G11">
@@ -5306,49 +5597,61 @@
         <v>0.99494249260458834</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:M11" si="7">L2/L$6</f>
-        <v>0.8800656435813875</v>
+        <f t="shared" ref="L11:N11" si="7">L2/L$6</f>
+        <v>0.84996137797150018</v>
       </c>
       <c r="M11">
         <f t="shared" si="7"/>
-        <v>1.2706404874902422</v>
+        <v>1.2271758902649492</v>
       </c>
       <c r="N11">
+        <f t="shared" si="7"/>
+        <v>0.89125384326976742</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="6"/>
         <v>0.92282062161875456</v>
       </c>
-      <c r="O11">
-        <f t="shared" ref="O11:Q11" si="8">O2/O$6</f>
+      <c r="P11">
+        <f t="shared" ref="P11:R11" si="8">P2/P$6</f>
         <v>1.0921362830783501</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="8"/>
         <v>0.59670555162705141</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f t="shared" si="8"/>
         <v>1.3688705275753126</v>
       </c>
-      <c r="V11" s="19" t="s">
+      <c r="Z11">
+        <f>Z2/Z$6</f>
+        <v>0.8800656435813875</v>
+      </c>
+      <c r="AA11">
+        <f>AA2/AA$6</f>
+        <v>1.2706404874902422</v>
+      </c>
+      <c r="AC11" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="W11" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="X11" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y11" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z11" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA11" s="60" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE11" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF11" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG11" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH11" s="60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>88</v>
       </c>
@@ -5357,7 +5660,7 @@
         <v>1.0041400269608882</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:N12" si="10">F3/F$6</f>
+        <f t="shared" ref="F12:O12" si="10">F3/F$6</f>
         <v>0.99569290509234842</v>
       </c>
       <c r="G12">
@@ -5381,49 +5684,61 @@
         <v>1.0466795022200268</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:M12" si="11">L3/L$6</f>
-        <v>0.72679578430597735</v>
+        <f t="shared" ref="L12:N12" si="11">L3/L$6</f>
+        <v>0.72644639121009857</v>
       </c>
       <c r="M12">
         <f t="shared" si="11"/>
-        <v>1.2552945878828721</v>
+        <v>1.254691129151037</v>
       </c>
       <c r="N12">
+        <f t="shared" si="11"/>
+        <v>1.0013090098982358</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="10"/>
         <v>1.0017906014638802</v>
       </c>
-      <c r="O12">
-        <f t="shared" ref="O12:Q12" si="12">O3/O$6</f>
+      <c r="P12">
+        <f t="shared" ref="P12:R12" si="12">P3/P$6</f>
         <v>0.85961694539070133</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="12"/>
         <v>1.242623932254272</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="12"/>
         <v>0.92328510657572405</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="Z12">
+        <f>Z3/Z$6</f>
+        <v>0.72679578430597735</v>
+      </c>
+      <c r="AA12">
+        <f>AA3/AA$6</f>
+        <v>1.2552945878828721</v>
+      </c>
+      <c r="AC12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="W12" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="X12" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y12" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z12" s="59" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA12" s="60" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE12" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF12" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG12" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH12" s="60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>89</v>
       </c>
@@ -5432,7 +5747,7 @@
         <v>0.99237276101994043</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:N13" si="13">F4/F$6</f>
+        <f t="shared" ref="F13:O13" si="13">F4/F$6</f>
         <v>1.0079350309746313</v>
       </c>
       <c r="G13">
@@ -5456,49 +5771,61 @@
         <v>0.97902341272291493</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:M13" si="14">L4/L$6</f>
-        <v>1.784852232207196</v>
+        <f t="shared" ref="L13:N13" si="14">L4/L$6</f>
+        <v>1.8469265095167229</v>
       </c>
       <c r="M13">
         <f t="shared" si="14"/>
-        <v>0.7089805618604974</v>
+        <v>0.73363776048448059</v>
       </c>
       <c r="N13">
+        <f t="shared" si="14"/>
+        <v>0.95258007698410341</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="13"/>
         <v>0.92056433648032243</v>
       </c>
-      <c r="O13">
-        <f t="shared" ref="O13:Q13" si="15">O4/O$6</f>
+      <c r="P13">
+        <f t="shared" ref="P13:R13" si="15">P4/P$6</f>
         <v>1.2095702920115059</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="15"/>
         <v>0.68897960600236874</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f t="shared" si="15"/>
         <v>1.0477278818098434</v>
       </c>
-      <c r="V13" s="19" t="s">
+      <c r="Z13">
+        <f>Z4/Z$6</f>
+        <v>1.784852232207196</v>
+      </c>
+      <c r="AA13">
+        <f>AA4/AA$6</f>
+        <v>0.7089805618604974</v>
+      </c>
+      <c r="AC13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="W13" t="s">
-        <v>296</v>
-      </c>
-      <c r="X13" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y13" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z13" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA13" s="60" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD13" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE13" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF13" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG13" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH13" s="60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>3</v>
       </c>
@@ -5507,7 +5834,7 @@
         <v>0.98845033903962443</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:N14" si="16">F5/F$6</f>
+        <f t="shared" ref="F14:O14" si="16">F5/F$6</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G14">
@@ -5531,48 +5858,60 @@
         <v>0.95912456287082315</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:M14" si="17">L5/L$6</f>
-        <v>0.90478658862580852</v>
+        <f t="shared" ref="L14:N14" si="17">L5/L$6</f>
+        <v>0.91267388413643857</v>
       </c>
       <c r="M14">
         <f t="shared" si="17"/>
-        <v>0.61383598429480291</v>
+        <v>0.61918697630115527</v>
       </c>
       <c r="N14">
+        <f t="shared" si="17"/>
+        <v>1.1402528795149804</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="16"/>
         <v>1.1303988543545136</v>
       </c>
-      <c r="O14">
-        <f t="shared" ref="O14:Q14" si="18">O5/O$6</f>
+      <c r="P14">
+        <f t="shared" ref="P14:R14" si="18">P5/P$6</f>
         <v>0.94182075164391044</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f t="shared" si="18"/>
         <v>1.3010641666919731</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="18"/>
         <v>0.70651382068403235</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Z14">
+        <f>Z5/Z$6</f>
+        <v>0.90478658862580852</v>
+      </c>
+      <c r="AA14">
+        <f>AA5/AA$6</f>
+        <v>0.61383598429480291</v>
+      </c>
+      <c r="AC14" t="s">
         <v>5</v>
       </c>
-      <c r="W14" t="s">
-        <v>331</v>
-      </c>
-      <c r="X14" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD14" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E15">
         <f>MIN(E11:E14)</f>
@@ -5603,201 +5942,240 @@
         <v>0.95912456287082315</v>
       </c>
       <c r="L15" s="61">
-        <f t="shared" ref="L15:M15" si="20">MIN(L11:L14)</f>
-        <v>0.72679578430597735</v>
+        <f t="shared" ref="L15:N15" si="20">MIN(L11:L14)</f>
+        <v>0.72644639121009857</v>
       </c>
       <c r="M15" s="61">
         <f t="shared" si="20"/>
-        <v>0.61383598429480291</v>
+        <v>0.61918697630115527</v>
       </c>
       <c r="N15" s="61">
-        <f t="shared" ref="N15:O15" si="21">MIN(N11:N14)</f>
+        <f t="shared" si="20"/>
+        <v>0.89125384326976742</v>
+      </c>
+      <c r="O15" s="61">
+        <f t="shared" ref="O15:P15" si="21">MIN(O11:O14)</f>
         <v>0.92056433648032243</v>
       </c>
-      <c r="O15" s="61">
+      <c r="P15" s="61">
         <f t="shared" si="21"/>
         <v>0.85961694539070133</v>
       </c>
-      <c r="P15" s="61">
-        <f t="shared" ref="P15:Q15" si="22">MIN(P11:P14)</f>
+      <c r="Q15" s="61">
+        <f t="shared" ref="Q15:R15" si="22">MIN(Q11:Q14)</f>
         <v>0.59670555162705141</v>
       </c>
-      <c r="Q15" s="61">
+      <c r="R15" s="61">
         <f t="shared" si="22"/>
         <v>0.70651382068403235</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="Z15" s="61">
+        <f t="shared" ref="Z15:AA15" si="23">MIN(Z11:Z14)</f>
+        <v>0.72679578430597735</v>
+      </c>
+      <c r="AA15" s="61">
+        <f t="shared" si="23"/>
+        <v>0.61383598429480291</v>
+      </c>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="W15" s="2">
+      <c r="AD15" s="2">
         <v>189</v>
       </c>
-      <c r="X15" s="2">
+      <c r="AE15" s="2">
         <v>200</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AF15" s="2">
         <v>220</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AG15" s="2">
         <v>140</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AH15" s="2">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E16">
         <f>MAX(E11:E14)</f>
         <v>1.0119848709215202</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:J16" si="23">MAX(F11:F14)</f>
+        <f t="shared" ref="F16:J16" si="24">MAX(F11:F14)</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.2413974232394813</v>
       </c>
       <c r="H16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.1215889616381773</v>
       </c>
       <c r="I16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.1715339258692363</v>
       </c>
       <c r="J16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0800165386373033</v>
       </c>
       <c r="K16" s="61">
-        <f t="shared" ref="K16:N16" si="24">MAX(K11:K14)</f>
+        <f t="shared" ref="K16:O16" si="25">MAX(K11:K14)</f>
         <v>1.0466795022200268</v>
       </c>
       <c r="L16" s="61">
-        <f t="shared" ref="L16:M16" si="25">MAX(L11:L14)</f>
+        <f t="shared" ref="L16:N16" si="26">MAX(L11:L14)</f>
+        <v>1.8469265095167229</v>
+      </c>
+      <c r="M16" s="61">
+        <f t="shared" si="26"/>
+        <v>1.254691129151037</v>
+      </c>
+      <c r="N16" s="61">
+        <f t="shared" si="26"/>
+        <v>1.1402528795149804</v>
+      </c>
+      <c r="O16" s="61">
+        <f t="shared" si="25"/>
+        <v>1.1303988543545136</v>
+      </c>
+      <c r="P16" s="61">
+        <f t="shared" ref="P16:R16" si="27">MAX(P11:P14)</f>
+        <v>1.2095702920115059</v>
+      </c>
+      <c r="Q16" s="61">
+        <f t="shared" si="27"/>
+        <v>1.3010641666919731</v>
+      </c>
+      <c r="R16" s="61">
+        <f t="shared" si="27"/>
+        <v>1.3688705275753126</v>
+      </c>
+      <c r="Z16" s="61">
+        <f t="shared" ref="Z16:AA16" si="28">MAX(Z11:Z14)</f>
         <v>1.784852232207196</v>
       </c>
-      <c r="M16" s="61">
-        <f t="shared" si="25"/>
+      <c r="AA16" s="61">
+        <f t="shared" si="28"/>
         <v>1.2706404874902422</v>
       </c>
-      <c r="N16" s="61">
-        <f t="shared" si="24"/>
-        <v>1.1303988543545136</v>
-      </c>
-      <c r="O16" s="61">
-        <f t="shared" ref="O16:Q16" si="26">MAX(O11:O14)</f>
-        <v>1.2095702920115059</v>
-      </c>
-      <c r="P16" s="61">
-        <f t="shared" si="26"/>
-        <v>1.3010641666919731</v>
-      </c>
-      <c r="Q16" s="61">
-        <f t="shared" si="26"/>
-        <v>1.3688705275753126</v>
-      </c>
-      <c r="V16" s="19" t="s">
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="W16" s="2">
+      <c r="AD16" s="2">
         <v>180.8</v>
       </c>
-      <c r="X16" s="2">
+      <c r="AE16" s="2">
         <v>276.89999999999998</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AF16" s="2">
         <v>101.3</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AG16" s="2">
         <v>149.80000000000001</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AH16" s="2">
         <v>291.3</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E17" s="63">
         <f>IF(E16&gt;=1/E15,E16-1,1-1/E15)</f>
         <v>1.198487092152023E-2</v>
       </c>
       <c r="F17" s="63">
-        <f t="shared" ref="F17:K17" si="27">IF(F16&gt;=1/F15,F16-1,1-1/F15)</f>
+        <f t="shared" ref="F17:K17" si="29">IF(F16&gt;=1/F15,F16-1,1-1/F15)</f>
         <v>-1.2625938834426975E-2</v>
       </c>
       <c r="G17" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.24139742323948132</v>
       </c>
       <c r="H17" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-0.20796366228369489</v>
       </c>
       <c r="I17" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.17153392586923633</v>
       </c>
       <c r="J17" s="63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-8.023037141513889E-2</v>
       </c>
       <c r="K17" s="64">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.6679502220026814E-2</v>
       </c>
       <c r="L17" s="64">
-        <f t="shared" ref="L17:M17" si="28">IF(L16&gt;=1/L15,L16-1,1-1/L15)</f>
+        <f t="shared" ref="L17:N17" si="30">IF(L16&gt;=1/L15,L16-1,1-1/L15)</f>
+        <v>0.84692650951672288</v>
+      </c>
+      <c r="M17" s="64">
+        <f t="shared" si="30"/>
+        <v>-0.61502104901125687</v>
+      </c>
+      <c r="N17" s="64">
+        <f t="shared" si="30"/>
+        <v>0.14025287951498044</v>
+      </c>
+      <c r="O17" s="64">
+        <f t="shared" ref="O17:P17" si="31">IF(O16&gt;=1/O15,O16-1,1-1/O15)</f>
+        <v>0.13039885435451359</v>
+      </c>
+      <c r="P17" s="64">
+        <f t="shared" si="31"/>
+        <v>0.2095702920115059</v>
+      </c>
+      <c r="Q17" s="64">
+        <f t="shared" ref="Q17:R17" si="32">IF(Q16&gt;=1/Q15,Q16-1,1-1/Q15)</f>
+        <v>-0.67586843674116293</v>
+      </c>
+      <c r="R17" s="64">
+        <f t="shared" si="32"/>
+        <v>-0.41540047869384966</v>
+      </c>
+      <c r="Z17" s="64">
+        <f t="shared" ref="Z17:AA17" si="33">IF(Z16&gt;=1/Z15,Z16-1,1-1/Z15)</f>
         <v>0.78485223220719602</v>
       </c>
-      <c r="M17" s="64">
-        <f t="shared" si="28"/>
+      <c r="AA17" s="64">
+        <f t="shared" si="33"/>
         <v>-0.62909967089797836</v>
       </c>
-      <c r="N17" s="64">
-        <f t="shared" ref="N17:O17" si="29">IF(N16&gt;=1/N15,N16-1,1-1/N15)</f>
-        <v>0.13039885435451359</v>
-      </c>
-      <c r="O17" s="64">
-        <f t="shared" si="29"/>
-        <v>0.2095702920115059</v>
-      </c>
-      <c r="P17" s="64">
-        <f t="shared" ref="P17:Q17" si="30">IF(P16&gt;=1/P15,P16-1,1-1/P15)</f>
-        <v>-0.67586843674116293</v>
-      </c>
-      <c r="Q17" s="64">
-        <f t="shared" si="30"/>
-        <v>-0.41540047869384966</v>
-      </c>
-      <c r="V17" s="19" t="s">
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="W17" s="2">
+      <c r="AD17" s="2">
         <v>295.24</v>
       </c>
-      <c r="X17" s="2">
+      <c r="AE17" s="2">
         <v>185.98400000000001</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AF17" s="2">
         <v>282.12099999999998</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AG17" s="2">
         <v>107.773</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AH17" s="2">
         <v>128.881</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -5824,59 +6202,68 @@
         <v>89</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="O18" t="s">
         <v>88</v>
       </c>
       <c r="P18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" t="s">
         <v>89</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>3</v>
       </c>
-      <c r="V18" s="19" t="s">
+      <c r="Z18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="W18" s="2">
+      <c r="AD18" s="2">
         <v>129.69999999999999</v>
       </c>
-      <c r="X18" s="2">
+      <c r="AE18" s="2">
         <v>312.2</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AF18" s="2">
         <v>209.5</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AG18" s="2">
         <v>236.5</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AH18" s="2">
         <v>112.1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V19" t="s">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
         <v>5</v>
       </c>
-      <c r="W19" s="2">
+      <c r="AD19" s="2">
         <v>171</v>
       </c>
-      <c r="X19" s="2">
+      <c r="AE19" s="2">
         <v>208</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="AF19" s="2">
         <v>239</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AG19" s="2">
         <v>383</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E17:M17">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="Z17:AB17 E17:O17">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5887,8 +6274,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:N17">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="P11:R14">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5899,8 +6286,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:Q14">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="P17:R17">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5911,8 +6298,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:Q17">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Z11:AB14 E11:O14">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5923,8 +6310,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:N14">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="Z17:AB17 E17:N17">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6014,7 +6401,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B7">
         <v>0.83</v>
@@ -6140,7 +6527,7 @@
         <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -6190,7 +6577,7 @@
         <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -6240,7 +6627,7 @@
         <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -6290,7 +6677,7 @@
         <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -6337,7 +6724,7 @@
         <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -6395,7 +6782,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6433,19 +6820,19 @@
         <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="O10" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="P10" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="R10" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -6737,7 +7124,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6791,10 +7178,10 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -6826,7 +7213,7 @@
         <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H3" t="s">
         <v>138</v>
@@ -6875,7 +7262,7 @@
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
         <v>127</v>
@@ -6910,7 +7297,7 @@
         <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -6919,15 +7306,15 @@
         <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
@@ -6942,13 +7329,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H9" s="65">
         <v>6</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6959,10 +7346,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6976,43 +7363,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
       <c r="B1" s="7" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -7021,428 +7414,741 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
         <v>188</v>
       </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
         <v>189</v>
       </c>
-      <c r="E5" t="s">
-        <v>192</v>
-      </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
         <v>184</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>187</v>
       </c>
-      <c r="E6" t="s">
-        <v>190</v>
-      </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>606</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>605</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" t="s">
+        <v>595</v>
+      </c>
+      <c r="D16" t="s">
+        <v>602</v>
+      </c>
+      <c r="E16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>566</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>567</v>
+      </c>
+      <c r="B18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" t="s">
+        <v>556</v>
+      </c>
+      <c r="E18" t="s">
+        <v>543</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>568</v>
+      </c>
+      <c r="B19" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" t="s">
+        <v>539</v>
+      </c>
+      <c r="E19" t="s">
+        <v>559</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>569</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B22" t="s">
+        <v>591</v>
+      </c>
+      <c r="C22" t="s">
+        <v>596</v>
+      </c>
+      <c r="D22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E22" t="s">
+        <v>586</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" t="s">
+        <v>557</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24" t="s">
+        <v>494</v>
+      </c>
+      <c r="C24" t="s">
+        <v>495</v>
+      </c>
+      <c r="D24" t="s">
+        <v>538</v>
+      </c>
+      <c r="E24" t="s">
+        <v>537</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>583</v>
+      </c>
+      <c r="B27" t="s">
+        <v>592</v>
+      </c>
+      <c r="C27" t="s">
+        <v>597</v>
+      </c>
+      <c r="D27" t="s">
+        <v>600</v>
+      </c>
+      <c r="E27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>572</v>
+      </c>
+      <c r="B28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C28" t="s">
+        <v>497</v>
+      </c>
+      <c r="D28" t="s">
+        <v>499</v>
+      </c>
+      <c r="E28" t="s">
+        <v>540</v>
+      </c>
+      <c r="F28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>573</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>574</v>
+      </c>
+      <c r="B30" t="s">
+        <v>498</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>582</v>
+      </c>
+      <c r="B32" t="s">
+        <v>593</v>
+      </c>
+      <c r="C32" t="s">
+        <v>598</v>
+      </c>
+      <c r="D32" t="s">
+        <v>599</v>
+      </c>
+      <c r="E32" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="B33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>495</v>
-      </c>
-      <c r="C16" t="s">
-        <v>496</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" t="s">
-        <v>497</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>581</v>
+      </c>
+      <c r="B37" t="s">
+        <v>594</v>
+      </c>
+      <c r="C37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D37" t="s">
+        <v>603</v>
+      </c>
+      <c r="E37" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>576</v>
+      </c>
+      <c r="B38" t="s">
         <v>196</v>
       </c>
-      <c r="F17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>498</v>
-      </c>
-      <c r="C18" t="s">
-        <v>499</v>
-      </c>
-      <c r="D18" t="s">
-        <v>339</v>
-      </c>
-      <c r="E18" t="s">
-        <v>339</v>
-      </c>
-      <c r="F18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>500</v>
-      </c>
-      <c r="C21" t="s">
-        <v>501</v>
-      </c>
-      <c r="D21" t="s">
-        <v>512</v>
-      </c>
-      <c r="E21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>502</v>
-      </c>
-      <c r="F22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>503</v>
-      </c>
-      <c r="C23" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" t="s">
-        <v>513</v>
-      </c>
-      <c r="E23" t="s">
-        <v>513</v>
-      </c>
-      <c r="F23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>505</v>
-      </c>
-      <c r="C25" t="s">
-        <v>506</v>
-      </c>
-      <c r="D25" t="s">
-        <v>510</v>
-      </c>
-      <c r="F25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" t="s">
-        <v>511</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>507</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" t="s">
+        <v>607</v>
+      </c>
+      <c r="E38" t="s">
         <v>159</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F38" t="s">
         <v>159</v>
       </c>
-      <c r="E27" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>508</v>
-      </c>
-      <c r="C30" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" t="s">
-        <v>509</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E31" s="19" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>577</v>
+      </c>
+      <c r="B39" t="s">
+        <v>545</v>
+      </c>
+      <c r="C39" t="s">
+        <v>549</v>
+      </c>
+      <c r="D39" t="s">
+        <v>551</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>578</v>
+      </c>
+      <c r="B40" t="s">
+        <v>546</v>
+      </c>
+      <c r="C40" t="s">
+        <v>550</v>
+      </c>
+      <c r="D40" t="s">
+        <v>552</v>
+      </c>
+      <c r="E40" t="s">
         <v>160</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F40" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>579</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>164</v>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>548</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -7486,84 +8192,84 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="46" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I1" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U1" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>257</v>
-      </c>
       <c r="V1" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Y1" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Z1" s="23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AB1" s="25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -7865,7 +8571,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B5" s="26">
         <f t="shared" si="0"/>
@@ -7964,7 +8670,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B6" s="26">
         <f t="shared" si="0"/>
@@ -8053,12 +8759,12 @@
         <v>0.73489452187500004</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
@@ -8147,7 +8853,7 @@
         <v>11851851851851.852</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -8156,7 +8862,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="40" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F8" s="50">
         <v>9.5999999999999992E-3</v>
@@ -8182,7 +8888,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="13"/>
       <c r="AC8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -8227,10 +8933,10 @@
         <v>2174380000000</v>
       </c>
       <c r="AB9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AC9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -8269,10 +8975,10 @@
         <v>21372572000000</v>
       </c>
       <c r="AB10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AC10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -8280,7 +8986,7 @@
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="40" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F11" s="55">
         <v>2.1299999999999999E-2</v>
@@ -8293,50 +8999,50 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="55" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="R12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="X12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Y12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AA12" s="33">
         <v>260000</v>
@@ -8344,7 +9050,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B13" s="40">
         <f>2*(O13-U13)</f>
@@ -8397,7 +9103,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" ref="B14:B19" si="10">2*(O14-U14)</f>
@@ -8450,7 +9156,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="10"/>
@@ -8503,7 +9209,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="10"/>
@@ -8556,7 +9262,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B17" s="40">
         <f t="shared" si="10"/>
@@ -8609,7 +9315,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B18" s="40">
         <f t="shared" si="10"/>
@@ -8662,7 +9368,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B19" s="40">
         <f t="shared" si="10"/>
@@ -8715,7 +9421,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F20" s="50">
         <v>1.6000000000000001E-3</v>
@@ -8733,7 +9439,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F21" s="50">
         <v>8.5000000000000006E-3</v>
@@ -8752,7 +9458,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F22" s="50">
         <v>1.6000000000000001E-3</v>
@@ -8765,7 +9471,7 @@
         <v>526000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="T22" s="32"/>
       <c r="V22" s="32"/>
@@ -8773,7 +9479,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -8821,7 +9527,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -8869,7 +9575,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -8917,7 +9623,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -8965,7 +9671,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -9013,7 +9719,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -9061,7 +9767,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -9109,7 +9815,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -9157,7 +9863,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -9205,7 +9911,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -9253,7 +9959,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -9301,7 +10007,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -9349,7 +10055,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -9397,7 +10103,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -9445,7 +10151,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -9493,7 +10199,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -9541,7 +10247,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -9589,7 +10295,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -2623,27 +2623,27 @@
         <v>57</v>
       </c>
       <c r="B7" s="2">
-        <f>B6*B10*12/1000</f>
+        <f t="shared" ref="B7:G7" si="1">B6*B10*12/1000</f>
         <v>7.5317103789574373</v>
       </c>
       <c r="C7" s="2">
-        <f>C6*C10*12/1000</f>
+        <f t="shared" si="1"/>
         <v>20.850357284510622</v>
       </c>
       <c r="D7" s="2">
-        <f>D6*D10*12/1000</f>
+        <f t="shared" si="1"/>
         <v>2.392690247356708</v>
       </c>
       <c r="E7" s="2">
-        <f>E6*E10*12/1000</f>
+        <f t="shared" si="1"/>
         <v>3.3910464408295034</v>
       </c>
       <c r="F7" s="2">
-        <f>F6*F10*12/1000</f>
+        <f t="shared" si="1"/>
         <v>15.664781576952432</v>
       </c>
       <c r="G7" s="2">
-        <f>G6*G10*12/1000</f>
+        <f t="shared" si="1"/>
         <v>285.30725980380089</v>
       </c>
     </row>
@@ -2897,27 +2897,27 @@
         <v>52</v>
       </c>
       <c r="B16" s="11">
-        <f t="shared" ref="B16:G16" si="1">B20/B19</f>
+        <f t="shared" ref="B16:G16" si="2">B20/B19</f>
         <v>1.6804869000780116E-2</v>
       </c>
       <c r="C16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4285946906251236E-2</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4503315316459028E-3</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.182641984567564E-2</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7832459188770545E-2</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5731003235390304E-2</v>
       </c>
     </row>
@@ -2930,20 +2930,20 @@
         <v>2.8652771056078725E-2</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" ref="C17:G17" si="2">C20/C18</f>
+        <f t="shared" ref="C17:G17" si="3">C20/C18</f>
         <v>3.7067064609916489E-2</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4677280378829026E-2</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8580944213005321E-2</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5196117592019917E-2</v>
       </c>
     </row>
@@ -3002,27 +3002,27 @@
         <v>70</v>
       </c>
       <c r="B20" s="3">
-        <f>B7/B21</f>
+        <f t="shared" ref="B20:G20" si="4">B7/B21</f>
         <v>2.5644230095190458E-3</v>
       </c>
       <c r="C20" s="3">
-        <f>C7/C21</f>
+        <f t="shared" si="4"/>
         <v>4.9373330060408765E-3</v>
       </c>
       <c r="D20" s="3">
-        <f>D7/D21</f>
+        <f t="shared" si="4"/>
         <v>1.6790808753380407E-3</v>
       </c>
       <c r="E20" s="3">
-        <f>E7/E21</f>
+        <f t="shared" si="4"/>
         <v>4.1710288325086144E-3</v>
       </c>
       <c r="F20" s="3">
-        <f>F7/F21</f>
+        <f t="shared" si="4"/>
         <v>4.9152122927368785E-3</v>
       </c>
       <c r="G20" s="3">
-        <f>G7/G21</f>
+        <f t="shared" si="4"/>
         <v>1.2406821177761389E-2</v>
       </c>
       <c r="M20" t="s">
@@ -3315,27 +3315,27 @@
         <v>40</v>
       </c>
       <c r="B31" s="3">
-        <f>B4/B3</f>
+        <f t="shared" ref="B31:G31" si="5">B4/B3</f>
         <v>7.9422382671480145E-3</v>
       </c>
       <c r="C31" s="3">
-        <f>C4/C3</f>
+        <f t="shared" si="5"/>
         <v>1.3333333333333332E-2</v>
       </c>
       <c r="D31" s="3">
-        <f>D4/D3</f>
+        <f t="shared" si="5"/>
         <v>4.9881235154394295E-3</v>
       </c>
       <c r="E31" s="3">
-        <f>E4/E3</f>
+        <f t="shared" si="5"/>
         <v>1.3414634146341463E-2</v>
       </c>
       <c r="F31" s="3">
-        <f>F4/F3</f>
+        <f t="shared" si="5"/>
         <v>1.7199017199017199E-2</v>
       </c>
       <c r="G31" s="3">
-        <f>G4/G3</f>
+        <f t="shared" si="5"/>
         <v>4.1884816753926706E-3</v>
       </c>
       <c r="H31" s="3"/>
@@ -3377,27 +3377,27 @@
         <v>56</v>
       </c>
       <c r="B33" s="2">
-        <f>B6*B26*12/1000</f>
+        <f t="shared" ref="B33:G33" si="6">B6*B26*12/1000</f>
         <v>7.1975864434768866</v>
       </c>
       <c r="C33" s="2">
-        <f>C6*C26*12/1000</f>
+        <f t="shared" si="6"/>
         <v>21.032191795712752</v>
       </c>
       <c r="D33" s="2">
-        <f>D6*D26*12/1000</f>
+        <f t="shared" si="6"/>
         <v>2.3499636357967666</v>
       </c>
       <c r="E33" s="2">
-        <f>E6*E26*12/1000</f>
+        <f t="shared" si="6"/>
         <v>3.1934225422910951</v>
       </c>
       <c r="F33" s="2">
-        <f>F6*F26*12/1000</f>
+        <f t="shared" si="6"/>
         <v>14.853569673860253</v>
       </c>
       <c r="G33" s="2">
-        <f>G6*G26*12/1000</f>
+        <f t="shared" si="6"/>
         <v>264.04020802872463</v>
       </c>
     </row>
@@ -3447,16 +3447,16 @@
         <v>470.40625995177646</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:F35" si="3">2000*C26/$H$26</f>
+        <f t="shared" ref="C35:F35" si="7">2000*C26/$H$26</f>
         <v>631.4544379236612</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>350.30253400664208</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>483.14453391565434</v>
       </c>
     </row>
@@ -4794,15 +4794,15 @@
         <v>250</v>
       </c>
       <c r="L2" s="2">
-        <f>Z2*SUM($H2:$J2)/1000</f>
+        <f t="shared" ref="L2:N6" si="0">Z2*SUM($H2:$J2)/1000</f>
         <v>112.14</v>
       </c>
       <c r="M2" s="2">
-        <f>AA2*SUM($H2:$J2)/1000</f>
+        <f t="shared" si="0"/>
         <v>260.82</v>
       </c>
       <c r="N2" s="2">
-        <f>AB2*SUM($H2:$J2)/1000</f>
+        <f t="shared" si="0"/>
         <v>257.67</v>
       </c>
       <c r="O2">
@@ -4827,23 +4827,23 @@
         <v>409</v>
       </c>
       <c r="AC2" s="2">
-        <f t="shared" ref="AC2:AG5" si="0">AD15*$C2*$D$7/1000</f>
+        <f t="shared" ref="AC2:AG5" si="1">AD15*$C2*$D$7/1000</f>
         <v>91.878702397743297</v>
       </c>
       <c r="AD2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.226140103432058</v>
       </c>
       <c r="AE2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106.94875411377527</v>
       </c>
       <c r="AF2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.058298072402437</v>
       </c>
       <c r="AG2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122.01880582980723</v>
       </c>
       <c r="AH2">
@@ -4905,15 +4905,15 @@
         <v>263</v>
       </c>
       <c r="L3" s="2">
-        <f>Z3*SUM($H3:$J3)/1000</f>
+        <f t="shared" si="0"/>
         <v>95.843999999999994</v>
       </c>
       <c r="M3" s="2">
-        <f>AA3*SUM($H3:$J3)/1000</f>
+        <f t="shared" si="0"/>
         <v>266.66800000000001</v>
       </c>
       <c r="N3" s="2">
-        <f>AB3*SUM($H3:$J3)/1000</f>
+        <f t="shared" si="0"/>
         <v>289.488</v>
       </c>
       <c r="O3">
@@ -4938,23 +4938,23 @@
         <v>444</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117.98326281147156</v>
       </c>
       <c r="AD3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180.69449929478137</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.104560413728251</v>
       </c>
       <c r="AF3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.753831687823237</v>
       </c>
       <c r="AG3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>190.09139633286318</v>
       </c>
       <c r="AH3">
@@ -5019,15 +5019,15 @@
         <v>246</v>
       </c>
       <c r="L4" s="2">
-        <f>Z4*SUM($H4:$J4)/1000</f>
+        <f t="shared" si="0"/>
         <v>243.67500000000001</v>
       </c>
       <c r="M4" s="2">
-        <f>AA4*SUM($H4:$J4)/1000</f>
+        <f t="shared" si="0"/>
         <v>155.92500000000001</v>
       </c>
       <c r="N4" s="2">
-        <f>AB4*SUM($H4:$J4)/1000</f>
+        <f t="shared" si="0"/>
         <v>275.39999999999998</v>
       </c>
       <c r="O4">
@@ -5052,23 +5052,23 @@
         <v>408</v>
       </c>
       <c r="AC4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106.88048895157497</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.32848142924307</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102.13125058768217</v>
       </c>
       <c r="AF4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.015143394452281</v>
       </c>
       <c r="AG4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.656497414198398</v>
       </c>
       <c r="AH4">
@@ -5127,15 +5127,15 @@
         <v>241</v>
       </c>
       <c r="L5" s="2">
-        <f>Z5*SUM($H5:$J5)/1000</f>
+        <f t="shared" si="0"/>
         <v>120.414</v>
       </c>
       <c r="M5" s="2">
-        <f>AA5*SUM($H5:$J5)/1000</f>
+        <f t="shared" si="0"/>
         <v>131.6</v>
       </c>
       <c r="N5" s="2">
-        <f>AB5*SUM($H5:$J5)/1000</f>
+        <f t="shared" si="0"/>
         <v>329.65800000000002</v>
       </c>
       <c r="O5">
@@ -5160,23 +5160,23 @@
         <v>501</v>
       </c>
       <c r="AC5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.758533145275024</v>
       </c>
       <c r="AD5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>155.87983074753171</v>
       </c>
       <c r="AE5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104.60225669957687</v>
       </c>
       <c r="AF5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>118.08321579689704</v>
       </c>
       <c r="AG5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.970944992947814</v>
       </c>
       <c r="AH5">
@@ -5224,55 +5224,55 @@
         <v>509.88904560413727</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:R6" si="1">SUMPRODUCT($C2:$C5,F2:F5)</f>
+        <f t="shared" ref="F6:R6" si="2">SUMPRODUCT($C2:$C5,F2:F5)</f>
         <v>490.11095439586268</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.665256229431108</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>149.78749412317816</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>243.27080394922424</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>259.25528913963331</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>251.27080394922424</v>
       </c>
       <c r="L6" s="2">
-        <f>Z6*SUM($H6:$J6)/1000</f>
+        <f t="shared" si="0"/>
         <v>131.93540660356939</v>
       </c>
       <c r="M6" s="2">
-        <f>AA6*SUM($H6:$J6)/1000</f>
+        <f t="shared" si="0"/>
         <v>212.5367700498814</v>
       </c>
       <c r="N6" s="2">
-        <f>AB6*SUM($H6:$J6)/1000</f>
+        <f t="shared" si="0"/>
         <v>289.10955273379693</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" ref="O6" si="2">SUMPRODUCT($C2:$C5,O2:O5)</f>
+        <f t="shared" ref="O6" si="3">SUMPRODUCT($C2:$C5,O2:O5)</f>
         <v>443.2063939821345</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>425.77103902209689</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>325.11847672778561</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>249.11048425011754</v>
       </c>
       <c r="S6" s="2"/>
@@ -5307,15 +5307,15 @@
         <v>443.2063939821345</v>
       </c>
       <c r="AH6" s="2">
-        <f t="shared" ref="AH6:AJ6" si="3">SUMPRODUCT($C1:$C4,AH1:AH4)</f>
+        <f t="shared" ref="AH6:AJ6" si="4">SUMPRODUCT($C1:$C4,AH1:AH4)</f>
         <v>399.66619652092146</v>
       </c>
       <c r="AI6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>176.21532675129291</v>
       </c>
       <c r="AJ6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>174.71415138692993</v>
       </c>
       <c r="AK6" t="s">
@@ -5341,31 +5341,31 @@
         <v>2000</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:K7" si="4">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
+        <f t="shared" ref="E7:K7" si="5">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
         <v>1019.7780912082745</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>980.22190879172535</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>193.33051245886222</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>299.57498824635633</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>486.54160789844849</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>518.51057827926661</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>502.54160789844849</v>
       </c>
       <c r="L7" s="2">
@@ -5381,7 +5381,7 @@
         <v>578.21910546759386</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7" si="5">SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
+        <f t="shared" ref="O7" si="6">SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
         <v>886.412787964269</v>
       </c>
       <c r="P7" s="2">
@@ -5573,63 +5573,63 @@
         <v>1.0119848709215202</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:O11" si="6">F2/F$6</f>
+        <f t="shared" ref="F11:O11" si="7">F2/F$6</f>
         <v>0.98753148783749312</v>
       </c>
       <c r="G11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2413974232394813</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0014187157483727</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.98655488494251475</v>
       </c>
       <c r="J11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92572846168911704</v>
       </c>
       <c r="K11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.99494249260458834</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:N11" si="7">L2/L$6</f>
+        <f t="shared" ref="L11:N11" si="8">L2/L$6</f>
         <v>0.84996137797150018</v>
       </c>
       <c r="M11">
+        <f t="shared" si="8"/>
+        <v>1.2271758902649492</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="8"/>
+        <v>0.89125384326976742</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="7"/>
-        <v>1.2271758902649492</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="7"/>
-        <v>0.89125384326976742</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
         <v>0.92282062161875456</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:R11" si="8">P2/P$6</f>
+        <f t="shared" ref="P11:R11" si="9">P2/P$6</f>
         <v>1.0921362830783501</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59670555162705141</v>
       </c>
       <c r="R11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3688705275753126</v>
       </c>
       <c r="Z11">
-        <f>Z2/Z$6</f>
+        <f t="shared" ref="Z11:AA14" si="10">Z2/Z$6</f>
         <v>0.8800656435813875</v>
       </c>
       <c r="AA11">
-        <f>AA2/AA$6</f>
+        <f t="shared" si="10"/>
         <v>1.2706404874902422</v>
       </c>
       <c r="AC11" s="19" t="s">
@@ -5656,67 +5656,67 @@
         <v>88</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E14" si="9">E3/E$6</f>
+        <f t="shared" ref="E12:E14" si="11">E3/E$6</f>
         <v>1.0041400269608882</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:O12" si="10">F3/F$6</f>
+        <f t="shared" ref="F12:O12" si="12">F3/F$6</f>
         <v>0.99569290509234842</v>
       </c>
       <c r="G12">
+        <f t="shared" si="12"/>
+        <v>0.87932317479463262</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="12"/>
+        <v>1.0014187157483727</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="12"/>
+        <v>0.91256326857182624</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="12"/>
+        <v>1.0800165386373033</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="12"/>
+        <v>1.0466795022200268</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:N12" si="13">L3/L$6</f>
+        <v>0.72644639121009857</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="13"/>
+        <v>1.254691129151037</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="13"/>
+        <v>1.0013090098982358</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="12"/>
+        <v>1.0017906014638802</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:R12" si="14">P3/P$6</f>
+        <v>0.85961694539070133</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="14"/>
+        <v>1.242623932254272</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="14"/>
+        <v>0.92328510657572405</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="10"/>
-        <v>0.87932317479463262</v>
-      </c>
-      <c r="H12">
+        <v>0.72679578430597735</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="10"/>
-        <v>1.0014187157483727</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="10"/>
-        <v>0.91256326857182624</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="10"/>
-        <v>1.0800165386373033</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="10"/>
-        <v>1.0466795022200268</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ref="L12:N12" si="11">L3/L$6</f>
-        <v>0.72644639121009857</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="11"/>
-        <v>1.254691129151037</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="11"/>
-        <v>1.0013090098982358</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="10"/>
-        <v>1.0017906014638802</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ref="P12:R12" si="12">P3/P$6</f>
-        <v>0.85961694539070133</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="12"/>
-        <v>1.242623932254272</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="12"/>
-        <v>0.92328510657572405</v>
-      </c>
-      <c r="Z12">
-        <f>Z3/Z$6</f>
-        <v>0.72679578430597735</v>
-      </c>
-      <c r="AA12">
-        <f>AA3/AA$6</f>
         <v>1.2552945878828721</v>
       </c>
       <c r="AC12" s="19" t="s">
@@ -5743,67 +5743,67 @@
         <v>89</v>
       </c>
       <c r="E13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99237276101994043</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:O13" si="13">F4/F$6</f>
+        <f t="shared" ref="F13:O13" si="15">F4/F$6</f>
         <v>1.0079350309746313</v>
       </c>
       <c r="G13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.81725330363265858</v>
       </c>
       <c r="H13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.82783947168532146</v>
       </c>
       <c r="I13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1715339258692363</v>
       </c>
       <c r="J13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.026015711705438</v>
       </c>
       <c r="K13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.97902341272291493</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:N13" si="14">L4/L$6</f>
+        <f t="shared" ref="L13:N13" si="16">L4/L$6</f>
         <v>1.8469265095167229</v>
       </c>
       <c r="M13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.73363776048448059</v>
       </c>
       <c r="N13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.95258007698410341</v>
       </c>
       <c r="O13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.92056433648032243</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:R13" si="15">P4/P$6</f>
+        <f t="shared" ref="P13:R13" si="17">P4/P$6</f>
         <v>1.2095702920115059</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.68897960600236874</v>
       </c>
       <c r="R13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0477278818098434</v>
       </c>
       <c r="Z13">
-        <f>Z4/Z$6</f>
+        <f t="shared" si="10"/>
         <v>1.784852232207196</v>
       </c>
       <c r="AA13">
-        <f>AA4/AA$6</f>
+        <f t="shared" si="10"/>
         <v>0.7089805618604974</v>
       </c>
       <c r="AC13" s="19" t="s">
@@ -5830,67 +5830,67 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.98845033903962443</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:O14" si="16">F5/F$6</f>
+        <f t="shared" ref="F14:O14" si="18">F5/F$6</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0551878097535592</v>
       </c>
       <c r="H14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1215889616381773</v>
       </c>
       <c r="I14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0029974663582233</v>
       </c>
       <c r="J14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.94887167323134503</v>
       </c>
       <c r="K14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.95912456287082315</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:N14" si="17">L5/L$6</f>
+        <f t="shared" ref="L14:N14" si="19">L5/L$6</f>
         <v>0.91267388413643857</v>
       </c>
       <c r="M14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.61918697630115527</v>
       </c>
       <c r="N14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1402528795149804</v>
       </c>
       <c r="O14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1303988543545136</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:R14" si="18">P5/P$6</f>
+        <f t="shared" ref="P14:R14" si="20">P5/P$6</f>
         <v>0.94182075164391044</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3010641666919731</v>
       </c>
       <c r="R14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.70651382068403235</v>
       </c>
       <c r="Z14">
-        <f>Z5/Z$6</f>
+        <f t="shared" si="10"/>
         <v>0.90478658862580852</v>
       </c>
       <c r="AA14">
-        <f>AA5/AA$6</f>
+        <f t="shared" si="10"/>
         <v>0.61383598429480291</v>
       </c>
       <c r="AC14" t="s">
@@ -5918,63 +5918,63 @@
         <v>0.98845033903962443</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:K15" si="19">MIN(F11:F14)</f>
+        <f t="shared" ref="F15:K15" si="21">MIN(F11:F14)</f>
         <v>0.98753148783749312</v>
       </c>
       <c r="G15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.81725330363265858</v>
       </c>
       <c r="H15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.82783947168532146</v>
       </c>
       <c r="I15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.91256326857182624</v>
       </c>
       <c r="J15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.92572846168911704</v>
       </c>
       <c r="K15" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.95912456287082315</v>
       </c>
       <c r="L15" s="61">
-        <f t="shared" ref="L15:N15" si="20">MIN(L11:L14)</f>
+        <f t="shared" ref="L15:N15" si="22">MIN(L11:L14)</f>
         <v>0.72644639121009857</v>
       </c>
       <c r="M15" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.61918697630115527</v>
       </c>
       <c r="N15" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.89125384326976742</v>
       </c>
       <c r="O15" s="61">
-        <f t="shared" ref="O15:P15" si="21">MIN(O11:O14)</f>
+        <f t="shared" ref="O15:P15" si="23">MIN(O11:O14)</f>
         <v>0.92056433648032243</v>
       </c>
       <c r="P15" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.85961694539070133</v>
       </c>
       <c r="Q15" s="61">
-        <f t="shared" ref="Q15:R15" si="22">MIN(Q11:Q14)</f>
+        <f t="shared" ref="Q15:R15" si="24">MIN(Q11:Q14)</f>
         <v>0.59670555162705141</v>
       </c>
       <c r="R15" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.70651382068403235</v>
       </c>
       <c r="Z15" s="61">
-        <f t="shared" ref="Z15:AA15" si="23">MIN(Z11:Z14)</f>
+        <f t="shared" ref="Z15:AA15" si="25">MIN(Z11:Z14)</f>
         <v>0.72679578430597735</v>
       </c>
       <c r="AA15" s="61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.61383598429480291</v>
       </c>
       <c r="AB15" s="61"/>
@@ -6006,63 +6006,63 @@
         <v>1.0119848709215202</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:J16" si="24">MAX(F11:F14)</f>
+        <f t="shared" ref="F16:J16" si="26">MAX(F11:F14)</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2413974232394813</v>
       </c>
       <c r="H16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1215889616381773</v>
       </c>
       <c r="I16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1715339258692363</v>
       </c>
       <c r="J16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0800165386373033</v>
       </c>
       <c r="K16" s="61">
-        <f t="shared" ref="K16:O16" si="25">MAX(K11:K14)</f>
+        <f t="shared" ref="K16:O16" si="27">MAX(K11:K14)</f>
         <v>1.0466795022200268</v>
       </c>
       <c r="L16" s="61">
-        <f t="shared" ref="L16:N16" si="26">MAX(L11:L14)</f>
+        <f t="shared" ref="L16:N16" si="28">MAX(L11:L14)</f>
         <v>1.8469265095167229</v>
       </c>
       <c r="M16" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.254691129151037</v>
       </c>
       <c r="N16" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1402528795149804</v>
       </c>
       <c r="O16" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1303988543545136</v>
       </c>
       <c r="P16" s="61">
-        <f t="shared" ref="P16:R16" si="27">MAX(P11:P14)</f>
+        <f t="shared" ref="P16:R16" si="29">MAX(P11:P14)</f>
         <v>1.2095702920115059</v>
       </c>
       <c r="Q16" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3010641666919731</v>
       </c>
       <c r="R16" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3688705275753126</v>
       </c>
       <c r="Z16" s="61">
-        <f t="shared" ref="Z16:AA16" si="28">MAX(Z11:Z14)</f>
+        <f t="shared" ref="Z16:AA16" si="30">MAX(Z11:Z14)</f>
         <v>1.784852232207196</v>
       </c>
       <c r="AA16" s="61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.2706404874902422</v>
       </c>
       <c r="AB16" s="61"/>
@@ -6094,63 +6094,63 @@
         <v>1.198487092152023E-2</v>
       </c>
       <c r="F17" s="63">
-        <f t="shared" ref="F17:K17" si="29">IF(F16&gt;=1/F15,F16-1,1-1/F15)</f>
+        <f t="shared" ref="F17:K17" si="31">IF(F16&gt;=1/F15,F16-1,1-1/F15)</f>
         <v>-1.2625938834426975E-2</v>
       </c>
       <c r="G17" s="63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.24139742323948132</v>
       </c>
       <c r="H17" s="63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-0.20796366228369489</v>
       </c>
       <c r="I17" s="63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.17153392586923633</v>
       </c>
       <c r="J17" s="63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-8.023037141513889E-2</v>
       </c>
       <c r="K17" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.6679502220026814E-2</v>
       </c>
       <c r="L17" s="64">
-        <f t="shared" ref="L17:N17" si="30">IF(L16&gt;=1/L15,L16-1,1-1/L15)</f>
+        <f t="shared" ref="L17:N17" si="32">IF(L16&gt;=1/L15,L16-1,1-1/L15)</f>
         <v>0.84692650951672288</v>
       </c>
       <c r="M17" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-0.61502104901125687</v>
       </c>
       <c r="N17" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.14025287951498044</v>
       </c>
       <c r="O17" s="64">
-        <f t="shared" ref="O17:P17" si="31">IF(O16&gt;=1/O15,O16-1,1-1/O15)</f>
+        <f t="shared" ref="O17:P17" si="33">IF(O16&gt;=1/O15,O16-1,1-1/O15)</f>
         <v>0.13039885435451359</v>
       </c>
       <c r="P17" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.2095702920115059</v>
       </c>
       <c r="Q17" s="64">
-        <f t="shared" ref="Q17:R17" si="32">IF(Q16&gt;=1/Q15,Q16-1,1-1/Q15)</f>
+        <f t="shared" ref="Q17:R17" si="34">IF(Q16&gt;=1/Q15,Q16-1,1-1/Q15)</f>
         <v>-0.67586843674116293</v>
       </c>
       <c r="R17" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-0.41540047869384966</v>
       </c>
       <c r="Z17" s="64">
-        <f t="shared" ref="Z17:AA17" si="33">IF(Z16&gt;=1/Z15,Z16-1,1-1/Z15)</f>
+        <f t="shared" ref="Z17:AA17" si="35">IF(Z16&gt;=1/Z15,Z16-1,1-1/Z15)</f>
         <v>0.78485223220719602</v>
       </c>
       <c r="AA17" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.62909967089797836</v>
       </c>
       <c r="AB17" s="64"/>
@@ -7349,7 +7349,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7976,7 +7976,7 @@
         <v>158</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7996,7 +7996,7 @@
         <v>163</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="607">
   <si>
     <t>France</t>
   </si>
@@ -593,9 +593,6 @@
   </si>
   <si>
     <t>Supresión del impuesto sobre el patrimonio y el impuesto de sucesiones</t>
-  </si>
-  <si>
-    <t>Tougher sentencing for the worst offenders and 10,000 more prison places</t>
   </si>
   <si>
     <t>Cut the burden of tax on business</t>
@@ -2508,7 +2505,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="N2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2585,7 +2582,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6" s="20">
         <f>B8*(B12*(B14/B13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B13/12-30</f>
@@ -2923,7 +2920,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B17" s="11">
         <f>B20/B18</f>
@@ -2949,7 +2946,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B18" s="11">
         <v>8.9499999999999996E-2</v>
@@ -2968,7 +2965,7 @@
         <v>0.1903</v>
       </c>
       <c r="M18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3026,7 +3023,7 @@
         <v>1.2406821177761389E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3057,7 +3054,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B22" s="41">
         <v>175</v>
@@ -3076,7 +3073,7 @@
         <v>479</v>
       </c>
       <c r="M22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3912,7 +3909,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3929,7 +3926,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -3949,251 +3946,251 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" t="s">
         <v>349</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" t="s">
         <v>350</v>
-      </c>
-      <c r="C3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>352</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>353</v>
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" t="s">
         <v>356</v>
       </c>
-      <c r="C5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>357</v>
-      </c>
-      <c r="F5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" t="s">
         <v>470</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>472</v>
-      </c>
-      <c r="C6" t="s">
-        <v>468</v>
-      </c>
-      <c r="D6" t="s">
-        <v>469</v>
-      </c>
-      <c r="E6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F6" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" t="s">
         <v>481</v>
-      </c>
-      <c r="F7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" t="s">
         <v>479</v>
-      </c>
-      <c r="E8" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" t="s">
         <v>457</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>458</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>459</v>
       </c>
-      <c r="E10" t="s">
-        <v>460</v>
-      </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" s="72" t="s">
         <v>363</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>364</v>
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
       <c r="F11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" t="s">
         <v>373</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="F12" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="D13" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" t="s">
         <v>370</v>
       </c>
-      <c r="C13" s="68" t="s">
-        <v>368</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>371</v>
-      </c>
-      <c r="F13" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" t="s">
         <v>381</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>382</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>383</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>384</v>
-      </c>
-      <c r="F14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="72" t="s">
         <v>387</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>388</v>
       </c>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
@@ -4202,129 +4199,129 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
       <c r="F16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>465</v>
+      </c>
+      <c r="E17" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>467</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>465</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>466</v>
-      </c>
-      <c r="E17" s="69" t="s">
+      <c r="F17" s="69" t="s">
         <v>392</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="s">
         <v>394</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>395</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>396</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>397</v>
-      </c>
-      <c r="F18" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
       <c r="F19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" t="s">
         <v>401</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>402</v>
       </c>
-      <c r="E20" t="s">
-        <v>403</v>
-      </c>
       <c r="F20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" t="s">
+        <v>442</v>
+      </c>
+      <c r="D21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21" t="s">
+        <v>444</v>
+      </c>
+      <c r="F21" t="s">
         <v>404</v>
-      </c>
-      <c r="B21" t="s">
-        <v>444</v>
-      </c>
-      <c r="C21" t="s">
-        <v>443</v>
-      </c>
-      <c r="D21" t="s">
-        <v>446</v>
-      </c>
-      <c r="E21" t="s">
-        <v>445</v>
-      </c>
-      <c r="F21" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="72" t="s">
         <v>406</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>407</v>
       </c>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
       <c r="F22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B23" s="13">
         <v>0.55000000000000004</v>
@@ -4344,233 +4341,233 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
       <c r="F24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" t="s">
+        <v>417</v>
+      </c>
+      <c r="D25" t="s">
+        <v>418</v>
+      </c>
+      <c r="E25" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" t="s">
         <v>415</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="C25" t="s">
-        <v>418</v>
-      </c>
-      <c r="D25" t="s">
-        <v>419</v>
-      </c>
-      <c r="E25" t="s">
-        <v>420</v>
-      </c>
-      <c r="F25" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
       <c r="F26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C28" t="s">
+        <v>427</v>
+      </c>
+      <c r="D28" t="s">
         <v>428</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>424</v>
+      </c>
+      <c r="F28" t="s">
         <v>429</v>
-      </c>
-      <c r="E28" t="s">
-        <v>425</v>
-      </c>
-      <c r="F28" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29" t="s">
+        <v>434</v>
+      </c>
+      <c r="D29" t="s">
+        <v>435</v>
+      </c>
+      <c r="E29" t="s">
         <v>438</v>
       </c>
-      <c r="B29" t="s">
-        <v>440</v>
-      </c>
-      <c r="C29" t="s">
-        <v>435</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>436</v>
-      </c>
-      <c r="E29" t="s">
-        <v>439</v>
-      </c>
-      <c r="F29" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>501</v>
+      </c>
+      <c r="F31" t="s">
         <v>502</v>
-      </c>
-      <c r="F31" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="71" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="71" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="71" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="71" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="71" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="71" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="71" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="71" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="71" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="71" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="71" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="71" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4640,61 +4637,61 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>87</v>
@@ -4709,52 +4706,52 @@
         <v>3</v>
       </c>
       <c r="Z1" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>533</v>
-      </c>
       <c r="AC1" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD1" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG1" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="AF1" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>323</v>
-      </c>
       <c r="AH1" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI1" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL1" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="AJ1" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AO1" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
@@ -4856,16 +4853,16 @@
         <v>222</v>
       </c>
       <c r="AK2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM2" t="s">
         <v>278</v>
       </c>
-      <c r="AM2" t="s">
-        <v>279</v>
-      </c>
       <c r="AN2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -4967,19 +4964,19 @@
         <v>202</v>
       </c>
       <c r="AK3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AO3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -5078,16 +5075,16 @@
         <v>303</v>
       </c>
       <c r="AK4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM4" t="s">
         <v>304</v>
       </c>
-      <c r="AM4" t="s">
-        <v>305</v>
-      </c>
       <c r="AN4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AO4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -5189,22 +5186,22 @@
         <v>128</v>
       </c>
       <c r="AK5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL5" t="s">
         <v>306</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN5" t="s">
         <v>307</v>
       </c>
-      <c r="AM5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>308</v>
-      </c>
       <c r="AO5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AP5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -5319,13 +5316,13 @@
         <v>174.71415138692993</v>
       </c>
       <c r="AK6" t="s">
+        <v>527</v>
+      </c>
+      <c r="AL6" t="s">
         <v>528</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>529</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -5440,7 +5437,7 @@
         <v>206.66901739539256</v>
       </c>
       <c r="AN7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -5535,33 +5532,33 @@
         <v>383</v>
       </c>
       <c r="AN8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC10" s="19" t="s">
         <v>87</v>
       </c>
       <c r="AD10" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE10" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="AE10" s="58" t="s">
+      <c r="AF10" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="AF10" s="58" t="s">
+      <c r="AG10" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="AG10" s="58" t="s">
+      <c r="AH10" s="58" t="s">
         <v>270</v>
-      </c>
-      <c r="AH10" s="58" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5636,19 +5633,19 @@
         <v>88</v>
       </c>
       <c r="AD11" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE11" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="AE11" s="59" t="s">
+      <c r="AF11" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="AF11" s="59" t="s">
+      <c r="AG11" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="AG11" s="59" t="s">
+      <c r="AH11" s="60" t="s">
         <v>283</v>
-      </c>
-      <c r="AH11" s="60" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5723,19 +5720,19 @@
         <v>89</v>
       </c>
       <c r="AD12" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE12" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="AE12" s="59" t="s">
-        <v>330</v>
-      </c>
       <c r="AF12" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG12" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AG12" s="59" t="s">
+      <c r="AH12" s="60" t="s">
         <v>289</v>
-      </c>
-      <c r="AH12" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5810,19 +5807,19 @@
         <v>3</v>
       </c>
       <c r="AD13" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE13" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="AE13" s="59" t="s">
+      <c r="AF13" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="AF13" s="59" t="s">
+      <c r="AG13" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="AG13" s="59" t="s">
+      <c r="AH13" s="60" t="s">
         <v>294</v>
-      </c>
-      <c r="AH13" s="60" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5897,21 +5894,21 @@
         <v>5</v>
       </c>
       <c r="AD14" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE14" t="s">
         <v>326</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>327</v>
       </c>
-      <c r="AF14" t="s">
-        <v>328</v>
-      </c>
       <c r="AG14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E15">
         <f>MIN(E11:E14)</f>
@@ -5999,7 +5996,7 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E16">
         <f>MAX(E11:E14)</f>
@@ -6087,7 +6084,7 @@
     </row>
     <row r="17" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E17" s="63">
         <f>IF(E16&gt;=1/E15,E16-1,1-1/E15)</f>
@@ -6175,7 +6172,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -6401,7 +6398,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7">
         <v>0.83</v>
@@ -6527,7 +6524,7 @@
         <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -6577,7 +6574,7 @@
         <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -6627,7 +6624,7 @@
         <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -6677,7 +6674,7 @@
         <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -6724,7 +6721,7 @@
         <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -6782,7 +6779,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6820,19 +6817,19 @@
         <v>86</v>
       </c>
       <c r="M10" t="s">
+        <v>446</v>
+      </c>
+      <c r="O10" t="s">
+        <v>450</v>
+      </c>
+      <c r="P10" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>448</v>
+      </c>
+      <c r="R10" t="s">
         <v>447</v>
-      </c>
-      <c r="O10" t="s">
-        <v>451</v>
-      </c>
-      <c r="P10" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>449</v>
-      </c>
-      <c r="R10" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -7178,10 +7175,10 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" t="s">
         <v>343</v>
-      </c>
-      <c r="F2" t="s">
-        <v>344</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -7213,7 +7210,7 @@
         <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H3" t="s">
         <v>138</v>
@@ -7262,7 +7259,7 @@
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
         <v>127</v>
@@ -7297,7 +7294,7 @@
         <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -7306,15 +7303,15 @@
         <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="65" t="s">
         <v>335</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>336</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
@@ -7329,13 +7326,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H9" s="65">
         <v>6</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -7348,23 +7345,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
     <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>87</v>
@@ -7390,16 +7387,16 @@
         <v>178</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" s="70" t="s">
         <v>485</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>486</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7426,7 +7423,7 @@
         <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>141</v>
@@ -7446,7 +7443,7 @@
         <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
         <v>142</v>
@@ -7457,7 +7454,7 @@
         <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C6" t="s">
         <v>181</v>
@@ -7466,7 +7463,7 @@
         <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
         <v>144</v>
@@ -7483,7 +7480,7 @@
         <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
         <v>145</v>
@@ -7528,10 +7525,10 @@
         <v>183</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -7545,10 +7542,10 @@
         <v>175</v>
       </c>
       <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
         <v>200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>201</v>
       </c>
       <c r="E11" t="s">
         <v>157</v>
@@ -7562,16 +7559,16 @@
         <v>165</v>
       </c>
       <c r="B12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" t="s">
         <v>198</v>
       </c>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
         <v>149</v>
@@ -7579,16 +7576,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B13" t="s">
         <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
         <v>150</v>
@@ -7599,7 +7596,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B14" t="s">
         <v>163</v>
@@ -7624,36 +7621,36 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>151</v>
@@ -7661,19 +7658,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F18" t="s">
         <v>149</v>
@@ -7681,19 +7678,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>152</v>
@@ -7701,19 +7698,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>153</v>
@@ -7741,34 +7738,34 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" t="s">
         <v>492</v>
       </c>
-      <c r="C23" t="s">
-        <v>493</v>
-      </c>
       <c r="D23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E23" t="s">
         <v>145</v>
@@ -7779,19 +7776,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B24" t="s">
+        <v>493</v>
+      </c>
+      <c r="C24" t="s">
         <v>494</v>
       </c>
-      <c r="C24" t="s">
-        <v>495</v>
-      </c>
       <c r="D24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F24" t="s">
         <v>155</v>
@@ -7827,36 +7824,36 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D27" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" t="s">
         <v>496</v>
       </c>
-      <c r="C28" t="s">
-        <v>497</v>
-      </c>
       <c r="D28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F28" t="s">
         <v>147</v>
@@ -7864,19 +7861,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>148</v>
@@ -7884,10 +7881,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C30" t="s">
         <v>157</v>
@@ -7924,33 +7921,33 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C32" t="s">
+        <v>597</v>
+      </c>
+      <c r="D32" t="s">
         <v>598</v>
       </c>
-      <c r="D32" t="s">
-        <v>599</v>
-      </c>
       <c r="E32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B33" t="s">
         <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
         <v>150</v>
@@ -7961,7 +7958,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>172</v>
@@ -7970,7 +7967,7 @@
         <v>183</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>158</v>
@@ -8009,33 +8006,33 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" t="s">
         <v>196</v>
       </c>
-      <c r="C38" t="s">
-        <v>197</v>
-      </c>
       <c r="D38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -8046,16 +8043,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E39" t="s">
         <v>161</v>
@@ -8066,16 +8063,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E40" t="s">
         <v>160</v>
@@ -8086,16 +8083,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>162</v>
@@ -8129,10 +8126,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8140,7 +8137,7 @@
         <v>44</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8148,7 +8145,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -8192,84 +8189,84 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>254</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>255</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="K1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="M1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="O1" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>211</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -8571,7 +8568,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="26">
         <f t="shared" si="0"/>
@@ -8670,7 +8667,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="26">
         <f t="shared" si="0"/>
@@ -8759,12 +8756,12 @@
         <v>0.73489452187500004</v>
       </c>
       <c r="AC6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
@@ -8853,7 +8850,7 @@
         <v>11851851851851.852</v>
       </c>
       <c r="AC7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -8862,7 +8859,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="50">
         <v>9.5999999999999992E-3</v>
@@ -8888,7 +8885,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="13"/>
       <c r="AC8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -8933,10 +8930,10 @@
         <v>2174380000000</v>
       </c>
       <c r="AB9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -8975,10 +8972,10 @@
         <v>21372572000000</v>
       </c>
       <c r="AB10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -8986,7 +8983,7 @@
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" s="55">
         <v>2.1299999999999999E-2</v>
@@ -8999,50 +8996,50 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>219</v>
-      </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="X12" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y12" t="s">
         <v>220</v>
-      </c>
-      <c r="X12" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>221</v>
       </c>
       <c r="AA12" s="33">
         <v>260000</v>
@@ -9050,7 +9047,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="40">
         <f>2*(O13-U13)</f>
@@ -9103,7 +9100,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" ref="B14:B19" si="10">2*(O14-U14)</f>
@@ -9156,7 +9153,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="10"/>
@@ -9209,7 +9206,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="10"/>
@@ -9262,7 +9259,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="40">
         <f t="shared" si="10"/>
@@ -9315,7 +9312,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="40">
         <f t="shared" si="10"/>
@@ -9368,7 +9365,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="40">
         <f t="shared" si="10"/>
@@ -9421,7 +9418,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F20" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9439,7 +9436,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F21" s="50">
         <v>8.5000000000000006E-3</v>
@@ -9458,7 +9455,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F22" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9471,7 +9468,7 @@
         <v>526000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T22" s="32"/>
       <c r="V22" s="32"/>
@@ -9479,7 +9476,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -9527,7 +9524,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -9575,7 +9572,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -9623,7 +9620,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -9671,7 +9668,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -9719,7 +9716,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -9767,7 +9764,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -9815,7 +9812,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -9863,7 +9860,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -9911,7 +9908,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -9959,7 +9956,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -10007,7 +10004,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -10055,7 +10052,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -10103,7 +10100,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -10151,7 +10148,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -10199,7 +10196,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -10247,7 +10244,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -10295,7 +10292,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -1135,30 +1135,12 @@
     <t>Q258 G basic income</t>
   </si>
   <si>
-    <t>€25 / €2 pro Tag</t>
-  </si>
-  <si>
-    <t>25€ / 2$ al dia</t>
-  </si>
-  <si>
-    <t>25€ / 2$ par jour</t>
-  </si>
-  <si>
-    <t>£22 / $2/day</t>
-  </si>
-  <si>
     <t>$30 / $2/day</t>
   </si>
   <si>
-    <t>Q258 R transfer</t>
-  </si>
-  <si>
     <t>$86 per month / $1000 per year</t>
   </si>
   <si>
-    <t>12€/month</t>
-  </si>
-  <si>
     <t>€5/month</t>
   </si>
   <si>
@@ -1166,9 +1148,6 @@
   </si>
   <si>
     <t>£19/month</t>
-  </si>
-  <si>
-    <t>€24/month</t>
   </si>
   <si>
     <t>£ per $</t>
@@ -1855,6 +1834,27 @@
   </si>
   <si>
     <t>Esquema Climático Global</t>
+  </si>
+  <si>
+    <t>12 =&gt; 15€/month</t>
+  </si>
+  <si>
+    <t>€24 =&gt; 25/month</t>
+  </si>
+  <si>
+    <t>28€ / 2$ par jour</t>
+  </si>
+  <si>
+    <t>€28 / €2 pro Tag</t>
+  </si>
+  <si>
+    <t>28€ / 2$ al dia</t>
+  </si>
+  <si>
+    <t>£25 / $2/day</t>
+  </si>
+  <si>
+    <t>Q258 R loss</t>
   </si>
 </sst>
 </file>
@@ -2426,9 +2426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,7 +2505,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="N2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B6" s="20">
         <f>B8*(B12*(B14/B13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B13/12-30</f>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B17" s="11">
         <f>B20/B18</f>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B18" s="11">
         <v>8.9499999999999996E-2</v>
@@ -2965,7 +2965,7 @@
         <v>0.1903</v>
       </c>
       <c r="M18" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>1.2406821177761389E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B22" s="41">
         <v>175</v>
@@ -3073,7 +3073,7 @@
         <v>479</v>
       </c>
       <c r="M22" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3404,35 +3404,35 @@
       </c>
       <c r="B34" s="2">
         <f>Constants!$B$6*B9*12*B14/10^9</f>
-        <v>10.55326178704367</v>
+        <v>10.333402166480258</v>
       </c>
       <c r="C34" s="2">
         <f>Constants!$B$6*C9*12*C14/10^9</f>
-        <v>25.678522080641933</v>
+        <v>25.143552870628557</v>
       </c>
       <c r="D34" s="2">
         <f>Constants!$B$6*D9*12*D14/10^9</f>
-        <v>4.192771211239962</v>
+        <v>4.1054218110057965</v>
       </c>
       <c r="E34" s="2">
         <f>Constants!$B$6*E9*12*E14/10^9</f>
-        <v>4.051570668670931</v>
+        <v>3.9671629464069529</v>
       </c>
       <c r="F34" s="2">
         <f>Constants!$B$6*F9*12*F14/10^9</f>
-        <v>19.710113320666263</v>
+        <v>19.299485959819044</v>
       </c>
       <c r="G34" s="2">
         <f>Constants!$B$6*G9*12*G14/10^9</f>
-        <v>328.99490688867553</v>
+        <v>322.14084632849483</v>
       </c>
       <c r="H34" s="2">
         <f>Constants!$B$6*H9*12*H14/10^9</f>
-        <v>64.186239068262751</v>
+        <v>62.849025754340616</v>
       </c>
       <c r="I34" s="2">
         <f>Constants!$B$6*I9*12*I14/10^9</f>
-        <v>64.186239068262751</v>
+        <v>62.849025754340616</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3908,9 +3908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
         <v>355</v>
@@ -4016,76 +4016,76 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E6" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F6" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E7" t="s">
         <v>473</v>
       </c>
-      <c r="B7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C7" t="s">
-        <v>482</v>
-      </c>
-      <c r="D7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E7" t="s">
-        <v>480</v>
-      </c>
       <c r="F7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" t="s">
         <v>476</v>
       </c>
-      <c r="C8" t="s">
-        <v>483</v>
-      </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E8" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F9" t="s">
         <v>358</v>
@@ -4096,16 +4096,16 @@
         <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D10" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E10" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F10" t="s">
         <v>361</v>
@@ -4127,22 +4127,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>606</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>374</v>
+        <v>600</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>378</v>
+        <v>601</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,47 +4150,47 @@
         <v>366</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>369</v>
+        <v>602</v>
       </c>
       <c r="C13" s="68" t="s">
+        <v>603</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>604</v>
+      </c>
+      <c r="E13" t="s">
+        <v>605</v>
+      </c>
+      <c r="F13" t="s">
         <v>367</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>368</v>
-      </c>
-      <c r="E13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F13" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F14" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
@@ -4199,129 +4199,129 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
       <c r="F16" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F18" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
       <c r="F19" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D20" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E20" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F20" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B21" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C21" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F21" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
       <c r="F22" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B23" s="13">
         <v>0.55000000000000004</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B24" s="72" t="s">
         <v>360</v>
@@ -4350,224 +4350,224 @@
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
       <c r="F24" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C25" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D25" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F25" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
       <c r="F26" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B27" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D27" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E27" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F27" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B28" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C28" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E28" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F28" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C29" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D29" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E29" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F29" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F31" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="71" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="71" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="71" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="71" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="71" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="71" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="71" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="71" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="71" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="71" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="71" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="71" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -4664,13 +4664,13 @@
         <v>276</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>340</v>
@@ -4706,13 +4706,13 @@
         <v>3</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AC1" s="14" t="s">
         <v>319</v>
@@ -5201,7 +5201,7 @@
         <v>330</v>
       </c>
       <c r="AP5" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -5316,13 +5316,13 @@
         <v>174.71415138692993</v>
       </c>
       <c r="AK6" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AL6" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AM6" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -6328,7 +6328,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6393,15 +6393,15 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B7">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,7 +6779,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6817,19 +6817,19 @@
         <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="O10" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P10" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="Q10" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="R10" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -7120,7 +7120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7345,7 +7345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -7387,13 +7387,13 @@
         <v>178</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>192</v>
@@ -7454,7 +7454,7 @@
         <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C6" t="s">
         <v>181</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B13" t="s">
         <v>176</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B14" t="s">
         <v>163</v>
@@ -7621,30 +7621,30 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B16" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C16" t="s">
+        <v>587</v>
+      </c>
+      <c r="D16" t="s">
         <v>594</v>
       </c>
-      <c r="D16" t="s">
-        <v>601</v>
-      </c>
       <c r="E16" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>201</v>
@@ -7658,19 +7658,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B18" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C18" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D18" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E18" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F18" t="s">
         <v>149</v>
@@ -7678,19 +7678,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B19" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D19" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E19" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>152</v>
@@ -7698,10 +7698,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>182</v>
@@ -7710,7 +7710,7 @@
         <v>191</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>153</v>
@@ -7738,34 +7738,34 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>576</v>
+      </c>
+      <c r="B22" t="s">
         <v>583</v>
       </c>
-      <c r="B22" t="s">
-        <v>590</v>
-      </c>
       <c r="C22" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D22" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E22" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B23" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C23" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E23" t="s">
         <v>145</v>
@@ -7776,19 +7776,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B24" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C24" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D24" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E24" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F24" t="s">
         <v>155</v>
@@ -7824,36 +7824,36 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B27" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C27" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D27" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E27" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B28" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C28" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D28" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E28" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F28" t="s">
         <v>147</v>
@@ -7861,19 +7861,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>175</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>148</v>
@@ -7881,10 +7881,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B30" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C30" t="s">
         <v>157</v>
@@ -7921,24 +7921,24 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B32" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C32" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D32" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E32" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B33" t="s">
         <v>176</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>172</v>
@@ -7967,7 +7967,7 @@
         <v>183</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>158</v>
@@ -8006,24 +8006,24 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B37" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C37" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D37" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E37" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B38" t="s">
         <v>195</v>
@@ -8032,7 +8032,7 @@
         <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -8043,16 +8043,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B39" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C39" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="D39" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E39" t="s">
         <v>161</v>
@@ -8063,16 +8063,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B40" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C40" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D40" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E40" t="s">
         <v>160</v>
@@ -8083,16 +8083,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>553</v>
-      </c>
       <c r="D41" s="18" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>162</v>
@@ -8126,10 +8126,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
+        <v>540</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>547</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8137,7 +8137,7 @@
         <v>44</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8145,7 +8145,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="AH2" s="2">
         <f>Constants!$B$6*L2*12*Q2/10^9</f>
-        <v>10.55326178704367</v>
+        <v>10.333402166480258</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="AH3" s="2">
         <f>Constants!$B$6*L3*12*Q3/10^9</f>
-        <v>25.678522080641933</v>
+        <v>25.143552870628557</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="AH4" s="2">
         <f>Constants!$B$6*L4*12*Q4/10^9</f>
-        <v>4.192771211239962</v>
+        <v>4.1054218110057965</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="AH5" s="2">
         <f>Constants!$B$6*L5*12*Q5/10^9</f>
-        <v>4.051570668670931</v>
+        <v>3.9671629464069529</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="AH6" s="2">
         <f>Constants!$B$6*L6*12*Q6/10^9</f>
-        <v>19.710113320666263</v>
+        <v>19.299485959819044</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="AH7" s="2">
         <f>Constants!$B$6*L7*12*Q7/10^9</f>
-        <v>328.99490688867553</v>
+        <v>322.14084632849483</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="AH8" s="2">
         <f>Constants!$B$6*L8*12*Q8/10^9</f>
-        <v>64.186239068262751</v>
+        <v>62.849025754340616</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11211,7 +11211,7 @@
       </c>
       <c r="AH9" s="2">
         <f>Constants!$B$6*L9*12*Q9/10^9</f>
-        <v>64.186239068262751</v>
+        <v>62.849025754340616</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="609">
   <si>
     <t>France</t>
   </si>
@@ -553,9 +553,6 @@
     <t>Rétablissement de l'impôt sur la fortune (ISF)</t>
   </si>
   <si>
-    <t>Instaurer des quotas d'immigration</t>
-  </si>
-  <si>
     <t>15 heures d'activité par semaine obligatoires pour bénéficier du RSA</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>Klimaneutral Industrie fördern</t>
   </si>
   <si>
-    <t>Schuldenquote auf unter 60% reduzieren</t>
-  </si>
-  <si>
     <t>Investitionen für Gigabit-Netzwerke bereitstellen.</t>
   </si>
   <si>
@@ -1261,15 +1255,6 @@
     <t>0.4% / 2% of GDP</t>
   </si>
   <si>
-    <t>1% / 0.5% of GDP</t>
-  </si>
-  <si>
-    <t>1.5% / 0.7% of GDP</t>
-  </si>
-  <si>
-    <t>0.7% / 0.3% of GDP</t>
-  </si>
-  <si>
     <t>1.7% / 0.7% of GDP</t>
   </si>
   <si>
@@ -1337,9 +1322,6 @@
   </si>
   <si>
     <t>Absent TODO:remove</t>
-  </si>
-  <si>
-    <t>€44 billion / 1.3%% of GDP</t>
   </si>
   <si>
     <t>€16 billion / 0.7% of GDP</t>
@@ -1638,9 +1620,6 @@
     <t>Plano de aislamiento</t>
   </si>
   <si>
-    <t>Dämmplan</t>
-  </si>
-  <si>
     <t>Real Living Wage of £11 per hour for all workers aged 16 and over</t>
   </si>
   <si>
@@ -1704,9 +1683,6 @@
     <t>Costly measures appear only if there is a revenue-generating one</t>
   </si>
   <si>
-    <t>Erhöhung des Regelsatzes des  Bürgergelds auf bis zu 600€ pro Monat</t>
-  </si>
-  <si>
     <t>tax1</t>
   </si>
   <si>
@@ -1855,6 +1831,36 @@
   </si>
   <si>
     <t>Q258 R loss</t>
+  </si>
+  <si>
+    <t>Prohibir la venta de coches nuevos con motor de combustión para 2030</t>
+  </si>
+  <si>
+    <t>Investitionen für Gigabit-Netzwerke bereitstellen</t>
+  </si>
+  <si>
+    <t>Verbot des Verkaufs von neuen Autos mit Verbrennungsmotor bis 2030</t>
+  </si>
+  <si>
+    <t>Instauration de quotas d'immigration</t>
+  </si>
+  <si>
+    <t>0.8% / 0.4% of GDP</t>
+  </si>
+  <si>
+    <t>1.3% / 0.6% of GDP</t>
+  </si>
+  <si>
+    <t>0.5% / 0.2% of GDP</t>
+  </si>
+  <si>
+    <t>Plan zur Wärmedämmung</t>
+  </si>
+  <si>
+    <t>€44 billion / 1.3% of GDP</t>
+  </si>
+  <si>
+    <t>Erhöhung des Regelsatzes des Bürgergelds auf bis zu 600€ pro Monat</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1873,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1953,6 +1959,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2001,7 +2015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2143,6 +2157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2426,9 +2441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,7 +2520,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="N2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2582,7 +2597,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B6" s="20">
         <f>B8*(B12*(B14/B13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B13/12-30</f>
@@ -2920,7 +2935,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B17" s="11">
         <f>B20/B18</f>
@@ -2946,7 +2961,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B18" s="11">
         <v>8.9499999999999996E-2</v>
@@ -2965,7 +2980,7 @@
         <v>0.1903</v>
       </c>
       <c r="M18" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3023,7 +3038,7 @@
         <v>1.2406821177761389E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3054,7 +3069,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B22" s="41">
         <v>175</v>
@@ -3073,7 +3088,7 @@
         <v>479</v>
       </c>
       <c r="M22" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3908,9 +3923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3926,7 +3941,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -3946,251 +3961,251 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F3" t="s">
         <v>348</v>
-      </c>
-      <c r="B3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" t="s">
         <v>355</v>
-      </c>
-      <c r="C5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F7" t="s">
         <v>468</v>
-      </c>
-      <c r="C7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E8" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" t="s">
+        <v>446</v>
+      </c>
+      <c r="F10" t="s">
         <v>359</v>
-      </c>
-      <c r="B10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C10" t="s">
-        <v>450</v>
-      </c>
-      <c r="D10" t="s">
-        <v>451</v>
-      </c>
-      <c r="E10" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
       <c r="F11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D12" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="E12" s="66" t="s">
-        <v>371</v>
-      </c>
       <c r="F12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E13" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" t="s">
         <v>373</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>374</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>375</v>
-      </c>
-      <c r="E14" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
@@ -4199,129 +4214,129 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
       <c r="F16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" s="69" t="s">
         <v>383</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>459</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>457</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>458</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>384</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" t="s">
         <v>386</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>387</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>388</v>
-      </c>
-      <c r="E18" t="s">
-        <v>389</v>
-      </c>
-      <c r="F18" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E20" t="s">
         <v>393</v>
       </c>
-      <c r="D20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E20" t="s">
-        <v>395</v>
-      </c>
       <c r="F20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C21" t="s">
-        <v>435</v>
+        <v>607</v>
       </c>
       <c r="D21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E21" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C22" s="72"/>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
       <c r="F22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B23" s="13">
         <v>0.55000000000000004</v>
@@ -4341,233 +4356,233 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
       <c r="F24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="C25" t="s">
+        <v>604</v>
+      </c>
+      <c r="D25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E25" t="s">
         <v>407</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C25" t="s">
-        <v>410</v>
-      </c>
-      <c r="D25" t="s">
-        <v>411</v>
-      </c>
-      <c r="E25" t="s">
-        <v>412</v>
-      </c>
       <c r="F25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>402</v>
+      </c>
+      <c r="B26" s="72" t="s">
         <v>404</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>406</v>
       </c>
       <c r="C26" s="72"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
       <c r="F26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B27" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C27" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D27" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E27" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F27" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B28" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C28" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D28" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E28" t="s">
+        <v>412</v>
+      </c>
+      <c r="F28" t="s">
         <v>417</v>
-      </c>
-      <c r="F28" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B29" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C29" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E29" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F29" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F31" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="71" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="71" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="71" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="71" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="71" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="71" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="71" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="71" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="71" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="71" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="71" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="71" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -4637,61 +4652,61 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>87</v>
@@ -4706,52 +4721,52 @@
         <v>3</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AC1" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE1" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG1" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="AE1" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>322</v>
-      </c>
       <c r="AH1" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM1" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AO1" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
@@ -4853,16 +4868,16 @@
         <v>222</v>
       </c>
       <c r="AK2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AL2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AN2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -4964,19 +4979,19 @@
         <v>202</v>
       </c>
       <c r="AK3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AM3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AO3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -5075,16 +5090,16 @@
         <v>303</v>
       </c>
       <c r="AK4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AN4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AO4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -5186,22 +5201,22 @@
         <v>128</v>
       </c>
       <c r="AK5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN5" t="s">
         <v>305</v>
       </c>
-      <c r="AL5" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>307</v>
-      </c>
       <c r="AO5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AP5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -5316,13 +5331,13 @@
         <v>174.71415138692993</v>
       </c>
       <c r="AK6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AL6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AM6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -5437,7 +5452,7 @@
         <v>206.66901739539256</v>
       </c>
       <c r="AN7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -5532,33 +5547,33 @@
         <v>383</v>
       </c>
       <c r="AN8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AB10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AC10" s="19" t="s">
         <v>87</v>
       </c>
       <c r="AD10" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE10" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF10" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="AE10" s="58" t="s">
+      <c r="AG10" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="AF10" s="58" t="s">
+      <c r="AH10" s="58" t="s">
         <v>268</v>
-      </c>
-      <c r="AG10" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH10" s="58" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5633,19 +5648,19 @@
         <v>88</v>
       </c>
       <c r="AD11" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE11" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF11" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="AE11" s="59" t="s">
+      <c r="AG11" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="AF11" s="59" t="s">
+      <c r="AH11" s="60" t="s">
         <v>281</v>
-      </c>
-      <c r="AG11" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH11" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5720,19 +5735,19 @@
         <v>89</v>
       </c>
       <c r="AD12" s="59" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AE12" s="59" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AF12" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG12" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH12" s="60" t="s">
         <v>287</v>
-      </c>
-      <c r="AG12" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH12" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,19 +5822,19 @@
         <v>3</v>
       </c>
       <c r="AD13" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE13" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF13" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="AE13" s="59" t="s">
+      <c r="AG13" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="AF13" s="59" t="s">
+      <c r="AH13" s="60" t="s">
         <v>292</v>
-      </c>
-      <c r="AG13" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="AH13" s="60" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5894,21 +5909,21 @@
         <v>5</v>
       </c>
       <c r="AD14" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF14" t="s">
         <v>325</v>
       </c>
-      <c r="AE14" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>327</v>
-      </c>
       <c r="AG14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E15">
         <f>MIN(E11:E14)</f>
@@ -5996,7 +6011,7 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E16">
         <f>MAX(E11:E14)</f>
@@ -6084,7 +6099,7 @@
     </row>
     <row r="17" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E17" s="63">
         <f>IF(E16&gt;=1/E15,E16-1,1-1/E15)</f>
@@ -6172,7 +6187,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -6398,7 +6413,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B7">
         <v>0.82</v>
@@ -6524,7 +6539,7 @@
         <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -6574,7 +6589,7 @@
         <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -6624,7 +6639,7 @@
         <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -6674,7 +6689,7 @@
         <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -6721,7 +6736,7 @@
         <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -6779,7 +6794,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6817,19 +6832,19 @@
         <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="O10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="Q10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="R10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -7175,10 +7190,10 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -7210,7 +7225,7 @@
         <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H3" t="s">
         <v>138</v>
@@ -7259,7 +7274,7 @@
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E5" t="s">
         <v>127</v>
@@ -7294,7 +7309,7 @@
         <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -7303,15 +7318,15 @@
         <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
@@ -7326,13 +7341,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H9" s="65">
         <v>6</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -7345,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7361,7 +7376,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>87</v>
@@ -7381,22 +7396,22 @@
     </row>
     <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7414,16 +7429,16 @@
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
         <v>171</v>
       </c>
       <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" t="s">
         <v>185</v>
-      </c>
-      <c r="E4" t="s">
-        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>141</v>
@@ -7434,16 +7449,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" t="s">
         <v>186</v>
-      </c>
-      <c r="E5" t="s">
-        <v>188</v>
       </c>
       <c r="F5" t="s">
         <v>142</v>
@@ -7454,16 +7469,16 @@
         <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
+        <v>473</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>477</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
         <v>144</v>
@@ -7474,13 +7489,13 @@
         <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>602</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
         <v>145</v>
@@ -7522,13 +7537,13 @@
         <v>172</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -7539,13 +7554,13 @@
         <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
         <v>157</v>
@@ -7559,16 +7574,16 @@
         <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
         <v>149</v>
@@ -7576,16 +7591,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
         <v>150</v>
@@ -7596,7 +7611,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B14" t="s">
         <v>163</v>
@@ -7621,36 +7636,39 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B16" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C16" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D16" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E16" t="s">
-        <v>577</v>
+        <v>569</v>
+      </c>
+      <c r="F16" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>151</v>
@@ -7658,19 +7676,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B18" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D18" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E18" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F18" t="s">
         <v>149</v>
@@ -7678,19 +7696,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B19" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D19" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>152</v>
@@ -7698,19 +7716,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>182</v>
+        <v>600</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>153</v>
@@ -7738,34 +7756,36 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B22" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C22" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D22" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="E22" t="s">
-        <v>578</v>
-      </c>
-      <c r="F22" s="18"/>
+        <v>570</v>
+      </c>
+      <c r="F22" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B23" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C23" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D23" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E23" t="s">
         <v>145</v>
@@ -7776,19 +7796,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B24" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C24" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D24" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E24" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F24" t="s">
         <v>155</v>
@@ -7824,56 +7844,59 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C27" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" t="s">
         <v>584</v>
       </c>
-      <c r="C27" t="s">
-        <v>589</v>
-      </c>
-      <c r="D27" t="s">
-        <v>592</v>
-      </c>
       <c r="E27" t="s">
-        <v>579</v>
+        <v>571</v>
+      </c>
+      <c r="F27" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B28" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C28" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D28" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E28" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>534</v>
+        <v>174</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>606</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>148</v>
@@ -7881,16 +7904,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B30" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>601</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>599</v>
       </c>
       <c r="E30" t="s">
         <v>157</v>
@@ -7921,33 +7944,36 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B32" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C32" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D32" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E32" t="s">
-        <v>580</v>
+        <v>572</v>
+      </c>
+      <c r="F32" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
         <v>150</v>
@@ -7958,16 +7984,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>158</v>
@@ -8006,33 +8032,36 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>565</v>
+      </c>
+      <c r="B37" t="s">
+        <v>578</v>
+      </c>
+      <c r="C37" t="s">
+        <v>588</v>
+      </c>
+      <c r="D37" t="s">
+        <v>587</v>
+      </c>
+      <c r="E37" t="s">
         <v>573</v>
       </c>
-      <c r="B37" t="s">
-        <v>586</v>
-      </c>
-      <c r="C37" t="s">
-        <v>596</v>
-      </c>
-      <c r="D37" t="s">
-        <v>595</v>
-      </c>
-      <c r="E37" t="s">
-        <v>581</v>
+      <c r="F37" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -8043,16 +8072,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B39" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C39" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D39" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E39" t="s">
         <v>161</v>
@@ -8063,16 +8092,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B40" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C40" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D40" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E40" t="s">
         <v>160</v>
@@ -8083,16 +8112,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="D41" s="18" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>162</v>
@@ -8126,10 +8155,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
+        <v>533</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>540</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8137,7 +8166,7 @@
         <v>44</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8145,7 +8174,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -8189,84 +8218,84 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>252</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>254</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="46" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="L1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="P1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="AB1" s="25" t="s">
         <v>209</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -8568,7 +8597,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" s="26">
         <f t="shared" si="0"/>
@@ -8667,7 +8696,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="26">
         <f t="shared" si="0"/>
@@ -8756,12 +8785,12 @@
         <v>0.73489452187500004</v>
       </c>
       <c r="AC6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
@@ -8850,7 +8879,7 @@
         <v>11851851851851.852</v>
       </c>
       <c r="AC7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -8859,7 +8888,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F8" s="50">
         <v>9.5999999999999992E-3</v>
@@ -8885,7 +8914,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="13"/>
       <c r="AC8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -8930,10 +8959,10 @@
         <v>2174380000000</v>
       </c>
       <c r="AB9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC9" t="s">
         <v>255</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -8972,10 +9001,10 @@
         <v>21372572000000</v>
       </c>
       <c r="AB10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC10" t="s">
         <v>256</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -8983,7 +9012,7 @@
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F11" s="55">
         <v>2.1299999999999999E-2</v>
@@ -8996,50 +9025,50 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y12" t="s">
         <v>218</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>220</v>
       </c>
       <c r="AA12" s="33">
         <v>260000</v>
@@ -9047,7 +9076,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B13" s="40">
         <f>2*(O13-U13)</f>
@@ -9100,7 +9129,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" ref="B14:B19" si="10">2*(O14-U14)</f>
@@ -9153,7 +9182,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="10"/>
@@ -9206,7 +9235,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="10"/>
@@ -9259,7 +9288,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B17" s="40">
         <f t="shared" si="10"/>
@@ -9312,7 +9341,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18" s="40">
         <f t="shared" si="10"/>
@@ -9365,7 +9394,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" s="40">
         <f t="shared" si="10"/>
@@ -9418,7 +9447,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F20" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9436,7 +9465,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F21" s="50">
         <v>8.5000000000000006E-3</v>
@@ -9455,7 +9484,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F22" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9468,7 +9497,7 @@
         <v>526000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T22" s="32"/>
       <c r="V22" s="32"/>
@@ -9476,7 +9505,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -9524,7 +9553,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -9572,7 +9601,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -9620,7 +9649,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -9668,7 +9697,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -9716,7 +9745,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -9764,7 +9793,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -9812,7 +9841,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -9860,7 +9889,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -9908,7 +9937,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -9956,7 +9985,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -10004,7 +10033,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -10052,7 +10081,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -10100,7 +10129,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -10148,7 +10177,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -10196,7 +10225,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -10244,7 +10273,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -10292,7 +10321,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="625">
   <si>
     <t>France</t>
   </si>
@@ -1861,6 +1861,54 @@
   </si>
   <si>
     <t>Erhöhung des Regelsatzes des Bürgergelds auf bis zu 600€ pro Monat</t>
+  </si>
+  <si>
+    <t>Pilot link</t>
+  </si>
+  <si>
+    <t>Final link</t>
+  </si>
+  <si>
+    <t>Quotas board</t>
+  </si>
+  <si>
+    <t>US2</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_6YwWvAlKFeH0AXI?Q_Language=FR</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_6YwWvAlKFeH0AXI?Q_Language=DE</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_6YwWvAlKFeH0AXI?Q_Language=ES-ES</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_6YwWvAlKFeH0AXI?Q_Language=EN-GB</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_6Lr0J9IcSfZXiT4</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_0qDQXkpqdnaXYl8</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_cZmqbTXQxczwOLs?Q_Language=FR</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_cZmqbTXQxczwOLs?Q_Language=DE</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_cZmqbTXQxczwOLs?Q_Language=ES-ES</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_cZmqbTXQxczwOLs?Q_Language=EN-GB</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_b1VnxweOs0HQEey</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_3UhqnMLBo6Nl5ZQ</t>
   </si>
 </sst>
 </file>
@@ -2154,10 +2202,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3921,11 +3969,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31:F57"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,11 +4011,11 @@
       <c r="A2" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" t="s">
         <v>345</v>
       </c>
@@ -3999,12 +4047,12 @@
       <c r="A4" t="s">
         <v>349</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" t="s">
         <v>351</v>
       </c>
@@ -4130,12 +4178,12 @@
       <c r="A11" t="s">
         <v>360</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
       <c r="F11" t="s">
         <v>362</v>
       </c>
@@ -4204,29 +4252,29 @@
       <c r="A15" t="s">
         <v>377</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="73" t="s">
         <v>378</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>379</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
       <c r="F16" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>381</v>
       </c>
@@ -4246,7 +4294,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>409</v>
       </c>
@@ -4266,21 +4314,21 @@
         <v>388</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>449</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
       <c r="F19" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>421</v>
       </c>
@@ -4300,7 +4348,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>394</v>
       </c>
@@ -4320,21 +4368,21 @@
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>396</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
       <c r="F22" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>399</v>
       </c>
@@ -4354,21 +4402,21 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>400</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="73" t="s">
         <v>358</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
       <c r="F24" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>405</v>
       </c>
@@ -4388,21 +4436,21 @@
         <v>406</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>402</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="73" t="s">
         <v>404</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>420</v>
       </c>
@@ -4422,7 +4470,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>450</v>
       </c>
@@ -4442,7 +4490,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>425</v>
       </c>
@@ -4461,127 +4509,181 @@
       <c r="F29" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>609</v>
+      </c>
+      <c r="B30" t="s">
+        <v>619</v>
+      </c>
+      <c r="C30" t="s">
+        <v>620</v>
+      </c>
+      <c r="D30" t="s">
+        <v>621</v>
+      </c>
+      <c r="E30" t="s">
+        <v>622</v>
+      </c>
+      <c r="F30" t="s">
+        <v>624</v>
+      </c>
+      <c r="H30" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>610</v>
+      </c>
+      <c r="B31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C31" t="s">
+        <v>614</v>
+      </c>
+      <c r="D31" t="s">
+        <v>615</v>
+      </c>
+      <c r="E31" t="s">
+        <v>616</v>
+      </c>
+      <c r="F31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H31" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>488</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F33" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="71" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="71" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="71" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="71" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="71" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F48" s="71" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="71" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="71" t="s">
-        <v>506</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="71" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="71" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="71" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="71" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="71" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="71" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="71" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="71" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7360,8 +7462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D16:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7882,14 +7984,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>557</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="72" t="s">
         <v>606</v>
       </c>
       <c r="D29" s="18" t="s">

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -3971,9 +3971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7462,8 +7462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D16:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="634">
   <si>
     <t>France</t>
   </si>
@@ -448,9 +448,6 @@
     <t>Master-Abschluss oder höher</t>
   </si>
   <si>
-    <t>Hochschulabschluss (z.B. Bachelor, Fachschulabschluss)</t>
-  </si>
-  <si>
     <t>Erstausbildung</t>
   </si>
   <si>
@@ -571,9 +568,6 @@
     <t>Conjoint analysis d</t>
   </si>
   <si>
-    <t>Klimaneutral Industrie fördern</t>
-  </si>
-  <si>
     <t>Investitionen für Gigabit-Netzwerke bereitstellen.</t>
   </si>
   <si>
@@ -616,18 +610,12 @@
     <t>Plan mondial pour le climat</t>
   </si>
   <si>
-    <t>Globaler Klimaschutzplan</t>
-  </si>
-  <si>
     <t>SMIC à 1600€ net</t>
   </si>
   <si>
     <t>Mehr finanzielle Unterstützung für berufstätige Eltern. / einkommensschwache Haushalte entlasten/stärker unterstützen</t>
   </si>
   <si>
-    <t>Alle geeigneten Dächer eine Solaranlage bekommen / Einen Fonds für gerechte Klimainvestitionen einsetzen</t>
-  </si>
-  <si>
     <t>100% de electricidad producida con energías renovables en 2040 / 90%?</t>
   </si>
   <si>
@@ -1040,9 +1028,6 @@
   </si>
   <si>
     <t>7-8</t>
-  </si>
-  <si>
-    <t>Zweitausbildung / Hochschulreife</t>
   </si>
   <si>
     <t>GSCE [not professional but ~16 years]</t>
@@ -1614,9 +1599,6 @@
     <t>Jornada laboral de 34 horas semanales</t>
   </si>
   <si>
-    <t>Ban of most polluting vehicles in city centers</t>
-  </si>
-  <si>
     <t>Plano de aislamiento</t>
   </si>
   <si>
@@ -1773,9 +1755,6 @@
     <t>Politique étrangère</t>
   </si>
   <si>
-    <t>Wirtschaft</t>
-  </si>
-  <si>
     <t>Gesellschaft</t>
   </si>
   <si>
@@ -1909,6 +1888,54 @@
   </si>
   <si>
     <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_3UhqnMLBo6Nl5ZQ</t>
+  </si>
+  <si>
+    <t>Test link</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_08Uw76JwzKfiUJg?Q_Language=FR</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_08Uw76JwzKfiUJg?Q_Language=DE</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_08Uw76JwzKfiUJg?Q_Language=ES-ES</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_08Uw76JwzKfiUJg?Q_Language=EN-GB</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_5bYFuWL1enXMRRY</t>
+  </si>
+  <si>
+    <t>https://uvafeb.eu.qualtrics.com/jfe/form/SV_2tSGbYYQIi15sxw</t>
+  </si>
+  <si>
+    <t>Klimaneutrale Industrie fördern</t>
+  </si>
+  <si>
+    <t>Solaranlagen auf allen geeigneten Dächern / Einen Fonds für gerechte Klimainvestitionen einsetzen</t>
+  </si>
+  <si>
+    <t>Wirtschaftspolitik</t>
+  </si>
+  <si>
+    <t>Tougher sentencing for the worst offenders and 10,000 more prison places</t>
+  </si>
+  <si>
+    <t>Ban of most polluting vehicles in city centers (low-emission zones)</t>
+  </si>
+  <si>
+    <t>Bachelor oder Fachhochschulabschluss</t>
+  </si>
+  <si>
+    <t>Zweitausbildung</t>
+  </si>
+  <si>
+    <t>Globales Klimaprogramm</t>
+  </si>
+  <si>
+    <t>Nationales Umverteilungsprogramm</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1948,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2015,6 +2042,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2063,7 +2097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2203,6 +2237,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2568,7 +2603,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="N2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2645,7 +2680,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B6" s="20">
         <f>B8*(B12*(B14/B13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B13/12-30</f>
@@ -2983,7 +3018,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B17" s="11">
         <f>B20/B18</f>
@@ -3009,7 +3044,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B18" s="11">
         <v>8.9499999999999996E-2</v>
@@ -3028,7 +3063,7 @@
         <v>0.1903</v>
       </c>
       <c r="M18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3086,7 +3121,7 @@
         <v>1.2406821177761389E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3117,7 +3152,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B22" s="41">
         <v>175</v>
@@ -3136,7 +3171,7 @@
         <v>479</v>
       </c>
       <c r="M22" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3969,11 +4004,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3989,7 +4024,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -4009,382 +4044,382 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+        <v>339</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+        <v>344</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F6" t="s">
         <v>454</v>
-      </c>
-      <c r="D6" t="s">
-        <v>455</v>
-      </c>
-      <c r="E6" t="s">
-        <v>457</v>
-      </c>
-      <c r="F6" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" t="s">
         <v>462</v>
       </c>
-      <c r="C7" t="s">
-        <v>469</v>
-      </c>
-      <c r="D7" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" t="s">
-        <v>467</v>
-      </c>
       <c r="F7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" t="s">
         <v>461</v>
-      </c>
-      <c r="B8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C8" t="s">
-        <v>470</v>
-      </c>
-      <c r="D8" t="s">
-        <v>465</v>
-      </c>
-      <c r="E8" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E10" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+        <v>355</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
       <c r="F11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E13" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F14" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>378</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+        <v>372</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>379</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>429</v>
-      </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+        <v>374</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C18" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F18" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>449</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>389</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+        <v>444</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
       <c r="F19" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D20" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E20" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C21" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D21" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E21" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F21" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>397</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+        <v>391</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
       <c r="F22" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B23" s="13">
         <v>0.55000000000000004</v>
@@ -4404,287 +4439,310 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>400</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>358</v>
-      </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
+        <v>395</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
       <c r="F24" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C25" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D25" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E25" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F25" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>402</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>404</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+        <v>397</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
       <c r="F26" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B27" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C27" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E27" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F27" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E28" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" t="s">
         <v>412</v>
-      </c>
-      <c r="F28" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B29" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C29" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D29" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E29" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F29" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H29" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="B30" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C30" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D30" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E30" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F30" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H30" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B31" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C31" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D31" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="E31" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="F31" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="H31" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>603</v>
+      </c>
+      <c r="B32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C32" t="s">
+        <v>607</v>
+      </c>
+      <c r="D32" t="s">
+        <v>608</v>
+      </c>
+      <c r="E32" t="s">
+        <v>609</v>
+      </c>
+      <c r="F32" t="s">
         <v>611</v>
+      </c>
+      <c r="H32" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>488</v>
-      </c>
-      <c r="F33" t="s">
-        <v>489</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>483</v>
+      </c>
       <c r="F34" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>495</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="71" t="s">
-        <v>501</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F48" s="71" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="71" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="71" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="71" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="71" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="71" t="s">
-        <v>507</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="71" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="71" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="71" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="71" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="71" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="71" t="s">
-        <v>512</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="71" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4754,61 +4812,61 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>87</v>
@@ -4823,52 +4881,52 @@
         <v>3</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AC1" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="AD1" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="AE1" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>321</v>
-      </c>
       <c r="AG1" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AK1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AL1" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="AL1" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="AM1" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AO1" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
@@ -4970,16 +5028,16 @@
         <v>222</v>
       </c>
       <c r="AK2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AL2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AM2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AN2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -5081,19 +5139,19 @@
         <v>202</v>
       </c>
       <c r="AK3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AL3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AM3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AN3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AO3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -5192,16 +5250,16 @@
         <v>303</v>
       </c>
       <c r="AK4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AN4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AO4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -5303,22 +5361,22 @@
         <v>128</v>
       </c>
       <c r="AK5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AL5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AM5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AN5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AO5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AP5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -5433,13 +5491,13 @@
         <v>174.71415138692993</v>
       </c>
       <c r="AK6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AL6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AM6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -5554,7 +5612,7 @@
         <v>206.66901739539256</v>
       </c>
       <c r="AN7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -5649,33 +5707,33 @@
         <v>383</v>
       </c>
       <c r="AN8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AB10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AC10" s="19" t="s">
         <v>87</v>
       </c>
       <c r="AD10" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE10" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF10" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG10" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH10" s="58" t="s">
         <v>264</v>
-      </c>
-      <c r="AE10" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF10" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG10" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH10" s="58" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5750,19 +5808,19 @@
         <v>88</v>
       </c>
       <c r="AD11" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE11" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF11" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG11" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH11" s="60" t="s">
         <v>277</v>
-      </c>
-      <c r="AE11" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF11" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="AG11" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH11" s="60" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5837,19 +5895,19 @@
         <v>89</v>
       </c>
       <c r="AD12" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AE12" s="59" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF12" s="59" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AG12" s="59" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AH12" s="60" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5924,19 +5982,19 @@
         <v>3</v>
       </c>
       <c r="AD13" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE13" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF13" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG13" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH13" s="60" t="s">
         <v>288</v>
-      </c>
-      <c r="AE13" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="AF13" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG13" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH13" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6011,21 +6069,21 @@
         <v>5</v>
       </c>
       <c r="AD14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AE14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AF14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AG14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E15">
         <f>MIN(E11:E14)</f>
@@ -6113,7 +6171,7 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E16">
         <f>MAX(E11:E14)</f>
@@ -6201,7 +6259,7 @@
     </row>
     <row r="17" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E17" s="63">
         <f>IF(E16&gt;=1/E15,E16-1,1-1/E15)</f>
@@ -6289,7 +6347,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
@@ -6515,7 +6573,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B7">
         <v>0.82</v>
@@ -6641,7 +6699,7 @@
         <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -6691,7 +6749,7 @@
         <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -6741,7 +6799,7 @@
         <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -6791,7 +6849,7 @@
         <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -6838,7 +6896,7 @@
         <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -6896,7 +6954,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6934,19 +6992,19 @@
         <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q10" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="R10" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -7238,7 +7296,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7292,10 +7350,10 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -7318,7 +7376,7 @@
         <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>135</v>
@@ -7327,10 +7385,10 @@
         <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>631</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>630</v>
       </c>
       <c r="I3" t="s">
         <v>137</v>
@@ -7373,10 +7431,10 @@
         <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
         <v>127</v>
@@ -7411,7 +7469,7 @@
         <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G6" t="s">
         <v>117</v>
@@ -7420,15 +7478,15 @@
         <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
@@ -7443,13 +7501,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H9" s="65">
         <v>6</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -7463,7 +7521,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E42"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7478,7 +7536,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>87</v>
@@ -7498,22 +7556,22 @@
     </row>
     <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7528,22 +7586,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
         <v>183</v>
       </c>
-      <c r="E4" t="s">
-        <v>185</v>
-      </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7551,79 +7609,79 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>625</v>
       </c>
       <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
         <v>184</v>
       </c>
-      <c r="E5" t="s">
-        <v>186</v>
-      </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>628</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7633,102 +7691,102 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" t="s">
-        <v>197</v>
+        <v>173</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>626</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7738,102 +7796,102 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B16" t="s">
-        <v>574</v>
-      </c>
-      <c r="C16" t="s">
+        <v>568</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>627</v>
+      </c>
+      <c r="D16" t="s">
         <v>579</v>
       </c>
-      <c r="D16" t="s">
-        <v>586</v>
-      </c>
       <c r="E16" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F16" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B18" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C18" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D18" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E18" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B19" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D19" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E19" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7841,79 +7899,79 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B22" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C22" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D22" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E22" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F22" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B23" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C23" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D23" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B24" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C24" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E24" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7921,19 +7979,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7941,87 +7999,87 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B27" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C27" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D27" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E27" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F27" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C28" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D28" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E28" t="s">
-        <v>526</v>
+        <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B30" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C30" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D30" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8029,79 +8087,79 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>560</v>
+      </c>
+      <c r="B32" t="s">
+        <v>571</v>
+      </c>
+      <c r="C32" t="s">
+        <v>575</v>
+      </c>
+      <c r="D32" t="s">
+        <v>576</v>
+      </c>
+      <c r="E32" t="s">
         <v>566</v>
       </c>
-      <c r="B32" t="s">
-        <v>577</v>
-      </c>
-      <c r="C32" t="s">
-        <v>582</v>
-      </c>
-      <c r="D32" t="s">
-        <v>583</v>
-      </c>
-      <c r="E32" t="s">
-        <v>572</v>
-      </c>
       <c r="F32" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>633</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8109,19 +8167,19 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8129,107 +8187,107 @@
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B37" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C37" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D37" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E37" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F37" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>632</v>
       </c>
       <c r="D38" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B39" t="s">
+        <v>524</v>
+      </c>
+      <c r="C39" t="s">
+        <v>528</v>
+      </c>
+      <c r="D39" t="s">
         <v>530</v>
       </c>
-      <c r="C39" t="s">
-        <v>534</v>
-      </c>
-      <c r="D39" t="s">
-        <v>536</v>
-      </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B40" t="s">
+        <v>525</v>
+      </c>
+      <c r="C40" t="s">
+        <v>529</v>
+      </c>
+      <c r="D40" t="s">
         <v>531</v>
       </c>
-      <c r="C40" t="s">
-        <v>535</v>
-      </c>
-      <c r="D40" t="s">
-        <v>537</v>
-      </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>538</v>
-      </c>
       <c r="E41" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8237,19 +8295,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8257,10 +8315,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8268,7 +8326,7 @@
         <v>44</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8276,7 +8334,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -8320,84 +8378,84 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="46" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB1" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -8699,7 +8757,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B5" s="26">
         <f t="shared" si="0"/>
@@ -8798,7 +8856,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B6" s="26">
         <f t="shared" si="0"/>
@@ -8887,12 +8945,12 @@
         <v>0.73489452187500004</v>
       </c>
       <c r="AC6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
@@ -8981,7 +9039,7 @@
         <v>11851851851851.852</v>
       </c>
       <c r="AC7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -8990,7 +9048,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F8" s="50">
         <v>9.5999999999999992E-3</v>
@@ -9016,7 +9074,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="13"/>
       <c r="AC8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -9061,10 +9119,10 @@
         <v>2174380000000</v>
       </c>
       <c r="AB9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AC9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -9103,10 +9161,10 @@
         <v>21372572000000</v>
       </c>
       <c r="AB10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -9114,7 +9172,7 @@
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F11" s="55">
         <v>2.1299999999999999E-2</v>
@@ -9127,50 +9185,50 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="55" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="X12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Y12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AA12" s="33">
         <v>260000</v>
@@ -9178,7 +9236,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B13" s="40">
         <f>2*(O13-U13)</f>
@@ -9231,7 +9289,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" ref="B14:B19" si="10">2*(O14-U14)</f>
@@ -9284,7 +9342,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="10"/>
@@ -9337,7 +9395,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="10"/>
@@ -9390,7 +9448,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B17" s="40">
         <f t="shared" si="10"/>
@@ -9443,7 +9501,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B18" s="40">
         <f t="shared" si="10"/>
@@ -9496,7 +9554,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B19" s="40">
         <f t="shared" si="10"/>
@@ -9549,7 +9607,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F20" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9567,7 +9625,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F21" s="50">
         <v>8.5000000000000006E-3</v>
@@ -9586,7 +9644,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F22" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9599,7 +9657,7 @@
         <v>526000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="T22" s="32"/>
       <c r="V22" s="32"/>
@@ -9607,7 +9665,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -9655,7 +9713,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -9703,7 +9761,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -9751,7 +9809,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -9799,7 +9857,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -9847,7 +9905,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -9895,7 +9953,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -9943,7 +10001,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -9991,7 +10049,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -10039,7 +10097,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -10087,7 +10145,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -10135,7 +10193,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -10183,7 +10241,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -10231,7 +10289,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -10279,7 +10337,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -10327,7 +10385,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -10375,7 +10433,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -10423,7 +10481,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19212" windowHeight="11880" tabRatio="687" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="637">
   <si>
     <t>France</t>
   </si>
@@ -1936,6 +1936,15 @@
   </si>
   <si>
     <t>Nationales Umverteilungsprogramm</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>US1</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -2529,12 +2538,12 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="58.44140625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2572,7 +2581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
@@ -2634,7 +2643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -2662,7 +2671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2678,7 +2687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>363</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>285.30725980380089</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -2811,7 +2820,7 @@
         <v>23.777393803164124</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
@@ -2845,7 +2854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
@@ -2874,7 +2883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -2944,7 +2953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -2978,7 +2987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2987,7 +2996,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>4.5731003235390304E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>436</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>6.5196117592019917E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>434</v>
       </c>
@@ -3066,7 +3075,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
@@ -3092,7 +3101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>70</v>
       </c>
@@ -3124,7 +3133,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>437</v>
       </c>
@@ -3174,7 +3183,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -3200,7 +3209,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>72</v>
       </c>
@@ -3211,7 +3220,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3248,7 +3257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -3282,7 +3291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>10</v>
       </c>
@@ -3308,7 +3317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
@@ -3351,7 +3360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
@@ -3368,7 +3377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>7</v>
       </c>
@@ -3405,7 +3414,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
@@ -3436,7 +3445,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>56</v>
       </c>
@@ -3496,7 +3505,7 @@
         <v>264.04020802872463</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>106</v>
       </c>
@@ -3555,445 +3564,445 @@
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="14"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="14"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="14"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="14"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="14"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="14"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="14"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
     </row>
   </sheetData>
@@ -4011,18 +4020,18 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" customWidth="1"/>
+    <col min="6" max="6" width="40.5546875" customWidth="1"/>
+    <col min="7" max="7" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>334</v>
       </c>
@@ -4042,7 +4051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>339</v>
       </c>
@@ -4058,7 +4067,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>341</v>
       </c>
@@ -4078,7 +4087,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>344</v>
       </c>
@@ -4092,7 +4101,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>403</v>
       </c>
@@ -4112,7 +4121,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>451</v>
       </c>
@@ -4132,7 +4141,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>455</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>456</v>
       </c>
@@ -4169,7 +4178,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>443</v>
       </c>
@@ -4189,7 +4198,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>352</v>
       </c>
@@ -4209,7 +4218,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>355</v>
       </c>
@@ -4223,7 +4232,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>591</v>
       </c>
@@ -4243,7 +4252,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>359</v>
       </c>
@@ -4263,7 +4272,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -4295,7 +4304,7 @@
       <c r="E15" s="74"/>
       <c r="F15" s="74"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>374</v>
       </c>
@@ -4309,7 +4318,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>376</v>
       </c>
@@ -4329,7 +4338,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>404</v>
       </c>
@@ -4349,7 +4358,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>444</v>
       </c>
@@ -4363,7 +4372,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>416</v>
       </c>
@@ -4383,7 +4392,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>389</v>
       </c>
@@ -4403,7 +4412,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>391</v>
       </c>
@@ -4417,7 +4426,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>394</v>
       </c>
@@ -4437,7 +4446,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>395</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>400</v>
       </c>
@@ -4471,7 +4480,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>397</v>
       </c>
@@ -4485,7 +4494,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>415</v>
       </c>
@@ -4505,7 +4514,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>445</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>420</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>618</v>
       </c>
@@ -4571,7 +4580,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>602</v>
       </c>
@@ -4594,7 +4603,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>603</v>
       </c>
@@ -4617,12 +4626,12 @@
         <v>610</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>483</v>
       </c>
@@ -4630,117 +4639,117 @@
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F48" s="71" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="71" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F50" s="71" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F51" s="71" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F52" s="71" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F53" s="71" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F55" s="71" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F56" s="71" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F57" s="71" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F58" s="71" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F59" s="71" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F60" s="71" t="s">
         <v>507</v>
       </c>
@@ -4764,47 +4773,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP19"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="18" width="5.42578125" customWidth="1"/>
+    <col min="13" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" customWidth="1"/>
+    <col min="16" max="18" width="5.44140625" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" customWidth="1"/>
-    <col min="23" max="25" width="3.85546875" customWidth="1"/>
-    <col min="26" max="28" width="5.42578125" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" customWidth="1"/>
-    <col min="31" max="31" width="9" customWidth="1"/>
-    <col min="32" max="32" width="8.28515625" customWidth="1"/>
-    <col min="33" max="33" width="8.42578125" customWidth="1"/>
-    <col min="34" max="35" width="8.28515625" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" customWidth="1"/>
-    <col min="39" max="39" width="8.85546875" customWidth="1"/>
-    <col min="40" max="40" width="7.85546875" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" customWidth="1"/>
+    <col min="21" max="22" width="5.44140625" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" customWidth="1"/>
+    <col min="24" max="26" width="3.88671875" customWidth="1"/>
+    <col min="27" max="29" width="5.44140625" customWidth="1"/>
+    <col min="30" max="30" width="8.5546875" customWidth="1"/>
+    <col min="31" max="31" width="8.44140625" customWidth="1"/>
+    <col min="32" max="32" width="9" customWidth="1"/>
+    <col min="33" max="33" width="8.33203125" customWidth="1"/>
+    <col min="34" max="34" width="8.44140625" customWidth="1"/>
+    <col min="35" max="36" width="8.33203125" customWidth="1"/>
+    <col min="37" max="37" width="9.109375" customWidth="1"/>
+    <col min="40" max="40" width="8.88671875" customWidth="1"/>
+    <col min="41" max="41" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -4869,69 +4878,72 @@
         <v>306</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="B2" s="4">
         <v>51.7</v>
@@ -4966,15 +4978,15 @@
         <v>250</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:N6" si="0">Z2*SUM($H2:$J2)/1000</f>
+        <f>AA2*SUM($H2:$J2)/1000</f>
         <v>112.14</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" si="0"/>
+        <f>AB2*SUM($H2:$J2)/1000</f>
         <v>260.82</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" si="0"/>
+        <f>AC2*SUM($H2:$J2)/1000</f>
         <v>257.67</v>
       </c>
       <c r="O2">
@@ -4989,60 +5001,60 @@
       <c r="R2">
         <v>341</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>178</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>414</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>409</v>
       </c>
-      <c r="AC2" s="2">
-        <f t="shared" ref="AC2:AG5" si="1">AD15*$C2*$D$7/1000</f>
+      <c r="AD2" s="2">
+        <f>AE17*$C2*$D$7/1000</f>
         <v>91.878702397743297</v>
       </c>
-      <c r="AD2" s="2">
-        <f t="shared" si="1"/>
+      <c r="AE2" s="2">
+        <f>AF17*$C2*$D$7/1000</f>
         <v>97.226140103432058</v>
       </c>
-      <c r="AE2" s="2">
-        <f t="shared" si="1"/>
+      <c r="AF2" s="2">
+        <f>AG17*$C2*$D$7/1000</f>
         <v>106.94875411377527</v>
       </c>
-      <c r="AF2" s="2">
-        <f t="shared" si="1"/>
+      <c r="AG2" s="2">
+        <f>AH17*$C2*$D$7/1000</f>
         <v>68.058298072402437</v>
       </c>
-      <c r="AG2" s="2">
-        <f t="shared" si="1"/>
+      <c r="AH2" s="2">
+        <f>AI17*$C2*$D$7/1000</f>
         <v>122.01880582980723</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>595</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>184</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>222</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>292</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>271</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>272</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="B3" s="2">
         <v>69.400000000000006</v>
@@ -5077,15 +5089,15 @@
         <v>263</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="0"/>
+        <f>AA3*SUM($H3:$J3)/1000</f>
         <v>95.843999999999994</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="0"/>
+        <f>AB3*SUM($H3:$J3)/1000</f>
         <v>266.66800000000001</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="0"/>
+        <f>AC3*SUM($H3:$J3)/1000</f>
         <v>289.488</v>
       </c>
       <c r="O3">
@@ -5100,63 +5112,63 @@
       <c r="R3">
         <v>230</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>147</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>409</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>444</v>
       </c>
-      <c r="AC3" s="2">
-        <f t="shared" si="1"/>
+      <c r="AD3" s="2">
+        <f>AE18*$C3*$D$7/1000</f>
         <v>117.98326281147156</v>
       </c>
-      <c r="AD3" s="2">
-        <f t="shared" si="1"/>
+      <c r="AE3" s="2">
+        <f>AF18*$C3*$D$7/1000</f>
         <v>180.69449929478137</v>
       </c>
-      <c r="AE3" s="2">
-        <f t="shared" si="1"/>
+      <c r="AF3" s="2">
+        <f>AG18*$C3*$D$7/1000</f>
         <v>66.104560413728251</v>
       </c>
-      <c r="AF3" s="2">
-        <f t="shared" si="1"/>
+      <c r="AG3" s="2">
+        <f>AH18*$C3*$D$7/1000</f>
         <v>97.753831687823237</v>
       </c>
-      <c r="AG3" s="2">
-        <f t="shared" si="1"/>
+      <c r="AH3" s="2">
+        <f>AI18*$C3*$D$7/1000</f>
         <v>190.09139633286318</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>395</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>403</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>202</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>280</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>279</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>278</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>324</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="B4" s="2">
         <v>38.5</v>
@@ -5191,15 +5203,15 @@
         <v>246</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="0"/>
+        <f>AA4*SUM($H4:$J4)/1000</f>
         <v>243.67500000000001</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="0"/>
+        <f>AB4*SUM($H4:$J4)/1000</f>
         <v>155.92500000000001</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f>AC4*SUM($H4:$J4)/1000</f>
         <v>275.39999999999998</v>
       </c>
       <c r="O4">
@@ -5214,56 +5226,56 @@
       <c r="R4">
         <v>261</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>361</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>231</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>408</v>
       </c>
-      <c r="AC4" s="2">
-        <f t="shared" si="1"/>
+      <c r="AD4" s="2">
+        <f>AE19*$C4*$D$7/1000</f>
         <v>106.88048895157497</v>
       </c>
-      <c r="AD4" s="2">
-        <f t="shared" si="1"/>
+      <c r="AE4" s="2">
+        <f>AF19*$C4*$D$7/1000</f>
         <v>67.32848142924307</v>
       </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="1"/>
+      <c r="AF4" s="2">
+        <f>AG19*$C4*$D$7/1000</f>
         <v>102.13125058768217</v>
       </c>
-      <c r="AF4" s="2">
-        <f t="shared" si="1"/>
+      <c r="AG4" s="2">
+        <f>AH19*$C4*$D$7/1000</f>
         <v>39.015143394452281</v>
       </c>
-      <c r="AG4" s="2">
-        <f t="shared" si="1"/>
+      <c r="AH4" s="2">
+        <f>AI19*$C4*$D$7/1000</f>
         <v>46.656497414198398</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>697</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>303</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>297</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>298</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>324</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -5299,15 +5311,15 @@
         <v>241</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="0"/>
+        <f>AA5*SUM($H5:$J5)/1000</f>
         <v>120.414</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="0"/>
+        <f>AB5*SUM($H5:$J5)/1000</f>
         <v>131.6</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="0"/>
+        <f>AC5*SUM($H5:$J5)/1000</f>
         <v>329.65800000000002</v>
       </c>
       <c r="O5">
@@ -5322,66 +5334,66 @@
       <c r="R5">
         <v>176</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>183</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>200</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>501</v>
       </c>
-      <c r="AC5" s="2">
-        <f t="shared" si="1"/>
+      <c r="AD5" s="2">
+        <f>AE20*$C5*$D$7/1000</f>
         <v>64.758533145275024</v>
       </c>
-      <c r="AD5" s="2">
-        <f t="shared" si="1"/>
+      <c r="AE5" s="2">
+        <f>AF20*$C5*$D$7/1000</f>
         <v>155.87983074753171</v>
       </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="1"/>
+      <c r="AF5" s="2">
+        <f>AG20*$C5*$D$7/1000</f>
         <v>104.60225669957687</v>
       </c>
-      <c r="AF5" s="2">
-        <f t="shared" si="1"/>
+      <c r="AG5" s="2">
+        <f>AH20*$C5*$D$7/1000</f>
         <v>118.08321579689704</v>
       </c>
-      <c r="AG5" s="2">
-        <f t="shared" si="1"/>
+      <c r="AH5" s="2">
+        <f>AI20*$C5*$D$7/1000</f>
         <v>55.970944992947814</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>593</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>279</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>128</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>299</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>300</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>289</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>301</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>324</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>64</v>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>634</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B2:B5)</f>
@@ -5396,111 +5408,112 @@
         <v>509.88904560413727</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:R6" si="2">SUMPRODUCT($C2:$C5,F2:F5)</f>
+        <f t="shared" ref="F6:R6" si="0">SUMPRODUCT($C2:$C5,F2:F5)</f>
         <v>490.11095439586268</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>96.665256229431108</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>149.78749412317816</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>243.27080394922424</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>259.25528913963331</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>251.27080394922424</v>
       </c>
       <c r="L6" s="2">
+        <f>AA6*SUM($H6:$J6)/1000</f>
+        <v>131.93540660356939</v>
+      </c>
+      <c r="M6" s="2">
+        <f>AB6*SUM($H6:$J6)/1000</f>
+        <v>212.5367700498814</v>
+      </c>
+      <c r="N6" s="2">
+        <f>AC6*SUM($H6:$J6)/1000</f>
+        <v>289.10955273379693</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6" si="1">SUMPRODUCT($C2:$C5,O2:O5)</f>
+        <v>443.2063939821345</v>
+      </c>
+      <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>131.93540660356939</v>
-      </c>
-      <c r="M6" s="2">
+        <v>425.77103902209689</v>
+      </c>
+      <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>212.5367700498814</v>
-      </c>
-      <c r="N6" s="2">
+        <v>325.11847672778561</v>
+      </c>
+      <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>289.10955273379693</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" ref="O6" si="3">SUMPRODUCT($C2:$C5,O2:O5)</f>
-        <v>443.2063939821345</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="2"/>
-        <v>425.77103902209689</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="2"/>
-        <v>325.11847672778561</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" si="2"/>
         <v>249.11048425011754</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2">
+      <c r="V6" s="2"/>
+      <c r="W6" s="2">
         <f>$C$2*$D6</f>
         <v>243.06535025858014</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <f>$C$3*$D6</f>
         <v>326.28114715561821</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <f>$C$4*$D6</f>
         <v>181.00611189468734</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <f>$C$5*$D6</f>
         <v>249.64739069111425</v>
       </c>
-      <c r="Z6" s="2">
-        <f>SUMPRODUCT($C2:$C5,Z2:Z5)</f>
-        <v>202.25763986835915</v>
-      </c>
       <c r="AA6" s="2">
         <f>SUMPRODUCT($C2:$C5,AA2:AA5)</f>
-        <v>325.81993417959563</v>
+        <v>202.25763986835915</v>
       </c>
       <c r="AB6" s="2">
         <f>SUMPRODUCT($C2:$C5,AB2:AB5)</f>
+        <v>325.81993417959563</v>
+      </c>
+      <c r="AC6" s="2">
+        <f>SUMPRODUCT($C2:$C5,AC2:AC5)</f>
         <v>443.2063939821345</v>
       </c>
-      <c r="AH6" s="2">
-        <f t="shared" ref="AH6:AJ6" si="4">SUMPRODUCT($C1:$C4,AH1:AH4)</f>
+      <c r="AI6" s="2">
+        <f t="shared" ref="AI6:AK6" si="2">SUMPRODUCT($C1:$C4,AI1:AI4)</f>
         <v>399.66619652092146</v>
       </c>
-      <c r="AI6" s="2">
-        <f t="shared" si="4"/>
+      <c r="AJ6" s="2">
+        <f t="shared" si="2"/>
         <v>176.21532675129291</v>
       </c>
-      <c r="AJ6" s="2">
-        <f t="shared" si="4"/>
+      <c r="AK6" s="2">
+        <f t="shared" si="2"/>
         <v>174.71415138692993</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>509</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>510</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5513,47 +5526,47 @@
         <v>2000</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:K7" si="5">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
+        <f t="shared" ref="E7:K7" si="3">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
         <v>1019.7780912082745</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>980.22190879172535</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>193.33051245886222</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>299.57498824635633</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>486.54160789844849</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>518.51057827926661</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>502.54160789844849</v>
       </c>
       <c r="L7" s="2">
-        <f>Z7*SUM($H7:$J7)/$D$7</f>
+        <f>AA7*SUM($H7:$J7)/$D$7</f>
         <v>263.87081320713878</v>
       </c>
       <c r="M7" s="2">
-        <f>AA7*SUM($H7:$J7)/$D$7</f>
+        <f>AB7*SUM($H7:$J7)/$D$7</f>
         <v>425.07354009976279</v>
       </c>
       <c r="N7" s="2">
-        <f>AB7*SUM($H7:$J7)/$D$7</f>
+        <f>AC7*SUM($H7:$J7)/$D$7</f>
         <v>578.21910546759386</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7" si="6">SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
+        <f t="shared" ref="O7" si="4">SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
         <v>886.412787964269</v>
       </c>
       <c r="P7" s="2">
@@ -5571,51 +5584,52 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2">
+      <c r="V7" s="2"/>
+      <c r="W7" s="2">
         <f>$C$2*$D7</f>
         <v>486.13070051716028</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <f>$C$3*$D7</f>
         <v>652.56229431123643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <f>$C$4*$D7</f>
         <v>362.01222378937467</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <f>$C$5*$D7</f>
         <v>499.29478138222851</v>
       </c>
-      <c r="Z7" s="2">
-        <f>SUMPRODUCT($C2:$C5,Z2:Z5)*$D$7/1000</f>
-        <v>404.5152797367183</v>
-      </c>
       <c r="AA7" s="2">
         <f>SUMPRODUCT($C2:$C5,AA2:AA5)*$D$7/1000</f>
-        <v>651.63986835919127</v>
+        <v>404.5152797367183</v>
       </c>
       <c r="AB7" s="2">
         <f>SUMPRODUCT($C2:$C5,AB2:AB5)*$D$7/1000</f>
+        <v>651.63986835919127</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>SUMPRODUCT($C2:$C5,AC2:AC5)*$D$7/1000</f>
         <v>886.412787964269</v>
-      </c>
-      <c r="AH7" s="2">
-        <f>SUMPRODUCT($C2:$C5,AH2:AH5)</f>
-        <v>547.70709920075217</v>
       </c>
       <c r="AI7" s="2">
         <f>SUMPRODUCT($C2:$C5,AI2:AI5)</f>
-        <v>245.86694875411376</v>
+        <v>547.70709920075217</v>
       </c>
       <c r="AJ7" s="2">
         <f>SUMPRODUCT($C2:$C5,AJ2:AJ5)</f>
+        <v>245.86694875411376</v>
+      </c>
+      <c r="AK7" s="2">
+        <f>SUMPRODUCT($C2:$C5,AK2:AK5)</f>
         <v>206.66901739539256</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5648,15 +5662,15 @@
         <v>212.3</v>
       </c>
       <c r="L8" s="2">
-        <f>Z8*SUM($H8:$J8)/$D$8</f>
+        <f>AA8*SUM($H8:$J8)/$D$8</f>
         <v>55.585100000000004</v>
       </c>
       <c r="M8" s="2">
-        <f>AA8*SUM($H8:$J8)/$D$8</f>
+        <f>AB8*SUM($H8:$J8)/$D$8</f>
         <v>277.25580000000002</v>
       </c>
       <c r="N8" s="2">
-        <f>AB8*SUM($H8:$J8)/$D$8</f>
+        <f>AC8*SUM($H8:$J8)/$D$8</f>
         <v>336.85910000000001</v>
       </c>
       <c r="O8" s="2">
@@ -5677,764 +5691,936 @@
       <c r="U8" s="2">
         <v>134</v>
       </c>
-      <c r="V8" s="2"/>
+      <c r="V8" s="2">
+        <v>80</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2">
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2">
         <v>83</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <v>414</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AC8" s="2">
         <v>503</v>
       </c>
-      <c r="AC8">
-        <f>AD19*$D$8/1000</f>
+      <c r="AD8">
+        <f>AE21*$D$8/1000</f>
         <v>171</v>
       </c>
-      <c r="AD8">
-        <f>AE19*$D$8/1000</f>
+      <c r="AE8">
+        <f>AF21*$D$8/1000</f>
         <v>208</v>
       </c>
-      <c r="AE8">
-        <f>AF19*$D$8/1000</f>
+      <c r="AF8">
+        <f>AG21*$D$8/1000</f>
         <v>239</v>
       </c>
-      <c r="AF8">
-        <f>AG19*$D$8/1000</f>
+      <c r="AG8">
+        <f>AH21*$D$8/1000</f>
         <v>383</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="B9" s="2">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="2">
+        <f>E$8*$D9/$D$8</f>
+        <v>1522.5</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:V10" si="5">F$8*$D9/$D$8</f>
+        <v>1477.5</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>729</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="5"/>
+        <v>740.1</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>636.9</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>166.75530000000001</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="5"/>
+        <v>831.76740000000007</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="5"/>
+        <v>1010.5773</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="5"/>
+        <v>1509</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="5"/>
+        <v>2197.1999999999998</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="5"/>
+        <v>802.80000000000007</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="5"/>
+        <v>1803</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="5"/>
+        <v>555</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="5"/>
+        <v>402</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="B10" s="2">
+        <v>257</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="2">
+        <f>E$8*$D10/$D$8</f>
+        <v>1522.5</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="5"/>
+        <v>1477.5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="5"/>
+        <v>729</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="5"/>
+        <v>740.1</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="5"/>
+        <v>636.9</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
+        <v>166.75530000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="5"/>
+        <v>831.76740000000007</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="5"/>
+        <v>1010.5773</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
+        <v>1509</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="5"/>
+        <v>2197.1999999999998</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="5"/>
+        <v>802.80000000000007</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="5"/>
+        <v>1803</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="5"/>
+        <v>555</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="5"/>
+        <v>402</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC12" t="s">
         <v>318</v>
       </c>
-      <c r="AC10" s="19" t="s">
+      <c r="AD12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AD10" s="58" t="s">
+      <c r="AE12" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="AE10" s="58" t="s">
+      <c r="AF12" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="AF10" s="58" t="s">
+      <c r="AG12" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="AG10" s="58" t="s">
+      <c r="AH12" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="AH10" s="58" t="s">
+      <c r="AI12" s="58" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <f>E2/E$6</f>
         <v>1.0119848709215202</v>
       </c>
-      <c r="F11">
-        <f t="shared" ref="F11:O11" si="7">F2/F$6</f>
+      <c r="F13">
+        <f t="shared" ref="F13:O13" si="6">F2/F$6</f>
         <v>0.98753148783749312</v>
       </c>
-      <c r="G11">
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>1.2413974232394813</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>1.0014187157483727</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>0.98655488494251475</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>0.92572846168911704</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>0.99494249260458834</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:N13" si="7">L2/L$6</f>
+        <v>0.84996137797150018</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="7"/>
-        <v>1.2413974232394813</v>
-      </c>
-      <c r="H11">
+        <v>1.2271758902649492</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="7"/>
+        <v>0.89125384326976742</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>0.92282062161875456</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:R13" si="8">P2/P$6</f>
+        <v>1.0921362830783501</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="8"/>
+        <v>0.59670555162705141</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>1.3688705275753126</v>
+      </c>
+      <c r="AA13">
+        <f>AA2/AA$6</f>
+        <v>0.8800656435813875</v>
+      </c>
+      <c r="AB13">
+        <f>AB2/AB$6</f>
+        <v>1.2706404874902422</v>
+      </c>
+      <c r="AD13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE13" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF13" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG13" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH13" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI13" s="60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <f>E3/E$6</f>
+        <v>1.0041400269608882</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:O14" si="9">F3/F$6</f>
+        <v>0.99569290509234842</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>0.87932317479463262</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="9"/>
         <v>1.0014187157483727</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="7"/>
-        <v>0.98655488494251475</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="7"/>
+      <c r="I14">
+        <f t="shared" si="9"/>
+        <v>0.91256326857182624</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>1.0800165386373033</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="9"/>
+        <v>1.0466795022200268</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:N14" si="10">L3/L$6</f>
+        <v>0.72644639121009857</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="10"/>
+        <v>1.254691129151037</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="10"/>
+        <v>1.0013090098982358</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>1.0017906014638802</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:R14" si="11">P3/P$6</f>
+        <v>0.85961694539070133</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="11"/>
+        <v>1.242623932254272</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="11"/>
+        <v>0.92328510657572405</v>
+      </c>
+      <c r="AA14">
+        <f>AA3/AA$6</f>
+        <v>0.72679578430597735</v>
+      </c>
+      <c r="AB14">
+        <f>AB3/AB$6</f>
+        <v>1.2552945878828721</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE14" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF14" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG14" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH14" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI14" s="60" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15">
+        <f>E4/E$6</f>
+        <v>0.99237276101994043</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:O15" si="12">F4/F$6</f>
+        <v>1.0079350309746313</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="12"/>
+        <v>0.81725330363265858</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="12"/>
+        <v>0.82783947168532146</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="12"/>
+        <v>1.1715339258692363</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="12"/>
+        <v>1.026015711705438</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>0.97902341272291493</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:N15" si="13">L4/L$6</f>
+        <v>1.8469265095167229</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="13"/>
+        <v>0.73363776048448059</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="13"/>
+        <v>0.95258007698410341</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="12"/>
+        <v>0.92056433648032243</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:R15" si="14">P4/P$6</f>
+        <v>1.2095702920115059</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="14"/>
+        <v>0.68897960600236874</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="14"/>
+        <v>1.0477278818098434</v>
+      </c>
+      <c r="AA15">
+        <f>AA4/AA$6</f>
+        <v>1.784852232207196</v>
+      </c>
+      <c r="AB15">
+        <f>AB4/AB$6</f>
+        <v>0.7089805618604974</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF15" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG15" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH15" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI15" s="60" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f>E5/E$6</f>
+        <v>0.98845033903962443</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:O16" si="15">F5/F$6</f>
+        <v>1.012015739602059</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="15"/>
+        <v>1.0551878097535592</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="15"/>
+        <v>1.1215889616381773</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="15"/>
+        <v>1.0029974663582233</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="15"/>
+        <v>0.94887167323134503</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="15"/>
+        <v>0.95912456287082315</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:N16" si="16">L5/L$6</f>
+        <v>0.91267388413643857</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="16"/>
+        <v>0.61918697630115527</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="16"/>
+        <v>1.1402528795149804</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="15"/>
+        <v>1.1303988543545136</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:R16" si="17">P5/P$6</f>
+        <v>0.94182075164391044</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="17"/>
+        <v>1.3010641666919731</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="17"/>
+        <v>0.70651382068403235</v>
+      </c>
+      <c r="AA16">
+        <f>AA5/AA$6</f>
+        <v>0.90478658862580852</v>
+      </c>
+      <c r="AB16">
+        <f>AB5/AB$6</f>
+        <v>0.61383598429480291</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17">
+        <f>MIN(E13:E16)</f>
+        <v>0.98845033903962443</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:K17" si="18">MIN(F13:F16)</f>
+        <v>0.98753148783749312</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="18"/>
+        <v>0.81725330363265858</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="18"/>
+        <v>0.82783947168532146</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="18"/>
+        <v>0.91256326857182624</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="18"/>
         <v>0.92572846168911704</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="7"/>
-        <v>0.99494249260458834</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ref="L11:N11" si="8">L2/L$6</f>
-        <v>0.84996137797150018</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="8"/>
-        <v>1.2271758902649492</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="8"/>
-        <v>0.89125384326976742</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="7"/>
-        <v>0.92282062161875456</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ref="P11:R11" si="9">P2/P$6</f>
-        <v>1.0921362830783501</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="9"/>
-        <v>0.59670555162705141</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="9"/>
-        <v>1.3688705275753126</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" ref="Z11:AA14" si="10">Z2/Z$6</f>
-        <v>0.8800656435813875</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="10"/>
-        <v>1.2706404874902422</v>
-      </c>
-      <c r="AC11" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD11" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE11" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF11" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG11" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="AH11" s="60" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E14" si="11">E3/E$6</f>
-        <v>1.0041400269608882</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ref="F12:O12" si="12">F3/F$6</f>
-        <v>0.99569290509234842</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="12"/>
-        <v>0.87932317479463262</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="12"/>
-        <v>1.0014187157483727</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="12"/>
-        <v>0.91256326857182624</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="12"/>
-        <v>1.0800165386373033</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="12"/>
-        <v>1.0466795022200268</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ref="L12:N12" si="13">L3/L$6</f>
-        <v>0.72644639121009857</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="13"/>
-        <v>1.254691129151037</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="13"/>
-        <v>1.0013090098982358</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="12"/>
-        <v>1.0017906014638802</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ref="P12:R12" si="14">P3/P$6</f>
-        <v>0.85961694539070133</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="14"/>
-        <v>1.242623932254272</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="14"/>
-        <v>0.92328510657572405</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="10"/>
-        <v>0.72679578430597735</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="10"/>
-        <v>1.2552945878828721</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD12" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="AE12" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF12" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG12" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH12" s="60" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="11"/>
-        <v>0.99237276101994043</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ref="F13:O13" si="15">F4/F$6</f>
-        <v>1.0079350309746313</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="15"/>
-        <v>0.81725330363265858</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="15"/>
-        <v>0.82783947168532146</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="15"/>
-        <v>1.1715339258692363</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="15"/>
-        <v>1.026015711705438</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="15"/>
-        <v>0.97902341272291493</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ref="L13:N13" si="16">L4/L$6</f>
-        <v>1.8469265095167229</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="16"/>
-        <v>0.73363776048448059</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="16"/>
-        <v>0.95258007698410341</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="15"/>
-        <v>0.92056433648032243</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ref="P13:R13" si="17">P4/P$6</f>
-        <v>1.2095702920115059</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="17"/>
-        <v>0.68897960600236874</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="17"/>
-        <v>1.0477278818098434</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="10"/>
-        <v>1.784852232207196</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="10"/>
-        <v>0.7089805618604974</v>
-      </c>
-      <c r="AC13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE13" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF13" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG13" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH13" s="60" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="11"/>
-        <v>0.98845033903962443</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:O14" si="18">F5/F$6</f>
-        <v>1.012015739602059</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="18"/>
-        <v>1.0551878097535592</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="18"/>
-        <v>1.1215889616381773</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="18"/>
-        <v>1.0029974663582233</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="18"/>
-        <v>0.94887167323134503</v>
-      </c>
-      <c r="K14">
+      <c r="K17" s="61">
         <f t="shared" si="18"/>
         <v>0.95912456287082315</v>
       </c>
-      <c r="L14">
-        <f t="shared" ref="L14:N14" si="19">L5/L$6</f>
-        <v>0.91267388413643857</v>
-      </c>
-      <c r="M14">
+      <c r="L17" s="61">
+        <f t="shared" ref="L17:N17" si="19">MIN(L13:L16)</f>
+        <v>0.72644639121009857</v>
+      </c>
+      <c r="M17" s="61">
         <f t="shared" si="19"/>
         <v>0.61918697630115527</v>
       </c>
-      <c r="N14">
+      <c r="N17" s="61">
         <f t="shared" si="19"/>
+        <v>0.89125384326976742</v>
+      </c>
+      <c r="O17" s="61">
+        <f t="shared" ref="O17:P17" si="20">MIN(O13:O16)</f>
+        <v>0.92056433648032243</v>
+      </c>
+      <c r="P17" s="61">
+        <f t="shared" si="20"/>
+        <v>0.85961694539070133</v>
+      </c>
+      <c r="Q17" s="61">
+        <f t="shared" ref="Q17:R17" si="21">MIN(Q13:Q16)</f>
+        <v>0.59670555162705141</v>
+      </c>
+      <c r="R17" s="61">
+        <f t="shared" si="21"/>
+        <v>0.70651382068403235</v>
+      </c>
+      <c r="AA17" s="61">
+        <f t="shared" ref="AA17:AB17" si="22">MIN(AA13:AA16)</f>
+        <v>0.72679578430597735</v>
+      </c>
+      <c r="AB17" s="61">
+        <f t="shared" si="22"/>
+        <v>0.61383598429480291</v>
+      </c>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>220</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>140</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18">
+        <f>MAX(E13:E16)</f>
+        <v>1.0119848709215202</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:J18" si="23">MAX(F13:F16)</f>
+        <v>1.012015739602059</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="23"/>
+        <v>1.2413974232394813</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="23"/>
+        <v>1.1215889616381773</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="23"/>
+        <v>1.1715339258692363</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="23"/>
+        <v>1.0800165386373033</v>
+      </c>
+      <c r="K18" s="61">
+        <f t="shared" ref="K18:O18" si="24">MAX(K13:K16)</f>
+        <v>1.0466795022200268</v>
+      </c>
+      <c r="L18" s="61">
+        <f t="shared" ref="L18:N18" si="25">MAX(L13:L16)</f>
+        <v>1.8469265095167229</v>
+      </c>
+      <c r="M18" s="61">
+        <f t="shared" si="25"/>
+        <v>1.254691129151037</v>
+      </c>
+      <c r="N18" s="61">
+        <f t="shared" si="25"/>
         <v>1.1402528795149804</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="18"/>
+      <c r="O18" s="61">
+        <f t="shared" si="24"/>
         <v>1.1303988543545136</v>
       </c>
-      <c r="P14">
-        <f t="shared" ref="P14:R14" si="20">P5/P$6</f>
-        <v>0.94182075164391044</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="20"/>
+      <c r="P18" s="61">
+        <f t="shared" ref="P18:R18" si="26">MAX(P13:P16)</f>
+        <v>1.2095702920115059</v>
+      </c>
+      <c r="Q18" s="61">
+        <f t="shared" si="26"/>
         <v>1.3010641666919731</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="20"/>
-        <v>0.70651382068403235</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="10"/>
-        <v>0.90478658862580852</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="10"/>
-        <v>0.61383598429480291</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="R18" s="61">
+        <f t="shared" si="26"/>
+        <v>1.3688705275753126</v>
+      </c>
+      <c r="AA18" s="61">
+        <f t="shared" ref="AA18:AB18" si="27">MAX(AA13:AA16)</f>
+        <v>1.784852232207196</v>
+      </c>
+      <c r="AB18" s="61">
+        <f t="shared" si="27"/>
+        <v>1.2706404874902422</v>
+      </c>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>180.8</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>276.89999999999998</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>101.3</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>291.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="63">
+        <f>IF(E18&gt;=1/E17,E18-1,1-1/E17)</f>
+        <v>1.198487092152023E-2</v>
+      </c>
+      <c r="F19" s="63">
+        <f t="shared" ref="F19:K19" si="28">IF(F18&gt;=1/F17,F18-1,1-1/F17)</f>
+        <v>-1.2625938834426975E-2</v>
+      </c>
+      <c r="G19" s="63">
+        <f t="shared" si="28"/>
+        <v>0.24139742323948132</v>
+      </c>
+      <c r="H19" s="63">
+        <f t="shared" si="28"/>
+        <v>-0.20796366228369489</v>
+      </c>
+      <c r="I19" s="63">
+        <f t="shared" si="28"/>
+        <v>0.17153392586923633</v>
+      </c>
+      <c r="J19" s="63">
+        <f t="shared" si="28"/>
+        <v>-8.023037141513889E-2</v>
+      </c>
+      <c r="K19" s="64">
+        <f t="shared" si="28"/>
+        <v>4.6679502220026814E-2</v>
+      </c>
+      <c r="L19" s="64">
+        <f t="shared" ref="L19:N19" si="29">IF(L18&gt;=1/L17,L18-1,1-1/L17)</f>
+        <v>0.84692650951672288</v>
+      </c>
+      <c r="M19" s="64">
+        <f t="shared" si="29"/>
+        <v>-0.61502104901125687</v>
+      </c>
+      <c r="N19" s="64">
+        <f t="shared" si="29"/>
+        <v>0.14025287951498044</v>
+      </c>
+      <c r="O19" s="64">
+        <f t="shared" ref="O19:P19" si="30">IF(O18&gt;=1/O17,O18-1,1-1/O17)</f>
+        <v>0.13039885435451359</v>
+      </c>
+      <c r="P19" s="64">
+        <f t="shared" si="30"/>
+        <v>0.2095702920115059</v>
+      </c>
+      <c r="Q19" s="64">
+        <f t="shared" ref="Q19:R19" si="31">IF(Q18&gt;=1/Q17,Q18-1,1-1/Q17)</f>
+        <v>-0.67586843674116293</v>
+      </c>
+      <c r="R19" s="64">
+        <f t="shared" si="31"/>
+        <v>-0.41540047869384966</v>
+      </c>
+      <c r="AA19" s="64">
+        <f t="shared" ref="AA19:AB19" si="32">IF(AA18&gt;=1/AA17,AA18-1,1-1/AA17)</f>
+        <v>0.78485223220719602</v>
+      </c>
+      <c r="AB19" s="64">
+        <f t="shared" si="32"/>
+        <v>-0.62909967089797836</v>
+      </c>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>295.24</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>185.98400000000001</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>282.12099999999998</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>107.773</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>128.881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>312.2</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>236.5</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AD21" t="s">
         <v>5</v>
       </c>
-      <c r="AD14" t="s">
-        <v>319</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15">
-        <f>MIN(E11:E14)</f>
-        <v>0.98845033903962443</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ref="F15:K15" si="21">MIN(F11:F14)</f>
-        <v>0.98753148783749312</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="21"/>
-        <v>0.81725330363265858</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="21"/>
-        <v>0.82783947168532146</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="21"/>
-        <v>0.91256326857182624</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="21"/>
-        <v>0.92572846168911704</v>
-      </c>
-      <c r="K15" s="61">
-        <f t="shared" si="21"/>
-        <v>0.95912456287082315</v>
-      </c>
-      <c r="L15" s="61">
-        <f t="shared" ref="L15:N15" si="22">MIN(L11:L14)</f>
-        <v>0.72644639121009857</v>
-      </c>
-      <c r="M15" s="61">
-        <f t="shared" si="22"/>
-        <v>0.61918697630115527</v>
-      </c>
-      <c r="N15" s="61">
-        <f t="shared" si="22"/>
-        <v>0.89125384326976742</v>
-      </c>
-      <c r="O15" s="61">
-        <f t="shared" ref="O15:P15" si="23">MIN(O11:O14)</f>
-        <v>0.92056433648032243</v>
-      </c>
-      <c r="P15" s="61">
-        <f t="shared" si="23"/>
-        <v>0.85961694539070133</v>
-      </c>
-      <c r="Q15" s="61">
-        <f t="shared" ref="Q15:R15" si="24">MIN(Q11:Q14)</f>
-        <v>0.59670555162705141</v>
-      </c>
-      <c r="R15" s="61">
-        <f t="shared" si="24"/>
-        <v>0.70651382068403235</v>
-      </c>
-      <c r="Z15" s="61">
-        <f t="shared" ref="Z15:AA15" si="25">MIN(Z11:Z14)</f>
-        <v>0.72679578430597735</v>
-      </c>
-      <c r="AA15" s="61">
-        <f t="shared" si="25"/>
-        <v>0.61383598429480291</v>
-      </c>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>189</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>140</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="E16">
-        <f>MAX(E11:E14)</f>
-        <v>1.0119848709215202</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16:J16" si="26">MAX(F11:F14)</f>
-        <v>1.012015739602059</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="26"/>
-        <v>1.2413974232394813</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="26"/>
-        <v>1.1215889616381773</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="26"/>
-        <v>1.1715339258692363</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="26"/>
-        <v>1.0800165386373033</v>
-      </c>
-      <c r="K16" s="61">
-        <f t="shared" ref="K16:O16" si="27">MAX(K11:K14)</f>
-        <v>1.0466795022200268</v>
-      </c>
-      <c r="L16" s="61">
-        <f t="shared" ref="L16:N16" si="28">MAX(L11:L14)</f>
-        <v>1.8469265095167229</v>
-      </c>
-      <c r="M16" s="61">
-        <f t="shared" si="28"/>
-        <v>1.254691129151037</v>
-      </c>
-      <c r="N16" s="61">
-        <f t="shared" si="28"/>
-        <v>1.1402528795149804</v>
-      </c>
-      <c r="O16" s="61">
-        <f t="shared" si="27"/>
-        <v>1.1303988543545136</v>
-      </c>
-      <c r="P16" s="61">
-        <f t="shared" ref="P16:R16" si="29">MAX(P11:P14)</f>
-        <v>1.2095702920115059</v>
-      </c>
-      <c r="Q16" s="61">
-        <f t="shared" si="29"/>
-        <v>1.3010641666919731</v>
-      </c>
-      <c r="R16" s="61">
-        <f t="shared" si="29"/>
-        <v>1.3688705275753126</v>
-      </c>
-      <c r="Z16" s="61">
-        <f t="shared" ref="Z16:AA16" si="30">MAX(Z11:Z14)</f>
-        <v>1.784852232207196</v>
-      </c>
-      <c r="AA16" s="61">
-        <f t="shared" si="30"/>
-        <v>1.2706404874902422</v>
-      </c>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>180.8</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>276.89999999999998</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>101.3</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>149.80000000000001</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>291.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E17" s="63">
-        <f>IF(E16&gt;=1/E15,E16-1,1-1/E15)</f>
-        <v>1.198487092152023E-2</v>
-      </c>
-      <c r="F17" s="63">
-        <f t="shared" ref="F17:K17" si="31">IF(F16&gt;=1/F15,F16-1,1-1/F15)</f>
-        <v>-1.2625938834426975E-2</v>
-      </c>
-      <c r="G17" s="63">
-        <f t="shared" si="31"/>
-        <v>0.24139742323948132</v>
-      </c>
-      <c r="H17" s="63">
-        <f t="shared" si="31"/>
-        <v>-0.20796366228369489</v>
-      </c>
-      <c r="I17" s="63">
-        <f t="shared" si="31"/>
-        <v>0.17153392586923633</v>
-      </c>
-      <c r="J17" s="63">
-        <f t="shared" si="31"/>
-        <v>-8.023037141513889E-2</v>
-      </c>
-      <c r="K17" s="64">
-        <f t="shared" si="31"/>
-        <v>4.6679502220026814E-2</v>
-      </c>
-      <c r="L17" s="64">
-        <f t="shared" ref="L17:N17" si="32">IF(L16&gt;=1/L15,L16-1,1-1/L15)</f>
-        <v>0.84692650951672288</v>
-      </c>
-      <c r="M17" s="64">
-        <f t="shared" si="32"/>
-        <v>-0.61502104901125687</v>
-      </c>
-      <c r="N17" s="64">
-        <f t="shared" si="32"/>
-        <v>0.14025287951498044</v>
-      </c>
-      <c r="O17" s="64">
-        <f t="shared" ref="O17:P17" si="33">IF(O16&gt;=1/O15,O16-1,1-1/O15)</f>
-        <v>0.13039885435451359</v>
-      </c>
-      <c r="P17" s="64">
-        <f t="shared" si="33"/>
-        <v>0.2095702920115059</v>
-      </c>
-      <c r="Q17" s="64">
-        <f t="shared" ref="Q17:R17" si="34">IF(Q16&gt;=1/Q15,Q16-1,1-1/Q15)</f>
-        <v>-0.67586843674116293</v>
-      </c>
-      <c r="R17" s="64">
-        <f t="shared" si="34"/>
-        <v>-0.41540047869384966</v>
-      </c>
-      <c r="Z17" s="64">
-        <f t="shared" ref="Z17:AA17" si="35">IF(Z16&gt;=1/Z15,Z16-1,1-1/Z15)</f>
-        <v>0.78485223220719602</v>
-      </c>
-      <c r="AA17" s="64">
-        <f t="shared" si="35"/>
-        <v>-0.62909967089797836</v>
-      </c>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>295.24</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>185.98400000000001</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>282.12099999999998</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>107.773</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>128.881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>89</v>
-      </c>
-      <c r="R18" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>129.69999999999999</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>312.2</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>209.5</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>236.5</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>112.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AC19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD19" s="2">
+      <c r="AE21" s="2">
         <v>171</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AF21" s="2">
         <v>208</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AG21" s="2">
         <v>239</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AH21" s="2">
         <v>383</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Z17:AB17 E17:O17">
+  <conditionalFormatting sqref="AA19:AC19 E19:O19">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6446,7 +6632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:R14">
+  <conditionalFormatting sqref="P13:R16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6458,7 +6644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:R17">
+  <conditionalFormatting sqref="P19:R19">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6470,7 +6656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z11:AB14 E11:O14">
+  <conditionalFormatting sqref="AA13:AC16 E13:O16">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6482,7 +6668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:AB17 E17:N17">
+  <conditionalFormatting sqref="AA19:AC19 E19:N19">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6495,6 +6681,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6506,12 +6693,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -6522,7 +6709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6533,7 +6720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -6544,7 +6731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6555,7 +6742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6563,7 +6750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6571,7 +6758,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>365</v>
       </c>
@@ -6579,22 +6766,22 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -6612,12 +6799,12 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -6661,7 +6848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -6711,7 +6898,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -6761,7 +6948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -6811,7 +6998,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6858,7 +7045,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -6905,7 +7092,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6952,12 +7139,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -7007,7 +7194,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -7055,7 +7242,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -7103,7 +7290,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -7151,7 +7338,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7199,7 +7386,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -7240,7 +7427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -7299,18 +7486,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="34.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7336,7 +7523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7365,7 +7552,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -7394,7 +7581,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7423,7 +7610,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7452,7 +7639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7481,7 +7668,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>328</v>
       </c>
@@ -7520,21 +7707,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -7554,7 +7741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -7574,7 +7761,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7584,7 +7771,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -7604,7 +7791,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7624,7 +7811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -7644,7 +7831,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -7664,7 +7851,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -7684,12 +7871,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -7709,7 +7896,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -7729,7 +7916,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -7749,7 +7936,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>583</v>
       </c>
@@ -7769,7 +7956,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>582</v>
       </c>
@@ -7789,12 +7976,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>558</v>
       </c>
@@ -7814,7 +8001,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -7834,7 +8021,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>545</v>
       </c>
@@ -7854,7 +8041,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>546</v>
       </c>
@@ -7874,7 +8061,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>547</v>
       </c>
@@ -7894,7 +8081,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -7914,7 +8101,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>562</v>
       </c>
@@ -7934,7 +8121,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -7954,7 +8141,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>549</v>
       </c>
@@ -7974,7 +8161,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -7994,7 +8181,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -8002,7 +8189,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>561</v>
       </c>
@@ -8022,7 +8209,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>550</v>
       </c>
@@ -8042,7 +8229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>551</v>
       </c>
@@ -8062,7 +8249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>552</v>
       </c>
@@ -8082,7 +8269,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -8102,7 +8289,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>560</v>
       </c>
@@ -8122,7 +8309,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>543</v>
       </c>
@@ -8142,7 +8329,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>553</v>
       </c>
@@ -8162,7 +8349,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -8182,7 +8369,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -8190,7 +8377,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>559</v>
       </c>
@@ -8210,7 +8397,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>554</v>
       </c>
@@ -8230,7 +8417,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>555</v>
       </c>
@@ -8250,7 +8437,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>556</v>
       </c>
@@ -8270,7 +8457,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>557</v>
       </c>
@@ -8290,7 +8477,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8310,7 +8497,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -8321,7 +8508,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -8329,7 +8516,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -8351,32 +8538,32 @@
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>200</v>
       </c>
@@ -8458,7 +8645,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
@@ -8557,7 +8744,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
@@ -8656,7 +8843,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
@@ -8755,7 +8942,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>206</v>
       </c>
@@ -8854,7 +9041,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>207</v>
       </c>
@@ -8948,7 +9135,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>209</v>
       </c>
@@ -9042,7 +9229,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -9077,7 +9264,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
@@ -9125,7 +9312,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
@@ -9167,7 +9354,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
@@ -9183,7 +9370,7 @@
       <c r="V11" s="32"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>211</v>
       </c>
@@ -9234,7 +9421,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>215</v>
       </c>
@@ -9287,7 +9474,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -9340,7 +9527,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -9393,7 +9580,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -9446,7 +9633,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>219</v>
       </c>
@@ -9499,7 +9686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>220</v>
       </c>
@@ -9552,7 +9739,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>221</v>
       </c>
@@ -9605,7 +9792,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>255</v>
       </c>
@@ -9623,7 +9810,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>257</v>
       </c>
@@ -9642,7 +9829,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>258</v>
       </c>
@@ -9663,7 +9850,7 @@
       <c r="V22" s="32"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>222</v>
       </c>
@@ -9711,7 +9898,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>223</v>
       </c>
@@ -9759,7 +9946,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>224</v>
       </c>
@@ -9807,7 +9994,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>225</v>
       </c>
@@ -9855,7 +10042,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>226</v>
       </c>
@@ -9903,7 +10090,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>227</v>
       </c>
@@ -9951,7 +10138,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>228</v>
       </c>
@@ -9999,7 +10186,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>229</v>
       </c>
@@ -10047,7 +10234,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>230</v>
       </c>
@@ -10095,7 +10282,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>231</v>
       </c>
@@ -10143,7 +10330,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>232</v>
       </c>
@@ -10191,7 +10378,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>233</v>
       </c>
@@ -10239,7 +10426,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>234</v>
       </c>
@@ -10287,7 +10474,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>235</v>
       </c>
@@ -10335,7 +10522,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>236</v>
       </c>
@@ -10383,7 +10570,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>237</v>
       </c>
@@ -10431,7 +10618,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>238</v>
       </c>
@@ -10479,7 +10666,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>239</v>
       </c>
@@ -10541,15 +10728,15 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -10648,7 +10835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -10759,7 +10946,7 @@
         <v>10.333402166480258</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -10868,7 +11055,7 @@
         <v>25.143552870628557</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -10977,7 +11164,7 @@
         <v>4.1054218110057965</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -11078,7 +11265,7 @@
         <v>3.9671629464069529</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -11182,7 +11369,7 @@
         <v>19.299485959819044</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -11285,7 +11472,7 @@
         <v>322.14084632849483</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -11344,7 +11531,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -11403,7 +11590,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -11415,7 +11602,7 @@
       </c>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -11428,7 +11615,7 @@
       </c>
       <c r="AB11" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -11493,7 +11680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -11507,7 +11694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>65</v>
       </c>
@@ -11515,7 +11702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>73</v>
       </c>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19212" windowHeight="11880" tabRatio="687" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="640">
   <si>
     <t>France</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Bachelor's degree (for example: BA, BS)</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>2-year college degree or associates degree (for example: AA, AS) / Some college, no degree</t>
   </si>
   <si>
@@ -1043,9 +1040,6 @@
   </si>
   <si>
     <t>Baccalauréat général</t>
-  </si>
-  <si>
-    <t>Regular high school diploma/GED or alternative credential or Some college, no degree</t>
   </si>
   <si>
     <t>Master’s degree or above (MA, MS, MEng, MEd, MSW, MBA, MD, DDS, DVM, LLB, JD, PhD)</t>
@@ -1945,6 +1939,21 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Some college, no degree</t>
+  </si>
+  <si>
+    <t>Regular high school diploma/GED or alternative credential</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
   </si>
 </sst>
 </file>
@@ -2538,12 +2547,12 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.44140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2581,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -2612,10 +2621,10 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="N2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
@@ -2643,7 +2652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2687,9 +2696,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B6" s="20">
         <f>B8*(B12*(B14/B13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B13/12-30</f>
@@ -2722,7 +2731,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>285.30725980380089</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
@@ -2783,7 +2792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>23.777393803164124</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
@@ -2854,7 +2863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
@@ -2919,7 +2928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -2987,7 +2996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2996,7 +3005,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -3025,9 +3034,9 @@
         <v>4.5731003235390304E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B17" s="11">
         <f>B20/B18</f>
@@ -3051,9 +3060,9 @@
         <v>6.5196117592019917E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B18" s="11">
         <v>8.9499999999999996E-2</v>
@@ -3072,10 +3081,10 @@
         <v>0.1903</v>
       </c>
       <c r="M18" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>70</v>
       </c>
@@ -3130,10 +3139,10 @@
         <v>1.2406821177761389E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -3159,9 +3168,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B22" s="41">
         <v>175</v>
@@ -3180,10 +3189,10 @@
         <v>479</v>
       </c>
       <c r="M22" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -3209,7 +3218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>72</v>
       </c>
@@ -3220,7 +3229,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>10</v>
       </c>
@@ -3317,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
@@ -3377,7 +3386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>7</v>
       </c>
@@ -3414,7 +3423,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
@@ -3445,7 +3454,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>56</v>
       </c>
@@ -3505,7 +3514,7 @@
         <v>264.04020802872463</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>106</v>
       </c>
@@ -3564,445 +3573,445 @@
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
     </row>
   </sheetData>
@@ -4020,20 +4029,20 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="46.5546875" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" customWidth="1"/>
-    <col min="6" max="6" width="40.5546875" customWidth="1"/>
-    <col min="7" max="7" width="1.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -4051,384 +4060,384 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
       <c r="E2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="s">
         <v>340</v>
       </c>
-      <c r="F2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" t="s">
         <v>341</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>342</v>
       </c>
-      <c r="C3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B4" s="74" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>345</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
       <c r="F4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" t="s">
         <v>348</v>
       </c>
-      <c r="C5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E6" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" t="s">
         <v>349</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D7" t="s">
-        <v>459</v>
-      </c>
-      <c r="E7" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" t="s">
-        <v>465</v>
-      </c>
-      <c r="D8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" t="s">
-        <v>371</v>
-      </c>
-      <c r="E9" t="s">
-        <v>371</v>
-      </c>
-      <c r="F9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" t="s">
         <v>352</v>
       </c>
-      <c r="B10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D10" t="s">
-        <v>440</v>
-      </c>
-      <c r="E10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="74" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>356</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="74"/>
       <c r="E11" s="74"/>
       <c r="F11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>591</v>
-      </c>
-      <c r="B12" s="66" t="s">
+      <c r="B13" s="67" t="s">
         <v>585</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C13" s="68" t="s">
         <v>586</v>
       </c>
-      <c r="D12" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="E12" s="66" t="s">
+      <c r="D13" s="68" t="s">
+        <v>587</v>
+      </c>
+      <c r="E13" t="s">
+        <v>588</v>
+      </c>
+      <c r="F13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" t="s">
         <v>364</v>
       </c>
-      <c r="F12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>587</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>588</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="E13" t="s">
-        <v>590</v>
-      </c>
-      <c r="F13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" t="s">
         <v>366</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>367</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>368</v>
       </c>
-      <c r="E14" t="s">
-        <v>369</v>
-      </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>372</v>
-      </c>
       <c r="B15" s="74" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C15" s="74"/>
       <c r="D15" s="74"/>
       <c r="E15" s="74"/>
       <c r="F15" s="74"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
       <c r="F16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>446</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="E17" s="69" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="F17" s="69" t="s">
         <v>376</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>448</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>447</v>
-      </c>
-      <c r="E17" s="69" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" t="s">
         <v>377</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="C18" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>404</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>379</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>380</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>381</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B19" s="74" t="s">
         <v>382</v>
-      </c>
-      <c r="F18" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>444</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>384</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
       <c r="F19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" t="s">
         <v>386</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>387</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" t="s">
+        <v>598</v>
+      </c>
+      <c r="D21" t="s">
+        <v>425</v>
+      </c>
+      <c r="E21" t="s">
+        <v>424</v>
+      </c>
+      <c r="F21" t="s">
         <v>388</v>
       </c>
-      <c r="F20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>389</v>
       </c>
-      <c r="B21" t="s">
-        <v>425</v>
-      </c>
-      <c r="C21" t="s">
-        <v>600</v>
-      </c>
-      <c r="D21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E21" t="s">
-        <v>426</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B22" s="74" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>391</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>392</v>
       </c>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
       <c r="F22" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B23" s="13">
         <v>0.55000000000000004</v>
@@ -4446,312 +4455,312 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
       <c r="F24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="C25" t="s">
+        <v>595</v>
+      </c>
+      <c r="D25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E25" t="s">
         <v>400</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="C25" t="s">
-        <v>597</v>
-      </c>
-      <c r="D25" t="s">
-        <v>598</v>
-      </c>
-      <c r="E25" t="s">
-        <v>402</v>
-      </c>
       <c r="F25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B26" s="74" t="s">
         <v>397</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>399</v>
       </c>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
       <c r="F26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" t="s">
+        <v>405</v>
+      </c>
+      <c r="F28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B29" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" t="s">
         <v>415</v>
       </c>
-      <c r="B27" t="s">
-        <v>413</v>
-      </c>
-      <c r="C27" t="s">
-        <v>409</v>
-      </c>
-      <c r="D27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>445</v>
-      </c>
-      <c r="B28" t="s">
-        <v>414</v>
-      </c>
-      <c r="C28" t="s">
-        <v>410</v>
-      </c>
-      <c r="D28" t="s">
-        <v>411</v>
-      </c>
-      <c r="E28" t="s">
-        <v>407</v>
-      </c>
-      <c r="F28" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>420</v>
-      </c>
-      <c r="B29" t="s">
-        <v>422</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>416</v>
+      </c>
+      <c r="E29" t="s">
+        <v>419</v>
+      </c>
+      <c r="F29" t="s">
         <v>417</v>
       </c>
-      <c r="D29" t="s">
-        <v>418</v>
-      </c>
-      <c r="E29" t="s">
-        <v>421</v>
-      </c>
-      <c r="F29" t="s">
-        <v>419</v>
-      </c>
       <c r="H29" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>616</v>
+      </c>
+      <c r="B30" t="s">
+        <v>610</v>
+      </c>
+      <c r="C30" t="s">
+        <v>611</v>
+      </c>
+      <c r="D30" t="s">
+        <v>612</v>
+      </c>
+      <c r="E30" t="s">
+        <v>613</v>
+      </c>
+      <c r="F30" t="s">
+        <v>615</v>
+      </c>
+      <c r="H30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>600</v>
+      </c>
+      <c r="B31" t="s">
+        <v>617</v>
+      </c>
+      <c r="C31" t="s">
+        <v>618</v>
+      </c>
+      <c r="D31" t="s">
+        <v>619</v>
+      </c>
+      <c r="E31" t="s">
+        <v>620</v>
+      </c>
+      <c r="F31" t="s">
+        <v>621</v>
+      </c>
+      <c r="H31" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32" t="s">
+        <v>604</v>
+      </c>
+      <c r="C32" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>618</v>
-      </c>
-      <c r="B30" t="s">
-        <v>612</v>
-      </c>
-      <c r="C30" t="s">
-        <v>613</v>
-      </c>
-      <c r="D30" t="s">
-        <v>614</v>
-      </c>
-      <c r="E30" t="s">
-        <v>615</v>
-      </c>
-      <c r="F30" t="s">
-        <v>617</v>
-      </c>
-      <c r="H30" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D32" t="s">
+        <v>606</v>
+      </c>
+      <c r="E32" t="s">
+        <v>607</v>
+      </c>
+      <c r="F32" t="s">
+        <v>609</v>
+      </c>
+      <c r="H32" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>602</v>
       </c>
-      <c r="B31" t="s">
-        <v>619</v>
-      </c>
-      <c r="C31" t="s">
-        <v>620</v>
-      </c>
-      <c r="D31" t="s">
-        <v>621</v>
-      </c>
-      <c r="E31" t="s">
-        <v>622</v>
-      </c>
-      <c r="F31" t="s">
-        <v>623</v>
-      </c>
-      <c r="H31" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>603</v>
-      </c>
-      <c r="B32" t="s">
-        <v>606</v>
-      </c>
-      <c r="C32" t="s">
-        <v>607</v>
-      </c>
-      <c r="D32" t="s">
-        <v>608</v>
-      </c>
-      <c r="E32" t="s">
-        <v>609</v>
-      </c>
-      <c r="F32" t="s">
-        <v>611</v>
-      </c>
-      <c r="H32" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>481</v>
+      </c>
+      <c r="F34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
         <v>483</v>
       </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F39" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F41" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F42" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F43" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F44" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F45" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="71" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F46" t="s">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="71" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F48" s="71" t="s">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="71" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F49" s="71" t="s">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="71" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F50" s="71" t="s">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="71" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F51" s="71" t="s">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="71" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F52" s="71" t="s">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="71" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F53" s="71" t="s">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="71" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F55" s="71" t="s">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="71" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F56" s="71" t="s">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="71" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F57" s="71" t="s">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="71" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F58" s="71" t="s">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="71" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F59" s="71" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F60" s="71" t="s">
-        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4775,45 +4784,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="14" width="5.44140625" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" customWidth="1"/>
-    <col min="16" max="18" width="5.44140625" customWidth="1"/>
+    <col min="13" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="18" width="5.42578125" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.33203125" customWidth="1"/>
-    <col min="21" max="22" width="5.44140625" customWidth="1"/>
-    <col min="23" max="23" width="4.33203125" customWidth="1"/>
-    <col min="24" max="26" width="3.88671875" customWidth="1"/>
-    <col min="27" max="29" width="5.44140625" customWidth="1"/>
-    <col min="30" max="30" width="8.5546875" customWidth="1"/>
-    <col min="31" max="31" width="8.44140625" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" customWidth="1"/>
+    <col min="21" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="29" width="5.42578125" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="33" max="33" width="8.33203125" customWidth="1"/>
-    <col min="34" max="34" width="8.44140625" customWidth="1"/>
-    <col min="35" max="36" width="8.33203125" customWidth="1"/>
-    <col min="37" max="37" width="9.109375" customWidth="1"/>
-    <col min="40" max="40" width="8.88671875" customWidth="1"/>
-    <col min="41" max="41" width="7.88671875" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" customWidth="1"/>
+    <col min="34" max="34" width="8.42578125" customWidth="1"/>
+    <col min="35" max="36" width="8.28515625" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" customWidth="1"/>
+    <col min="40" max="40" width="8.85546875" customWidth="1"/>
+    <col min="41" max="41" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -4821,64 +4830,64 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="V1" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>87</v>
@@ -4893,55 +4902,55 @@
         <v>3</v>
       </c>
       <c r="AA1" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC1" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>514</v>
-      </c>
       <c r="AD1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AG1" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>316</v>
-      </c>
       <c r="AI1" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AJ1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM1" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AK1" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="AO1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
@@ -4978,15 +4987,15 @@
         <v>250</v>
       </c>
       <c r="L2" s="2">
-        <f>AA2*SUM($H2:$J2)/1000</f>
+        <f t="shared" ref="L2:N6" si="0">AA2*SUM($H2:$J2)/1000</f>
         <v>112.14</v>
       </c>
       <c r="M2" s="2">
-        <f>AB2*SUM($H2:$J2)/1000</f>
+        <f t="shared" si="0"/>
         <v>260.82</v>
       </c>
       <c r="N2" s="2">
-        <f>AC2*SUM($H2:$J2)/1000</f>
+        <f t="shared" si="0"/>
         <v>257.67</v>
       </c>
       <c r="O2">
@@ -5011,23 +5020,23 @@
         <v>409</v>
       </c>
       <c r="AD2" s="2">
-        <f>AE17*$C2*$D$7/1000</f>
+        <f t="shared" ref="AD2:AH5" si="1">AE17*$C2*$D$7/1000</f>
         <v>91.878702397743297</v>
       </c>
       <c r="AE2" s="2">
-        <f>AF17*$C2*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>97.226140103432058</v>
       </c>
       <c r="AF2" s="2">
-        <f>AG17*$C2*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>106.94875411377527</v>
       </c>
       <c r="AG2" s="2">
-        <f>AH17*$C2*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>68.058298072402437</v>
       </c>
       <c r="AH2" s="2">
-        <f>AI17*$C2*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>122.01880582980723</v>
       </c>
       <c r="AI2">
@@ -5040,19 +5049,19 @@
         <v>222</v>
       </c>
       <c r="AL2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN2" t="s">
         <v>271</v>
       </c>
-      <c r="AN2" t="s">
-        <v>272</v>
-      </c>
       <c r="AO2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>88</v>
       </c>
@@ -5089,15 +5098,15 @@
         <v>263</v>
       </c>
       <c r="L3" s="2">
-        <f>AA3*SUM($H3:$J3)/1000</f>
+        <f t="shared" si="0"/>
         <v>95.843999999999994</v>
       </c>
       <c r="M3" s="2">
-        <f>AB3*SUM($H3:$J3)/1000</f>
+        <f t="shared" si="0"/>
         <v>266.66800000000001</v>
       </c>
       <c r="N3" s="2">
-        <f>AC3*SUM($H3:$J3)/1000</f>
+        <f t="shared" si="0"/>
         <v>289.488</v>
       </c>
       <c r="O3">
@@ -5122,23 +5131,23 @@
         <v>444</v>
       </c>
       <c r="AD3" s="2">
-        <f>AE18*$C3*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>117.98326281147156</v>
       </c>
       <c r="AE3" s="2">
-        <f>AF18*$C3*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>180.69449929478137</v>
       </c>
       <c r="AF3" s="2">
-        <f>AG18*$C3*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>66.104560413728251</v>
       </c>
       <c r="AG3" s="2">
-        <f>AH18*$C3*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>97.753831687823237</v>
       </c>
       <c r="AH3" s="2">
-        <f>AI18*$C3*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>190.09139633286318</v>
       </c>
       <c r="AI3">
@@ -5151,22 +5160,22 @@
         <v>202</v>
       </c>
       <c r="AL3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AN3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AO3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AP3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>89</v>
       </c>
@@ -5203,15 +5212,15 @@
         <v>246</v>
       </c>
       <c r="L4" s="2">
-        <f>AA4*SUM($H4:$J4)/1000</f>
+        <f t="shared" si="0"/>
         <v>243.67500000000001</v>
       </c>
       <c r="M4" s="2">
-        <f>AB4*SUM($H4:$J4)/1000</f>
+        <f t="shared" si="0"/>
         <v>155.92500000000001</v>
       </c>
       <c r="N4" s="2">
-        <f>AC4*SUM($H4:$J4)/1000</f>
+        <f t="shared" si="0"/>
         <v>275.39999999999998</v>
       </c>
       <c r="O4">
@@ -5236,23 +5245,23 @@
         <v>408</v>
       </c>
       <c r="AD4" s="2">
-        <f>AE19*$C4*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>106.88048895157497</v>
       </c>
       <c r="AE4" s="2">
-        <f>AF19*$C4*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>67.32848142924307</v>
       </c>
       <c r="AF4" s="2">
-        <f>AG19*$C4*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>102.13125058768217</v>
       </c>
       <c r="AG4" s="2">
-        <f>AH19*$C4*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>39.015143394452281</v>
       </c>
       <c r="AH4" s="2">
-        <f>AI19*$C4*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>46.656497414198398</v>
       </c>
       <c r="AI4">
@@ -5262,19 +5271,19 @@
         <v>303</v>
       </c>
       <c r="AL4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN4" t="s">
         <v>297</v>
       </c>
-      <c r="AN4" t="s">
-        <v>298</v>
-      </c>
       <c r="AO4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AP4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -5311,15 +5320,15 @@
         <v>241</v>
       </c>
       <c r="L5" s="2">
-        <f>AA5*SUM($H5:$J5)/1000</f>
+        <f t="shared" si="0"/>
         <v>120.414</v>
       </c>
       <c r="M5" s="2">
-        <f>AB5*SUM($H5:$J5)/1000</f>
+        <f t="shared" si="0"/>
         <v>131.6</v>
       </c>
       <c r="N5" s="2">
-        <f>AC5*SUM($H5:$J5)/1000</f>
+        <f t="shared" si="0"/>
         <v>329.65800000000002</v>
       </c>
       <c r="O5">
@@ -5344,23 +5353,23 @@
         <v>501</v>
       </c>
       <c r="AD5" s="2">
-        <f>AE20*$C5*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>64.758533145275024</v>
       </c>
       <c r="AE5" s="2">
-        <f>AF20*$C5*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>155.87983074753171</v>
       </c>
       <c r="AF5" s="2">
-        <f>AG20*$C5*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>104.60225669957687</v>
       </c>
       <c r="AG5" s="2">
-        <f>AH20*$C5*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>118.08321579689704</v>
       </c>
       <c r="AH5" s="2">
-        <f>AI20*$C5*$D$7/1000</f>
+        <f t="shared" si="1"/>
         <v>55.970944992947814</v>
       </c>
       <c r="AI5">
@@ -5373,27 +5382,27 @@
         <v>128</v>
       </c>
       <c r="AL5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM5" t="s">
         <v>299</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO5" t="s">
         <v>300</v>
       </c>
-      <c r="AN5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>301</v>
-      </c>
       <c r="AP5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AQ5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B2:B5)</f>
@@ -5408,55 +5417,55 @@
         <v>509.88904560413727</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:R6" si="0">SUMPRODUCT($C2:$C5,F2:F5)</f>
+        <f t="shared" ref="F6:R6" si="2">SUMPRODUCT($C2:$C5,F2:F5)</f>
         <v>490.11095439586268</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>96.665256229431108</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>149.78749412317816</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>243.27080394922424</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>259.25528913963331</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>251.27080394922424</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>96.665256229431108</v>
-      </c>
-      <c r="H6" s="2">
+        <v>131.93540660356939</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>149.78749412317816</v>
-      </c>
-      <c r="I6" s="2">
+        <v>212.5367700498814</v>
+      </c>
+      <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>243.27080394922424</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>259.25528913963331</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>251.27080394922424</v>
-      </c>
-      <c r="L6" s="2">
-        <f>AA6*SUM($H6:$J6)/1000</f>
-        <v>131.93540660356939</v>
-      </c>
-      <c r="M6" s="2">
-        <f>AB6*SUM($H6:$J6)/1000</f>
-        <v>212.5367700498814</v>
-      </c>
-      <c r="N6" s="2">
-        <f>AC6*SUM($H6:$J6)/1000</f>
         <v>289.10955273379693</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" ref="O6" si="1">SUMPRODUCT($C2:$C5,O2:O5)</f>
+        <f t="shared" ref="O6" si="3">SUMPRODUCT($C2:$C5,O2:O5)</f>
         <v>443.2063939821345</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>425.77103902209689</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>325.11847672778561</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>249.11048425011754</v>
       </c>
       <c r="S6" s="2"/>
@@ -5492,28 +5501,28 @@
         <v>443.2063939821345</v>
       </c>
       <c r="AI6" s="2">
-        <f t="shared" ref="AI6:AK6" si="2">SUMPRODUCT($C1:$C4,AI1:AI4)</f>
+        <f t="shared" ref="AI6:AK6" si="4">SUMPRODUCT($C1:$C4,AI1:AI4)</f>
         <v>399.66619652092146</v>
       </c>
       <c r="AJ6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>176.21532675129291</v>
       </c>
       <c r="AK6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>174.71415138692993</v>
       </c>
       <c r="AL6" t="s">
+        <v>507</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>508</v>
+      </c>
+      <c r="AN6" t="s">
         <v>509</v>
       </c>
-      <c r="AM6" t="s">
-        <v>510</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5526,31 +5535,31 @@
         <v>2000</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:K7" si="3">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
+        <f t="shared" ref="E7:K7" si="5">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
         <v>1019.7780912082745</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>980.22190879172535</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>193.33051245886222</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>299.57498824635633</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>486.54160789844849</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>518.51057827926661</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>502.54160789844849</v>
       </c>
       <c r="L7" s="2">
@@ -5566,7 +5575,7 @@
         <v>578.21910546759386</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7" si="4">SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
+        <f t="shared" ref="O7" si="6">SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
         <v>886.412787964269</v>
       </c>
       <c r="P7" s="2">
@@ -5626,10 +5635,10 @@
         <v>206.66901739539256</v>
       </c>
       <c r="AO7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5724,12 +5733,12 @@
         <v>383</v>
       </c>
       <c r="AO8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B9" s="2">
         <v>257</v>
@@ -5742,77 +5751,77 @@
         <v>1522.5</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:V10" si="5">F$8*$D9/$D$8</f>
+        <f t="shared" ref="F9:V10" si="7">F$8*$D9/$D$8</f>
         <v>1477.5</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>354</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>729</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>740.1</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>636.9</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>166.75530000000001</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>831.76740000000007</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1010.5773</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1509</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2197.1999999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>802.80000000000007</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1803</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>555</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>402</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B10" s="2">
         <v>257</v>
@@ -5825,104 +5834,104 @@
         <v>1522.5</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1477.5</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>354</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>729</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>740.1</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>636.9</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>166.75530000000001</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>831.76740000000007</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1010.5773</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1509</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2197.1999999999998</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>802.80000000000007</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1803</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>555</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>402</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AD12" s="19" t="s">
         <v>87</v>
       </c>
       <c r="AE12" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF12" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="AF12" s="58" t="s">
+      <c r="AG12" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="AG12" s="58" t="s">
+      <c r="AH12" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="AH12" s="58" t="s">
+      <c r="AI12" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="AI12" s="58" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>87</v>
       </c>
@@ -5931,85 +5940,85 @@
         <v>1.0119848709215202</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:O13" si="6">F2/F$6</f>
+        <f t="shared" ref="F13:O13" si="8">F2/F$6</f>
         <v>0.98753148783749312</v>
       </c>
       <c r="G13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2413974232394813</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0014187157483727</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.98655488494251475</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.92572846168911704</v>
       </c>
       <c r="K13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99494249260458834</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:N13" si="7">L2/L$6</f>
+        <f t="shared" ref="L13:N13" si="9">L2/L$6</f>
         <v>0.84996137797150018</v>
       </c>
       <c r="M13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2271758902649492</v>
       </c>
       <c r="N13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.89125384326976742</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.92282062161875456</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:R13" si="8">P2/P$6</f>
+        <f t="shared" ref="P13:R13" si="10">P2/P$6</f>
         <v>1.0921362830783501</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.59670555162705141</v>
       </c>
       <c r="R13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3688705275753126</v>
       </c>
       <c r="AA13">
-        <f>AA2/AA$6</f>
+        <f t="shared" ref="AA13:AB16" si="11">AA2/AA$6</f>
         <v>0.8800656435813875</v>
       </c>
       <c r="AB13">
-        <f>AB2/AB$6</f>
+        <f t="shared" si="11"/>
         <v>1.2706404874902422</v>
       </c>
       <c r="AD13" s="19" t="s">
         <v>88</v>
       </c>
       <c r="AE13" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF13" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="AF13" s="59" t="s">
+      <c r="AG13" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="AG13" s="59" t="s">
+      <c r="AH13" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="AH13" s="59" t="s">
+      <c r="AI13" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="AI13" s="60" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>88</v>
       </c>
@@ -6018,85 +6027,85 @@
         <v>1.0041400269608882</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:O14" si="9">F3/F$6</f>
+        <f t="shared" ref="F14:O14" si="12">F3/F$6</f>
         <v>0.99569290509234842</v>
       </c>
       <c r="G14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.87932317479463262</v>
       </c>
       <c r="H14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0014187157483727</v>
       </c>
       <c r="I14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.91256326857182624</v>
       </c>
       <c r="J14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0800165386373033</v>
       </c>
       <c r="K14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0466795022200268</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:N14" si="10">L3/L$6</f>
+        <f t="shared" ref="L14:N14" si="13">L3/L$6</f>
         <v>0.72644639121009857</v>
       </c>
       <c r="M14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.254691129151037</v>
       </c>
       <c r="N14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0013090098982358</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0017906014638802</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:R14" si="11">P3/P$6</f>
+        <f t="shared" ref="P14:R14" si="14">P3/P$6</f>
         <v>0.85961694539070133</v>
       </c>
       <c r="Q14">
+        <f t="shared" si="14"/>
+        <v>1.242623932254272</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="14"/>
+        <v>0.92328510657572405</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="11"/>
-        <v>1.242623932254272</v>
-      </c>
-      <c r="R14">
+        <v>0.72679578430597735</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="11"/>
-        <v>0.92328510657572405</v>
-      </c>
-      <c r="AA14">
-        <f>AA3/AA$6</f>
-        <v>0.72679578430597735</v>
-      </c>
-      <c r="AB14">
-        <f>AB3/AB$6</f>
         <v>1.2552945878828721</v>
       </c>
       <c r="AD14" s="19" t="s">
         <v>89</v>
       </c>
       <c r="AE14" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF14" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="AF14" s="59" t="s">
-        <v>323</v>
-      </c>
       <c r="AG14" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH14" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="AH14" s="59" t="s">
+      <c r="AI14" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="AI14" s="60" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>89</v>
       </c>
@@ -6105,85 +6114,85 @@
         <v>0.99237276101994043</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:O15" si="12">F4/F$6</f>
+        <f t="shared" ref="F15:O15" si="15">F4/F$6</f>
         <v>1.0079350309746313</v>
       </c>
       <c r="G15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.81725330363265858</v>
       </c>
       <c r="H15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.82783947168532146</v>
       </c>
       <c r="I15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1715339258692363</v>
       </c>
       <c r="J15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.026015711705438</v>
       </c>
       <c r="K15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.97902341272291493</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:N15" si="13">L4/L$6</f>
+        <f t="shared" ref="L15:N15" si="16">L4/L$6</f>
         <v>1.8469265095167229</v>
       </c>
       <c r="M15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.73363776048448059</v>
       </c>
       <c r="N15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.95258007698410341</v>
       </c>
       <c r="O15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.92056433648032243</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15:R15" si="14">P4/P$6</f>
+        <f t="shared" ref="P15:R15" si="17">P4/P$6</f>
         <v>1.2095702920115059</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.68897960600236874</v>
       </c>
       <c r="R15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0477278818098434</v>
       </c>
       <c r="AA15">
-        <f>AA4/AA$6</f>
+        <f t="shared" si="11"/>
         <v>1.784852232207196</v>
       </c>
       <c r="AB15">
-        <f>AB4/AB$6</f>
+        <f t="shared" si="11"/>
         <v>0.7089805618604974</v>
       </c>
       <c r="AD15" s="19" t="s">
         <v>3</v>
       </c>
       <c r="AE15" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF15" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="AF15" s="59" t="s">
+      <c r="AG15" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="AG15" s="59" t="s">
+      <c r="AH15" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="AH15" s="59" t="s">
+      <c r="AI15" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="AI15" s="60" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
@@ -6192,147 +6201,147 @@
         <v>0.98845033903962443</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:O16" si="15">F5/F$6</f>
+        <f t="shared" ref="F16:O16" si="18">F5/F$6</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0551878097535592</v>
       </c>
       <c r="H16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1215889616381773</v>
       </c>
       <c r="I16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0029974663582233</v>
       </c>
       <c r="J16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.94887167323134503</v>
       </c>
       <c r="K16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.95912456287082315</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:N16" si="16">L5/L$6</f>
+        <f t="shared" ref="L16:N16" si="19">L5/L$6</f>
         <v>0.91267388413643857</v>
       </c>
       <c r="M16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.61918697630115527</v>
       </c>
       <c r="N16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1402528795149804</v>
       </c>
       <c r="O16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1303988543545136</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16:R16" si="17">P5/P$6</f>
+        <f t="shared" ref="P16:R16" si="20">P5/P$6</f>
         <v>0.94182075164391044</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3010641666919731</v>
       </c>
       <c r="R16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.70651382068403235</v>
       </c>
       <c r="AA16">
-        <f>AA5/AA$6</f>
+        <f t="shared" si="11"/>
         <v>0.90478658862580852</v>
       </c>
       <c r="AB16">
-        <f>AB5/AB$6</f>
+        <f t="shared" si="11"/>
         <v>0.61383598429480291</v>
       </c>
       <c r="AD16" t="s">
         <v>5</v>
       </c>
       <c r="AE16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF16" t="s">
         <v>319</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>320</v>
       </c>
-      <c r="AG16" t="s">
-        <v>321</v>
-      </c>
       <c r="AH16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E17">
         <f>MIN(E13:E16)</f>
         <v>0.98845033903962443</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:K17" si="18">MIN(F13:F16)</f>
+        <f t="shared" ref="F17:K17" si="21">MIN(F13:F16)</f>
         <v>0.98753148783749312</v>
       </c>
       <c r="G17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.81725330363265858</v>
       </c>
       <c r="H17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.82783947168532146</v>
       </c>
       <c r="I17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.91256326857182624</v>
       </c>
       <c r="J17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.92572846168911704</v>
       </c>
       <c r="K17" s="61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.95912456287082315</v>
       </c>
       <c r="L17" s="61">
-        <f t="shared" ref="L17:N17" si="19">MIN(L13:L16)</f>
+        <f t="shared" ref="L17:N17" si="22">MIN(L13:L16)</f>
         <v>0.72644639121009857</v>
       </c>
       <c r="M17" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.61918697630115527</v>
       </c>
       <c r="N17" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.89125384326976742</v>
       </c>
       <c r="O17" s="61">
-        <f t="shared" ref="O17:P17" si="20">MIN(O13:O16)</f>
+        <f t="shared" ref="O17:P17" si="23">MIN(O13:O16)</f>
         <v>0.92056433648032243</v>
       </c>
       <c r="P17" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.85961694539070133</v>
       </c>
       <c r="Q17" s="61">
-        <f t="shared" ref="Q17:R17" si="21">MIN(Q13:Q16)</f>
+        <f t="shared" ref="Q17:R17" si="24">MIN(Q13:Q16)</f>
         <v>0.59670555162705141</v>
       </c>
       <c r="R17" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.70651382068403235</v>
       </c>
       <c r="AA17" s="61">
-        <f t="shared" ref="AA17:AB17" si="22">MIN(AA13:AA16)</f>
+        <f t="shared" ref="AA17:AB17" si="25">MIN(AA13:AA16)</f>
         <v>0.72679578430597735</v>
       </c>
       <c r="AB17" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.61383598429480291</v>
       </c>
       <c r="AC17" s="61"/>
@@ -6355,72 +6364,72 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E18">
         <f>MAX(E13:E16)</f>
         <v>1.0119848709215202</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:J18" si="23">MAX(F13:F16)</f>
+        <f t="shared" ref="F18:J18" si="26">MAX(F13:F16)</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.2413974232394813</v>
       </c>
       <c r="H18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.1215889616381773</v>
       </c>
       <c r="I18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.1715339258692363</v>
       </c>
       <c r="J18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.0800165386373033</v>
       </c>
       <c r="K18" s="61">
-        <f t="shared" ref="K18:O18" si="24">MAX(K13:K16)</f>
+        <f t="shared" ref="K18:O18" si="27">MAX(K13:K16)</f>
         <v>1.0466795022200268</v>
       </c>
       <c r="L18" s="61">
-        <f t="shared" ref="L18:N18" si="25">MAX(L13:L16)</f>
+        <f t="shared" ref="L18:N18" si="28">MAX(L13:L16)</f>
         <v>1.8469265095167229</v>
       </c>
       <c r="M18" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.254691129151037</v>
       </c>
       <c r="N18" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.1402528795149804</v>
       </c>
       <c r="O18" s="61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.1303988543545136</v>
       </c>
       <c r="P18" s="61">
-        <f t="shared" ref="P18:R18" si="26">MAX(P13:P16)</f>
+        <f t="shared" ref="P18:R18" si="29">MAX(P13:P16)</f>
         <v>1.2095702920115059</v>
       </c>
       <c r="Q18" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.3010641666919731</v>
       </c>
       <c r="R18" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.3688705275753126</v>
       </c>
       <c r="AA18" s="61">
-        <f t="shared" ref="AA18:AB18" si="27">MAX(AA13:AA16)</f>
+        <f t="shared" ref="AA18:AB18" si="30">MAX(AA13:AA16)</f>
         <v>1.784852232207196</v>
       </c>
       <c r="AB18" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1.2706404874902422</v>
       </c>
       <c r="AC18" s="61"/>
@@ -6443,72 +6452,72 @@
         <v>291.3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E19" s="63">
         <f>IF(E18&gt;=1/E17,E18-1,1-1/E17)</f>
         <v>1.198487092152023E-2</v>
       </c>
       <c r="F19" s="63">
-        <f t="shared" ref="F19:K19" si="28">IF(F18&gt;=1/F17,F18-1,1-1/F17)</f>
+        <f t="shared" ref="F19:K19" si="31">IF(F18&gt;=1/F17,F18-1,1-1/F17)</f>
         <v>-1.2625938834426975E-2</v>
       </c>
       <c r="G19" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.24139742323948132</v>
       </c>
       <c r="H19" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-0.20796366228369489</v>
       </c>
       <c r="I19" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.17153392586923633</v>
       </c>
       <c r="J19" s="63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-8.023037141513889E-2</v>
       </c>
       <c r="K19" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4.6679502220026814E-2</v>
       </c>
       <c r="L19" s="64">
-        <f t="shared" ref="L19:N19" si="29">IF(L18&gt;=1/L17,L18-1,1-1/L17)</f>
+        <f t="shared" ref="L19:N19" si="32">IF(L18&gt;=1/L17,L18-1,1-1/L17)</f>
         <v>0.84692650951672288</v>
       </c>
       <c r="M19" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.61502104901125687</v>
       </c>
       <c r="N19" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.14025287951498044</v>
       </c>
       <c r="O19" s="64">
-        <f t="shared" ref="O19:P19" si="30">IF(O18&gt;=1/O17,O18-1,1-1/O17)</f>
+        <f t="shared" ref="O19:P19" si="33">IF(O18&gt;=1/O17,O18-1,1-1/O17)</f>
         <v>0.13039885435451359</v>
       </c>
       <c r="P19" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.2095702920115059</v>
       </c>
       <c r="Q19" s="64">
-        <f t="shared" ref="Q19:R19" si="31">IF(Q18&gt;=1/Q17,Q18-1,1-1/Q17)</f>
+        <f t="shared" ref="Q19:R19" si="34">IF(Q18&gt;=1/Q17,Q18-1,1-1/Q17)</f>
         <v>-0.67586843674116293</v>
       </c>
       <c r="R19" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-0.41540047869384966</v>
       </c>
       <c r="AA19" s="64">
-        <f t="shared" ref="AA19:AB19" si="32">IF(AA18&gt;=1/AA17,AA18-1,1-1/AA17)</f>
+        <f t="shared" ref="AA19:AB19" si="35">IF(AA18&gt;=1/AA17,AA18-1,1-1/AA17)</f>
         <v>0.78485223220719602</v>
       </c>
       <c r="AB19" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.62909967089797836</v>
       </c>
       <c r="AC19" s="64"/>
@@ -6531,9 +6540,9 @@
         <v>128.881</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E20" t="s">
         <v>87</v>
@@ -6602,7 +6611,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD21" t="s">
         <v>5</v>
       </c>
@@ -6693,12 +6702,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -6709,7 +6718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6720,7 +6729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -6731,7 +6740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6742,7 +6751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6750,7 +6759,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6758,30 +6767,30 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B7">
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -6799,12 +6808,12 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -6848,7 +6857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -6886,7 +6895,7 @@
         <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -6898,7 +6907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -6936,7 +6945,7 @@
         <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -6948,7 +6957,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -6986,7 +6995,7 @@
         <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -6998,7 +7007,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7036,7 +7045,7 @@
         <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -7045,7 +7054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -7083,7 +7092,7 @@
         <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -7092,7 +7101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7139,12 +7148,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -7179,22 +7188,22 @@
         <v>86</v>
       </c>
       <c r="M10" t="s">
+        <v>426</v>
+      </c>
+      <c r="O10" t="s">
+        <v>430</v>
+      </c>
+      <c r="P10" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q10" t="s">
         <v>428</v>
       </c>
-      <c r="O10" t="s">
-        <v>432</v>
-      </c>
-      <c r="P10" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>430</v>
-      </c>
       <c r="R10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -7242,7 +7251,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -7290,7 +7299,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -7338,7 +7347,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7386,7 +7395,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -7427,7 +7436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -7482,22 +7491,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7523,12 +7532,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>107</v>
@@ -7537,10 +7546,10 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" t="s">
         <v>335</v>
-      </c>
-      <c r="F2" t="s">
-        <v>336</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -7552,94 +7561,94 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
         <v>134</v>
       </c>
-      <c r="D3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>135</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>629</v>
+      </c>
+      <c r="H3" t="s">
+        <v>628</v>
+      </c>
+      <c r="I3" t="s">
         <v>136</v>
       </c>
-      <c r="G3" t="s">
-        <v>631</v>
-      </c>
-      <c r="H3" t="s">
-        <v>630</v>
-      </c>
-      <c r="I3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
         <v>118</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
         <v>119</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>121</v>
       </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>122</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>123</v>
       </c>
-      <c r="I4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
         <v>125</v>
       </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>127</v>
       </c>
-      <c r="F5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>128</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>129</v>
       </c>
-      <c r="I5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7653,48 +7662,48 @@
         <v>114</v>
       </c>
       <c r="E6" t="s">
+        <v>636</v>
+      </c>
+      <c r="F6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G6" t="s">
         <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>337</v>
-      </c>
-      <c r="G6" t="s">
-        <v>117</v>
       </c>
       <c r="H6" t="s">
         <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="65" t="s">
         <v>328</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>329</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
       </c>
-      <c r="D9" s="65">
-        <v>3</v>
-      </c>
-      <c r="E9" s="65">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
+      <c r="D9" s="65" t="s">
+        <v>637</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>638</v>
+      </c>
+      <c r="F9" t="s">
+        <v>639</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H9" s="65">
         <v>6</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -7711,19 +7720,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" customWidth="1"/>
-    <col min="5" max="5" width="46.5546875" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>87</v>
@@ -7741,27 +7750,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7771,757 +7780,757 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>626</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="D6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" t="s">
-        <v>628</v>
-      </c>
-      <c r="F6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" t="s">
-        <v>595</v>
-      </c>
-      <c r="C7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>624</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
         <v>185</v>
       </c>
-      <c r="F10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>581</v>
+      </c>
+      <c r="B13" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="73" t="s">
-        <v>626</v>
-      </c>
-      <c r="D11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>583</v>
-      </c>
-      <c r="B13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>582</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F16" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>543</v>
+      </c>
+      <c r="B18" t="s">
+        <v>537</v>
+      </c>
+      <c r="C18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>544</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="B19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" t="s">
+        <v>518</v>
+      </c>
+      <c r="E19" t="s">
+        <v>536</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>545</v>
-      </c>
-      <c r="B18" t="s">
-        <v>539</v>
-      </c>
-      <c r="C18" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E18" t="s">
-        <v>522</v>
-      </c>
-      <c r="F18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>546</v>
-      </c>
-      <c r="B19" t="s">
-        <v>469</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="D19" t="s">
-        <v>520</v>
-      </c>
-      <c r="E19" t="s">
-        <v>538</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="E20" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>547</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>560</v>
+      </c>
+      <c r="B22" t="s">
+        <v>567</v>
+      </c>
+      <c r="C22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D22" t="s">
+        <v>576</v>
+      </c>
+      <c r="E22" t="s">
         <v>562</v>
       </c>
-      <c r="B22" t="s">
-        <v>569</v>
-      </c>
-      <c r="C22" t="s">
-        <v>573</v>
-      </c>
-      <c r="D22" t="s">
-        <v>578</v>
-      </c>
-      <c r="E22" t="s">
-        <v>564</v>
-      </c>
       <c r="F22" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" t="s">
+        <v>472</v>
+      </c>
+      <c r="D23" t="s">
+        <v>534</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>547</v>
+      </c>
+      <c r="B24" t="s">
         <v>473</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>474</v>
       </c>
-      <c r="D23" t="s">
-        <v>536</v>
-      </c>
-      <c r="E23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D24" t="s">
+        <v>517</v>
+      </c>
+      <c r="E24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>549</v>
-      </c>
-      <c r="B24" t="s">
-        <v>475</v>
-      </c>
-      <c r="C24" t="s">
-        <v>476</v>
-      </c>
-      <c r="D24" t="s">
-        <v>519</v>
-      </c>
-      <c r="E24" t="s">
-        <v>518</v>
-      </c>
-      <c r="F24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B27" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C27" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D27" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E27" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F27" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>548</v>
+      </c>
+      <c r="B28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D28" t="s">
+        <v>478</v>
+      </c>
+      <c r="E28" t="s">
+        <v>627</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>549</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>597</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>550</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>477</v>
       </c>
-      <c r="C28" t="s">
-        <v>478</v>
-      </c>
-      <c r="D28" t="s">
-        <v>480</v>
-      </c>
-      <c r="E28" t="s">
-        <v>629</v>
-      </c>
-      <c r="F28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>551</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="72" t="s">
-        <v>599</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>552</v>
-      </c>
-      <c r="B30" t="s">
-        <v>479</v>
-      </c>
       <c r="C30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F32" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B37" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C37" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D37" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E37" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F37" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>552</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>630</v>
+      </c>
+      <c r="D38" t="s">
+        <v>582</v>
+      </c>
+      <c r="E38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>553</v>
+      </c>
+      <c r="B39" t="s">
+        <v>522</v>
+      </c>
+      <c r="C39" t="s">
+        <v>526</v>
+      </c>
+      <c r="D39" t="s">
+        <v>528</v>
+      </c>
+      <c r="E39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>554</v>
       </c>
-      <c r="B38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="73" t="s">
-        <v>632</v>
-      </c>
-      <c r="D38" t="s">
-        <v>584</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="B40" t="s">
+        <v>523</v>
+      </c>
+      <c r="C40" t="s">
+        <v>527</v>
+      </c>
+      <c r="D40" t="s">
+        <v>529</v>
+      </c>
+      <c r="E40" t="s">
         <v>158</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>555</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C39" t="s">
-        <v>528</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C41" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F41" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>556</v>
-      </c>
-      <c r="B40" t="s">
-        <v>525</v>
-      </c>
-      <c r="C40" t="s">
-        <v>529</v>
-      </c>
-      <c r="D40" t="s">
-        <v>531</v>
-      </c>
-      <c r="E40" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>557</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -8538,114 +8547,114 @@
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="13.109375" customWidth="1"/>
-    <col min="27" max="27" width="8.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>248</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="K1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="M1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="O1" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="AB1" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
@@ -8744,7 +8753,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
@@ -8843,7 +8852,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
@@ -8942,9 +8951,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="26">
         <f t="shared" si="0"/>
@@ -9041,9 +9050,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="26">
         <f t="shared" si="0"/>
@@ -9132,12 +9141,12 @@
         <v>0.73489452187500004</v>
       </c>
       <c r="AC6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>209</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
@@ -9226,16 +9235,16 @@
         <v>11851851851851.852</v>
       </c>
       <c r="AC7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" s="50">
         <v>9.5999999999999992E-3</v>
@@ -9261,10 +9270,10 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="13"/>
       <c r="AC8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
@@ -9306,13 +9315,13 @@
         <v>2174380000000</v>
       </c>
       <c r="AB9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
@@ -9348,18 +9357,18 @@
         <v>21372572000000</v>
       </c>
       <c r="AB10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" s="55">
         <v>2.1299999999999999E-2</v>
@@ -9370,60 +9379,60 @@
       <c r="V11" s="32"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>212</v>
-      </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="X12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y12" t="s">
         <v>213</v>
-      </c>
-      <c r="X12" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>214</v>
       </c>
       <c r="AA12" s="33">
         <v>260000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="40">
         <f>2*(O13-U13)</f>
@@ -9474,9 +9483,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" ref="B14:B19" si="10">2*(O14-U14)</f>
@@ -9527,9 +9536,9 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="10"/>
@@ -9580,9 +9589,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="10"/>
@@ -9633,9 +9642,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="40">
         <f t="shared" si="10"/>
@@ -9686,9 +9695,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="40">
         <f t="shared" si="10"/>
@@ -9739,9 +9748,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="40">
         <f t="shared" si="10"/>
@@ -9792,9 +9801,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F20" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9810,9 +9819,9 @@
       <c r="V20" s="32"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F21" s="50">
         <v>8.5000000000000006E-3</v>
@@ -9829,9 +9838,9 @@
       <c r="V21" s="32"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F22" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9844,15 +9853,15 @@
         <v>526000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -9898,9 +9907,9 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -9946,9 +9955,9 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -9994,9 +10003,9 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -10042,9 +10051,9 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -10090,9 +10099,9 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -10138,9 +10147,9 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -10186,9 +10195,9 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -10234,9 +10243,9 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -10282,9 +10291,9 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -10330,9 +10339,9 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -10378,9 +10387,9 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -10426,9 +10435,9 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -10474,9 +10483,9 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -10522,9 +10531,9 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -10570,9 +10579,9 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -10618,9 +10627,9 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -10666,9 +10675,9 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -10728,15 +10737,15 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="33" max="33" width="11.44140625" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -10835,7 +10844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -10946,7 +10955,7 @@
         <v>10.333402166480258</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -11055,7 +11064,7 @@
         <v>25.143552870628557</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -11164,7 +11173,7 @@
         <v>4.1054218110057965</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -11265,7 +11274,7 @@
         <v>3.9671629464069529</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -11369,7 +11378,7 @@
         <v>19.299485959819044</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -11472,7 +11481,7 @@
         <v>322.14084632849483</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -11531,7 +11540,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -11590,7 +11599,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -11602,7 +11611,7 @@
       </c>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -11615,7 +11624,7 @@
       </c>
       <c r="AB11" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -11680,7 +11689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -11694,7 +11703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>65</v>
       </c>
@@ -11702,7 +11711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>73</v>
       </c>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -2547,12 +2547,12 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="58.453125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2696,7 +2696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>361</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>285.30725980380089</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>23.777393803164124</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3005,7 +3005,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>4.5731003235390304E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>434</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>6.5196117592019917E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>432</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>70</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>435</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>72</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>10</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>7</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>56</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>264.04020802872463</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>106</v>
       </c>
@@ -3573,445 +3573,445 @@
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
     </row>
   </sheetData>
@@ -4029,18 +4029,18 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.54296875" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="4" max="4" width="44.54296875" customWidth="1"/>
+    <col min="5" max="5" width="46.1796875" customWidth="1"/>
+    <col min="6" max="6" width="40.54296875" customWidth="1"/>
+    <col min="7" max="7" width="1.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>333</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>337</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>339</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>342</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>449</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>453</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>454</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>441</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>350</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>353</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>589</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>357</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>421</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>370</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="E15" s="74"/>
       <c r="F15" s="74"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>374</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>402</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>442</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>414</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>387</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>389</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>392</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>393</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>398</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>395</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>413</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>443</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>418</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>616</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>600</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>601</v>
       </c>
@@ -4635,12 +4635,12 @@
         <v>608</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>481</v>
       </c>
@@ -4648,117 +4648,117 @@
         <v>482</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F38" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F39" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F42" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F43" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F45" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F48" s="71" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F49" s="71" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F50" s="71" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F51" s="71" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F52" s="71" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F53" s="71" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F55" s="71" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F56" s="71" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F57" s="71" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F58" s="71" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F59" s="71" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F60" s="71" t="s">
         <v>505</v>
       </c>
@@ -4784,45 +4784,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="18" width="5.42578125" customWidth="1"/>
+    <col min="13" max="14" width="5.453125" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" customWidth="1"/>
+    <col min="16" max="18" width="5.453125" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" customWidth="1"/>
-    <col min="21" max="22" width="5.42578125" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" customWidth="1"/>
-    <col min="24" max="26" width="3.85546875" customWidth="1"/>
-    <col min="27" max="29" width="5.42578125" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" customWidth="1"/>
+    <col min="20" max="20" width="5.26953125" customWidth="1"/>
+    <col min="21" max="22" width="5.453125" customWidth="1"/>
+    <col min="23" max="23" width="4.26953125" customWidth="1"/>
+    <col min="24" max="24" width="4.6328125" customWidth="1"/>
+    <col min="25" max="26" width="3.81640625" customWidth="1"/>
+    <col min="27" max="29" width="5.453125" customWidth="1"/>
+    <col min="30" max="30" width="8.54296875" customWidth="1"/>
+    <col min="31" max="31" width="8.453125" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" customWidth="1"/>
-    <col min="34" max="34" width="8.42578125" customWidth="1"/>
-    <col min="35" max="36" width="8.28515625" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" customWidth="1"/>
-    <col min="40" max="40" width="8.85546875" customWidth="1"/>
-    <col min="41" max="41" width="7.85546875" customWidth="1"/>
+    <col min="33" max="33" width="8.26953125" customWidth="1"/>
+    <col min="34" max="34" width="8.453125" customWidth="1"/>
+    <col min="35" max="36" width="8.26953125" customWidth="1"/>
+    <col min="37" max="37" width="9.1796875" customWidth="1"/>
+    <col min="40" max="40" width="8.81640625" customWidth="1"/>
+    <col min="41" max="41" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
@@ -4963,7 +4964,7 @@
       </c>
       <c r="D2" s="2">
         <f>C2*$D$7</f>
-        <v>486.13070051716028</v>
+        <v>729.19605077574045</v>
       </c>
       <c r="E2">
         <v>516</v>
@@ -5021,23 +5022,23 @@
       </c>
       <c r="AD2" s="2">
         <f t="shared" ref="AD2:AH5" si="1">AE17*$C2*$D$7/1000</f>
-        <v>91.878702397743297</v>
+        <v>137.81805359661496</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="1"/>
-        <v>97.226140103432058</v>
+        <v>145.83921015514809</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="1"/>
-        <v>106.94875411377527</v>
+        <v>160.42313117066291</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="1"/>
-        <v>68.058298072402437</v>
+        <v>102.08744710860366</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" si="1"/>
-        <v>122.01880582980723</v>
+        <v>183.02820874471087</v>
       </c>
       <c r="AI2">
         <v>595</v>
@@ -5061,7 +5062,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>88</v>
       </c>
@@ -5074,7 +5075,7 @@
       </c>
       <c r="D3" s="2">
         <f>C3*$D$7</f>
-        <v>652.56229431123643</v>
+        <v>978.84344146685476</v>
       </c>
       <c r="E3">
         <v>512</v>
@@ -5132,23 +5133,23 @@
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="1"/>
-        <v>117.98326281147156</v>
+        <v>176.97489421720732</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="1"/>
-        <v>180.69449929478137</v>
+        <v>271.04174894217203</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="1"/>
-        <v>66.104560413728251</v>
+        <v>99.156840620592376</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="1"/>
-        <v>97.753831687823237</v>
+        <v>146.63074753173484</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="1"/>
-        <v>190.09139633286318</v>
+        <v>285.13709449929479</v>
       </c>
       <c r="AI3">
         <v>395</v>
@@ -5175,7 +5176,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>89</v>
       </c>
@@ -5188,7 +5189,7 @@
       </c>
       <c r="D4" s="2">
         <f>C4*$D$7</f>
-        <v>362.01222378937467</v>
+        <v>543.01833568406209</v>
       </c>
       <c r="E4">
         <v>506</v>
@@ -5246,23 +5247,23 @@
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="1"/>
-        <v>106.88048895157497</v>
+        <v>160.32073342736248</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" si="1"/>
-        <v>67.32848142924307</v>
+        <v>100.99272214386461</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="1"/>
-        <v>102.13125058768217</v>
+        <v>153.19687588152328</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="1"/>
-        <v>39.015143394452281</v>
+        <v>58.522715091678421</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="1"/>
-        <v>46.656497414198398</v>
+        <v>69.98474612129759</v>
       </c>
       <c r="AI4">
         <v>697</v>
@@ -5283,7 +5284,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -5296,7 +5297,7 @@
       </c>
       <c r="D5" s="2">
         <f>C5*$D$7</f>
-        <v>499.29478138222851</v>
+        <v>748.9421720733427</v>
       </c>
       <c r="E5">
         <v>504</v>
@@ -5354,23 +5355,23 @@
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="1"/>
-        <v>64.758533145275024</v>
+        <v>97.137799717912543</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="1"/>
-        <v>155.87983074753171</v>
+        <v>233.81974612129761</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="1"/>
-        <v>104.60225669957687</v>
+        <v>156.90338504936531</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="1"/>
-        <v>118.08321579689704</v>
+        <v>177.12482369534555</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="1"/>
-        <v>55.970944992947814</v>
+        <v>83.95641748942171</v>
       </c>
       <c r="AI5">
         <v>593</v>
@@ -5400,7 +5401,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>632</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5532,63 +5533,63 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:K7" si="5">SUMPRODUCT($C2:$C5,E2:E5)*$D$7/1000</f>
-        <v>1019.7780912082745</v>
+        <v>1529.6671368124116</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="5"/>
-        <v>980.22190879172535</v>
+        <v>1470.3328631875881</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="5"/>
-        <v>193.33051245886222</v>
+        <v>289.99576868829337</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="5"/>
-        <v>299.57498824635633</v>
+        <v>449.36248236953452</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="5"/>
-        <v>486.54160789844849</v>
+        <v>729.81241184767282</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="5"/>
-        <v>518.51057827926661</v>
+        <v>777.76586741889992</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="5"/>
-        <v>502.54160789844849</v>
+        <v>753.81241184767282</v>
       </c>
       <c r="L7" s="2">
         <f>AA7*SUM($H7:$J7)/$D$7</f>
-        <v>263.87081320713878</v>
+        <v>395.80621981070828</v>
       </c>
       <c r="M7" s="2">
         <f>AB7*SUM($H7:$J7)/$D$7</f>
-        <v>425.07354009976279</v>
+        <v>637.61031014964419</v>
       </c>
       <c r="N7" s="2">
         <f>AC7*SUM($H7:$J7)/$D$7</f>
-        <v>578.21910546759386</v>
+        <v>867.32865820139102</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" ref="O7" si="6">SUMPRODUCT($C2:$C5,O2:O5)*$D$7/1000</f>
-        <v>886.412787964269</v>
+        <v>1329.6191819464036</v>
       </c>
       <c r="P7" s="2">
         <f>SUMPRODUCT($C2:$C5,P2:P5)*$D$7/1000</f>
-        <v>851.54207804419377</v>
+        <v>1277.3131170662907</v>
       </c>
       <c r="Q7" s="2">
         <f>SUMPRODUCT($C2:$C5,Q2:Q5)*$D$7/1000</f>
-        <v>650.23695345557121</v>
+        <v>975.35543018335682</v>
       </c>
       <c r="R7" s="2">
         <f>SUMPRODUCT($C2:$C5,R2:R5)*$D$7/1000</f>
-        <v>498.22096850023507</v>
+        <v>747.33145275035258</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -5596,31 +5597,31 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2">
         <f>$C$2*$D7</f>
-        <v>486.13070051716028</v>
+        <v>729.19605077574045</v>
       </c>
       <c r="X7" s="2">
         <f>$C$3*$D7</f>
-        <v>652.56229431123643</v>
+        <v>978.84344146685476</v>
       </c>
       <c r="Y7" s="2">
         <f>$C$4*$D7</f>
-        <v>362.01222378937467</v>
+        <v>543.01833568406209</v>
       </c>
       <c r="Z7" s="2">
         <f>$C$5*$D7</f>
-        <v>499.29478138222851</v>
+        <v>748.9421720733427</v>
       </c>
       <c r="AA7" s="2">
         <f>SUMPRODUCT($C2:$C5,AA2:AA5)*$D$7/1000</f>
-        <v>404.5152797367183</v>
+        <v>606.7729196050775</v>
       </c>
       <c r="AB7" s="2">
         <f>SUMPRODUCT($C2:$C5,AB2:AB5)*$D$7/1000</f>
-        <v>651.63986835919127</v>
+        <v>977.4598025387869</v>
       </c>
       <c r="AC7" s="2">
         <f>SUMPRODUCT($C2:$C5,AC2:AC5)*$D$7/1000</f>
-        <v>886.412787964269</v>
+        <v>1329.6191819464036</v>
       </c>
       <c r="AI7" s="2">
         <f>SUMPRODUCT($C2:$C5,AI2:AI5)</f>
@@ -5638,7 +5639,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>633</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>603</v>
       </c>
@@ -5827,55 +5828,55 @@
         <v>257</v>
       </c>
       <c r="D10" s="7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="2">
         <f>E$8*$D10/$D$8</f>
-        <v>1522.5</v>
+        <v>1015</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="7"/>
-        <v>1477.5</v>
+        <v>985</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="7"/>
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="7"/>
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="7"/>
-        <v>729</v>
+        <v>486</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="7"/>
-        <v>740.1</v>
+        <v>493.4</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="7"/>
-        <v>636.9</v>
+        <v>424.6</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="7"/>
-        <v>166.75530000000001</v>
+        <v>111.17020000000001</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="7"/>
-        <v>831.76740000000007</v>
+        <v>554.51160000000004</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="7"/>
-        <v>1010.5773</v>
+        <v>673.71820000000002</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="7"/>
-        <v>1509</v>
+        <v>1006</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="7"/>
-        <v>2197.1999999999998</v>
+        <v>1464.8</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="7"/>
@@ -5883,29 +5884,29 @@
       </c>
       <c r="R10" s="2">
         <f t="shared" si="7"/>
-        <v>802.80000000000007</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" si="7"/>
-        <v>1803</v>
+        <v>1202</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="7"/>
-        <v>555</v>
+        <v>370</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="7"/>
-        <v>402</v>
+        <v>268</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>307</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>87</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>88</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>89</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>308</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>309</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>291.3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>310</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>128.881</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>311</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="AD21" t="s">
         <v>5</v>
       </c>
@@ -6702,12 +6703,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6729,7 +6730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6767,7 +6768,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>363</v>
       </c>
@@ -6775,22 +6776,22 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -6808,12 +6809,12 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -6907,7 +6908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -6957,7 +6958,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7148,12 +7149,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -7491,22 +7492,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="34.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7532,7 +7533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7561,7 +7562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7677,7 +7678,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>327</v>
       </c>
@@ -7720,17 +7721,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" customWidth="1"/>
+    <col min="4" max="4" width="46.1796875" customWidth="1"/>
+    <col min="5" max="5" width="46.54296875" customWidth="1"/>
+    <col min="6" max="6" width="50.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7780,7 +7781,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7820,7 +7821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -7880,12 +7881,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -7925,7 +7926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>581</v>
       </c>
@@ -7965,7 +7966,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>580</v>
       </c>
@@ -7985,12 +7986,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>556</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>542</v>
       </c>
@@ -8030,7 +8031,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>544</v>
       </c>
@@ -8070,7 +8071,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>545</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>21</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>560</v>
       </c>
@@ -8130,7 +8131,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>546</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>547</v>
       </c>
@@ -8170,7 +8171,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>25</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>26</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>559</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>548</v>
       </c>
@@ -8238,7 +8239,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>549</v>
       </c>
@@ -8258,7 +8259,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>550</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>31</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>558</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>541</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>551</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>35</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>36</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>557</v>
       </c>
@@ -8406,7 +8407,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>552</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>553</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>554</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>555</v>
       </c>
@@ -8486,7 +8487,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8506,7 +8507,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>43</v>
       </c>
@@ -8517,7 +8518,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>44</v>
       </c>
@@ -8525,7 +8526,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>45</v>
       </c>
@@ -8547,32 +8548,32 @@
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" customWidth="1"/>
+    <col min="17" max="17" width="6.7265625" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" customWidth="1"/>
+    <col min="19" max="19" width="8.54296875" customWidth="1"/>
+    <col min="20" max="20" width="7.1796875" customWidth="1"/>
+    <col min="21" max="21" width="9.54296875" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.1796875" customWidth="1"/>
+    <col min="27" max="27" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>199</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
@@ -8852,7 +8853,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>205</v>
       </c>
@@ -9050,7 +9051,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>206</v>
       </c>
@@ -9144,7 +9145,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>208</v>
       </c>
@@ -9238,7 +9239,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -9273,7 +9274,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
@@ -9321,7 +9322,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
@@ -9363,7 +9364,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
@@ -9379,7 +9380,7 @@
       <c r="V11" s="32"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -9430,7 +9431,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -9483,7 +9484,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>217</v>
       </c>
@@ -9642,7 +9643,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -9748,7 +9749,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>254</v>
       </c>
@@ -9819,7 +9820,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>256</v>
       </c>
@@ -9838,7 +9839,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>257</v>
       </c>
@@ -9859,7 +9860,7 @@
       <c r="V22" s="32"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
         <v>221</v>
       </c>
@@ -9907,7 +9908,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
         <v>222</v>
       </c>
@@ -9955,7 +9956,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
         <v>223</v>
       </c>
@@ -10003,7 +10004,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>224</v>
       </c>
@@ -10051,7 +10052,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>225</v>
       </c>
@@ -10099,7 +10100,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>226</v>
       </c>
@@ -10147,7 +10148,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
         <v>227</v>
       </c>
@@ -10195,7 +10196,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>228</v>
       </c>
@@ -10243,7 +10244,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
         <v>229</v>
       </c>
@@ -10291,7 +10292,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>230</v>
       </c>
@@ -10339,7 +10340,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
         <v>231</v>
       </c>
@@ -10387,7 +10388,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>232</v>
       </c>
@@ -10435,7 +10436,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>233</v>
       </c>
@@ -10483,7 +10484,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
         <v>234</v>
       </c>
@@ -10531,7 +10532,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
         <v>235</v>
       </c>
@@ -10579,7 +10580,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
         <v>236</v>
       </c>
@@ -10627,7 +10628,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
         <v>237</v>
       </c>
@@ -10675,7 +10676,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
         <v>238</v>
       </c>
@@ -10737,15 +10738,15 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -10844,7 +10845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -10955,7 +10956,7 @@
         <v>10.333402166480258</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -11064,7 +11065,7 @@
         <v>25.143552870628557</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -11173,7 +11174,7 @@
         <v>4.1054218110057965</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>3.9671629464069529</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>19.299485959819044</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -11481,7 +11482,7 @@
         <v>322.14084632849483</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -11611,7 +11612,7 @@
       </c>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -11624,7 +11625,7 @@
       </c>
       <c r="AB11" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -11689,7 +11690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -11703,7 +11704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>65</v>
       </c>
@@ -11711,7 +11712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
         <v>73</v>
       </c>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -4784,8 +4784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7717,8 +7717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="643">
   <si>
     <t>France</t>
   </si>
@@ -1954,6 +1954,15 @@
   </si>
   <si>
     <t>3.3</t>
+  </si>
+  <si>
+    <t>https://uvafeb.fra1.qualtrics.com/public-quotas?SID=SV_5bYFuWL1enXMRRY</t>
+  </si>
+  <si>
+    <t>https://uvafeb.fra1.qualtrics.com/public-quotas?SID=SV_2tSGbYYQIi15sxw</t>
+  </si>
+  <si>
+    <t>https://uvafeb.fra1.qualtrics.com/public-quotas?SID=SV_08Uw76JwzKfiUJg</t>
   </si>
 </sst>
 </file>
@@ -2547,12 +2556,12 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.453125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2590,7 +2599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -2624,7 +2633,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
@@ -2652,7 +2661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -2680,7 +2689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2696,7 +2705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>361</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
@@ -2760,7 +2769,7 @@
         <v>285.30725980380089</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
@@ -2792,7 +2801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>23.777393803164124</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
@@ -2892,7 +2901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
@@ -2928,7 +2937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -2962,7 +2971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -2996,7 +3005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3005,7 +3014,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -3034,7 +3043,7 @@
         <v>4.5731003235390304E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>434</v>
       </c>
@@ -3060,7 +3069,7 @@
         <v>6.5196117592019917E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>432</v>
       </c>
@@ -3084,7 +3093,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>70</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>435</v>
       </c>
@@ -3192,7 +3201,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -3218,7 +3227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>72</v>
       </c>
@@ -3229,7 +3238,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3266,7 +3275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -3300,7 +3309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>10</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>7</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
@@ -3454,7 +3463,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>56</v>
       </c>
@@ -3514,7 +3523,7 @@
         <v>264.04020802872463</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
@@ -3551,7 +3560,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>106</v>
       </c>
@@ -3573,445 +3582,445 @@
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
     </row>
   </sheetData>
@@ -4024,23 +4033,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="46.54296875" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="4" max="4" width="44.54296875" customWidth="1"/>
-    <col min="5" max="5" width="46.1796875" customWidth="1"/>
-    <col min="6" max="6" width="40.54296875" customWidth="1"/>
-    <col min="7" max="7" width="1.26953125" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>333</v>
       </c>
@@ -4060,7 +4069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>337</v>
       </c>
@@ -4076,7 +4085,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>339</v>
       </c>
@@ -4096,7 +4105,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>342</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>401</v>
       </c>
@@ -4130,7 +4139,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>449</v>
       </c>
@@ -4150,7 +4159,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>453</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>454</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>441</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>350</v>
       </c>
@@ -4227,7 +4236,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>353</v>
       </c>
@@ -4241,7 +4250,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>589</v>
       </c>
@@ -4261,7 +4270,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>357</v>
       </c>
@@ -4281,7 +4290,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>421</v>
       </c>
@@ -4301,7 +4310,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>370</v>
       </c>
@@ -4313,7 +4322,7 @@
       <c r="E15" s="74"/>
       <c r="F15" s="74"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -4327,7 +4336,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>374</v>
       </c>
@@ -4347,7 +4356,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>402</v>
       </c>
@@ -4367,7 +4376,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>442</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>414</v>
       </c>
@@ -4401,7 +4410,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>387</v>
       </c>
@@ -4421,7 +4430,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>389</v>
       </c>
@@ -4435,7 +4444,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>392</v>
       </c>
@@ -4455,7 +4464,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>393</v>
       </c>
@@ -4469,7 +4478,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>398</v>
       </c>
@@ -4489,7 +4498,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>395</v>
       </c>
@@ -4503,7 +4512,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>413</v>
       </c>
@@ -4523,7 +4532,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>443</v>
       </c>
@@ -4543,7 +4552,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>418</v>
       </c>
@@ -4566,7 +4575,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>616</v>
       </c>
@@ -4589,7 +4598,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>600</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>601</v>
       </c>
@@ -4635,136 +4644,149 @@
         <v>608</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>640</v>
+      </c>
+      <c r="H33" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>481</v>
       </c>
+      <c r="B34" s="74" t="s">
+        <v>642</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
       <c r="F34" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F48" s="71" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="71" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="71" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="71" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="71" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="71" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="71" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="71" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="71" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="71" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="71" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="71" t="s">
         <v>505</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B34:E34"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B26:E26"/>
@@ -4788,42 +4810,42 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" customWidth="1"/>
-    <col min="10" max="10" width="5.7265625" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="14" width="5.453125" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" customWidth="1"/>
-    <col min="16" max="18" width="5.453125" customWidth="1"/>
+    <col min="13" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="18" width="5.42578125" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.26953125" customWidth="1"/>
-    <col min="21" max="22" width="5.453125" customWidth="1"/>
-    <col min="23" max="23" width="4.26953125" customWidth="1"/>
-    <col min="24" max="24" width="4.6328125" customWidth="1"/>
-    <col min="25" max="26" width="3.81640625" customWidth="1"/>
-    <col min="27" max="29" width="5.453125" customWidth="1"/>
-    <col min="30" max="30" width="8.54296875" customWidth="1"/>
-    <col min="31" max="31" width="8.453125" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" customWidth="1"/>
+    <col min="21" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
+    <col min="25" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="29" width="5.42578125" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="33" max="33" width="8.26953125" customWidth="1"/>
-    <col min="34" max="34" width="8.453125" customWidth="1"/>
-    <col min="35" max="36" width="8.26953125" customWidth="1"/>
-    <col min="37" max="37" width="9.1796875" customWidth="1"/>
-    <col min="40" max="40" width="8.81640625" customWidth="1"/>
-    <col min="41" max="41" width="7.81640625" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" customWidth="1"/>
+    <col min="34" max="34" width="8.42578125" customWidth="1"/>
+    <col min="35" max="36" width="8.28515625" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" customWidth="1"/>
+    <col min="40" max="40" width="8.85546875" customWidth="1"/>
+    <col min="41" max="41" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -4951,7 +4973,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
@@ -5062,7 +5084,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>88</v>
       </c>
@@ -5176,7 +5198,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>89</v>
       </c>
@@ -5284,7 +5306,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -5401,7 +5423,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>632</v>
       </c>
@@ -5523,7 +5545,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5639,7 +5661,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5737,7 +5759,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>633</v>
       </c>
@@ -5820,7 +5842,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>603</v>
       </c>
@@ -5903,10 +5925,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>307</v>
       </c>
@@ -5932,7 +5954,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>87</v>
       </c>
@@ -6019,7 +6041,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>88</v>
       </c>
@@ -6106,7 +6128,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>89</v>
       </c>
@@ -6193,7 +6215,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
@@ -6277,7 +6299,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>308</v>
       </c>
@@ -6365,7 +6387,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>309</v>
       </c>
@@ -6453,7 +6475,7 @@
         <v>291.3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>310</v>
       </c>
@@ -6541,7 +6563,7 @@
         <v>128.881</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>311</v>
       </c>
@@ -6612,7 +6634,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD21" t="s">
         <v>5</v>
       </c>
@@ -6703,12 +6725,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -6719,7 +6741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6730,7 +6752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -6741,7 +6763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6752,7 +6774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6760,7 +6782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6768,7 +6790,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>363</v>
       </c>
@@ -6776,22 +6798,22 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -6809,12 +6831,12 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -6858,7 +6880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -6908,7 +6930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -6958,7 +6980,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7008,7 +7030,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7055,7 +7077,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -7102,7 +7124,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7149,12 +7171,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -7204,7 +7226,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -7252,7 +7274,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -7300,7 +7322,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -7348,7 +7370,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7396,7 +7418,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -7437,7 +7459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -7496,18 +7518,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.26953125" customWidth="1"/>
-    <col min="4" max="4" width="30.453125" customWidth="1"/>
-    <col min="5" max="5" width="35.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="7" max="7" width="34.54296875" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7533,7 +7555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7562,7 +7584,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -7591,7 +7613,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7620,7 +7642,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7649,7 +7671,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7678,7 +7700,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>327</v>
       </c>
@@ -7717,21 +7739,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" customWidth="1"/>
-    <col min="3" max="3" width="47.7265625" customWidth="1"/>
-    <col min="4" max="4" width="46.1796875" customWidth="1"/>
-    <col min="5" max="5" width="46.54296875" customWidth="1"/>
-    <col min="6" max="6" width="50.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -7751,7 +7773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -7771,7 +7793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7781,7 +7803,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -7801,7 +7823,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7821,7 +7843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -7841,7 +7863,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -7861,7 +7883,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -7881,12 +7903,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -7906,7 +7928,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -7926,7 +7948,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -7946,7 +7968,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>581</v>
       </c>
@@ -7966,7 +7988,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>580</v>
       </c>
@@ -7986,12 +8008,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>556</v>
       </c>
@@ -8011,7 +8033,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>542</v>
       </c>
@@ -8031,7 +8053,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>543</v>
       </c>
@@ -8051,7 +8073,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>544</v>
       </c>
@@ -8071,7 +8093,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>545</v>
       </c>
@@ -8091,7 +8113,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -8111,7 +8133,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>560</v>
       </c>
@@ -8131,7 +8153,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>546</v>
       </c>
@@ -8151,7 +8173,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>547</v>
       </c>
@@ -8171,7 +8193,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -8191,7 +8213,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -8199,7 +8221,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>559</v>
       </c>
@@ -8219,7 +8241,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>548</v>
       </c>
@@ -8239,7 +8261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>549</v>
       </c>
@@ -8259,7 +8281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>550</v>
       </c>
@@ -8279,7 +8301,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -8299,7 +8321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>558</v>
       </c>
@@ -8319,7 +8341,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>541</v>
       </c>
@@ -8339,7 +8361,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>551</v>
       </c>
@@ -8359,7 +8381,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -8379,7 +8401,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -8387,7 +8409,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>557</v>
       </c>
@@ -8407,7 +8429,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>552</v>
       </c>
@@ -8427,7 +8449,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>553</v>
       </c>
@@ -8447,7 +8469,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>554</v>
       </c>
@@ -8467,7 +8489,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>555</v>
       </c>
@@ -8487,7 +8509,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8507,7 +8529,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -8518,7 +8540,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -8526,7 +8548,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -8548,32 +8570,32 @@
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" customWidth="1"/>
-    <col min="17" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" customWidth="1"/>
-    <col min="19" max="19" width="8.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.1796875" customWidth="1"/>
-    <col min="21" max="21" width="9.54296875" customWidth="1"/>
-    <col min="22" max="22" width="8.453125" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="13.1796875" customWidth="1"/>
-    <col min="27" max="27" width="8.26953125" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>199</v>
       </c>
@@ -8655,7 +8677,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
@@ -8754,7 +8776,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
@@ -8853,7 +8875,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
@@ -8952,7 +8974,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>205</v>
       </c>
@@ -9051,7 +9073,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>206</v>
       </c>
@@ -9145,7 +9167,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>208</v>
       </c>
@@ -9239,7 +9261,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -9274,7 +9296,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
@@ -9322,7 +9344,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
@@ -9364,7 +9386,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
@@ -9380,7 +9402,7 @@
       <c r="V11" s="32"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -9431,7 +9453,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -9484,7 +9506,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -9537,7 +9559,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -9590,7 +9612,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>217</v>
       </c>
@@ -9643,7 +9665,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -9696,7 +9718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -9749,7 +9771,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -9802,7 +9824,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>254</v>
       </c>
@@ -9820,7 +9842,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>256</v>
       </c>
@@ -9839,7 +9861,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>257</v>
       </c>
@@ -9860,7 +9882,7 @@
       <c r="V22" s="32"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>221</v>
       </c>
@@ -9908,7 +9930,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>222</v>
       </c>
@@ -9956,7 +9978,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>223</v>
       </c>
@@ -10004,7 +10026,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>224</v>
       </c>
@@ -10052,7 +10074,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>225</v>
       </c>
@@ -10100,7 +10122,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>226</v>
       </c>
@@ -10148,7 +10170,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>227</v>
       </c>
@@ -10196,7 +10218,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>228</v>
       </c>
@@ -10244,7 +10266,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>229</v>
       </c>
@@ -10292,7 +10314,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>230</v>
       </c>
@@ -10340,7 +10362,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>231</v>
       </c>
@@ -10388,7 +10410,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>232</v>
       </c>
@@ -10436,7 +10458,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>233</v>
       </c>
@@ -10484,7 +10506,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>234</v>
       </c>
@@ -10532,7 +10554,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>235</v>
       </c>
@@ -10580,7 +10602,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>236</v>
       </c>
@@ -10628,7 +10650,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>237</v>
       </c>
@@ -10676,7 +10698,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>238</v>
       </c>
@@ -10738,15 +10760,15 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="33" max="33" width="11.453125" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -10845,7 +10867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -10956,7 +10978,7 @@
         <v>10.333402166480258</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -11065,7 +11087,7 @@
         <v>25.143552870628557</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -11174,7 +11196,7 @@
         <v>4.1054218110057965</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -11275,7 +11297,7 @@
         <v>3.9671629464069529</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -11379,7 +11401,7 @@
         <v>19.299485959819044</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -11482,7 +11504,7 @@
         <v>322.14084632849483</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -11541,7 +11563,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -11600,7 +11622,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -11612,7 +11634,7 @@
       </c>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -11625,7 +11647,7 @@
       </c>
       <c r="AB11" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -11690,7 +11712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -11704,7 +11726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>65</v>
       </c>
@@ -11712,7 +11734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>73</v>
       </c>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="685">
   <si>
     <t>France</t>
   </si>
@@ -586,9 +586,6 @@
     <t>£100 billion for infrastructures like road and rail</t>
   </si>
   <si>
-    <t>Windfall tax on oil companies</t>
-  </si>
-  <si>
     <t>£150 billion to upgrade schools, hospitals, care homes and council houses</t>
   </si>
   <si>
@@ -608,9 +605,6 @@
   </si>
   <si>
     <t>SMIC à 1600€ net</t>
-  </si>
-  <si>
-    <t>Mehr finanzielle Unterstützung für berufstätige Eltern. / einkommensschwache Haushalte entlasten/stärker unterstützen</t>
   </si>
   <si>
     <t>100% de electricidad producida con energías renovables en 2040 / 90%?</t>
@@ -1473,9 +1467,6 @@
     <t>100% de electricidad producida con energías renovables en 2040</t>
   </si>
   <si>
-    <t>Insulation plan</t>
-  </si>
-  <si>
     <t>For the UK we don't use Eurostat because it has only 1.7 million zipcodes instead of 2.6, thus missing about half of population (mostly in Large urban). The definition of urban/rural is different from Eurostat and tends to classify zipcodes as more rural than Eurostat.</t>
   </si>
   <si>
@@ -1593,9 +1584,6 @@
     <t>Jornada laboral de 34 horas semanales</t>
   </si>
   <si>
-    <t>Plano de aislamiento</t>
-  </si>
-  <si>
     <t>Real Living Wage of £11 per hour for all workers aged 16 and over</t>
   </si>
   <si>
@@ -1629,9 +1617,6 @@
     <t>Duplicar la ayuda exterior a los países de renta baja</t>
   </si>
   <si>
-    <t>Verdoppelung der Auslandshilfe für einkommensschwache Länder</t>
-  </si>
-  <si>
     <t>italic: costly</t>
   </si>
   <si>
@@ -1758,18 +1743,9 @@
     <t>Steuerpolitik</t>
   </si>
   <si>
-    <t>Fiscalidad</t>
-  </si>
-  <si>
     <t>Política climática</t>
   </si>
   <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Economía</t>
-  </si>
-  <si>
     <t>Política exterior</t>
   </si>
   <si>
@@ -1782,9 +1758,6 @@
     <t>Progressive: Tax system2</t>
   </si>
   <si>
-    <t>Esquema Climático Global</t>
-  </si>
-  <si>
     <t>12 =&gt; 15€/month</t>
   </si>
   <si>
@@ -1908,9 +1881,6 @@
     <t>Klimaneutrale Industrie fördern</t>
   </si>
   <si>
-    <t>Solaranlagen auf allen geeigneten Dächern / Einen Fonds für gerechte Klimainvestitionen einsetzen</t>
-  </si>
-  <si>
     <t>Wirtschaftspolitik</t>
   </si>
   <si>
@@ -1963,6 +1933,162 @@
   </si>
   <si>
     <t>https://uvafeb.fra1.qualtrics.com/public-quotas?SID=SV_08Uw76JwzKfiUJg</t>
+  </si>
+  <si>
+    <t>Asuntos económicos</t>
+  </si>
+  <si>
+    <t>Condonación de préstamos para estudiantes</t>
+  </si>
+  <si>
+    <t>Salario mínimo de 15 dólares</t>
+  </si>
+  <si>
+    <t>Atención infantil/preescolar universal</t>
+  </si>
+  <si>
+    <t>Financiación de viviendas asequibles</t>
+  </si>
+  <si>
+    <t>Asuntos sociales</t>
+  </si>
+  <si>
+    <t>Ampliación del Tribunal Supremo</t>
+  </si>
+  <si>
+    <t>Prohibición de las armas de fuego</t>
+  </si>
+  <si>
+    <t>Establecer el aborto como un derecho a nivel federal</t>
+  </si>
+  <si>
+    <t>Salida del carbón</t>
+  </si>
+  <si>
+    <t>Inversión de un billón de dólares en infraestructuras de transporte limpias y aislamiento de edificios</t>
+  </si>
+  <si>
+    <t>Prohibición de la venta de vehículos nuevos con motor de combustión para el año 2030</t>
+  </si>
+  <si>
+    <t>Sistema fiscal</t>
+  </si>
+  <si>
+    <t>Impuesto sobre el patrimonio</t>
+  </si>
+  <si>
+    <t>Aumento del tipo del impuesto de sociedades del 21% al 28%.</t>
+  </si>
+  <si>
+    <t>Impuesto global a los millonarios</t>
+  </si>
+  <si>
+    <t>Asamblea democrática global sobre el cambio climático</t>
+  </si>
+  <si>
+    <t>Duplicar la ayuda exterior</t>
+  </si>
+  <si>
+    <t>Justo</t>
+  </si>
+  <si>
+    <t>Equitativo</t>
+  </si>
+  <si>
+    <t>Honesto</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Válido</t>
+  </si>
+  <si>
+    <t>Injusto</t>
+  </si>
+  <si>
+    <t>Desequilibrado</t>
+  </si>
+  <si>
+    <t>Costoso</t>
+  </si>
+  <si>
+    <t>Inadecuado</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>Impuesto global sobre el patrimonio</t>
+  </si>
+  <si>
+    <t>Ayuda exterior</t>
+  </si>
+  <si>
+    <t>Ayuda exterior al desarrollo</t>
+  </si>
+  <si>
+    <t>Ingreso básico global</t>
+  </si>
+  <si>
+    <t>Acuerdo de París</t>
+  </si>
+  <si>
+    <t>Impuesto federal sobre el patrimonio</t>
+  </si>
+  <si>
+    <t>Cupones de alimentos # ahora rebautizado Programa de Asistencia Nutricional Suplementaria</t>
+  </si>
+  <si>
+    <t>Tasa y dividendos nacionales sobre el carbono</t>
+  </si>
+  <si>
+    <t>Plan de energía limpia</t>
+  </si>
+  <si>
+    <t>Food stamps # now renamed Supplemental Nutrition Assistance Program</t>
+  </si>
+  <si>
+    <t>Plan Climático Global</t>
+  </si>
+  <si>
+    <t>Plan de redistribución nacional</t>
+  </si>
+  <si>
+    <t>Trillion dollar investment in childcare, healthcare, education and housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windfall tax on oil companies / </t>
+  </si>
+  <si>
+    <t>Increase taxes on capital income (rents and dividends)</t>
+  </si>
+  <si>
+    <t>Thermal insulation plan</t>
+  </si>
+  <si>
+    <t>Verdoppelung der Entwicklungshilfe für einkommensschwache Länder</t>
+  </si>
+  <si>
+    <t>Einen Fonds für gerechte Klimainvestitionen einsetzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solaranlagen auf allen geeigneten Dächern / </t>
+  </si>
+  <si>
+    <t>Mehr finanzielle Unterstützung für berufstätige Eltern</t>
+  </si>
+  <si>
+    <t>. / einkommensschwache Haushalte entlasten/stärker unterstützen</t>
+  </si>
+  <si>
+    <t>Plan de aislamiento térmico</t>
+  </si>
+  <si>
+    <t>Plan climático global</t>
   </si>
 </sst>
 </file>
@@ -1975,7 +2101,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2076,6 +2202,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2124,7 +2257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2265,6 +2398,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2556,12 +2690,12 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="58.453125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2599,7 +2733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -2630,10 +2764,10 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="N2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
@@ -2661,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -2689,7 +2823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2705,9 +2839,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B6" s="20">
         <f>B8*(B12*(B14/B13)*Constants!$C$1/Constants!$C$2)*Constants!$C$3/B13/12-30</f>
@@ -2740,7 +2874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
@@ -2769,7 +2903,7 @@
         <v>285.30725980380089</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
@@ -2801,7 +2935,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -2838,7 +2972,7 @@
         <v>23.777393803164124</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
@@ -2872,7 +3006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
@@ -2901,7 +3035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
@@ -2937,7 +3071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -2971,7 +3105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -3005,7 +3139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3014,7 +3148,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>52</v>
       </c>
@@ -3043,9 +3177,9 @@
         <v>4.5731003235390304E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B17" s="11">
         <f>B20/B18</f>
@@ -3069,9 +3203,9 @@
         <v>6.5196117592019917E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B18" s="11">
         <v>8.9499999999999996E-2</v>
@@ -3090,10 +3224,10 @@
         <v>0.1903</v>
       </c>
       <c r="M18" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
@@ -3119,7 +3253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>70</v>
       </c>
@@ -3148,10 +3282,10 @@
         <v>1.2406821177761389E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -3177,9 +3311,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B22" s="41">
         <v>175</v>
@@ -3198,10 +3332,10 @@
         <v>479</v>
       </c>
       <c r="M22" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -3227,7 +3361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>72</v>
       </c>
@@ -3238,7 +3372,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>71</v>
       </c>
@@ -3275,7 +3409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -3309,7 +3443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>10</v>
       </c>
@@ -3335,7 +3469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
@@ -3378,7 +3512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
@@ -3395,7 +3529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>7</v>
       </c>
@@ -3432,7 +3566,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
@@ -3463,7 +3597,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -3494,7 +3628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>56</v>
       </c>
@@ -3523,7 +3657,7 @@
         <v>264.04020802872463</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
@@ -3560,7 +3694,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>106</v>
       </c>
@@ -3582,445 +3716,445 @@
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
     </row>
   </sheetData>
@@ -4035,23 +4169,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34:E34"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.54296875" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="4" max="4" width="44.54296875" customWidth="1"/>
+    <col min="5" max="5" width="46.1796875" customWidth="1"/>
+    <col min="6" max="6" width="40.54296875" customWidth="1"/>
+    <col min="7" max="7" width="1.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -4069,384 +4203,384 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>574</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>575</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" t="s">
+        <v>579</v>
+      </c>
+      <c r="F13" t="s">
         <v>356</v>
       </c>
-      <c r="F3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" t="s">
-        <v>457</v>
-      </c>
-      <c r="E7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>441</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="C9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E9" t="s">
-        <v>369</v>
-      </c>
-      <c r="F9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B10" t="s">
-        <v>436</v>
-      </c>
-      <c r="C10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" t="s">
-        <v>438</v>
-      </c>
-      <c r="E10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>583</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>584</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>585</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>586</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>587</v>
-      </c>
-      <c r="E13" t="s">
-        <v>588</v>
-      </c>
-      <c r="F13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>421</v>
-      </c>
-      <c r="B14" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" t="s">
-        <v>366</v>
-      </c>
-      <c r="E14" t="s">
-        <v>367</v>
-      </c>
-      <c r="F14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>370</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B16" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="74" t="s">
-        <v>422</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" t="s">
+      <c r="B17" s="69" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>443</v>
+      </c>
+      <c r="E17" s="69" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F17" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>446</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>444</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>445</v>
-      </c>
-      <c r="E17" s="69" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>400</v>
+      </c>
+      <c r="B18" t="s">
         <v>375</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="C18" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>402</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>377</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>378</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>379</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B19" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>382</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" t="s">
         <v>384</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>385</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" t="s">
+        <v>589</v>
+      </c>
+      <c r="D21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F21" t="s">
         <v>386</v>
       </c>
-      <c r="F20" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>387</v>
       </c>
-      <c r="B21" t="s">
-        <v>423</v>
-      </c>
-      <c r="C21" t="s">
-        <v>598</v>
-      </c>
-      <c r="D21" t="s">
-        <v>425</v>
-      </c>
-      <c r="E21" t="s">
-        <v>424</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B22" s="75" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="74" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>390</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>392</v>
       </c>
       <c r="B23" s="13">
         <v>0.55000000000000004</v>
@@ -4464,324 +4598,324 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="C25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D25" t="s">
+        <v>587</v>
+      </c>
+      <c r="E25" t="s">
+        <v>398</v>
+      </c>
+      <c r="F25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>393</v>
       </c>
-      <c r="B24" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" t="s">
+      <c r="B26" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>398</v>
-      </c>
-      <c r="B25" s="13" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>441</v>
+      </c>
+      <c r="B28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" t="s">
+        <v>407</v>
+      </c>
+      <c r="E28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C29" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" t="s">
+        <v>414</v>
+      </c>
+      <c r="E29" t="s">
+        <v>417</v>
+      </c>
+      <c r="F29" t="s">
+        <v>415</v>
+      </c>
+      <c r="H29" t="s">
         <v>594</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>607</v>
+      </c>
+      <c r="B30" t="s">
+        <v>601</v>
+      </c>
+      <c r="C30" t="s">
+        <v>602</v>
+      </c>
+      <c r="D30" t="s">
+        <v>603</v>
+      </c>
+      <c r="E30" t="s">
+        <v>604</v>
+      </c>
+      <c r="F30" t="s">
+        <v>606</v>
+      </c>
+      <c r="H30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>591</v>
+      </c>
+      <c r="B31" t="s">
+        <v>608</v>
+      </c>
+      <c r="C31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D31" t="s">
+        <v>610</v>
+      </c>
+      <c r="E31" t="s">
+        <v>611</v>
+      </c>
+      <c r="F31" t="s">
+        <v>612</v>
+      </c>
+      <c r="H31" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>592</v>
+      </c>
+      <c r="B32" t="s">
         <v>595</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C32" t="s">
         <v>596</v>
       </c>
-      <c r="E25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>395</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>397</v>
-      </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>413</v>
-      </c>
-      <c r="B27" t="s">
-        <v>411</v>
-      </c>
-      <c r="C27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F27" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" t="s">
-        <v>412</v>
-      </c>
-      <c r="C28" t="s">
-        <v>408</v>
-      </c>
-      <c r="D28" t="s">
-        <v>409</v>
-      </c>
-      <c r="E28" t="s">
-        <v>405</v>
-      </c>
-      <c r="F28" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>418</v>
-      </c>
-      <c r="B29" t="s">
-        <v>420</v>
-      </c>
-      <c r="C29" t="s">
-        <v>415</v>
-      </c>
-      <c r="D29" t="s">
-        <v>416</v>
-      </c>
-      <c r="E29" t="s">
-        <v>419</v>
-      </c>
-      <c r="F29" t="s">
-        <v>417</v>
-      </c>
-      <c r="H29" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>616</v>
-      </c>
-      <c r="B30" t="s">
-        <v>610</v>
-      </c>
-      <c r="C30" t="s">
-        <v>611</v>
-      </c>
-      <c r="D30" t="s">
-        <v>612</v>
-      </c>
-      <c r="E30" t="s">
-        <v>613</v>
-      </c>
-      <c r="F30" t="s">
-        <v>615</v>
-      </c>
-      <c r="H30" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D32" t="s">
+        <v>597</v>
+      </c>
+      <c r="E32" t="s">
+        <v>598</v>
+      </c>
+      <c r="F32" t="s">
         <v>600</v>
       </c>
-      <c r="B31" t="s">
-        <v>617</v>
-      </c>
-      <c r="C31" t="s">
-        <v>618</v>
-      </c>
-      <c r="D31" t="s">
-        <v>619</v>
-      </c>
-      <c r="E31" t="s">
-        <v>620</v>
-      </c>
-      <c r="F31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H31" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>601</v>
-      </c>
-      <c r="B32" t="s">
-        <v>604</v>
-      </c>
-      <c r="C32" t="s">
-        <v>605</v>
-      </c>
-      <c r="D32" t="s">
-        <v>606</v>
-      </c>
-      <c r="E32" t="s">
-        <v>607</v>
-      </c>
-      <c r="F32" t="s">
-        <v>609</v>
-      </c>
       <c r="H32" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F33" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="H33" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>478</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>632</v>
+      </c>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
         <v>481</v>
       </c>
-      <c r="B34" s="74" t="s">
-        <v>642</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F48" s="71" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="71" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50" s="71" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="71" t="s">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F51" s="71" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="71" t="s">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="71" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="71" t="s">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="71" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="71" t="s">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="71" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="71" t="s">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F56" s="71" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="71" t="s">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F57" s="71" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55" s="71" t="s">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F58" s="71" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="71" t="s">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F59" s="71" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="71" t="s">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="71" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="71" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="71" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="71" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -4807,45 +4941,45 @@
   <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="18" width="5.42578125" customWidth="1"/>
+    <col min="13" max="14" width="5.453125" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" customWidth="1"/>
+    <col min="16" max="18" width="5.453125" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" customWidth="1"/>
-    <col min="21" max="22" width="5.42578125" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" customWidth="1"/>
-    <col min="24" max="24" width="4.5703125" customWidth="1"/>
-    <col min="25" max="26" width="3.85546875" customWidth="1"/>
-    <col min="27" max="29" width="5.42578125" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" customWidth="1"/>
+    <col min="20" max="20" width="5.26953125" customWidth="1"/>
+    <col min="21" max="22" width="5.453125" customWidth="1"/>
+    <col min="23" max="23" width="4.26953125" customWidth="1"/>
+    <col min="24" max="24" width="4.54296875" customWidth="1"/>
+    <col min="25" max="26" width="3.81640625" customWidth="1"/>
+    <col min="27" max="29" width="5.453125" customWidth="1"/>
+    <col min="30" max="30" width="8.54296875" customWidth="1"/>
+    <col min="31" max="31" width="8.453125" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" customWidth="1"/>
-    <col min="34" max="34" width="8.42578125" customWidth="1"/>
-    <col min="35" max="36" width="8.28515625" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" customWidth="1"/>
-    <col min="40" max="40" width="8.85546875" customWidth="1"/>
-    <col min="41" max="41" width="7.85546875" customWidth="1"/>
+    <col min="33" max="33" width="8.26953125" customWidth="1"/>
+    <col min="34" max="34" width="8.453125" customWidth="1"/>
+    <col min="35" max="36" width="8.26953125" customWidth="1"/>
+    <col min="37" max="37" width="9.1796875" customWidth="1"/>
+    <col min="40" max="40" width="8.81640625" customWidth="1"/>
+    <col min="41" max="41" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -4853,64 +4987,64 @@
         <v>54</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="V1" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>87</v>
@@ -4925,55 +5059,55 @@
         <v>3</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AD1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AF1" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>315</v>
-      </c>
       <c r="AI1" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AJ1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN1" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="AO1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
@@ -5072,19 +5206,19 @@
         <v>222</v>
       </c>
       <c r="AL2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AN2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AO2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>88</v>
       </c>
@@ -5183,22 +5317,22 @@
         <v>202</v>
       </c>
       <c r="AL3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AM3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AN3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AO3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AP3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>89</v>
       </c>
@@ -5294,19 +5428,19 @@
         <v>303</v>
       </c>
       <c r="AL4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AO4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AP4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -5405,27 +5539,27 @@
         <v>128</v>
       </c>
       <c r="AL5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO5" t="s">
         <v>298</v>
       </c>
-      <c r="AM5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>300</v>
-      </c>
       <c r="AP5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AQ5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B2:B5)</f>
@@ -5536,16 +5670,16 @@
         <v>174.71415138692993</v>
       </c>
       <c r="AL6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AM6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AN6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5658,10 +5792,10 @@
         <v>206.66901739539256</v>
       </c>
       <c r="AO7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5756,12 +5890,12 @@
         <v>383</v>
       </c>
       <c r="AO8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B9" s="2">
         <v>257</v>
@@ -5842,9 +5976,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B10" s="2">
         <v>257</v>
@@ -5925,36 +6059,36 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AC12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AD12" s="19" t="s">
         <v>87</v>
       </c>
       <c r="AE12" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF12" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG12" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="AF12" s="58" t="s">
+      <c r="AH12" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="AG12" s="58" t="s">
+      <c r="AI12" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="AH12" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="AI12" s="58" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>87</v>
       </c>
@@ -6026,22 +6160,22 @@
         <v>88</v>
       </c>
       <c r="AE13" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF13" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG13" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="AF13" s="59" t="s">
+      <c r="AH13" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="AG13" s="59" t="s">
+      <c r="AI13" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="AH13" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI13" s="60" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>88</v>
       </c>
@@ -6113,22 +6247,22 @@
         <v>89</v>
       </c>
       <c r="AE14" s="59" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF14" s="59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG14" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH14" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI14" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="AH14" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI14" s="60" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>89</v>
       </c>
@@ -6200,22 +6334,22 @@
         <v>3</v>
       </c>
       <c r="AE15" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF15" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG15" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="AF15" s="59" t="s">
+      <c r="AH15" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="AG15" s="59" t="s">
+      <c r="AI15" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="AH15" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI15" s="60" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
@@ -6287,21 +6421,21 @@
         <v>5</v>
       </c>
       <c r="AE16" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG16" t="s">
         <v>318</v>
       </c>
-      <c r="AF16" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>320</v>
-      </c>
       <c r="AH16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E17">
         <f>MIN(E13:E16)</f>
@@ -6387,9 +6521,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E18">
         <f>MAX(E13:E16)</f>
@@ -6475,9 +6609,9 @@
         <v>291.3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E19" s="63">
         <f>IF(E18&gt;=1/E17,E18-1,1-1/E17)</f>
@@ -6563,9 +6697,9 @@
         <v>128.881</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E20" t="s">
         <v>87</v>
@@ -6634,7 +6768,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="AD21" t="s">
         <v>5</v>
       </c>
@@ -6725,12 +6859,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -6741,7 +6875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6752,7 +6886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -6763,7 +6897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6774,7 +6908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6782,7 +6916,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6790,30 +6924,30 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B7">
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -6831,12 +6965,12 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -6880,7 +7014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -6918,7 +7052,7 @@
         <v>41385</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
@@ -6930,7 +7064,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -6968,7 +7102,7 @@
         <v>48503</v>
       </c>
       <c r="M3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -6980,7 +7114,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7018,7 +7152,7 @@
         <v>32059</v>
       </c>
       <c r="M4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
@@ -7030,7 +7164,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7068,7 +7202,7 @@
         <v>41490</v>
       </c>
       <c r="M5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
@@ -7077,7 +7211,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -7115,7 +7249,7 @@
         <v>90271</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
@@ -7124,7 +7258,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7171,12 +7305,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -7211,22 +7345,22 @@
         <v>86</v>
       </c>
       <c r="M10" t="s">
+        <v>424</v>
+      </c>
+      <c r="O10" t="s">
+        <v>428</v>
+      </c>
+      <c r="P10" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q10" t="s">
         <v>426</v>
       </c>
-      <c r="O10" t="s">
-        <v>430</v>
-      </c>
-      <c r="P10" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>428</v>
-      </c>
       <c r="R10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -7274,7 +7408,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -7322,7 +7456,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -7370,7 +7504,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7418,7 +7552,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -7459,7 +7593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -7518,18 +7652,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="34.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7555,7 +7689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7569,10 +7703,10 @@
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -7584,7 +7718,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -7604,16 +7738,16 @@
         <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="H3" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="I3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7642,7 +7776,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7653,7 +7787,7 @@
         <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
         <v>126</v>
@@ -7671,7 +7805,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7685,10 +7819,10 @@
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F6" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="G6" t="s">
         <v>116</v>
@@ -7697,36 +7831,36 @@
         <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C9" s="65">
         <v>2</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="F9" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H9" s="65">
         <v>6</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -7737,25 +7871,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" customWidth="1"/>
+    <col min="4" max="4" width="46.1796875" customWidth="1"/>
+    <col min="5" max="5" width="46.54296875" customWidth="1"/>
+    <col min="6" max="6" width="50.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>87</v>
@@ -7773,7 +7907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -7781,19 +7915,19 @@
         <v>175</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7803,7 +7937,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -7823,7 +7957,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7831,7 +7965,7 @@
         <v>174</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D5" t="s">
         <v>181</v>
@@ -7843,38 +7977,38 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
         <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C7" t="s">
         <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
         <v>143</v>
@@ -7883,7 +8017,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -7903,12 +8037,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -7919,16 +8053,19 @@
         <v>178</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>184</v>
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>676</v>
       </c>
       <c r="F10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -7936,10 +8073,10 @@
         <v>172</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>624</v>
+        <v>679</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
         <v>155</v>
@@ -7947,39 +8084,45 @@
       <c r="F11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>681</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B13" t="s">
         <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
         <v>148</v>
@@ -7988,9 +8131,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B14" t="s">
         <v>161</v>
@@ -8004,116 +8147,131 @@
       <c r="E14" t="s">
         <v>161</v>
       </c>
-      <c r="F14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="74" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>551</v>
+      </c>
+      <c r="B16" t="s">
+        <v>561</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>615</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>633</v>
+      </c>
+      <c r="E16" t="s">
         <v>556</v>
       </c>
-      <c r="B16" t="s">
-        <v>566</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>625</v>
-      </c>
-      <c r="D16" t="s">
-        <v>577</v>
-      </c>
-      <c r="E16" t="s">
-        <v>561</v>
-      </c>
       <c r="F16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B18" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D18" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E18" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D19" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E19" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>21</v>
       </c>
@@ -8132,39 +8290,45 @@
       <c r="F21" s="18" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B22" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C22" t="s">
-        <v>571</v>
-      </c>
-      <c r="D22" t="s">
-        <v>576</v>
+        <v>566</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>638</v>
       </c>
       <c r="E22" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F22" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="G22" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D23" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E23" t="s">
         <v>143</v>
@@ -8172,28 +8336,34 @@
       <c r="F23" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D24" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E24" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F24" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>25</v>
       </c>
@@ -8212,87 +8382,102 @@
       <c r="F25" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="F26" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B27" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C27" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D27" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E27" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F27" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+      <c r="G27" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B28" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D28" t="s">
         <v>476</v>
       </c>
-      <c r="D28" t="s">
-        <v>478</v>
-      </c>
       <c r="E28" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>597</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>479</v>
+        <v>588</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>683</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>677</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="18" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C30" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D30" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E30" t="s">
         <v>155</v>
@@ -8300,8 +8485,11 @@
       <c r="F30" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>31</v>
       </c>
@@ -8320,39 +8508,45 @@
       <c r="F31" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B32" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C32" t="s">
-        <v>573</v>
-      </c>
-      <c r="D32" t="s">
-        <v>574</v>
+        <v>568</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>645</v>
       </c>
       <c r="E32" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F32" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="G32" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B33" t="s">
         <v>173</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>631</v>
-      </c>
-      <c r="D33" t="s">
-        <v>188</v>
+        <v>621</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>673</v>
       </c>
       <c r="E33" t="s">
         <v>148</v>
@@ -8360,10 +8554,13 @@
       <c r="F33" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="73" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>170</v>
@@ -8372,7 +8569,7 @@
         <v>178</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>156</v>
@@ -8380,8 +8577,11 @@
       <c r="F34" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>35</v>
       </c>
@@ -8400,47 +8600,56 @@
       <c r="F35" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B37" t="s">
+        <v>565</v>
+      </c>
+      <c r="C37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D37" t="s">
         <v>570</v>
       </c>
-      <c r="C37" t="s">
-        <v>579</v>
-      </c>
-      <c r="D37" t="s">
-        <v>578</v>
-      </c>
       <c r="E37" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F37" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="G37" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="D38" t="s">
-        <v>582</v>
+        <v>620</v>
+      </c>
+      <c r="D38" s="73" t="s">
+        <v>684</v>
       </c>
       <c r="E38" t="s">
         <v>157</v>
@@ -8448,19 +8657,22 @@
       <c r="F38" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="73" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B39" t="s">
+        <v>518</v>
+      </c>
+      <c r="C39" t="s">
         <v>522</v>
       </c>
-      <c r="C39" t="s">
-        <v>526</v>
-      </c>
       <c r="D39" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E39" t="s">
         <v>159</v>
@@ -8468,19 +8680,22 @@
       <c r="F39" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B40" t="s">
+        <v>519</v>
+      </c>
+      <c r="C40" t="s">
         <v>523</v>
       </c>
-      <c r="C40" t="s">
-        <v>527</v>
-      </c>
       <c r="D40" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E40" t="s">
         <v>158</v>
@@ -8488,19 +8703,22 @@
       <c r="F40" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>531</v>
+        <v>520</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>678</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>160</v>
@@ -8508,8 +8726,11 @@
       <c r="F41" s="18" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8528,32 +8749,219 @@
       <c r="F42" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>525</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="F43" t="s">
+        <v>479</v>
+      </c>
+      <c r="G43" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F44" t="s">
+        <v>480</v>
+      </c>
+      <c r="G44" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>45</v>
       </c>
+      <c r="E45" t="s">
+        <v>535</v>
+      </c>
       <c r="F45" t="s">
-        <v>540</v>
+        <v>481</v>
+      </c>
+      <c r="G45" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>482</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>483</v>
+      </c>
+      <c r="G47" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>484</v>
+      </c>
+      <c r="G48" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>485</v>
+      </c>
+      <c r="G50" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>486</v>
+      </c>
+      <c r="G51" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>488</v>
+      </c>
+      <c r="G53" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>489</v>
+      </c>
+      <c r="G54" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>490</v>
+      </c>
+      <c r="G55" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>492</v>
+      </c>
+      <c r="G58" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F59" t="s">
+        <v>493</v>
+      </c>
+      <c r="G59" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F60" t="s">
+        <v>494</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F61" t="s">
+        <v>495</v>
+      </c>
+      <c r="G61" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F62" t="s">
+        <v>496</v>
+      </c>
+      <c r="G62" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F64" t="s">
+        <v>497</v>
+      </c>
+      <c r="G64" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F65" t="s">
+        <v>498</v>
+      </c>
+      <c r="G65" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F66" t="s">
+        <v>671</v>
+      </c>
+      <c r="G66" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F67" t="s">
+        <v>500</v>
+      </c>
+      <c r="G67" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F68" t="s">
+        <v>501</v>
+      </c>
+      <c r="G68" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F69" t="s">
+        <v>502</v>
+      </c>
+      <c r="G69" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -8570,114 +8978,114 @@
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" customWidth="1"/>
+    <col min="17" max="17" width="6.7265625" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" customWidth="1"/>
+    <col min="19" max="19" width="8.54296875" customWidth="1"/>
+    <col min="20" max="20" width="7.1796875" customWidth="1"/>
+    <col min="21" max="21" width="9.54296875" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.1796875" customWidth="1"/>
+    <col min="27" max="27" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>245</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>247</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="L1" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="P1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="AB1" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
@@ -8776,7 +9184,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
@@ -8875,7 +9283,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
@@ -8974,9 +9382,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" s="26">
         <f t="shared" si="0"/>
@@ -9073,9 +9481,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" s="26">
         <f t="shared" si="0"/>
@@ -9164,12 +9572,12 @@
         <v>0.73489452187500004</v>
       </c>
       <c r="AC6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="0"/>
@@ -9258,16 +9666,16 @@
         <v>11851851851851.852</v>
       </c>
       <c r="AC7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F8" s="50">
         <v>9.5999999999999992E-3</v>
@@ -9293,10 +9701,10 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="13"/>
       <c r="AC8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
@@ -9338,13 +9746,13 @@
         <v>2174380000000</v>
       </c>
       <c r="AB9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC9" t="s">
         <v>248</v>
       </c>
-      <c r="AC9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
@@ -9380,18 +9788,18 @@
         <v>21372572000000</v>
       </c>
       <c r="AB10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC10" t="s">
         <v>249</v>
       </c>
-      <c r="AC10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F11" s="55">
         <v>2.1299999999999999E-2</v>
@@ -9402,60 +9810,60 @@
       <c r="V11" s="32"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T12" s="32"/>
       <c r="U12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V12" s="32"/>
       <c r="W12" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y12" t="s">
         <v>211</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>213</v>
       </c>
       <c r="AA12" s="33">
         <v>260000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="40">
         <f>2*(O13-U13)</f>
@@ -9506,9 +9914,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="40">
         <f t="shared" ref="B14:B19" si="10">2*(O14-U14)</f>
@@ -9559,9 +9967,9 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B15" s="40">
         <f t="shared" si="10"/>
@@ -9612,9 +10020,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B16" s="40">
         <f t="shared" si="10"/>
@@ -9665,9 +10073,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" s="40">
         <f t="shared" si="10"/>
@@ -9718,9 +10126,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" s="40">
         <f t="shared" si="10"/>
@@ -9771,9 +10179,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19" s="40">
         <f t="shared" si="10"/>
@@ -9824,9 +10232,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F20" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9842,9 +10250,9 @@
       <c r="V20" s="32"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F21" s="50">
         <v>8.5000000000000006E-3</v>
@@ -9861,9 +10269,9 @@
       <c r="V21" s="32"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F22" s="50">
         <v>1.6000000000000001E-3</v>
@@ -9876,15 +10284,15 @@
         <v>526000000000</v>
       </c>
       <c r="I22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="T22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -9930,9 +10338,9 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -9978,9 +10386,9 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -10026,9 +10434,9 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -10074,9 +10482,9 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -10122,9 +10530,9 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -10170,9 +10578,9 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -10218,9 +10626,9 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -10266,9 +10674,9 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -10314,9 +10722,9 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -10362,9 +10770,9 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -10410,9 +10818,9 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -10458,9 +10866,9 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -10506,9 +10914,9 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -10554,9 +10962,9 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -10602,9 +11010,9 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -10650,9 +11058,9 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -10698,9 +11106,9 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -10760,15 +11168,15 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" customWidth="1"/>
+    <col min="33" max="33" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -10867,7 +11275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -10978,7 +11386,7 @@
         <v>10.333402166480258</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -11087,7 +11495,7 @@
         <v>25.143552870628557</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -11196,7 +11604,7 @@
         <v>4.1054218110057965</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -11297,7 +11705,7 @@
         <v>3.9671629464069529</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -11401,7 +11809,7 @@
         <v>19.299485959819044</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -11504,7 +11912,7 @@
         <v>322.14084632849483</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -11563,7 +11971,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -11622,7 +12030,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -11634,7 +12042,7 @@
       </c>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -11647,7 +12055,7 @@
       </c>
       <c r="AB11" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -11712,7 +12120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -11726,7 +12134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>65</v>
       </c>
@@ -11734,7 +12142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
         <v>73</v>
       </c>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="692">
   <si>
     <t>France</t>
   </si>
@@ -2089,6 +2089,27 @@
   </si>
   <si>
     <t>Plan climático global</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Appropriate</t>
+  </si>
+  <si>
+    <t>Unsound</t>
+  </si>
+  <si>
+    <t>Inappropriate</t>
+  </si>
+  <si>
+    <t>Harmful</t>
+  </si>
+  <si>
+    <t>Useful</t>
+  </si>
+  <si>
+    <t>National carbon fee and dividend</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2122,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2188,14 +2209,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2205,6 +2218,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2253,11 +2295,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2392,18 +2435,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -4167,9 +4215,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4207,11 +4255,11 @@
       <c r="A2" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="73" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" t="s">
         <v>336</v>
       </c>
@@ -4243,12 +4291,12 @@
       <c r="A4" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" t="s">
         <v>342</v>
       </c>
@@ -4374,12 +4422,12 @@
       <c r="A11" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
       <c r="F11" t="s">
         <v>353</v>
       </c>
@@ -4448,24 +4496,24 @@
       <c r="A15" t="s">
         <v>368</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="73" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="73" t="s">
         <v>420</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
       <c r="F16" t="s">
         <v>371</v>
       </c>
@@ -4514,12 +4562,12 @@
       <c r="A19" t="s">
         <v>440</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="73" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
       <c r="F19" t="s">
         <v>381</v>
       </c>
@@ -4568,12 +4616,12 @@
       <c r="A22" t="s">
         <v>387</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
       <c r="F22" t="s">
         <v>389</v>
       </c>
@@ -4602,12 +4650,12 @@
       <c r="A24" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="73" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
       <c r="F24" t="s">
         <v>392</v>
       </c>
@@ -4636,12 +4684,12 @@
       <c r="A26" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" t="s">
         <v>394</v>
       </c>
@@ -4739,10 +4787,10 @@
       <c r="B31" t="s">
         <v>608</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="78" t="s">
         <v>609</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="78" t="s">
         <v>610</v>
       </c>
       <c r="E31" t="s">
@@ -4751,7 +4799,7 @@
       <c r="F31" t="s">
         <v>612</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="78" t="s">
         <v>613</v>
       </c>
     </row>
@@ -4785,7 +4833,7 @@
       <c r="F33" t="s">
         <v>630</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="78" t="s">
         <v>631</v>
       </c>
     </row>
@@ -4793,12 +4841,12 @@
       <c r="A34" t="s">
         <v>478</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
       <c r="F34" t="s">
         <v>479</v>
       </c>
@@ -4859,80 +4907,86 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F48" s="71" t="s">
+      <c r="F48" s="70" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="70" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F50" s="71" t="s">
+      <c r="F50" s="70" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="70" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="70" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="70" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F55" s="71" t="s">
+      <c r="F55" s="70" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F56" s="71" t="s">
+      <c r="F56" s="70" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F57" s="71" t="s">
+      <c r="F57" s="70" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F58" s="71" t="s">
+      <c r="F58" s="70" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="70" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="70" t="s">
         <v>502</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B19:E19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H31" r:id="rId1"/>
+    <hyperlink ref="C31" r:id="rId2"/>
+    <hyperlink ref="D31" r:id="rId3"/>
+    <hyperlink ref="H33" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7873,8 +7927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7888,987 +7942,1066 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="74" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="8" t="s">
         <v>186</v>
       </c>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>139</v>
       </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>140</v>
       </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>142</v>
       </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>143</v>
       </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>141</v>
       </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>9</v>
       </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="72" t="s">
         <v>676</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="8" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="8" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>148</v>
       </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="72" t="s">
         <v>674</v>
       </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="8">
         <v>15</v>
       </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="8" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="76" t="s">
         <v>467</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="76" t="s">
         <v>590</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="74" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="8" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="8" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="76" t="s">
         <v>530</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="76" t="s">
         <v>582</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="76" t="s">
         <v>517</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="8" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="8">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="74" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="74" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="A25" s="8">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="8" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="A26" s="8">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="8" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="72" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="76" t="s">
         <v>588</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="76" t="s">
         <v>683</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="76" t="s">
         <v>677</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="76" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="8" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="A31" s="8">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="8" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="77" t="s">
         <v>536</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G33" s="73" t="s">
+      <c r="G33" s="8" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="77" t="s">
         <v>546</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="74" t="s">
         <v>533</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="8" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="A35" s="8">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="8" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="A36" s="8">
         <v>36</v>
       </c>
-      <c r="F36" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="8" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="8" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="8" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="8" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="76" t="s">
         <v>520</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="76" t="s">
         <v>678</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="76" t="s">
         <v>526</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="8" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="A42" s="8">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="76"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="A43" s="8">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="76" t="s">
         <v>527</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="G43" s="79" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>44</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="74" t="s">
+        <v>534</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G44" s="79" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
+        <v>45</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="G45" s="79" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G46" s="79" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="F44" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="79" t="s">
+        <v>479</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="G48" s="79" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E49" s="79" t="s">
         <v>480</v>
       </c>
-      <c r="G44" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="E45" t="s">
-        <v>535</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G49" s="79"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E50" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="G45" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F46" t="s">
+      <c r="F50" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G50" s="79" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E51" s="79" t="s">
         <v>482</v>
       </c>
-      <c r="G46" s="19" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F47" t="s">
+      <c r="F51" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="G51" s="79" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E52" s="79" t="s">
         <v>483</v>
       </c>
-      <c r="G47" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F48" t="s">
+      <c r="F52" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="G52" s="79" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E53" s="79" t="s">
         <v>484</v>
       </c>
-      <c r="G48" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F50" t="s">
+      <c r="F53" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="G50" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F51" t="s">
+      <c r="G53" s="79" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E54" s="79"/>
+      <c r="F54" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="G54" s="79" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E55" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="G55" s="79" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E56" s="79" t="s">
         <v>486</v>
       </c>
-      <c r="G51" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F52" t="s">
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E57" s="79" t="s">
         <v>487</v>
       </c>
-      <c r="G52" s="19" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F53" t="s">
-        <v>488</v>
-      </c>
-      <c r="G53" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F54" t="s">
-        <v>489</v>
-      </c>
-      <c r="G54" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F55" t="s">
-        <v>490</v>
-      </c>
-      <c r="G55" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
         <v>491</v>
       </c>
@@ -8876,7 +9009,10 @@
         <v>662</v>
       </c>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E58" s="79" t="s">
+        <v>488</v>
+      </c>
       <c r="F58" t="s">
         <v>492</v>
       </c>
@@ -8884,7 +9020,10 @@
         <v>663</v>
       </c>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E59" s="79" t="s">
+        <v>489</v>
+      </c>
       <c r="F59" t="s">
         <v>493</v>
       </c>
@@ -8892,7 +9031,10 @@
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E60" s="79" t="s">
+        <v>490</v>
+      </c>
       <c r="F60" t="s">
         <v>494</v>
       </c>
@@ -8900,7 +9042,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
       <c r="F61" t="s">
         <v>495</v>
       </c>
@@ -8908,7 +9050,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
       <c r="F62" t="s">
         <v>496</v>
       </c>
@@ -8916,7 +9058,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
       <c r="F64" t="s">
         <v>497</v>
       </c>
@@ -8942,7 +9084,7 @@
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F67" t="s">
-        <v>500</v>
+        <v>691</v>
       </c>
       <c r="G67" t="s">
         <v>669</v>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -2122,7 +2122,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2223,14 +2223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2295,12 +2287,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2438,20 +2429,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -4215,9 +4204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4255,11 +4244,11 @@
       <c r="A2" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="78" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" t="s">
         <v>336</v>
       </c>
@@ -4291,12 +4280,12 @@
       <c r="A4" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" t="s">
         <v>342</v>
       </c>
@@ -4422,12 +4411,12 @@
       <c r="A11" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="78" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" t="s">
         <v>353</v>
       </c>
@@ -4496,24 +4485,24 @@
       <c r="A15" t="s">
         <v>368</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="78" t="s">
         <v>420</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" t="s">
         <v>371</v>
       </c>
@@ -4562,12 +4551,12 @@
       <c r="A19" t="s">
         <v>440</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
       <c r="F19" t="s">
         <v>381</v>
       </c>
@@ -4616,12 +4605,12 @@
       <c r="A22" t="s">
         <v>387</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="78" t="s">
         <v>388</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
       <c r="F22" t="s">
         <v>389</v>
       </c>
@@ -4650,12 +4639,12 @@
       <c r="A24" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
       <c r="F24" t="s">
         <v>392</v>
       </c>
@@ -4684,12 +4673,12 @@
       <c r="A26" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="78" t="s">
         <v>395</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
       <c r="F26" t="s">
         <v>394</v>
       </c>
@@ -4787,10 +4776,10 @@
       <c r="B31" t="s">
         <v>608</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" t="s">
         <v>609</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" t="s">
         <v>610</v>
       </c>
       <c r="E31" t="s">
@@ -4799,7 +4788,7 @@
       <c r="F31" t="s">
         <v>612</v>
       </c>
-      <c r="H31" s="78" t="s">
+      <c r="H31" t="s">
         <v>613</v>
       </c>
     </row>
@@ -4833,7 +4822,7 @@
       <c r="F33" t="s">
         <v>630</v>
       </c>
-      <c r="H33" s="78" t="s">
+      <c r="H33" t="s">
         <v>631</v>
       </c>
     </row>
@@ -4841,12 +4830,12 @@
       <c r="A34" t="s">
         <v>478</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="78" t="s">
         <v>632</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
       <c r="F34" t="s">
         <v>479</v>
       </c>
@@ -4968,25 +4957,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H31" r:id="rId1"/>
-    <hyperlink ref="C31" r:id="rId2"/>
-    <hyperlink ref="D31" r:id="rId3"/>
-    <hyperlink ref="H33" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7927,7 +7910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
@@ -7945,19 +7928,19 @@
       <c r="A1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8"/>
@@ -7975,7 +7958,7 @@
       <c r="D2" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>463</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -8259,22 +8242,22 @@
       <c r="A17" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>467</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="75" t="s">
         <v>590</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="73" t="s">
         <v>634</v>
       </c>
     </row>
@@ -8317,7 +8300,7 @@
       <c r="E19" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="75" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -8328,19 +8311,19 @@
       <c r="A20" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="75" t="s">
         <v>582</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="75" t="s">
         <v>517</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="75" t="s">
         <v>151</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -8363,7 +8346,7 @@
       <c r="E21" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="75" t="s">
         <v>161</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -8412,7 +8395,7 @@
       <c r="F23" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="73" t="s">
         <v>639</v>
       </c>
     </row>
@@ -8435,7 +8418,7 @@
       <c r="F24" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="74" t="s">
+      <c r="G24" s="73" t="s">
         <v>640</v>
       </c>
     </row>
@@ -8527,22 +8510,22 @@
       <c r="A29" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="75" t="s">
         <v>588</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="75" t="s">
         <v>683</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="75" t="s">
         <v>677</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="76" t="s">
+      <c r="G29" s="75" t="s">
         <v>643</v>
       </c>
     </row>
@@ -8616,7 +8599,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="76" t="s">
         <v>536</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -8639,22 +8622,22 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="76" t="s">
         <v>546</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="73" t="s">
         <v>533</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="73" t="s">
         <v>156</v>
       </c>
       <c r="G34" s="8" t="s">
@@ -8677,7 +8660,7 @@
       <c r="E35" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="73" t="s">
         <v>144</v>
       </c>
       <c r="G35" s="8" t="s">
@@ -8795,19 +8778,19 @@
       <c r="A41" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="75" t="s">
         <v>520</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="75" t="s">
         <v>678</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="75" t="s">
         <v>526</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F41" s="75" t="s">
         <v>160</v>
       </c>
       <c r="G41" s="8" t="s">
@@ -8833,7 +8816,7 @@
       <c r="F42" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="76"/>
+      <c r="G42" s="75"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
@@ -8843,13 +8826,13 @@
       <c r="C43" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="75" t="s">
         <v>527</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="G43" s="79" t="s">
+      <c r="G43" s="77" t="s">
         <v>651</v>
       </c>
     </row>
@@ -8859,13 +8842,13 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="73" t="s">
         <v>534</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="G44" s="79" t="s">
+      <c r="G44" s="77" t="s">
         <v>652</v>
       </c>
     </row>
@@ -8881,7 +8864,7 @@
       <c r="F45" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="G45" s="79" t="s">
+      <c r="G45" s="77" t="s">
         <v>653</v>
       </c>
     </row>
@@ -8893,7 +8876,7 @@
       <c r="F46" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="G46" s="79" t="s">
+      <c r="G46" s="77" t="s">
         <v>651</v>
       </c>
     </row>
@@ -8905,7 +8888,7 @@
       <c r="F47" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="G47" s="79" t="s">
+      <c r="G47" s="77" t="s">
         <v>654</v>
       </c>
     </row>
@@ -8913,93 +8896,93 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="E48" s="79" t="s">
+      <c r="E48" s="77" t="s">
         <v>479</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="G48" s="79" t="s">
+      <c r="G48" s="77" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E49" s="79" t="s">
+      <c r="E49" s="77" t="s">
         <v>480</v>
       </c>
-      <c r="G49" s="79"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E50" s="79" t="s">
+      <c r="E50" s="77" t="s">
         <v>481</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="G50" s="79" t="s">
+      <c r="G50" s="77" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E51" s="79" t="s">
+      <c r="E51" s="77" t="s">
         <v>482</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="G51" s="79" t="s">
+      <c r="G51" s="77" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E52" s="79" t="s">
+      <c r="E52" s="77" t="s">
         <v>483</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="G52" s="79" t="s">
+      <c r="G52" s="77" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E53" s="79" t="s">
+      <c r="E53" s="77" t="s">
         <v>484</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="G53" s="79" t="s">
+      <c r="G53" s="77" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E54" s="79"/>
+      <c r="E54" s="77"/>
       <c r="F54" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="G54" s="79" t="s">
+      <c r="G54" s="77" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E55" s="79" t="s">
+      <c r="E55" s="77" t="s">
         <v>485</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="G55" s="79" t="s">
+      <c r="G55" s="77" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E56" s="79" t="s">
+      <c r="E56" s="77" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E57" s="79" t="s">
+      <c r="E57" s="77" t="s">
         <v>487</v>
       </c>
       <c r="F57" t="s">
@@ -9010,7 +8993,7 @@
       </c>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E58" s="79" t="s">
+      <c r="E58" s="77" t="s">
         <v>488</v>
       </c>
       <c r="F58" t="s">
@@ -9021,7 +9004,7 @@
       </c>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E59" s="79" t="s">
+      <c r="E59" s="77" t="s">
         <v>489</v>
       </c>
       <c r="F59" t="s">
@@ -9032,7 +9015,7 @@
       </c>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E60" s="79" t="s">
+      <c r="E60" s="77" t="s">
         <v>490</v>
       </c>
       <c r="F60" t="s">

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="693">
   <si>
     <t>France</t>
   </si>
@@ -2110,17 +2110,21 @@
   </si>
   <si>
     <t>National carbon fee and dividend</t>
+  </si>
+  <si>
+    <t>average carbon footprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -2291,7 +2295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2439,6 +2443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2720,19 +2725,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.453125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2770,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
@@ -2832,7 +2837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -2860,7 +2865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2876,7 +2881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>359</v>
       </c>
@@ -2911,7 +2916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
@@ -2940,7 +2945,7 @@
         <v>285.30725980380089</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
@@ -2972,7 +2977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -3009,7 +3014,7 @@
         <v>23.777393803164124</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
@@ -3043,7 +3048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -3142,7 +3147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -3176,389 +3181,403 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="B15" s="79">
+        <f>10^6*B11/B13</f>
+        <v>8.4465860768714887</v>
+      </c>
+      <c r="C15" s="79">
+        <f t="shared" ref="C15:G15" si="2">10^6*C11/C13</f>
+        <v>12.021624837967261</v>
+      </c>
+      <c r="D15" s="79">
+        <f t="shared" si="2"/>
+        <v>7.4416029830848416</v>
+      </c>
+      <c r="E15" s="79">
+        <f t="shared" si="2"/>
+        <v>13.286862227086862</v>
+      </c>
+      <c r="F15" s="79">
+        <f t="shared" si="2"/>
+        <v>10.683297432592855</v>
+      </c>
+      <c r="G15" s="79">
+        <f t="shared" si="2"/>
+        <v>22.419189442591861</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="11">
-        <f t="shared" ref="B16:G16" si="2">B20/B19</f>
+      <c r="B17" s="11">
+        <f t="shared" ref="B17:G17" si="3">B21/B20</f>
         <v>1.6804869000780116E-2</v>
       </c>
-      <c r="C16" s="11">
-        <f t="shared" si="2"/>
+      <c r="C17" s="11">
+        <f t="shared" si="3"/>
         <v>2.4285946906251236E-2</v>
-      </c>
-      <c r="D16" s="11">
-        <f t="shared" si="2"/>
-        <v>8.4503315316459028E-3</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="2"/>
-        <v>2.182641984567564E-2</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="2"/>
-        <v>2.7832459188770545E-2</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5731003235390304E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B17" s="11">
-        <f>B20/B18</f>
-        <v>2.8652771056078725E-2</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" ref="C17:G17" si="3">C20/C18</f>
-        <v>3.7067064609916489E-2</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="3"/>
-        <v>1.4677280378829026E-2</v>
-      </c>
-      <c r="E17" s="11"/>
+        <v>8.4503315316459028E-3</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="3"/>
+        <v>2.182641984567564E-2</v>
+      </c>
       <c r="F17" s="11">
         <f t="shared" si="3"/>
-        <v>3.8580944213005321E-2</v>
+        <v>2.7832459188770545E-2</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="3"/>
-        <v>6.5196117592019917E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>430</v>
+        <v>4.5731003235390304E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>432</v>
       </c>
       <c r="B18" s="11">
-        <v>8.9499999999999996E-2</v>
+        <f>B21/B19</f>
+        <v>2.8652771056078725E-2</v>
       </c>
       <c r="C18" s="11">
-        <v>0.13320000000000001</v>
+        <f t="shared" ref="C18:G18" si="4">C21/C19</f>
+        <v>3.7067064609916489E-2</v>
       </c>
       <c r="D18" s="11">
-        <v>0.1144</v>
+        <f t="shared" si="4"/>
+        <v>1.4677280378829026E-2</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11">
+        <f t="shared" si="4"/>
+        <v>3.8580944213005321E-2</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="4"/>
+        <v>6.5196117592019917E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.1144</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11">
         <v>0.12740000000000001</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>0.1903</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B20" s="11">
         <v>0.15260000000000001</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="11">
         <v>0.20330000000000001</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>0.19869999999999999</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>0.19109999999999999</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>0.17660000000000001</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>0.27129999999999999</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="3">
-        <f t="shared" ref="B20:G20" si="4">B7/B21</f>
+      <c r="B21" s="3">
+        <f t="shared" ref="B21:G21" si="5">B7/B22</f>
         <v>2.5644230095190458E-3</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" si="4"/>
+      <c r="C21" s="3">
+        <f t="shared" si="5"/>
         <v>4.9373330060408765E-3</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="4"/>
+      <c r="D21" s="3">
+        <f t="shared" si="5"/>
         <v>1.6790808753380407E-3</v>
       </c>
-      <c r="E20" s="3">
-        <f t="shared" si="4"/>
+      <c r="E21" s="3">
+        <f t="shared" si="5"/>
         <v>4.1710288325086144E-3</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="4"/>
+      <c r="F21" s="3">
+        <f t="shared" si="5"/>
         <v>4.9152122927368785E-3</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="4"/>
+      <c r="G21" s="3">
+        <f t="shared" si="5"/>
         <v>1.2406821177761389E-2</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>2937</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>4223</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1425</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>813</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>3187</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>22996</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B23" s="41">
         <v>175</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C23" s="41">
         <v>249</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D23" s="41">
         <v>132</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="41">
+      <c r="E23" s="36"/>
+      <c r="F23" s="41">
         <v>178</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G23" s="41">
         <v>479</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M23" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>95</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>112</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>83</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>152</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>88</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>172</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>67.400000000000006</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>83.1</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>47.1</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>8.6</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>66.8</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>328.3</v>
       </c>
-      <c r="H25">
-        <f>SUM(B25+C25+D25+F25)</f>
+      <c r="H26">
+        <f>SUM(B26+C26+D26+F26)</f>
         <v>264.39999999999998</v>
       </c>
-      <c r="I25">
-        <f>H25+E25</f>
+      <c r="I26">
+        <f>H26+E26</f>
         <v>273</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>446.8</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4">
         <v>51.7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>69.400000000000006</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>38.5</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>7.11</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <v>53.1</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>257</v>
       </c>
-      <c r="H26" s="2">
-        <f>SUM(B26:F26)</f>
+      <c r="H27" s="2">
+        <f>SUM(B27:F27)</f>
         <v>219.81000000000003</v>
       </c>
-      <c r="I26" s="2">
-        <f>H26+E26</f>
+      <c r="I27" s="2">
+        <f>H27+E27</f>
         <v>226.92000000000004</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>27012</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>25039</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>17656</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>23603</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>19798</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>24858</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>469000</v>
       </c>
-      <c r="C28" s="2">
-        <f>C27*C25</f>
+      <c r="C29" s="2">
+        <f>C28*C26</f>
         <v>2080740.9</v>
       </c>
-      <c r="D28" s="2">
-        <f>D27*D25</f>
+      <c r="D29" s="2">
+        <f>D28*D26</f>
         <v>831597.6</v>
       </c>
-      <c r="E28" s="2">
-        <f>E27*E25</f>
+      <c r="E29" s="2">
+        <f>E28*E26</f>
         <v>202985.8</v>
       </c>
-      <c r="F28" s="2">
-        <f>F27*F25</f>
+      <c r="F29" s="2">
+        <f>F28*F26</f>
         <v>1322506.3999999999</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>4496000</v>
       </c>
-      <c r="H28">
-        <f>SUM(B28+C28+D28+F28)</f>
+      <c r="H29">
+        <f>SUM(B29+C29+D29+F29)</f>
         <v>4703844.9000000004</v>
       </c>
-      <c r="I28">
-        <f>H28+E28</f>
+      <c r="I29">
+        <f>H29+E29</f>
         <v>4906830.7</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="M28" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
-        <v>3079</v>
-      </c>
-      <c r="G29">
-        <v>44100</v>
-      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="M29" t="s">
         <v>34</v>
       </c>
@@ -3566,633 +3585,650 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>3079</v>
+      </c>
+      <c r="G30">
+        <v>44100</v>
+      </c>
+      <c r="M30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="3">
-        <f>B29/B28</f>
+      <c r="B31" s="3">
+        <f>B30/B29</f>
         <v>6.5650319829424304E-3</v>
       </c>
-      <c r="C30" s="3" t="e">
-        <f>#REF!/C28</f>
+      <c r="C31" s="3" t="e">
+        <f>#REF!/C29</f>
         <v>#REF!</v>
       </c>
-      <c r="D30" s="3" t="e">
-        <f>#REF!/D28</f>
+      <c r="D31" s="3" t="e">
+        <f>#REF!/D29</f>
         <v>#REF!</v>
       </c>
-      <c r="E30" s="3" t="e">
-        <f>#REF!/E28</f>
+      <c r="E31" s="3" t="e">
+        <f>#REF!/E29</f>
         <v>#REF!</v>
       </c>
-      <c r="F30" s="3" t="e">
-        <f>#REF!/F28</f>
+      <c r="F31" s="3" t="e">
+        <f>#REF!/F29</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="3">
-        <f>G29/G28</f>
+      <c r="G31" s="3">
+        <f>G30/G29</f>
         <v>9.8087188612099637E-3</v>
       </c>
-      <c r="H30" s="3" t="e">
-        <f>#REF!/H28</f>
+      <c r="H31" s="3" t="e">
+        <f>#REF!/H29</f>
         <v>#REF!</v>
       </c>
-      <c r="I30" s="3" t="e">
-        <f>#REF!/I28</f>
+      <c r="I31" s="3" t="e">
+        <f>#REF!/I29</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="3">
-        <f t="shared" ref="B31:G31" si="5">B4/B3</f>
+      <c r="B32" s="3">
+        <f t="shared" ref="B32:G32" si="6">B4/B3</f>
         <v>7.9422382671480145E-3</v>
       </c>
-      <c r="C31" s="3">
-        <f t="shared" si="5"/>
+      <c r="C32" s="3">
+        <f t="shared" si="6"/>
         <v>1.3333333333333332E-2</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="5"/>
+      <c r="D32" s="3">
+        <f t="shared" si="6"/>
         <v>4.9881235154394295E-3</v>
       </c>
-      <c r="E31" s="3">
-        <f t="shared" si="5"/>
+      <c r="E32" s="3">
+        <f t="shared" si="6"/>
         <v>1.3414634146341463E-2</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" si="5"/>
+      <c r="F32" s="3">
+        <f t="shared" si="6"/>
         <v>1.7199017199017199E-2</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" si="5"/>
+      <c r="G32" s="3">
+        <f t="shared" si="6"/>
         <v>4.1884816753926706E-3</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="3" t="e">
-        <f>(#REF!*#REF!+B29)/B28</f>
+      <c r="B33" s="3" t="e">
+        <f>(#REF!*#REF!+B30)/B29</f>
         <v>#REF!</v>
       </c>
-      <c r="C32" s="3" t="e">
-        <f>(#REF!*#REF!+#REF!)/C28</f>
+      <c r="C33" s="3" t="e">
+        <f>(#REF!*#REF!+#REF!)/C29</f>
         <v>#REF!</v>
       </c>
-      <c r="D32" s="3" t="e">
-        <f>(#REF!*#REF!+#REF!)/D28</f>
+      <c r="D33" s="3" t="e">
+        <f>(#REF!*#REF!+#REF!)/D29</f>
         <v>#REF!</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H32" s="3" t="e">
-        <f>(#REF!*#REF!+#REF!)/H28</f>
+      <c r="H33" s="3" t="e">
+        <f>(#REF!*#REF!+#REF!)/H29</f>
         <v>#REF!</v>
       </c>
-      <c r="I32" s="3" t="e">
-        <f>(#REF!*#REF!+#REF!)/I28</f>
+      <c r="I33" s="3" t="e">
+        <f>(#REF!*#REF!+#REF!)/I29</f>
         <v>#REF!</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="2">
-        <f t="shared" ref="B33:G33" si="6">B6*B26*12/1000</f>
+      <c r="B34" s="2">
+        <f t="shared" ref="B34:G34" si="7">B6*B27*12/1000</f>
         <v>7.1975864434768866</v>
       </c>
-      <c r="C33" s="2">
-        <f t="shared" si="6"/>
+      <c r="C34" s="2">
+        <f t="shared" si="7"/>
         <v>21.032191795712752</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="6"/>
+      <c r="D34" s="2">
+        <f t="shared" si="7"/>
         <v>2.3499636357967666</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" si="6"/>
+      <c r="E34" s="2">
+        <f t="shared" si="7"/>
         <v>3.1934225422910951</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" si="6"/>
+      <c r="F34" s="2">
+        <f t="shared" si="7"/>
         <v>14.853569673860253</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="6"/>
+      <c r="G34" s="2">
+        <f t="shared" si="7"/>
         <v>264.04020802872463</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="2">
         <f>Constants!$B$6*B9*12*B14/10^9</f>
         <v>10.333402166480258</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <f>Constants!$B$6*C9*12*C14/10^9</f>
         <v>25.143552870628557</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <f>Constants!$B$6*D9*12*D14/10^9</f>
         <v>4.1054218110057965</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <f>Constants!$B$6*E9*12*E14/10^9</f>
         <v>3.9671629464069529</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
         <f>Constants!$B$6*F9*12*F14/10^9</f>
         <v>19.299485959819044</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <f>Constants!$B$6*G9*12*G14/10^9</f>
         <v>322.14084632849483</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="2">
         <f>Constants!$B$6*H9*12*H14/10^9</f>
         <v>62.849025754340616</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I35" s="2">
         <f>Constants!$B$6*I9*12*I14/10^9</f>
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="2">
-        <f>2000*B26/$H$26</f>
+      <c r="B36" s="2">
+        <f>2000*B27/$H$27</f>
         <v>470.40625995177646</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" ref="C35:F35" si="7">2000*C26/$H$26</f>
+      <c r="C36" s="2">
+        <f t="shared" ref="C36:F36" si="8">2000*C27/$H$27</f>
         <v>631.4544379236612</v>
       </c>
-      <c r="D35" s="2">
-        <f t="shared" si="7"/>
+      <c r="D36" s="2">
+        <f t="shared" si="8"/>
         <v>350.30253400664208</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2">
-        <f t="shared" si="7"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <f t="shared" si="8"/>
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4204,23 +4240,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="46.54296875" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="4" max="4" width="44.54296875" customWidth="1"/>
-    <col min="5" max="5" width="46.1796875" customWidth="1"/>
-    <col min="6" max="6" width="40.54296875" customWidth="1"/>
-    <col min="7" max="7" width="1.26953125" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>331</v>
       </c>
@@ -4240,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>335</v>
       </c>
@@ -4256,7 +4292,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -4276,7 +4312,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>340</v>
       </c>
@@ -4290,7 +4326,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>399</v>
       </c>
@@ -4310,7 +4346,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>447</v>
       </c>
@@ -4330,7 +4366,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>451</v>
       </c>
@@ -4350,7 +4386,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -4367,7 +4403,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>439</v>
       </c>
@@ -4387,7 +4423,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>348</v>
       </c>
@@ -4407,7 +4443,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>351</v>
       </c>
@@ -4421,7 +4457,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>580</v>
       </c>
@@ -4441,7 +4477,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>355</v>
       </c>
@@ -4461,7 +4497,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>419</v>
       </c>
@@ -4481,7 +4517,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>368</v>
       </c>
@@ -4493,7 +4529,7 @@
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>370</v>
       </c>
@@ -4507,7 +4543,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -4527,7 +4563,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>400</v>
       </c>
@@ -4547,7 +4583,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>440</v>
       </c>
@@ -4561,7 +4597,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>412</v>
       </c>
@@ -4581,7 +4617,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>385</v>
       </c>
@@ -4601,7 +4637,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>387</v>
       </c>
@@ -4615,7 +4651,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>390</v>
       </c>
@@ -4635,7 +4671,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>391</v>
       </c>
@@ -4649,7 +4685,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>396</v>
       </c>
@@ -4669,7 +4705,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>393</v>
       </c>
@@ -4683,7 +4719,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>411</v>
       </c>
@@ -4703,7 +4739,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>441</v>
       </c>
@@ -4723,7 +4759,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>416</v>
       </c>
@@ -4746,7 +4782,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>607</v>
       </c>
@@ -4769,7 +4805,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>591</v>
       </c>
@@ -4792,7 +4828,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>592</v>
       </c>
@@ -4815,7 +4851,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>593</v>
       </c>
@@ -4826,7 +4862,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>478</v>
       </c>
@@ -4840,133 +4876,133 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F48" s="70" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="70" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="70" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="70" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="70" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="70" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="70" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="70" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="70" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="70" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="70" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="70" t="s">
         <v>502</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4981,42 +5017,42 @@
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" customWidth="1"/>
-    <col min="10" max="10" width="5.7265625" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="14" width="5.453125" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" customWidth="1"/>
-    <col min="16" max="18" width="5.453125" customWidth="1"/>
+    <col min="13" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="18" width="5.42578125" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.26953125" customWidth="1"/>
-    <col min="21" max="22" width="5.453125" customWidth="1"/>
-    <col min="23" max="23" width="4.26953125" customWidth="1"/>
-    <col min="24" max="24" width="4.54296875" customWidth="1"/>
-    <col min="25" max="26" width="3.81640625" customWidth="1"/>
-    <col min="27" max="29" width="5.453125" customWidth="1"/>
-    <col min="30" max="30" width="8.54296875" customWidth="1"/>
-    <col min="31" max="31" width="8.453125" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" customWidth="1"/>
+    <col min="21" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
+    <col min="25" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="29" width="5.42578125" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="33" max="33" width="8.26953125" customWidth="1"/>
-    <col min="34" max="34" width="8.453125" customWidth="1"/>
-    <col min="35" max="36" width="8.26953125" customWidth="1"/>
-    <col min="37" max="37" width="9.1796875" customWidth="1"/>
-    <col min="40" max="40" width="8.81640625" customWidth="1"/>
-    <col min="41" max="41" width="7.81640625" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" customWidth="1"/>
+    <col min="34" max="34" width="8.42578125" customWidth="1"/>
+    <col min="35" max="36" width="8.28515625" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" customWidth="1"/>
+    <col min="40" max="40" width="8.85546875" customWidth="1"/>
+    <col min="41" max="41" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -5144,7 +5180,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
@@ -5255,7 +5291,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>88</v>
       </c>
@@ -5369,7 +5405,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>89</v>
       </c>
@@ -5477,7 +5513,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -5594,7 +5630,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>622</v>
       </c>
@@ -5716,7 +5752,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5832,7 +5868,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5930,7 +5966,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>623</v>
       </c>
@@ -6013,7 +6049,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>594</v>
       </c>
@@ -6096,10 +6132,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>305</v>
       </c>
@@ -6125,7 +6161,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>87</v>
       </c>
@@ -6212,7 +6248,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>88</v>
       </c>
@@ -6299,7 +6335,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>89</v>
       </c>
@@ -6386,7 +6422,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
@@ -6470,7 +6506,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>306</v>
       </c>
@@ -6558,7 +6594,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>307</v>
       </c>
@@ -6646,7 +6682,7 @@
         <v>291.3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>308</v>
       </c>
@@ -6734,7 +6770,7 @@
         <v>128.881</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>309</v>
       </c>
@@ -6805,7 +6841,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AD21" t="s">
         <v>5</v>
       </c>
@@ -6896,12 +6932,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -6912,7 +6948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6923,7 +6959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -6934,7 +6970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6945,7 +6981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6953,7 +6989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6961,7 +6997,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>361</v>
       </c>
@@ -6969,22 +7005,22 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -7002,12 +7038,12 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -7051,7 +7087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7101,7 +7137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -7151,7 +7187,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7201,7 +7237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7248,7 +7284,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -7295,7 +7331,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7342,12 +7378,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -7397,7 +7433,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -7445,7 +7481,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -7493,7 +7529,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -7541,7 +7577,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7589,7 +7625,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -7630,7 +7666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -7689,18 +7725,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="30.26953125" customWidth="1"/>
-    <col min="4" max="4" width="30.453125" customWidth="1"/>
-    <col min="5" max="5" width="35.26953125" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="7" max="7" width="34.54296875" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7726,7 +7762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7755,7 +7791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -7784,7 +7820,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7813,7 +7849,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7842,7 +7878,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7871,7 +7907,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>325</v>
       </c>
@@ -7914,17 +7950,17 @@
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" customWidth="1"/>
-    <col min="3" max="3" width="47.7265625" customWidth="1"/>
-    <col min="4" max="4" width="46.1796875" customWidth="1"/>
-    <col min="5" max="5" width="46.54296875" customWidth="1"/>
-    <col min="6" max="6" width="50.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>197</v>
       </c>
@@ -7945,7 +7981,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>176</v>
       </c>
@@ -7966,7 +8002,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -7977,7 +8013,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
@@ -7998,7 +8034,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -8019,7 +8055,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>168</v>
       </c>
@@ -8040,7 +8076,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>166</v>
       </c>
@@ -8061,7 +8097,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>165</v>
       </c>
@@ -8082,7 +8118,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -8093,7 +8129,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>167</v>
       </c>
@@ -8116,7 +8152,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>164</v>
       </c>
@@ -8139,7 +8175,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>163</v>
       </c>
@@ -8162,7 +8198,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>573</v>
       </c>
@@ -8183,7 +8219,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>572</v>
       </c>
@@ -8204,7 +8240,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>15</v>
       </c>
@@ -8215,7 +8251,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>551</v>
       </c>
@@ -8238,7 +8274,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>537</v>
       </c>
@@ -8261,7 +8297,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>538</v>
       </c>
@@ -8284,7 +8320,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>539</v>
       </c>
@@ -8307,7 +8343,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>540</v>
       </c>
@@ -8330,7 +8366,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>21</v>
       </c>
@@ -8353,7 +8389,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>555</v>
       </c>
@@ -8376,7 +8412,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>541</v>
       </c>
@@ -8399,7 +8435,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>542</v>
       </c>
@@ -8422,7 +8458,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>25</v>
       </c>
@@ -8445,7 +8481,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>26</v>
       </c>
@@ -8460,7 +8496,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>554</v>
       </c>
@@ -8483,7 +8519,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>543</v>
       </c>
@@ -8506,7 +8542,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>544</v>
       </c>
@@ -8529,7 +8565,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>545</v>
       </c>
@@ -8552,7 +8588,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>31</v>
       </c>
@@ -8575,7 +8611,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>553</v>
       </c>
@@ -8598,7 +8634,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
         <v>536</v>
       </c>
@@ -8621,7 +8657,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
         <v>546</v>
       </c>
@@ -8644,7 +8680,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>35</v>
       </c>
@@ -8667,7 +8703,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>36</v>
       </c>
@@ -8682,7 +8718,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>552</v>
       </c>
@@ -8705,7 +8741,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>547</v>
       </c>
@@ -8728,7 +8764,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>548</v>
       </c>
@@ -8751,7 +8787,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>549</v>
       </c>
@@ -8774,7 +8810,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>550</v>
       </c>
@@ -8797,7 +8833,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>42</v>
       </c>
@@ -8818,7 +8854,7 @@
       </c>
       <c r="G42" s="75"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>43</v>
       </c>
@@ -8836,7 +8872,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>44</v>
       </c>
@@ -8852,7 +8888,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>45</v>
       </c>
@@ -8868,7 +8904,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8880,7 +8916,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8892,7 +8928,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8906,13 +8942,13 @@
         <v>655</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" s="77" t="s">
         <v>480</v>
       </c>
       <c r="G49" s="77"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="77" t="s">
         <v>481</v>
       </c>
@@ -8923,7 +8959,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="77" t="s">
         <v>482</v>
       </c>
@@ -8934,7 +8970,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" s="77" t="s">
         <v>483</v>
       </c>
@@ -8945,7 +8981,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" s="77" t="s">
         <v>484</v>
       </c>
@@ -8956,7 +8992,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="77"/>
       <c r="F54" s="8" t="s">
         <v>489</v>
@@ -8965,7 +9001,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="77" t="s">
         <v>485</v>
       </c>
@@ -8976,12 +9012,12 @@
         <v>661</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E56" s="77" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E57" s="77" t="s">
         <v>487</v>
       </c>
@@ -8992,7 +9028,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E58" s="77" t="s">
         <v>488</v>
       </c>
@@ -9003,7 +9039,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E59" s="77" t="s">
         <v>489</v>
       </c>
@@ -9014,7 +9050,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E60" s="77" t="s">
         <v>490</v>
       </c>
@@ -9025,7 +9061,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>495</v>
       </c>
@@ -9033,7 +9069,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>496</v>
       </c>
@@ -9041,7 +9077,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>497</v>
       </c>
@@ -9049,7 +9085,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>498</v>
       </c>
@@ -9057,7 +9093,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>671</v>
       </c>
@@ -9065,7 +9101,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>691</v>
       </c>
@@ -9073,7 +9109,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>501</v>
       </c>
@@ -9081,7 +9117,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>502</v>
       </c>
@@ -9103,32 +9139,32 @@
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" customWidth="1"/>
-    <col min="17" max="17" width="6.7265625" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" customWidth="1"/>
-    <col min="19" max="19" width="8.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.1796875" customWidth="1"/>
-    <col min="21" max="21" width="9.54296875" customWidth="1"/>
-    <col min="22" max="22" width="8.453125" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="13.1796875" customWidth="1"/>
-    <col min="27" max="27" width="8.26953125" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>197</v>
       </c>
@@ -9210,7 +9246,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
@@ -9309,7 +9345,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
@@ -9408,7 +9444,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>87</v>
       </c>
@@ -9507,7 +9543,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>203</v>
       </c>
@@ -9606,7 +9642,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>204</v>
       </c>
@@ -9700,7 +9736,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>206</v>
       </c>
@@ -9794,7 +9830,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -9829,7 +9865,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
@@ -9877,7 +9913,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>5</v>
       </c>
@@ -9919,7 +9955,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="26"/>
       <c r="D11" s="26"/>
@@ -9935,7 +9971,7 @@
       <c r="V11" s="32"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -9986,7 +10022,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>212</v>
       </c>
@@ -10039,7 +10075,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -10092,7 +10128,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -10145,7 +10181,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -10198,7 +10234,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -10251,7 +10287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>217</v>
       </c>
@@ -10304,7 +10340,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -10357,7 +10393,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>252</v>
       </c>
@@ -10375,7 +10411,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>254</v>
       </c>
@@ -10394,7 +10430,7 @@
       <c r="V21" s="32"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>255</v>
       </c>
@@ -10415,7 +10451,7 @@
       <c r="V22" s="32"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>219</v>
       </c>
@@ -10463,7 +10499,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>220</v>
       </c>
@@ -10511,7 +10547,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>221</v>
       </c>
@@ -10559,7 +10595,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>222</v>
       </c>
@@ -10607,7 +10643,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>223</v>
       </c>
@@ -10655,7 +10691,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>224</v>
       </c>
@@ -10703,7 +10739,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>225</v>
       </c>
@@ -10751,7 +10787,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>226</v>
       </c>
@@ -10799,7 +10835,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>227</v>
       </c>
@@ -10847,7 +10883,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>228</v>
       </c>
@@ -10895,7 +10931,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>229</v>
       </c>
@@ -10943,7 +10979,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>230</v>
       </c>
@@ -10991,7 +11027,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>231</v>
       </c>
@@ -11039,7 +11075,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>232</v>
       </c>
@@ -11087,7 +11123,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>233</v>
       </c>
@@ -11135,7 +11171,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>234</v>
       </c>
@@ -11183,7 +11219,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>235</v>
       </c>
@@ -11231,7 +11267,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>236</v>
       </c>
@@ -11293,15 +11329,15 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="33" max="33" width="11.453125" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -11400,7 +11436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -11511,7 +11547,7 @@
         <v>10.333402166480258</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -11620,7 +11656,7 @@
         <v>25.143552870628557</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -11729,7 +11765,7 @@
         <v>4.1054218110057965</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -11830,7 +11866,7 @@
         <v>3.9671629464069529</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -11934,7 +11970,7 @@
         <v>19.299485959819044</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -12037,7 +12073,7 @@
         <v>322.14084632849483</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -12096,7 +12132,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -12155,7 +12191,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -12167,7 +12203,7 @@
       </c>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -12180,7 +12216,7 @@
       </c>
       <c r="AB11" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -12245,7 +12281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -12259,7 +12295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>65</v>
       </c>
@@ -12267,7 +12303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>73</v>
       </c>

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="695">
   <si>
     <t>France</t>
   </si>
@@ -2113,6 +2113,12 @@
   </si>
   <si>
     <t>average carbon footprint</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -2440,10 +2446,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3185,27 +3191,27 @@
       <c r="A15" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="78">
         <f>10^6*B11/B13</f>
         <v>8.4465860768714887</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="78">
         <f t="shared" ref="C15:G15" si="2">10^6*C11/C13</f>
         <v>12.021624837967261</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="78">
         <f t="shared" si="2"/>
         <v>7.4416029830848416</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="78">
         <f t="shared" si="2"/>
         <v>13.286862227086862</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="78">
         <f t="shared" si="2"/>
         <v>10.683297432592855</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="78">
         <f t="shared" si="2"/>
         <v>22.419189442591861</v>
       </c>
@@ -4241,8 +4247,8 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4280,11 +4286,11 @@
       <c r="A2" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" t="s">
         <v>336</v>
       </c>
@@ -4316,12 +4322,12 @@
       <c r="A4" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" t="s">
         <v>342</v>
       </c>
@@ -4447,12 +4453,12 @@
       <c r="A11" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="79" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" t="s">
         <v>353</v>
       </c>
@@ -4521,24 +4527,24 @@
       <c r="A15" t="s">
         <v>368</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="79" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="79" t="s">
         <v>420</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
       <c r="F16" t="s">
         <v>371</v>
       </c>
@@ -4587,12 +4593,12 @@
       <c r="A19" t="s">
         <v>440</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="79" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" t="s">
         <v>381</v>
       </c>
@@ -4641,12 +4647,12 @@
       <c r="A22" t="s">
         <v>387</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="79" t="s">
         <v>388</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
       <c r="F22" t="s">
         <v>389</v>
       </c>
@@ -4675,12 +4681,12 @@
       <c r="A24" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="79" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
       <c r="F24" t="s">
         <v>392</v>
       </c>
@@ -4709,12 +4715,12 @@
       <c r="A26" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="79" t="s">
         <v>395</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
       <c r="F26" t="s">
         <v>394</v>
       </c>
@@ -4866,12 +4872,12 @@
       <c r="A34" t="s">
         <v>478</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="79" t="s">
         <v>632</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
       <c r="F34" t="s">
         <v>479</v>
       </c>
@@ -5014,7 +5020,8 @@
   <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5037,7 +5044,7 @@
     <col min="19" max="19" width="5" customWidth="1"/>
     <col min="20" max="20" width="5.28515625" customWidth="1"/>
     <col min="21" max="22" width="5.42578125" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="4" customWidth="1"/>
     <col min="24" max="24" width="4.5703125" customWidth="1"/>
     <col min="25" max="26" width="3.85546875" customWidth="1"/>
     <col min="27" max="29" width="5.42578125" customWidth="1"/>
@@ -5933,10 +5940,22 @@
       <c r="V8" s="2">
         <v>80</v>
       </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="W8" s="2">
+        <f>W10*$D$8/$D$10</f>
+        <v>252</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" ref="X8:Z8" si="7">X10*$D$8/$D$10</f>
+        <v>248</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="7"/>
+        <v>249.5</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="7"/>
+        <v>251</v>
+      </c>
       <c r="AA8" s="2">
         <v>83</v>
       </c>
@@ -5955,12 +5974,10 @@
         <v>208</v>
       </c>
       <c r="AF8">
-        <f>AG21*$D$8/1000</f>
+        <v>383</v>
+      </c>
+      <c r="AG8">
         <v>239</v>
-      </c>
-      <c r="AG8">
-        <f>AH21*$D$8/1000</f>
-        <v>383</v>
       </c>
       <c r="AO8" t="s">
         <v>304</v>
@@ -5981,72 +5998,104 @@
         <v>1522.5</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:V10" si="7">F$8*$D9/$D$8</f>
+        <f t="shared" ref="F9:V10" si="8">F$8*$D9/$D$8</f>
         <v>1477.5</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>354</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>740.1</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>636.9</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>166.75530000000001</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>831.76740000000007</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1010.5773</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1509</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2197.1999999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>802.80000000000007</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1803</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>555</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>402</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>240</v>
+      </c>
+      <c r="W9" s="2">
+        <f>W10*$D$9/$D$10</f>
+        <v>756</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" ref="X9:Y9" si="9">X10*$D$9/$D$10</f>
+        <v>744</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="9"/>
+        <v>748.5</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>Z10*$D$9/$D$10</f>
+        <v>753</v>
+      </c>
+      <c r="AD9">
+        <f>$D9*AD8/1000</f>
+        <v>513</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" ref="AE9:AG9" si="10">$D$9*AE8/1000</f>
+        <v>624</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="10"/>
+        <v>1149</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="10"/>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -6064,76 +6113,119 @@
         <v>1015</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>985</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>236</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>486</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>493.4</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>424.6</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>111.17020000000001</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>554.51160000000004</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>673.71820000000002</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1006</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1464.8</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>535.20000000000005</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1202</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>370</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>268</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160</v>
+      </c>
+      <c r="W10">
+        <v>504</v>
+      </c>
+      <c r="X10">
+        <v>496</v>
+      </c>
+      <c r="Y10">
+        <v>499</v>
+      </c>
+      <c r="Z10">
+        <v>502</v>
+      </c>
+      <c r="AD10">
+        <f>$D10*AD8/1000</f>
+        <v>342</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" ref="AE10:AG10" si="11">$D10*AE8/1000</f>
+        <v>416</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="11"/>
+        <v>766</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="11"/>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
+      <c r="U11" t="s">
+        <v>693</v>
+      </c>
+      <c r="W11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -6170,63 +6262,63 @@
         <v>1.0119848709215202</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:O13" si="8">F2/F$6</f>
+        <f t="shared" ref="F13:O13" si="12">F2/F$6</f>
         <v>0.98753148783749312</v>
       </c>
       <c r="G13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.2413974232394813</v>
       </c>
       <c r="H13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0014187157483727</v>
       </c>
       <c r="I13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.98655488494251475</v>
       </c>
       <c r="J13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.92572846168911704</v>
       </c>
       <c r="K13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.99494249260458834</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:N13" si="9">L2/L$6</f>
+        <f t="shared" ref="L13:N13" si="13">L2/L$6</f>
         <v>0.84996137797150018</v>
       </c>
       <c r="M13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.2271758902649492</v>
       </c>
       <c r="N13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.89125384326976742</v>
       </c>
       <c r="O13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.92282062161875456</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:R13" si="10">P2/P$6</f>
+        <f t="shared" ref="P13:R13" si="14">P2/P$6</f>
         <v>1.0921362830783501</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.59670555162705141</v>
       </c>
       <c r="R13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.3688705275753126</v>
       </c>
       <c r="AA13">
-        <f t="shared" ref="AA13:AB16" si="11">AA2/AA$6</f>
+        <f t="shared" ref="AA13:AB16" si="15">AA2/AA$6</f>
         <v>0.8800656435813875</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.2706404874902422</v>
       </c>
       <c r="AD13" s="19" t="s">
@@ -6257,63 +6349,63 @@
         <v>1.0041400269608882</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:O14" si="12">F3/F$6</f>
+        <f t="shared" ref="F14:O14" si="16">F3/F$6</f>
         <v>0.99569290509234842</v>
       </c>
       <c r="G14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.87932317479463262</v>
       </c>
       <c r="H14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.0014187157483727</v>
       </c>
       <c r="I14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.91256326857182624</v>
       </c>
       <c r="J14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.0800165386373033</v>
       </c>
       <c r="K14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.0466795022200268</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:N14" si="13">L3/L$6</f>
+        <f t="shared" ref="L14:N14" si="17">L3/L$6</f>
         <v>0.72644639121009857</v>
       </c>
       <c r="M14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.254691129151037</v>
       </c>
       <c r="N14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.0013090098982358</v>
       </c>
       <c r="O14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.0017906014638802</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:R14" si="14">P3/P$6</f>
+        <f t="shared" ref="P14:R14" si="18">P3/P$6</f>
         <v>0.85961694539070133</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.242623932254272</v>
       </c>
       <c r="R14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.92328510657572405</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.72679578430597735</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.2552945878828721</v>
       </c>
       <c r="AD14" s="19" t="s">
@@ -6344,63 +6436,63 @@
         <v>0.99237276101994043</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:O15" si="15">F4/F$6</f>
+        <f t="shared" ref="F15:O15" si="19">F4/F$6</f>
         <v>1.0079350309746313</v>
       </c>
       <c r="G15">
+        <f t="shared" si="19"/>
+        <v>0.81725330363265858</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="19"/>
+        <v>0.82783947168532146</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="19"/>
+        <v>1.1715339258692363</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="19"/>
+        <v>1.026015711705438</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="19"/>
+        <v>0.97902341272291493</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:N15" si="20">L4/L$6</f>
+        <v>1.8469265095167229</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="20"/>
+        <v>0.73363776048448059</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="20"/>
+        <v>0.95258007698410341</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="19"/>
+        <v>0.92056433648032243</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:R15" si="21">P4/P$6</f>
+        <v>1.2095702920115059</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="21"/>
+        <v>0.68897960600236874</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="21"/>
+        <v>1.0477278818098434</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="15"/>
-        <v>0.81725330363265858</v>
-      </c>
-      <c r="H15">
+        <v>1.784852232207196</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="15"/>
-        <v>0.82783947168532146</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="15"/>
-        <v>1.1715339258692363</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="15"/>
-        <v>1.026015711705438</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="15"/>
-        <v>0.97902341272291493</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ref="L15:N15" si="16">L4/L$6</f>
-        <v>1.8469265095167229</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="16"/>
-        <v>0.73363776048448059</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="16"/>
-        <v>0.95258007698410341</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="15"/>
-        <v>0.92056433648032243</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ref="P15:R15" si="17">P4/P$6</f>
-        <v>1.2095702920115059</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="17"/>
-        <v>0.68897960600236874</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="17"/>
-        <v>1.0477278818098434</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="11"/>
-        <v>1.784852232207196</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="11"/>
         <v>0.7089805618604974</v>
       </c>
       <c r="AD15" s="19" t="s">
@@ -6431,63 +6523,63 @@
         <v>0.98845033903962443</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:O16" si="18">F5/F$6</f>
+        <f t="shared" ref="F16:O16" si="22">F5/F$6</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.0551878097535592</v>
       </c>
       <c r="H16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.1215889616381773</v>
       </c>
       <c r="I16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.0029974663582233</v>
       </c>
       <c r="J16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.94887167323134503</v>
       </c>
       <c r="K16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.95912456287082315</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:N16" si="19">L5/L$6</f>
+        <f t="shared" ref="L16:N16" si="23">L5/L$6</f>
         <v>0.91267388413643857</v>
       </c>
       <c r="M16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.61918697630115527</v>
       </c>
       <c r="N16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.1402528795149804</v>
       </c>
       <c r="O16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.1303988543545136</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16:R16" si="20">P5/P$6</f>
+        <f t="shared" ref="P16:R16" si="24">P5/P$6</f>
         <v>0.94182075164391044</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.3010641666919731</v>
       </c>
       <c r="R16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.70651382068403235</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.90478658862580852</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.61383598429480291</v>
       </c>
       <c r="AD16" t="s">
@@ -6500,10 +6592,10 @@
         <v>317</v>
       </c>
       <c r="AG16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH16" t="s">
         <v>318</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -6515,63 +6607,63 @@
         <v>0.98845033903962443</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:K17" si="21">MIN(F13:F16)</f>
+        <f t="shared" ref="F17:K17" si="25">MIN(F13:F16)</f>
         <v>0.98753148783749312</v>
       </c>
       <c r="G17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.81725330363265858</v>
       </c>
       <c r="H17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.82783947168532146</v>
       </c>
       <c r="I17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.91256326857182624</v>
       </c>
       <c r="J17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.92572846168911704</v>
       </c>
       <c r="K17" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.95912456287082315</v>
       </c>
       <c r="L17" s="61">
-        <f t="shared" ref="L17:N17" si="22">MIN(L13:L16)</f>
+        <f t="shared" ref="L17:N17" si="26">MIN(L13:L16)</f>
         <v>0.72644639121009857</v>
       </c>
       <c r="M17" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.61918697630115527</v>
       </c>
       <c r="N17" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.89125384326976742</v>
       </c>
       <c r="O17" s="61">
-        <f t="shared" ref="O17:P17" si="23">MIN(O13:O16)</f>
+        <f t="shared" ref="O17:P17" si="27">MIN(O13:O16)</f>
         <v>0.92056433648032243</v>
       </c>
       <c r="P17" s="61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.85961694539070133</v>
       </c>
       <c r="Q17" s="61">
-        <f t="shared" ref="Q17:R17" si="24">MIN(Q13:Q16)</f>
+        <f t="shared" ref="Q17:R17" si="28">MIN(Q13:Q16)</f>
         <v>0.59670555162705141</v>
       </c>
       <c r="R17" s="61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.70651382068403235</v>
       </c>
       <c r="AA17" s="61">
-        <f t="shared" ref="AA17:AB17" si="25">MIN(AA13:AA16)</f>
+        <f t="shared" ref="AA17:AB17" si="29">MIN(AA13:AA16)</f>
         <v>0.72679578430597735</v>
       </c>
       <c r="AB17" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.61383598429480291</v>
       </c>
       <c r="AC17" s="61"/>
@@ -6603,63 +6695,63 @@
         <v>1.0119848709215202</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:J18" si="26">MAX(F13:F16)</f>
+        <f t="shared" ref="F18:J18" si="30">MAX(F13:F16)</f>
         <v>1.012015739602059</v>
       </c>
       <c r="G18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1.2413974232394813</v>
       </c>
       <c r="H18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1.1215889616381773</v>
       </c>
       <c r="I18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1.1715339258692363</v>
       </c>
       <c r="J18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1.0800165386373033</v>
       </c>
       <c r="K18" s="61">
-        <f t="shared" ref="K18:O18" si="27">MAX(K13:K16)</f>
+        <f t="shared" ref="K18:O18" si="31">MAX(K13:K16)</f>
         <v>1.0466795022200268</v>
       </c>
       <c r="L18" s="61">
-        <f t="shared" ref="L18:N18" si="28">MAX(L13:L16)</f>
+        <f t="shared" ref="L18:N18" si="32">MAX(L13:L16)</f>
         <v>1.8469265095167229</v>
       </c>
       <c r="M18" s="61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.254691129151037</v>
       </c>
       <c r="N18" s="61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1.1402528795149804</v>
       </c>
       <c r="O18" s="61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1.1303988543545136</v>
       </c>
       <c r="P18" s="61">
-        <f t="shared" ref="P18:R18" si="29">MAX(P13:P16)</f>
+        <f t="shared" ref="P18:R18" si="33">MAX(P13:P16)</f>
         <v>1.2095702920115059</v>
       </c>
       <c r="Q18" s="61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.3010641666919731</v>
       </c>
       <c r="R18" s="61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1.3688705275753126</v>
       </c>
       <c r="AA18" s="61">
-        <f t="shared" ref="AA18:AB18" si="30">MAX(AA13:AA16)</f>
+        <f t="shared" ref="AA18:AB18" si="34">MAX(AA13:AA16)</f>
         <v>1.784852232207196</v>
       </c>
       <c r="AB18" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.2706404874902422</v>
       </c>
       <c r="AC18" s="61"/>
@@ -6691,63 +6783,63 @@
         <v>1.198487092152023E-2</v>
       </c>
       <c r="F19" s="63">
-        <f t="shared" ref="F19:K19" si="31">IF(F18&gt;=1/F17,F18-1,1-1/F17)</f>
+        <f t="shared" ref="F19:K19" si="35">IF(F18&gt;=1/F17,F18-1,1-1/F17)</f>
         <v>-1.2625938834426975E-2</v>
       </c>
       <c r="G19" s="63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.24139742323948132</v>
       </c>
       <c r="H19" s="63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.20796366228369489</v>
       </c>
       <c r="I19" s="63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.17153392586923633</v>
       </c>
       <c r="J19" s="63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-8.023037141513889E-2</v>
       </c>
       <c r="K19" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.6679502220026814E-2</v>
       </c>
       <c r="L19" s="64">
-        <f t="shared" ref="L19:N19" si="32">IF(L18&gt;=1/L17,L18-1,1-1/L17)</f>
+        <f t="shared" ref="L19:N19" si="36">IF(L18&gt;=1/L17,L18-1,1-1/L17)</f>
         <v>0.84692650951672288</v>
       </c>
       <c r="M19" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-0.61502104901125687</v>
       </c>
       <c r="N19" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.14025287951498044</v>
       </c>
       <c r="O19" s="64">
-        <f t="shared" ref="O19:P19" si="33">IF(O18&gt;=1/O17,O18-1,1-1/O17)</f>
+        <f t="shared" ref="O19:P19" si="37">IF(O18&gt;=1/O17,O18-1,1-1/O17)</f>
         <v>0.13039885435451359</v>
       </c>
       <c r="P19" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.2095702920115059</v>
       </c>
       <c r="Q19" s="64">
-        <f t="shared" ref="Q19:R19" si="34">IF(Q18&gt;=1/Q17,Q18-1,1-1/Q17)</f>
+        <f t="shared" ref="Q19:R19" si="38">IF(Q18&gt;=1/Q17,Q18-1,1-1/Q17)</f>
         <v>-0.67586843674116293</v>
       </c>
       <c r="R19" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-0.41540047869384966</v>
       </c>
       <c r="AA19" s="64">
-        <f t="shared" ref="AA19:AB19" si="35">IF(AA18&gt;=1/AA17,AA18-1,1-1/AA17)</f>
+        <f t="shared" ref="AA19:AB19" si="39">IF(AA18&gt;=1/AA17,AA18-1,1-1/AA17)</f>
         <v>0.78485223220719602</v>
       </c>
       <c r="AB19" s="64">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-0.62909967089797836</v>
       </c>
       <c r="AC19" s="64"/>
@@ -6852,11 +6944,12 @@
         <v>208</v>
       </c>
       <c r="AG21" s="2">
+        <v>383</v>
+      </c>
+      <c r="AH21" s="2">
         <v>239</v>
       </c>
-      <c r="AH21" s="2">
-        <v>383</v>
-      </c>
+      <c r="AI21" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AA19:AC19 E19:O19">

--- a/questionnaire/specificities.xlsx
+++ b/questionnaire/specificities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="11880" tabRatio="687"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="11880" tabRatio="687" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="3" r:id="rId1"/>
@@ -1458,9 +1458,6 @@
     <t>Interdiction des véhicules les plus polluants dans les centres-villes (ZFE)</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle geeigneten Dächer eine Solaranlage bekommen </t>
-  </si>
-  <si>
     <t>Interdiction de la vente de voitures thermiques neuves d'ici 2030</t>
   </si>
   <si>
@@ -2119,6 +2116,9 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>Alle geeigneten Dächer eine Solaranlage bekommen</t>
   </si>
 </sst>
 </file>
@@ -2733,17 +2733,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="58.453125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -2812,10 +2812,10 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="N2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2887,7 +2887,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>359</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>57</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>285.30725980380089</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>23.777393803164124</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -3187,9 +3187,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B15" s="78">
         <f>10^6*B11/B13</f>
@@ -3218,7 +3218,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3227,7 +3227,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>52</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>4.5731003235390304E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>432</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>6.5196117592019917E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>430</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>50</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>70</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>49</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>433</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>51</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>72</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>71</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>54</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>10</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>11</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>36</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>7</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>40</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>15</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>56</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>264.04020802872463</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>20</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>62.849025754340616</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>106</v>
       </c>
@@ -3795,445 +3795,445 @@
         <v>483.14453391565434</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="14"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="14"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="14"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="14"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="14"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
     </row>
   </sheetData>
@@ -4251,18 +4251,18 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.54296875" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="4" max="4" width="44.54296875" customWidth="1"/>
+    <col min="5" max="5" width="46.1796875" customWidth="1"/>
+    <col min="6" max="6" width="40.54296875" customWidth="1"/>
+    <col min="7" max="7" width="1.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>331</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>335</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>340</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>399</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>447</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>451</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>439</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>348</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>351</v>
       </c>
@@ -4463,15 +4463,15 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B12" s="66" t="s">
+        <v>573</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>574</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>575</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>358</v>
@@ -4483,27 +4483,27 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>355</v>
       </c>
       <c r="B13" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="D13" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="E13" t="s">
         <v>578</v>
-      </c>
-      <c r="E13" t="s">
-        <v>579</v>
       </c>
       <c r="F13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>419</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>368</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="E15" s="79"/>
       <c r="F15" s="79"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>370</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>400</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>440</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>412</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>385</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>421</v>
       </c>
       <c r="C21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D21" t="s">
         <v>423</v>
@@ -4643,7 +4643,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>387</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>390</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>391</v>
       </c>
@@ -4691,18 +4691,18 @@
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>396</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="C25" t="s">
         <v>585</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>586</v>
-      </c>
-      <c r="D25" t="s">
-        <v>587</v>
       </c>
       <c r="E25" t="s">
         <v>398</v>
@@ -4711,7 +4711,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>393</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>411</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>441</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>416</v>
       </c>
@@ -4785,230 +4785,230 @@
         <v>415</v>
       </c>
       <c r="H29" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>606</v>
+      </c>
+      <c r="B30" t="s">
+        <v>600</v>
+      </c>
+      <c r="C30" t="s">
+        <v>601</v>
+      </c>
+      <c r="D30" t="s">
+        <v>602</v>
+      </c>
+      <c r="E30" t="s">
+        <v>603</v>
+      </c>
+      <c r="F30" t="s">
+        <v>605</v>
+      </c>
+      <c r="H30" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>590</v>
+      </c>
+      <c r="B31" t="s">
+        <v>607</v>
+      </c>
+      <c r="C31" t="s">
+        <v>608</v>
+      </c>
+      <c r="D31" t="s">
+        <v>609</v>
+      </c>
+      <c r="E31" t="s">
+        <v>610</v>
+      </c>
+      <c r="F31" t="s">
+        <v>611</v>
+      </c>
+      <c r="H31" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>591</v>
+      </c>
+      <c r="B32" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>607</v>
-      </c>
-      <c r="B30" t="s">
-        <v>601</v>
-      </c>
-      <c r="C30" t="s">
-        <v>602</v>
-      </c>
-      <c r="D30" t="s">
-        <v>603</v>
-      </c>
-      <c r="E30" t="s">
-        <v>604</v>
-      </c>
-      <c r="F30" t="s">
-        <v>606</v>
-      </c>
-      <c r="H30" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>591</v>
-      </c>
-      <c r="B31" t="s">
-        <v>608</v>
-      </c>
-      <c r="C31" t="s">
-        <v>609</v>
-      </c>
-      <c r="D31" t="s">
-        <v>610</v>
-      </c>
-      <c r="E31" t="s">
-        <v>611</v>
-      </c>
-      <c r="F31" t="s">
-        <v>612</v>
-      </c>
-      <c r="H31" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>595</v>
+      </c>
+      <c r="D32" t="s">
+        <v>596</v>
+      </c>
+      <c r="E32" t="s">
+        <v>597</v>
+      </c>
+      <c r="F32" t="s">
+        <v>599</v>
+      </c>
+      <c r="H32" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>592</v>
       </c>
-      <c r="B32" t="s">
-        <v>595</v>
-      </c>
-      <c r="C32" t="s">
-        <v>596</v>
-      </c>
-      <c r="D32" t="s">
-        <v>597</v>
-      </c>
-      <c r="E32" t="s">
-        <v>598</v>
-      </c>
-      <c r="F32" t="s">
-        <v>600</v>
-      </c>
-      <c r="H32" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>593</v>
-      </c>
       <c r="F33" t="s">
+        <v>629</v>
+      </c>
+      <c r="H33" t="s">
         <v>630</v>
       </c>
-      <c r="H33" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>477</v>
+      </c>
+      <c r="B34" s="79" t="s">
         <v>631</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>478</v>
-      </c>
-      <c r="B34" s="79" t="s">
-        <v>632</v>
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="79"/>
       <c r="E34" s="79"/>
       <c r="F34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F48" s="70" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="70" t="s">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="70" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="70" t="s">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50" s="70" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="70" t="s">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F51" s="70" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="70" t="s">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="70" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="70" t="s">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="70" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="70" t="s">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="70" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55" s="70" t="s">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F56" s="70" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="70" t="s">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F57" s="70" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="70" t="s">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F58" s="70" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="70" t="s">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F59" s="70" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="70" t="s">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="70" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="70" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5024,42 +5024,42 @@
       <selection pane="bottomLeft" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="18" width="5.42578125" customWidth="1"/>
+    <col min="13" max="14" width="5.453125" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" customWidth="1"/>
+    <col min="16" max="18" width="5.453125" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" customWidth="1"/>
-    <col min="21" max="22" width="5.42578125" customWidth="1"/>
+    <col min="20" max="20" width="5.26953125" customWidth="1"/>
+    <col min="21" max="22" width="5.453125" customWidth="1"/>
     <col min="23" max="23" width="4" customWidth="1"/>
-    <col min="24" max="24" width="4.5703125" customWidth="1"/>
-    <col min="25" max="26" width="3.85546875" customWidth="1"/>
-    <col min="27" max="29" width="5.42578125" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" customWidth="1"/>
+    <col min="24" max="24" width="4.54296875" customWidth="1"/>
+    <col min="25" max="26" width="3.81640625" customWidth="1"/>
+    <col min="27" max="29" width="5.453125" customWidth="1"/>
+    <col min="30" max="30" width="8.54296875" customWidth="1"/>
+    <col min="31" max="31" width="8.453125" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" customWidth="1"/>
-    <col min="34" max="34" width="8.42578125" customWidth="1"/>
-    <col min="35" max="36" width="8.28515625" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" customWidth="1"/>
-    <col min="40" max="40" width="8.85546875" customWidth="1"/>
-    <col min="41" max="41" width="7.85546875" customWidth="1"/>
+    <col min="33" max="33" width="8.26953125" customWidth="1"/>
+    <col min="34" max="34" width="8.453125" customWidth="1"/>
+    <col min="35" max="36" width="8.26953125" customWidth="1"/>
+    <col min="37" max="37" width="9.1796875" customWidth="1"/>
+    <col min="40" max="40" width="8.81640625" customWidth="1"/>
+    <col min="41" max="41" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -5094,13 +5094,13 @@
         <v>267</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>330</v>
@@ -5124,7 +5124,7 @@
         <v>303</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>87</v>
@@ -5139,13 +5139,13 @@
         <v>3</v>
       </c>
       <c r="AA1" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="AD1" s="14" t="s">
         <v>310</v>
@@ -5187,7 +5187,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>88</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>89</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -5634,12 +5634,12 @@
         <v>321</v>
       </c>
       <c r="AQ5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B6" s="2">
         <f>SUM(B2:B5)</f>
@@ -5750,16 +5750,16 @@
         <v>174.71415138692993</v>
       </c>
       <c r="AL6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM6" t="s">
         <v>504</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>505</v>
       </c>
-      <c r="AN6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5983,9 +5983,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B9" s="2">
         <v>257</v>
@@ -6098,9 +6098,9 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B10" s="2">
         <v>257</v>
@@ -6209,10 +6209,10 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="U11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="W11" t="s">
         <v>78</v>
@@ -6224,10 +6224,10 @@
         <v>84</v>
       </c>
       <c r="Z11" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>305</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>87</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>88</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>89</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>306</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>307</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>291.3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>308</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>128.881</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>309</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="AD21" t="s">
         <v>5</v>
       </c>
@@ -7025,12 +7025,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>361</v>
       </c>
@@ -7098,22 +7098,22 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -7131,12 +7131,12 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7471,12 +7471,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>76</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -7818,18 +7818,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="34.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -7904,16 +7904,16 @@
         <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7985,10 +7985,10 @@
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G6" t="s">
         <v>116</v>
@@ -8000,7 +8000,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>325</v>
       </c>
@@ -8011,13 +8011,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="65" t="s">
+        <v>626</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>627</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="F9" t="s">
         <v>628</v>
-      </c>
-      <c r="F9" t="s">
-        <v>629</v>
       </c>
       <c r="G9" s="65" t="s">
         <v>327</v>
@@ -8039,21 +8039,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" customWidth="1"/>
+    <col min="4" max="4" width="46.1796875" customWidth="1"/>
+    <col min="5" max="5" width="46.54296875" customWidth="1"/>
+    <col min="6" max="6" width="50.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>197</v>
       </c>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>176</v>
       </c>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -8106,7 +8106,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>174</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>181</v>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>168</v>
       </c>
@@ -8162,19 +8162,19 @@
         <v>179</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>142</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>177</v>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>165</v>
       </c>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>167</v>
       </c>
@@ -8236,16 +8236,16 @@
         <v>192</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>144</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>164</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>172</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>191</v>
@@ -8265,10 +8265,10 @@
         <v>145</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>163</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>190</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>185</v>
@@ -8288,12 +8288,12 @@
         <v>147</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>173</v>
@@ -8312,9 +8312,9 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>161</v>
@@ -8329,11 +8329,11 @@
         <v>161</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>15</v>
       </c>
@@ -8344,38 +8344,38 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B17" s="75" t="s">
         <v>467</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D17" s="75" t="s">
         <v>192</v>
@@ -8387,35 +8387,35 @@
         <v>149</v>
       </c>
       <c r="G17" s="73" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>466</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>465</v>
@@ -8424,42 +8424,42 @@
         <v>468</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F19" s="75" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D20" s="75" t="s">
         <v>185</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F20" s="75" t="s">
         <v>151</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>21</v>
       </c>
@@ -8482,32 +8482,32 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>469</v>
@@ -8516,7 +8516,7 @@
         <v>470</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>143</v>
@@ -8525,12 +8525,12 @@
         <v>152</v>
       </c>
       <c r="G23" s="73" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>471</v>
@@ -8539,19 +8539,19 @@
         <v>472</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>153</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>25</v>
       </c>
@@ -8571,10 +8571,10 @@
         <v>154</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>26</v>
       </c>
@@ -8589,87 +8589,87 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>473</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>474</v>
+        <v>694</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F28" s="71" t="s">
         <v>145</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B29" s="75" t="s">
         <v>172</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F29" s="75" t="s">
         <v>146</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>155</v>
@@ -8678,10 +8678,10 @@
         <v>155</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>31</v>
       </c>
@@ -8704,41 +8704,41 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>148</v>
@@ -8747,12 +8747,12 @@
         <v>148</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="76" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B34" s="73" t="s">
         <v>170</v>
@@ -8761,7 +8761,7 @@
         <v>178</v>
       </c>
       <c r="D34" s="73" t="s">
-        <v>